--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1187.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1187.xlsx
@@ -8491,14 +8491,8 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="inlineStr">
-        <is>
-          <t>K0, д.е.</t>
-        </is>
-      </c>
-      <c r="C47" s="144" t="n">
-        <v>0.8781306565948526</v>
-      </c>
+      <c r="B47" s="144" t="n"/>
+      <c r="C47" s="144" t="n"/>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8555,14 +8549,8 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="inlineStr">
-        <is>
-          <t>q_zg, МПа</t>
-        </is>
-      </c>
-      <c r="C48" s="144" t="n">
-        <v>0.04390653282974263</v>
-      </c>
+      <c r="B48" s="144" t="n"/>
+      <c r="C48" s="144" t="n"/>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8712,20 +8700,12 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="inlineStr">
-        <is>
-          <t>Точки модуля (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F50" s="144" t="n"/>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n">
-        <v>0.04390653282974263</v>
-      </c>
-      <c r="K50" s="144" t="n">
-        <v>0.07025045252758821</v>
-      </c>
+      <c r="J50" s="144" t="n"/>
+      <c r="K50" s="144" t="n"/>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8802,17 +8782,11 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="inlineStr">
-        <is>
-          <t>qf (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F51" s="144" t="n"/>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n">
-        <v>0.0618547638640305</v>
-      </c>
+      <c r="J51" s="144" t="n"/>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9258,10 +9232,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.0118547638640305</v>
+        <v>0.01033001815510755</v>
       </c>
       <c r="B65" t="n">
-        <v>0.008974146053888238</v>
+        <v>0.007819902001129711</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9292,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>-7.486848274132485e-05</v>
+        <v>0.002122638350651664</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007360982637880718</v>
+        <v>0.0007727738391737593</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.001654913035016484</v>
+        <v>0.005999999999999978</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007348353306122517</v>
+        <v>0.0009663926499032842</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.00486055769708954</v>
+        <v>0.01049833511702669</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007722389747382122</v>
+        <v>0.0007677479824932809</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.008977813773985321</v>
+        <v>0.002122638350651664</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.000757332936852298</v>
+        <v>0.0007727738391737593</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9332,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.003732504228734342</v>
+        <v>0.003867496255115246</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001472196527576144</v>
+        <v>0.001545547678347519</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.002999999999999996</v>
+        <v>0.00860338297916502</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001362613636363634</v>
+        <v>0.001537845390508124</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01099999999999998</v>
+        <v>0.01984820086094924</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001830128205128202</v>
+        <v>0.001535495964986562</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.01759543251253137</v>
+        <v>0.003867496255115246</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001514665873704596</v>
+        <v>0.001545547678347519</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9374,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.004304359328643995</v>
+        <v>0.005602968806379297</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002208294791364215</v>
+        <v>0.002318321517521277</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.004293913175610127</v>
+        <v>0.01183378812682565</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002204505991836755</v>
+        <v>0.002306768085762185</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01255316210103585</v>
+        <v>0.02721529501315806</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002316716924214637</v>
+        <v>0.002303243947479842</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.02400000000000002</v>
+        <v>0.005602968806379297</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002294928229665073</v>
+        <v>0.002318321517521277</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9421,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.006585979924461388</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.002991382017962746</v>
+        <v>0.003179431818181817</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.005327336706812798</v>
+        <v>0.01471415626162889</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.002939341322449007</v>
+        <v>0.003075690781016247</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.01520868438637496</v>
+        <v>0.03100000000000003</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003088955898952849</v>
+        <v>0.00296428229665072</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.02782297953463475</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003029331747409192</v>
+        <v>0.003179431818181817</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9458,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.002991382017962746</v>
+        <v>0.003179431818181817</v>
       </c>
       <c r="B70" t="n">
-        <v>0.006585979924461388</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.005438685446913963</v>
+        <v>0.007612071622953652</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003680491318940359</v>
+        <v>0.003863869195868796</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.006277087119484236</v>
+        <v>0.0173876059618184</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003674176653061259</v>
+        <v>0.003844613476270309</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.01774245425071563</v>
+        <v>0.03378896782306745</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003861194873691061</v>
+        <v>0.003838739912466405</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.03056939888522425</v>
+        <v>0.007612071622953652</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003786664684261491</v>
+        <v>0.003863869195868796</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.007235753744549274</v>
+        <v>0.00819981279358787</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004416589582728431</v>
+        <v>0.004636643035042555</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.007048661893182588</v>
+        <v>0.01989725580563775</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004409011983673511</v>
+        <v>0.004613536171524371</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.01948706235903788</v>
+        <v>0.03537529577132242</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004633433848429273</v>
+        <v>0.004606487894959685</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.03375748878872559</v>
+        <v>0.00819981279358787</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004543997621113788</v>
+        <v>0.004636643035042555</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9528,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.008936393637723306</v>
+        <v>0.008982370746228568</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005152687846516502</v>
+        <v>0.005409416874216315</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.007747558507466001</v>
+        <v>0.02178622437133063</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005143847314285762</v>
+        <v>0.005382458866778432</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.02167509937632181</v>
+        <v>0.03637254024199504</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005405672823167486</v>
+        <v>0.005374235877452966</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.03563704915932775</v>
+        <v>0.008982370746228568</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005301330557966086</v>
+        <v>0.005409416874216315</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9574,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.007562168400299635</v>
+        <v>0.00927855872601583</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.005888786110304575</v>
+        <v>0.006182190713390074</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.008579274441892604</v>
+        <v>0.02420828814715215</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.005878682644898014</v>
+        <v>0.006498531036707976</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.02293915596754734</v>
+        <v>0.0380865581391967</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006177911797905698</v>
+        <v>0.006069855378084897</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.0380865581391967</v>
+        <v>0.00927855872601583</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006069855378084897</v>
+        <v>0.006182190713390074</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9611,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.008134641306141853</v>
+        <v>0.009907189978089724</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006624884374092646</v>
+        <v>0.006954964552563833</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.009149307176020562</v>
+        <v>0.02465728526190802</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.006613517975510266</v>
+        <v>0.006920304257286556</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.02420828814715215</v>
+        <v>0.03931156055945212</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006712768323632417</v>
+        <v>0.006909731842439528</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.03929714611328128</v>
+        <v>0.009907189978089724</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006815996431670683</v>
+        <v>0.006954964552563833</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9655,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.009675375629113553</v>
+        <v>0.01033001815510755</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007360982637880717</v>
+        <v>0.007819902001129711</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.009863154189407988</v>
+        <v>0.02564200242620118</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007348353306122518</v>
+        <v>0.007689226952540617</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.02555202342210841</v>
+        <v>0.03991845274866412</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007722389747382122</v>
+        <v>0.00767747982493281</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.04163138820474277</v>
+        <v>0.01033001815510755</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007573329368522981</v>
+        <v>0.007819902001129711</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9697,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.009205934643078319</v>
+        <v>0.01064486324976432</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.00809708090166879</v>
+        <v>0.008500512230911353</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01033001815510755</v>
+        <v>0.02660586484499744</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.007819902001129711</v>
+        <v>0.008458149647794679</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.02687434684252607</v>
+        <v>0.04152029652882339</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008494628722120335</v>
+        <v>0.008445227807426091</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.04315471647272406</v>
+        <v>0.01064486324976432</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008330662305375278</v>
+        <v>0.008500512230911353</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9734,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.0118547638640305</v>
+        <v>0.01080032995535953</v>
       </c>
       <c r="G77" t="n">
-        <v>0.008974146053888238</v>
+        <v>0.00927328607008511</v>
       </c>
       <c r="J77" t="n">
-        <v>0.0110870840474613</v>
+        <v>0.02744886754320711</v>
       </c>
       <c r="K77" t="n">
-        <v>0.008818023967347021</v>
+        <v>0.009227072343048742</v>
       </c>
       <c r="L77" t="n">
-        <v>0.02838231304836866</v>
+        <v>0.04291619692575449</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009266867696858546</v>
+        <v>0.009212975789919369</v>
       </c>
       <c r="N77" t="n">
-        <v>0.04556122938016882</v>
+        <v>0.01080032995535953</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009087995242227576</v>
+        <v>0.00927328607008511</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9774,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01031689271536063</v>
+        <v>0.01125341151579108</v>
       </c>
       <c r="G78" t="n">
-        <v>0.009569277429244934</v>
+        <v>0.01004605990925887</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01164455556324672</v>
+        <v>0.02837100554574057</v>
       </c>
       <c r="K78" t="n">
-        <v>0.009552859297959272</v>
+        <v>0.009995995038302802</v>
       </c>
       <c r="L78" t="n">
-        <v>0.02977188125813948</v>
+        <v>0.04410525896528161</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01003910667159676</v>
+        <v>0.009980723772412652</v>
       </c>
       <c r="N78" t="n">
-        <v>0.04754502539002131</v>
+        <v>0.01125341151579108</v>
       </c>
       <c r="O78" t="n">
-        <v>0.009845328179079875</v>
+        <v>0.01004605990925887</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9816,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01090858332078735</v>
+        <v>0.01160385283918391</v>
       </c>
       <c r="G79" t="n">
-        <v>0.010305375693033</v>
+        <v>0.01081883374843263</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01209978343975513</v>
+        <v>0.02907227387750824</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01028769462857152</v>
+        <v>0.01076491773355686</v>
       </c>
       <c r="L79" t="n">
-        <v>0.03093901069034172</v>
+        <v>0.04508658767322926</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01081134564633497</v>
+        <v>0.01074847175490593</v>
       </c>
       <c r="N79" t="n">
-        <v>0.04880020296522541</v>
+        <v>0.01160385283918391</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01060266111593217</v>
+        <v>0.01081883374843263</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9847,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01251838222469488</v>
+        <v>0.011851398833663</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01104147395682108</v>
+        <v>0.01159160758760639</v>
       </c>
       <c r="J80" t="n">
-        <v>0.01265068310557467</v>
+        <v>0.03025266756342052</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01102252995918378</v>
+        <v>0.01153384042881093</v>
       </c>
       <c r="L80" t="n">
-        <v>0.03227966056347858</v>
+        <v>0.0465592880754217</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01158358462107318</v>
+        <v>0.01151621973739921</v>
       </c>
       <c r="N80" t="n">
-        <v>0.05112086056872511</v>
+        <v>0.011851398833663</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01135999405278447</v>
+        <v>0.01159160758760639</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9884,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01214188982062126</v>
+        <v>0.01219579440735329</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01177757222060915</v>
+        <v>0.01236438142678015</v>
       </c>
       <c r="J81" t="n">
-        <v>0.01319516998929345</v>
+        <v>0.03101218162838776</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01175736528979603</v>
+        <v>0.01230276312406499</v>
       </c>
       <c r="L81" t="n">
-        <v>0.03318979009605325</v>
+        <v>0.04732246519768357</v>
       </c>
       <c r="M81" t="n">
-        <v>0.0123558235958114</v>
+        <v>0.01228396771989249</v>
       </c>
       <c r="N81" t="n">
-        <v>0.05250109666346442</v>
+        <v>0.01219579440735329</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01211732698963677</v>
+        <v>0.01236438142678015</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9918,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01277470650210458</v>
+        <v>0.01263678446837974</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01251367048439722</v>
+        <v>0.01313715526595391</v>
       </c>
       <c r="J82" t="n">
-        <v>0.01363115951949963</v>
+        <v>0.03175081109732042</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01249220062040828</v>
+        <v>0.01307168581931905</v>
       </c>
       <c r="L82" t="n">
-        <v>0.03456535850656897</v>
+        <v>0.04847522406583898</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01312806257054961</v>
+        <v>0.01305171570238577</v>
       </c>
       <c r="N82" t="n">
-        <v>0.05423500971238743</v>
+        <v>0.01263678446837974</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01287465992648907</v>
+        <v>0.01313715526595391</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9949,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01341243266268293</v>
+        <v>0.01297411392486729</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01324976874818529</v>
+        <v>0.01390992910512767</v>
       </c>
       <c r="J83" t="n">
-        <v>0.01425656712478135</v>
+        <v>0.03246855099512877</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01322703595102053</v>
+        <v>0.01384060851457311</v>
       </c>
       <c r="L83" t="n">
-        <v>0.03590232501352897</v>
+        <v>0.04981666970571258</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01390030154528782</v>
+        <v>0.01381946368487906</v>
       </c>
       <c r="N83" t="n">
-        <v>0.05641669817843803</v>
+        <v>0.01297411392486729</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01363199286334137</v>
+        <v>0.01390992910512767</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +9985,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.01605066869589437</v>
+        <v>0.01340752768494091</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01398586701197336</v>
+        <v>0.01468270294430143</v>
       </c>
       <c r="J84" t="n">
-        <v>0.01486930823372676</v>
+        <v>0.03336539634672334</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01396187128163278</v>
+        <v>0.01460953120982717</v>
       </c>
       <c r="L84" t="n">
-        <v>0.03669664883543647</v>
+        <v>0.05054590714312851</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01467254052002603</v>
+        <v>0.01458721166737234</v>
       </c>
       <c r="N84" t="n">
-        <v>0.0574402605245603</v>
+        <v>0.01340752768494091</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01438932580019366</v>
+        <v>0.01468270294430143</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10025,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01568501499527698</v>
+        <v>0.01373677065672553</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01472196527576143</v>
+        <v>0.01545547678347519</v>
       </c>
       <c r="J85" t="n">
-        <v>0.01516729827492394</v>
+        <v>0.0343413421770144</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01469670661224504</v>
+        <v>0.01537845390508123</v>
       </c>
       <c r="L85" t="n">
-        <v>0.03804428919079461</v>
+        <v>0.05176204140391139</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01544477949476424</v>
+        <v>0.01535495964986562</v>
       </c>
       <c r="N85" t="n">
-        <v>0.05899979521369814</v>
+        <v>0.01373677065672553</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01514665873704596</v>
+        <v>0.01545547678347519</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10067,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.01731107195436882</v>
+        <v>0.01396158774834615</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01545806353954951</v>
+        <v>0.01622825062264894</v>
       </c>
       <c r="J86" t="n">
-        <v>0.01564845267696111</v>
+        <v>0.03489638351091234</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01543154194285729</v>
+        <v>0.0161473766003353</v>
       </c>
       <c r="L86" t="n">
-        <v>0.03894120529810671</v>
+        <v>0.0533641775138855</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01621701846950245</v>
+        <v>0.0161227076323589</v>
       </c>
       <c r="N86" t="n">
-        <v>0.06118940070879564</v>
+        <v>0.01396158774834615</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01590399167389826</v>
+        <v>0.01622825062264894</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10098,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.015924439966708</v>
+        <v>0.01438172386792769</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01619416180333758</v>
+        <v>0.01700102446182271</v>
       </c>
       <c r="J87" t="n">
-        <v>0.01621068686842633</v>
+        <v>0.03593051537332767</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01616637727346954</v>
+        <v>0.01691629929558936</v>
       </c>
       <c r="L87" t="n">
-        <v>0.03988335637587592</v>
+        <v>0.05405142049887524</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01698925744424067</v>
+        <v>0.01689045561485218</v>
       </c>
       <c r="N87" t="n">
-        <v>0.06220317547279669</v>
+        <v>0.01438172386792769</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01666132461075056</v>
+        <v>0.01700102446182271</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10133,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.01652071942583257</v>
+        <v>0.0146969239235951</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01693026006712565</v>
+        <v>0.01777379830099646</v>
       </c>
       <c r="J88" t="n">
-        <v>0.01655191627790779</v>
+        <v>0.03624373278917062</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01690121260408179</v>
+        <v>0.01768522199084342</v>
       </c>
       <c r="L88" t="n">
-        <v>0.04046670164260543</v>
+        <v>0.05502287538470507</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01776149641897888</v>
+        <v>0.01765820359734546</v>
       </c>
       <c r="N88" t="n">
-        <v>0.06393521796864554</v>
+        <v>0.0146969239235951</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01741865754760286</v>
+        <v>0.01777379830099646</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4578 +10167,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.01709551072528061</v>
+        <v>0.01490693282347336</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01766635833091372</v>
+        <v>0.01854657214017022</v>
       </c>
       <c r="J89" t="n">
-        <v>0.01707005633399361</v>
+        <v>0.03733603078335174</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01763604793469404</v>
+        <v>0.01845414468609748</v>
       </c>
       <c r="L89" t="n">
-        <v>0.04148720031679848</v>
+        <v>0.05597764719719933</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01853373539371709</v>
+        <v>0.01842595157983874</v>
       </c>
       <c r="N89" t="n">
-        <v>0.06477962665928588</v>
+        <v>0.01490693282347336</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01817599048445515</v>
+        <v>0.01854657214017022</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.01864441425859019</v>
+        <v>0.01511149547568741</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01840245659470179</v>
+        <v>0.01931934597934398</v>
       </c>
       <c r="J90" t="n">
-        <v>0.01736302246527194</v>
+        <v>0.03800740438078126</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01837088326530629</v>
+        <v>0.01922306738135154</v>
       </c>
       <c r="L90" t="n">
-        <v>0.04234081161695835</v>
+        <v>0.05761484096218239</v>
       </c>
       <c r="M90" t="n">
-        <v>0.0193059743684553</v>
+        <v>0.01919369956233202</v>
       </c>
       <c r="N90" t="n">
-        <v>0.06593050000766193</v>
+        <v>0.01511149547568741</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01893332342130745</v>
+        <v>0.01931934597934398</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02016303041929941</v>
+        <v>0.01551035678836218</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01913855485848987</v>
+        <v>0.02009211981851774</v>
       </c>
       <c r="J91" t="n">
-        <v>0.0179287301003309</v>
+        <v>0.03855784860636965</v>
       </c>
       <c r="K91" t="n">
-        <v>0.01910571859591854</v>
+        <v>0.0199919900766056</v>
       </c>
       <c r="L91" t="n">
-        <v>0.04272349476158813</v>
+        <v>0.05823356170547872</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02007821334319352</v>
+        <v>0.0199614475448253</v>
       </c>
       <c r="N91" t="n">
-        <v>0.06738193647671764</v>
+        <v>0.01551035678836218</v>
       </c>
       <c r="O91" t="n">
-        <v>0.01969065635815975</v>
+        <v>0.02009211981851774</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.01864695960094633</v>
+        <v>0.01580326166962268</v>
       </c>
       <c r="G92" t="n">
-        <v>0.01987465312227794</v>
+        <v>0.0208648936576915</v>
       </c>
       <c r="J92" t="n">
-        <v>0.01826509466775865</v>
+        <v>0.03888735848502731</v>
       </c>
       <c r="K92" t="n">
-        <v>0.0198405539265308</v>
+        <v>0.02076091277185967</v>
       </c>
       <c r="L92" t="n">
-        <v>0.04363120896919112</v>
+        <v>0.05923291445291268</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02085045231793173</v>
+        <v>0.02072919552731858</v>
       </c>
       <c r="N92" t="n">
-        <v>0.06812803452939697</v>
+        <v>0.01580326166962268</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02044798929501205</v>
+        <v>0.0208648936576915</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02109180219706899</v>
+        <v>0.01618995502759382</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02061075138606601</v>
+        <v>0.02163766749686526</v>
       </c>
       <c r="J93" t="n">
-        <v>0.01857003159614329</v>
+        <v>0.03959592904166459</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02057538925714305</v>
+        <v>0.02152983546711373</v>
       </c>
       <c r="L93" t="n">
-        <v>0.04395991345827047</v>
+        <v>0.06001200423030872</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02162269129266994</v>
+        <v>0.02149694350981186</v>
       </c>
       <c r="N93" t="n">
-        <v>0.06876289262864393</v>
+        <v>0.01618995502759382</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02120532223186434</v>
+        <v>0.02163766749686526</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02049315860120554</v>
+        <v>0.01647018177040056</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02134684964985408</v>
+        <v>0.02241044133603902</v>
       </c>
       <c r="J94" t="n">
-        <v>0.01874145631407299</v>
+        <v>0.04038355530119192</v>
       </c>
       <c r="K94" t="n">
-        <v>0.0213102245877553</v>
+        <v>0.02229875816236779</v>
       </c>
       <c r="L94" t="n">
-        <v>0.04470556744732945</v>
+        <v>0.06126993606349107</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02239493026740816</v>
+        <v>0.02226469149230515</v>
       </c>
       <c r="N94" t="n">
-        <v>0.06988060923740252</v>
+        <v>0.01647018177040056</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02196265516871664</v>
+        <v>0.02241044133603902</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.01984662920689402</v>
+        <v>0.01664368680616786</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02208294791364215</v>
+        <v>0.02318321517521278</v>
       </c>
       <c r="J95" t="n">
-        <v>0.0190772842501359</v>
+        <v>0.04095023228851966</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02204505991836755</v>
+        <v>0.02306768085762185</v>
       </c>
       <c r="L95" t="n">
-        <v>0.0449641301548713</v>
+        <v>0.06190581497828429</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02316716924214637</v>
+        <v>0.02303243947479843</v>
       </c>
       <c r="N95" t="n">
-        <v>0.0700752828186168</v>
+        <v>0.01664368680616786</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02271998810556894</v>
+        <v>0.02318321517521278</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02214781440767248</v>
+        <v>0.01681021504302069</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02281904617743023</v>
+        <v>0.02395598901438654</v>
       </c>
       <c r="J96" t="n">
-        <v>0.01907543083292013</v>
+        <v>0.04159595502855815</v>
       </c>
       <c r="K96" t="n">
-        <v>0.0227798952489798</v>
+        <v>0.02383660355287591</v>
       </c>
       <c r="L96" t="n">
-        <v>0.04493156079939911</v>
+        <v>0.06321874600051269</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02393940821688458</v>
+        <v>0.02380018745729171</v>
       </c>
       <c r="N96" t="n">
-        <v>0.07034101183523067</v>
+        <v>0.01681021504302069</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02347732104242124</v>
+        <v>0.02395598901438654</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02039231459707903</v>
+        <v>0.01726951138908399</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0235551444412183</v>
+        <v>0.0247287628535603</v>
       </c>
       <c r="J97" t="n">
-        <v>0.01943381149101382</v>
+        <v>0.04182071854621788</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02351473057959206</v>
+        <v>0.02460552624812998</v>
       </c>
       <c r="L97" t="n">
-        <v>0.04510381859941623</v>
+        <v>0.06380783415600072</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02471164719162279</v>
+        <v>0.02456793543978499</v>
       </c>
       <c r="N97" t="n">
-        <v>0.07077189475018825</v>
+        <v>0.01726951138908399</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02423465397927354</v>
+        <v>0.0247287628535603</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02157573016865173</v>
+        <v>0.01752132075248271</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02429124270500637</v>
+        <v>0.02550153669273406</v>
       </c>
       <c r="J98" t="n">
-        <v>0.01935034165300512</v>
+        <v>0.04232451786640914</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02424956591020431</v>
+        <v>0.02537444894338404</v>
       </c>
       <c r="L98" t="n">
-        <v>0.04537686277342581</v>
+        <v>0.06457218447057278</v>
       </c>
       <c r="M98" t="n">
-        <v>0.025483886166361</v>
+        <v>0.02533568342227827</v>
       </c>
       <c r="N98" t="n">
-        <v>0.07106203002643335</v>
+        <v>0.01752132075248271</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02499198691612584</v>
+        <v>0.02550153669273406</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02169366151592868</v>
+        <v>0.01756538804134181</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02502734096879444</v>
+        <v>0.02627431053190782</v>
       </c>
       <c r="J99" t="n">
-        <v>0.01952293674748215</v>
+        <v>0.04290734801404239</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02498440124081656</v>
+        <v>0.0261433716386381</v>
       </c>
       <c r="L99" t="n">
-        <v>0.04510071258191875</v>
+        <v>0.06581090197005318</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02625612514109922</v>
+        <v>0.02610343140477155</v>
       </c>
       <c r="N99" t="n">
-        <v>0.07140506689001419</v>
+        <v>0.01756538804134181</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02574931985297814</v>
+        <v>0.02627431053190782</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02174170903244793</v>
+        <v>0.01800145816378623</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02576343923258251</v>
+        <v>0.02704708437108157</v>
       </c>
       <c r="J100" t="n">
-        <v>0.01964951220303307</v>
+        <v>0.04316920401402796</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02571923657142881</v>
+        <v>0.02691229433389216</v>
       </c>
       <c r="L100" t="n">
-        <v>0.0449918862408839</v>
+        <v>0.06672309168026641</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02702836411583743</v>
+        <v>0.02687117938726483</v>
       </c>
       <c r="N100" t="n">
-        <v>0.07118624806098445</v>
+        <v>0.01800145816378623</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02650665278983043</v>
+        <v>0.02704708437108157</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02271943945282279</v>
+        <v>0.01822927602794094</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02649953749637058</v>
+        <v>0.02781985821025533</v>
       </c>
       <c r="J101" t="n">
-        <v>0.01963188629468708</v>
+        <v>0.04401008089127634</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02645407190204107</v>
+        <v>0.02768121702914622</v>
       </c>
       <c r="L101" t="n">
-        <v>0.04427955612759582</v>
+        <v>0.06710785862703678</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02780060309057564</v>
+        <v>0.02763892736975811</v>
       </c>
       <c r="N101" t="n">
-        <v>0.07101086302640786</v>
+        <v>0.01822927602794094</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02726398572668273</v>
+        <v>0.02781985821025533</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02163610807012548</v>
+        <v>0.0182485865419309</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02723563576015866</v>
+        <v>0.02859263204942909</v>
       </c>
       <c r="J102" t="n">
-        <v>0.01937633496910372</v>
+        <v>0.04412997367069782</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02718890723265332</v>
+        <v>0.02845013972440028</v>
       </c>
       <c r="L102" t="n">
-        <v>0.04389654074241781</v>
+        <v>0.06826430783618881</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02857284206531385</v>
+        <v>0.02840667535225139</v>
       </c>
       <c r="N102" t="n">
-        <v>0.06999265664885534</v>
+        <v>0.0182485865419309</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02802131866353503</v>
+        <v>0.02859263204942909</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02049908667175958</v>
+        <v>0.01845913461388105</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02797173402394673</v>
+        <v>0.02936540588860286</v>
       </c>
       <c r="J103" t="n">
-        <v>0.01948628795264809</v>
+        <v>0.0447288773772028</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02792374256326557</v>
+        <v>0.02921906241965435</v>
       </c>
       <c r="L103" t="n">
-        <v>0.04317565858571326</v>
+        <v>0.06899154433354676</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02934508104005206</v>
+        <v>0.02917442333474467</v>
       </c>
       <c r="N103" t="n">
-        <v>0.06994537379089782</v>
+        <v>0.01845913461388105</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02877865160038733</v>
+        <v>0.02936540588860286</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02131565897995785</v>
+        <v>0.01886066515191637</v>
       </c>
       <c r="G104" t="n">
-        <v>0.0287078322877348</v>
+        <v>0.03013817972777661</v>
       </c>
       <c r="J104" t="n">
-        <v>0.01936516255184408</v>
+        <v>0.04480678703570165</v>
       </c>
       <c r="K104" t="n">
-        <v>0.02865857789387782</v>
+        <v>0.02998798511490841</v>
       </c>
       <c r="L104" t="n">
-        <v>0.04184972815784557</v>
+        <v>0.0696886731449351</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03011732001479028</v>
+        <v>0.02994217131723796</v>
       </c>
       <c r="N104" t="n">
-        <v>0.06938275931510618</v>
+        <v>0.01886066515191637</v>
       </c>
       <c r="O104" t="n">
-        <v>0.02953598453723963</v>
+        <v>0.03013817972777661</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02209310871695301</v>
+        <v>0.01905292306416176</v>
       </c>
       <c r="G105" t="n">
-        <v>0.02944393055152287</v>
+        <v>0.03091095356695037</v>
       </c>
       <c r="J105" t="n">
-        <v>0.01911637607321563</v>
+        <v>0.04546369767110486</v>
       </c>
       <c r="K105" t="n">
-        <v>0.02939341322449007</v>
+        <v>0.03075690781016247</v>
       </c>
       <c r="L105" t="n">
-        <v>0.04105156795917814</v>
+        <v>0.07015479929617813</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03088955898952849</v>
+        <v>0.03070991929973124</v>
       </c>
       <c r="N105" t="n">
-        <v>0.06821855808405125</v>
+        <v>0.01905292306416176</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03029331747409193</v>
+        <v>0.03091095356695037</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.02183871960497781</v>
+        <v>0.01903565325874222</v>
       </c>
       <c r="G106" t="n">
-        <v>0.03018002881531094</v>
+        <v>0.03168372740612413</v>
       </c>
       <c r="J106" t="n">
-        <v>0.0189433458232867</v>
+        <v>0.04589960430832268</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03012824855510232</v>
+        <v>0.03152583050541653</v>
       </c>
       <c r="L106" t="n">
-        <v>0.04011399649007436</v>
+        <v>0.07108902781310045</v>
       </c>
       <c r="M106" t="n">
-        <v>0.0316617979642667</v>
+        <v>0.03147766728222452</v>
       </c>
       <c r="N106" t="n">
-        <v>0.06786651496030399</v>
+        <v>0.01903565325874222</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03105065041094422</v>
+        <v>0.03168372740612413</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.01955977536626496</v>
+        <v>0.01940860064378271</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03091612707909902</v>
+        <v>0.03245650124529788</v>
       </c>
       <c r="J107" t="n">
-        <v>0.01874948910858119</v>
+        <v>0.04611450197226563</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03086308388571458</v>
+        <v>0.03229475320067059</v>
       </c>
       <c r="L107" t="n">
-        <v>0.03916983225089751</v>
+        <v>0.07119046372152621</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03243403693900491</v>
+        <v>0.0322454152647178</v>
       </c>
       <c r="N107" t="n">
-        <v>0.06664037480643525</v>
+        <v>0.01940860064378271</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03180798334779652</v>
+        <v>0.03245650124529788</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.01926355972304722</v>
+        <v>0.01937151012740815</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03165222534288709</v>
+        <v>0.03322927508447165</v>
       </c>
       <c r="J108" t="n">
-        <v>0.01843822323562308</v>
+        <v>0.04620838568784399</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03159791921632683</v>
+        <v>0.03306367589592465</v>
       </c>
       <c r="L108" t="n">
-        <v>0.03815189374201108</v>
+        <v>0.07185821204727999</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03320627591374312</v>
+        <v>0.03301316324721108</v>
       </c>
       <c r="N108" t="n">
-        <v>0.06595388248501599</v>
+        <v>0.01937151012740815</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03256531628464882</v>
+        <v>0.03322927508447165</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.02095735639755733</v>
+        <v>0.01962412661774351</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03238832360667516</v>
+        <v>0.03400204892364541</v>
       </c>
       <c r="J109" t="n">
-        <v>0.0184129655109363</v>
+        <v>0.04668125047996821</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03233275454693908</v>
+        <v>0.03383259859117872</v>
       </c>
       <c r="L109" t="n">
-        <v>0.03679299946377843</v>
+        <v>0.07209137781618619</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03397851488848134</v>
+        <v>0.03378091122970436</v>
       </c>
       <c r="N109" t="n">
-        <v>0.064620782858617</v>
+        <v>0.01962412661774351</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03332264922150111</v>
+        <v>0.03400204892364541</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.01864844911202802</v>
+        <v>0.01966619502291377</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03312442187046323</v>
+        <v>0.03477482276281917</v>
       </c>
       <c r="J110" t="n">
-        <v>0.01807713324104473</v>
+        <v>0.04663309137354865</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03306758987755133</v>
+        <v>0.03460152128643278</v>
       </c>
       <c r="L110" t="n">
-        <v>0.0360259679165629</v>
+        <v>0.07308906605406901</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03475075386321955</v>
+        <v>0.03454865921219764</v>
       </c>
       <c r="N110" t="n">
-        <v>0.06315482078980927</v>
+        <v>0.01966619502291377</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03407998215835342</v>
+        <v>0.03477482276281917</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.01834412158869203</v>
+        <v>0.01979746025104383</v>
       </c>
       <c r="G111" t="n">
-        <v>0.0338605201342513</v>
+        <v>0.03554759660199293</v>
       </c>
       <c r="J111" t="n">
-        <v>0.01793414373247237</v>
+        <v>0.0470639033934957</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03380242520816359</v>
+        <v>0.03537044398168684</v>
       </c>
       <c r="L111" t="n">
-        <v>0.03538361760072792</v>
+        <v>0.07325038178675303</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03552299283795776</v>
+        <v>0.03531640719469092</v>
       </c>
       <c r="N111" t="n">
-        <v>0.06246974114116366</v>
+        <v>0.01979746025104383</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03483731509520571</v>
+        <v>0.03554759660199293</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.01805165754978209</v>
+        <v>0.02011766721025869</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03459661839803937</v>
+        <v>0.03632037044116668</v>
       </c>
       <c r="J112" t="n">
-        <v>0.01768741429174316</v>
+        <v>0.04747368156471976</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03453726053877584</v>
+        <v>0.0361393666769409</v>
       </c>
       <c r="L112" t="n">
-        <v>0.03479876701663678</v>
+        <v>0.07387443004006256</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03629523181269598</v>
+        <v>0.0360841551771842</v>
       </c>
       <c r="N112" t="n">
-        <v>0.06167928877525103</v>
+        <v>0.02011766721025869</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03559464803205801</v>
+        <v>0.03632037044116668</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.01977834071753096</v>
+        <v>0.02022656080868328</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03533271666182745</v>
+        <v>0.03709314428034044</v>
       </c>
       <c r="J113" t="n">
-        <v>0.017240362225381</v>
+        <v>0.04756242091213123</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03527209586938809</v>
+        <v>0.03690828937219497</v>
       </c>
       <c r="L113" t="n">
-        <v>0.03430423466465299</v>
+        <v>0.07436031583982206</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03706747078743419</v>
+        <v>0.03685190315967748</v>
       </c>
       <c r="N113" t="n">
-        <v>0.05999720855464236</v>
+        <v>0.02022656080868328</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03635198096891031</v>
+        <v>0.03709314428034044</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.01753145481417134</v>
+        <v>0.02012388595444256</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03606881492561551</v>
+        <v>0.0378659181195142</v>
       </c>
       <c r="J114" t="n">
-        <v>0.01719640483990983</v>
+        <v>0.04743011646064046</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03600693120000033</v>
+        <v>0.03767721206744903</v>
       </c>
       <c r="L114" t="n">
-        <v>0.03443283904513986</v>
+        <v>0.07440714421185579</v>
       </c>
       <c r="M114" t="n">
-        <v>0.0378397097621724</v>
+        <v>0.03761965114217077</v>
       </c>
       <c r="N114" t="n">
-        <v>0.05933724534190843</v>
+        <v>0.02012388595444256</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03710931390576261</v>
+        <v>0.0378659181195142</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.01831828356193602</v>
+        <v>0.0204093875556615</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03680491318940358</v>
+        <v>0.03863869195868797</v>
       </c>
       <c r="J115" t="n">
-        <v>0.01695895944185362</v>
+        <v>0.04777676323515789</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03674176653061258</v>
+        <v>0.03844613476270309</v>
       </c>
       <c r="L115" t="n">
-        <v>0.03435788739656154</v>
+        <v>0.07461402018198832</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03861194873691061</v>
+        <v>0.03838739912466405</v>
       </c>
       <c r="N115" t="n">
-        <v>0.05851314399962021</v>
+        <v>0.0204093875556615</v>
       </c>
       <c r="O115" t="n">
-        <v>0.0378666468426149</v>
+        <v>0.03863869195868797</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.01714611068305769</v>
+        <v>0.02038281052046503</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03754101145319166</v>
+        <v>0.03941146579786172</v>
       </c>
       <c r="J116" t="n">
-        <v>0.01663144333773627</v>
+        <v>0.04800235626059388</v>
       </c>
       <c r="K116" t="n">
-        <v>0.03747660186122484</v>
+        <v>0.03921505745795715</v>
       </c>
       <c r="L116" t="n">
-        <v>0.03447282683073016</v>
+        <v>0.07498004877604392</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03938418771164882</v>
+        <v>0.03915514710715733</v>
       </c>
       <c r="N116" t="n">
-        <v>0.05693864939034854</v>
+        <v>0.02038281052046503</v>
       </c>
       <c r="O116" t="n">
-        <v>0.0386239797794672</v>
+        <v>0.03941146579786172</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.01702221989976911</v>
+        <v>0.02044389975697812</v>
       </c>
       <c r="G117" t="n">
-        <v>0.03827710971697974</v>
+        <v>0.04018423963703548</v>
       </c>
       <c r="J117" t="n">
-        <v>0.01651727383408172</v>
+        <v>0.04820689056185878</v>
       </c>
       <c r="K117" t="n">
-        <v>0.03821143719183709</v>
+        <v>0.03998398015321121</v>
       </c>
       <c r="L117" t="n">
-        <v>0.03476859296414272</v>
+        <v>0.07520433501984708</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04015642668638703</v>
+        <v>0.03992289508965061</v>
       </c>
       <c r="N117" t="n">
-        <v>0.05642750637666438</v>
+        <v>0.02044389975697812</v>
       </c>
       <c r="O117" t="n">
-        <v>0.0393813127163195</v>
+        <v>0.04018423963703548</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.01895389493430302</v>
+        <v>0.02059240017332573</v>
       </c>
       <c r="G118" t="n">
-        <v>0.03901320798076781</v>
+        <v>0.04095701347620924</v>
       </c>
       <c r="J118" t="n">
-        <v>0.01621986823741393</v>
+        <v>0.04829036116386301</v>
       </c>
       <c r="K118" t="n">
-        <v>0.03894627252244934</v>
+        <v>0.04075290284846528</v>
       </c>
       <c r="L118" t="n">
-        <v>0.0348391107436492</v>
+        <v>0.07558598393922211</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04092866566112525</v>
+        <v>0.04069064307214389</v>
       </c>
       <c r="N118" t="n">
-        <v>0.05579345982113854</v>
+        <v>0.02059240017332573</v>
       </c>
       <c r="O118" t="n">
-        <v>0.0401386456531718</v>
+        <v>0.04095701347620924</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.01894471624956118</v>
+        <v>0.02042805667763278</v>
       </c>
       <c r="G119" t="n">
-        <v>0.03974930624455588</v>
+        <v>0.04172978731538299</v>
       </c>
       <c r="J119" t="n">
-        <v>0.01594264385425684</v>
+        <v>0.047952763091517</v>
       </c>
       <c r="K119" t="n">
-        <v>0.03968110785306159</v>
+        <v>0.04152182554371933</v>
       </c>
       <c r="L119" t="n">
-        <v>0.03497830511609934</v>
+        <v>0.07542410055999349</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04170090463586346</v>
+        <v>0.04145839105463717</v>
       </c>
       <c r="N119" t="n">
-        <v>0.05505025458634205</v>
+        <v>0.02042805667763278</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04089597859002409</v>
+        <v>0.04172978731538299</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.01796689997007134</v>
+        <v>0.0206600363102151</v>
       </c>
       <c r="G120" t="n">
-        <v>0.04048540450834395</v>
+        <v>0.04250256115455676</v>
       </c>
       <c r="J120" t="n">
-        <v>0.01598901799113436</v>
+        <v>0.04841657629430426</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04041594318367385</v>
+        <v>0.0422907482389734</v>
       </c>
       <c r="L120" t="n">
-        <v>0.03578010102834317</v>
+        <v>0.0761731162783934</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04247314361060167</v>
+        <v>0.04222613903713045</v>
       </c>
       <c r="N120" t="n">
-        <v>0.0537116355348457</v>
+        <v>0.0206600363102151</v>
       </c>
       <c r="O120" t="n">
-        <v>0.0416533115268764</v>
+        <v>0.04250256115455676</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.01901206070006402</v>
+        <v>0.02065981758262514</v>
       </c>
       <c r="G121" t="n">
-        <v>0.04122150277213202</v>
+        <v>0.04327533499373052</v>
       </c>
       <c r="J121" t="n">
-        <v>0.01566240795457044</v>
+        <v>0.04801434102341562</v>
       </c>
       <c r="K121" t="n">
-        <v>0.0411507785142861</v>
+        <v>0.04305967093422745</v>
       </c>
       <c r="L121" t="n">
-        <v>0.0358384234272304</v>
+        <v>0.07566615700902268</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04324538258533989</v>
+        <v>0.04299388701962373</v>
       </c>
       <c r="N121" t="n">
-        <v>0.05389134752922031</v>
+        <v>0.02065981758262514</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04241064446372868</v>
+        <v>0.04327533499373052</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.01907876356481444</v>
+        <v>0.02045893260856044</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04195760103592009</v>
+        <v>0.04404810883290428</v>
       </c>
       <c r="J122" t="n">
-        <v>0.01576623105108903</v>
+        <v>0.04811375110140095</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04188561384489835</v>
+        <v>0.04382859362948152</v>
       </c>
       <c r="L122" t="n">
-        <v>0.03674719725961098</v>
+        <v>0.07616404255307396</v>
       </c>
       <c r="M122" t="n">
-        <v>0.0440176215600781</v>
+        <v>0.04376163500211701</v>
       </c>
       <c r="N122" t="n">
-        <v>0.05340313543203695</v>
+        <v>0.02045893260856044</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04316797740058099</v>
+        <v>0.04404810883290428</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.01816557368959783</v>
+        <v>0.02055462160099683</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04269369929970816</v>
+        <v>0.04482088267207804</v>
       </c>
       <c r="J123" t="n">
-        <v>0.01570390458721405</v>
+        <v>0.0480937829762251</v>
       </c>
       <c r="K123" t="n">
-        <v>0.0426204491755106</v>
+        <v>0.04459751632473558</v>
       </c>
       <c r="L123" t="n">
-        <v>0.03690034747233475</v>
+        <v>0.07608151730450619</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04478986053481631</v>
+        <v>0.0445293829846103</v>
       </c>
       <c r="N123" t="n">
-        <v>0.05316074410586641</v>
+        <v>0.02055462160099683</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04392531033743328</v>
+        <v>0.04482088267207804</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.0172710561996894</v>
+        <v>0.02054707909799462</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04342979756349623</v>
+        <v>0.04559365651125179</v>
       </c>
       <c r="J124" t="n">
-        <v>0.01557884586946942</v>
+        <v>0.04815512603486688</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04335528450612286</v>
+        <v>0.04536643901998964</v>
       </c>
       <c r="L124" t="n">
-        <v>0.03749179901225161</v>
+        <v>0.0757169417664732</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04556209950955453</v>
+        <v>0.04529713096710358</v>
       </c>
       <c r="N124" t="n">
-        <v>0.05317792282871064</v>
+        <v>0.02054707909799462</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04468264327428559</v>
+        <v>0.04559365651125179</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.01739377622036434</v>
+        <v>0.02053633359003069</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04416589582728431</v>
+        <v>0.04636643035042556</v>
       </c>
       <c r="J125" t="n">
-        <v>0.01549602888182995</v>
+        <v>0.04809831085585425</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04409011983673511</v>
+        <v>0.0461353617152437</v>
       </c>
       <c r="L125" t="n">
-        <v>0.03831547682621139</v>
+        <v>0.07547517325817193</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04633433848429273</v>
+        <v>0.04606487894959686</v>
       </c>
       <c r="N125" t="n">
-        <v>0.05291864327798168</v>
+        <v>0.02053633359003069</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04543997621113788</v>
+        <v>0.04636643035042556</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.01753229887689789</v>
+        <v>0.0204224135675819</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04490199409107238</v>
+        <v>0.04713920418959931</v>
       </c>
       <c r="J126" t="n">
-        <v>0.01575719993733957</v>
+        <v>0.04822386801771522</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04482495516734736</v>
+        <v>0.04690428441049777</v>
       </c>
       <c r="L126" t="n">
-        <v>0.038765305861064</v>
+        <v>0.07506106909879939</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04710657745903095</v>
+        <v>0.04683262693209014</v>
       </c>
       <c r="N126" t="n">
-        <v>0.05331844582907946</v>
+        <v>0.0204224135675819</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04619730914799018</v>
+        <v>0.04713920418959931</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.01968518929456527</v>
+        <v>0.02050534752112511</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04563809235486045</v>
+        <v>0.04791197802877308</v>
       </c>
       <c r="J127" t="n">
-        <v>0.01565865433428848</v>
+        <v>0.04813232809897769</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04555979049795961</v>
+        <v>0.04767320710575183</v>
       </c>
       <c r="L127" t="n">
-        <v>0.03963521106365928</v>
+        <v>0.07457948660755254</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04787881643376916</v>
+        <v>0.04760037491458342</v>
       </c>
       <c r="N127" t="n">
-        <v>0.05405138979420371</v>
+        <v>0.02050534752112511</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04695464208484248</v>
+        <v>0.04791197802877308</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.01885101259864168</v>
+        <v>0.02038516394113715</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04637419061864852</v>
+        <v>0.04868475186794683</v>
       </c>
       <c r="J128" t="n">
-        <v>0.01579663312211435</v>
+        <v>0.04772422167816973</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04629462582857186</v>
+        <v>0.04844212980100589</v>
       </c>
       <c r="L128" t="n">
-        <v>0.0402191173808471</v>
+        <v>0.07443528310362846</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04865105540850737</v>
+        <v>0.0483681228970767</v>
       </c>
       <c r="N128" t="n">
-        <v>0.05519153448555392</v>
+        <v>0.02038516394113715</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04771197502169477</v>
+        <v>0.04868475186794683</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.01802833391440234</v>
+        <v>0.02046189131809492</v>
       </c>
       <c r="G129" t="n">
-        <v>0.0471102888824366</v>
+        <v>0.04945752570712059</v>
       </c>
       <c r="J129" t="n">
-        <v>0.01596737735025469</v>
+        <v>0.04760007933381918</v>
       </c>
       <c r="K129" t="n">
-        <v>0.04702946115918411</v>
+        <v>0.04921105249625995</v>
       </c>
       <c r="L129" t="n">
-        <v>0.04091094975947734</v>
+        <v>0.07343331590622398</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04942329438324558</v>
+        <v>0.04913587087956998</v>
       </c>
       <c r="N129" t="n">
-        <v>0.05561293921532967</v>
+        <v>0.02046189131809492</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04846930795854707</v>
+        <v>0.04945752570712059</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.01921571836712248</v>
+        <v>0.02053555814247525</v>
       </c>
       <c r="G130" t="n">
-        <v>0.04784638714622467</v>
+        <v>0.05023029954629435</v>
       </c>
       <c r="J130" t="n">
-        <v>0.01616712806814713</v>
+        <v>0.04736043164445408</v>
       </c>
       <c r="K130" t="n">
-        <v>0.04776429648979636</v>
+        <v>0.04997997519151402</v>
       </c>
       <c r="L130" t="n">
-        <v>0.04160463314639984</v>
+        <v>0.07307844233453614</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05019553335798379</v>
+        <v>0.04990361886206326</v>
       </c>
       <c r="N130" t="n">
-        <v>0.05738966329573048</v>
+        <v>0.02053555814247525</v>
       </c>
       <c r="O130" t="n">
-        <v>0.04922664089539937</v>
+        <v>0.05023029954629435</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.02041173108207731</v>
+        <v>0.02030619290475502</v>
       </c>
       <c r="G131" t="n">
-        <v>0.04858248541001273</v>
+        <v>0.05100307338546811</v>
       </c>
       <c r="J131" t="n">
-        <v>0.01639212632522921</v>
+        <v>0.04740580918860243</v>
       </c>
       <c r="K131" t="n">
-        <v>0.04849913182040862</v>
+        <v>0.05074889788676808</v>
       </c>
       <c r="L131" t="n">
-        <v>0.0424940924884645</v>
+        <v>0.07267551970776198</v>
       </c>
       <c r="M131" t="n">
-        <v>0.050967772332722</v>
+        <v>0.05067136684455654</v>
       </c>
       <c r="N131" t="n">
-        <v>0.05799576603895595</v>
+        <v>0.02030619290475502</v>
       </c>
       <c r="O131" t="n">
-        <v>0.04998397383225167</v>
+        <v>0.05100307338546811</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.01961493718454203</v>
+        <v>0.02047382409541108</v>
       </c>
       <c r="G132" t="n">
-        <v>0.04931858367380081</v>
+        <v>0.05177584722464187</v>
       </c>
       <c r="J132" t="n">
-        <v>0.01663861317093854</v>
+        <v>0.04723674254479213</v>
       </c>
       <c r="K132" t="n">
-        <v>0.04923396715102087</v>
+        <v>0.05151782058202214</v>
       </c>
       <c r="L132" t="n">
-        <v>0.04287325273252116</v>
+        <v>0.07202940534509833</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05174001130746022</v>
+        <v>0.05143911482704983</v>
       </c>
       <c r="N132" t="n">
-        <v>0.0601053067572056</v>
+        <v>0.02047382409541108</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05074130676910397</v>
+        <v>0.05177584722464187</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.01982390179979185</v>
+        <v>0.02023848020492029</v>
       </c>
       <c r="G133" t="n">
-        <v>0.05005468193758888</v>
+        <v>0.05254862106381563</v>
       </c>
       <c r="J133" t="n">
-        <v>0.01690282965471271</v>
+        <v>0.04685376229155119</v>
       </c>
       <c r="K133" t="n">
-        <v>0.04996880248163312</v>
+        <v>0.0522867432772762</v>
       </c>
       <c r="L133" t="n">
-        <v>0.04383603882541975</v>
+        <v>0.07084495656574225</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05251225028219843</v>
+        <v>0.0522068628095431</v>
       </c>
       <c r="N133" t="n">
-        <v>0.06149234476267906</v>
+        <v>0.02023848020492029</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05149863970595627</v>
+        <v>0.05254862106381563</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.02103719005310203</v>
+        <v>0.0202001897237595</v>
       </c>
       <c r="G134" t="n">
-        <v>0.05079078020137696</v>
+        <v>0.05332139490298939</v>
       </c>
       <c r="J134" t="n">
-        <v>0.01738101682598926</v>
+        <v>0.0470573990074076</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05070363781224537</v>
+        <v>0.05305566597253026</v>
       </c>
       <c r="L134" t="n">
-        <v>0.04437637571401004</v>
+        <v>0.07012703068889076</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05328448925693664</v>
+        <v>0.05297461079203638</v>
       </c>
       <c r="N134" t="n">
-        <v>0.06293093936757588</v>
+        <v>0.0202001897237595</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05225597264280856</v>
+        <v>0.05332139490298939</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.02025336706974776</v>
+        <v>0.0203589811424056</v>
       </c>
       <c r="G135" t="n">
-        <v>0.05152687846516503</v>
+        <v>0.05409416874216315</v>
       </c>
       <c r="J135" t="n">
-        <v>0.0176694157342058</v>
+        <v>0.04654818327088928</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05143847314285763</v>
+        <v>0.05382458866778432</v>
       </c>
       <c r="L135" t="n">
-        <v>0.04478818834514198</v>
+        <v>0.06958048503374076</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05405672823167486</v>
+        <v>0.05374235877452967</v>
       </c>
       <c r="N135" t="n">
-        <v>0.0643951498840955</v>
+        <v>0.0203589811424056</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05301330557966086</v>
+        <v>0.05409416874216315</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.02147099797500425</v>
+        <v>0.02011488295133541</v>
       </c>
       <c r="G136" t="n">
-        <v>0.0522629767289531</v>
+        <v>0.05486694258133691</v>
       </c>
       <c r="J136" t="n">
-        <v>0.01776426742879988</v>
+        <v>0.04642664566052418</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05217330847346988</v>
+        <v>0.05459351136303839</v>
       </c>
       <c r="L136" t="n">
-        <v>0.04576540166566542</v>
+        <v>0.06871017691948927</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05482896720641307</v>
+        <v>0.05451010675702294</v>
       </c>
       <c r="N136" t="n">
-        <v>0.06575903562443769</v>
+        <v>0.02011488295133541</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05377063851651316</v>
+        <v>0.05486694258133691</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.0196886478941467</v>
+        <v>0.02006792364102582</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05299907499274117</v>
+        <v>0.05563971642051067</v>
       </c>
       <c r="J137" t="n">
-        <v>0.01816181295920913</v>
+        <v>0.04609331675484035</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05290814380408213</v>
+        <v>0.05536243405829245</v>
       </c>
       <c r="L137" t="n">
-        <v>0.0461019406224302</v>
+        <v>0.06832096366533325</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05560120618115127</v>
+        <v>0.05527785473951623</v>
       </c>
       <c r="N137" t="n">
-        <v>0.06719665590080187</v>
+        <v>0.02006792364102582</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05452797145336546</v>
+        <v>0.05563971642051067</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.02090488195245035</v>
+        <v>0.02011813170195367</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05373517325652923</v>
+        <v>0.05641249025968443</v>
       </c>
       <c r="J138" t="n">
-        <v>0.01845829337487109</v>
+        <v>0.0461487271323657</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05364297913469438</v>
+        <v>0.0561313567535465</v>
       </c>
       <c r="L138" t="n">
-        <v>0.04659173016228621</v>
+        <v>0.06731770259046965</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05637344515588949</v>
+        <v>0.0560456027220095</v>
       </c>
       <c r="N138" t="n">
-        <v>0.06918207002538762</v>
+        <v>0.02011813170195367</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05528530439021776</v>
+        <v>0.05641249025968443</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.02011826527519045</v>
+        <v>0.01996553562459583</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05447127152031731</v>
+        <v>0.05718526409885818</v>
       </c>
       <c r="J139" t="n">
-        <v>0.01884994972522337</v>
+        <v>0.0455934073716282</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05437781446530663</v>
+        <v>0.05690027944880056</v>
       </c>
       <c r="L139" t="n">
-        <v>0.04692869523208335</v>
+        <v>0.06660525101409548</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05714568413062771</v>
+        <v>0.05681335070450279</v>
       </c>
       <c r="N139" t="n">
-        <v>0.07058933731039446</v>
+        <v>0.01996553562459583</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05604263732707005</v>
+        <v>0.05718526409885818</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.02132736298764214</v>
+        <v>0.01991016389942915</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05520736978410539</v>
+        <v>0.05795803793803195</v>
       </c>
       <c r="J140" t="n">
-        <v>0.01893302305970351</v>
+        <v>0.04552788805115582</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05511264979591889</v>
+        <v>0.05766920214405463</v>
       </c>
       <c r="L140" t="n">
-        <v>0.0476067607786714</v>
+        <v>0.06558846625540776</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05791792310536592</v>
+        <v>0.05758109868699607</v>
       </c>
       <c r="N140" t="n">
-        <v>0.07159251706802205</v>
+        <v>0.01991016389942915</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05679997026392235</v>
+        <v>0.05795803793803195</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.02053074021508068</v>
+        <v>0.0198520450169305</v>
       </c>
       <c r="G141" t="n">
-        <v>0.05594346804789346</v>
+        <v>0.05873081177720571</v>
       </c>
       <c r="J141" t="n">
-        <v>0.01920375442774915</v>
+        <v>0.04495269974947655</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05584748512653114</v>
+        <v>0.05843812483930869</v>
       </c>
       <c r="L141" t="n">
-        <v>0.04781985174890035</v>
+        <v>0.06517220563360343</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05869016208010412</v>
+        <v>0.05834884666948934</v>
       </c>
       <c r="N141" t="n">
-        <v>0.07256566861046992</v>
+        <v>0.0198520450169305</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05755730320077465</v>
+        <v>0.05873081177720571</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.0217269620827813</v>
+        <v>0.01989120746757672</v>
       </c>
       <c r="G142" t="n">
-        <v>0.05667956631168153</v>
+        <v>0.05950358561637946</v>
       </c>
       <c r="J142" t="n">
-        <v>0.0196583848787978</v>
+        <v>0.04466837304511834</v>
       </c>
       <c r="K142" t="n">
-        <v>0.05658232045714338</v>
+        <v>0.05920704753456275</v>
       </c>
       <c r="L142" t="n">
-        <v>0.04796189308961993</v>
+        <v>0.06376132646787941</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05946240105484234</v>
+        <v>0.05911659465198263</v>
       </c>
       <c r="N142" t="n">
-        <v>0.07418285124993756</v>
+        <v>0.01989120746757672</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05831463613762695</v>
+        <v>0.05950358561637946</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.02191459371601917</v>
+        <v>0.01972767974184469</v>
       </c>
       <c r="G143" t="n">
-        <v>0.05741566457546959</v>
+        <v>0.06027635945555323</v>
       </c>
       <c r="J143" t="n">
-        <v>0.01979315546228709</v>
+        <v>0.04457543851660914</v>
       </c>
       <c r="K143" t="n">
-        <v>0.05731715578775563</v>
+        <v>0.05997597022981682</v>
       </c>
       <c r="L143" t="n">
-        <v>0.0479268097476801</v>
+        <v>0.06316068607743275</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06023464002958055</v>
+        <v>0.05988434263447592</v>
       </c>
       <c r="N143" t="n">
-        <v>0.0749181242986246</v>
+        <v>0.01972767974184469</v>
       </c>
       <c r="O143" t="n">
-        <v>0.05907196907447925</v>
+        <v>0.06027635945555323</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.02309220024006955</v>
+        <v>0.01976149033021127</v>
       </c>
       <c r="G144" t="n">
-        <v>0.05815176283925767</v>
+        <v>0.06104913329472698</v>
       </c>
       <c r="J144" t="n">
-        <v>0.02010430722765461</v>
+        <v>0.04427442674247697</v>
       </c>
       <c r="K144" t="n">
-        <v>0.0580519911183679</v>
+        <v>0.06074489292507088</v>
       </c>
       <c r="L144" t="n">
-        <v>0.04841657629430426</v>
+        <v>0.06237514178146042</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06100687900431877</v>
+        <v>0.06065209061696919</v>
       </c>
       <c r="N144" t="n">
-        <v>0.07564554706873056</v>
+        <v>0.01976149033021127</v>
       </c>
       <c r="O144" t="n">
-        <v>0.05982930201133155</v>
+        <v>0.06104913329472698</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.02225834678020763</v>
+        <v>0.0196926677231533</v>
       </c>
       <c r="G145" t="n">
-        <v>0.05888786110304574</v>
+        <v>0.06182190713390074</v>
       </c>
       <c r="J145" t="n">
-        <v>0.02008808122433789</v>
+        <v>0.04376586830124976</v>
       </c>
       <c r="K145" t="n">
-        <v>0.05878682644898015</v>
+        <v>0.06151381562032494</v>
       </c>
       <c r="L145" t="n">
-        <v>0.04811556718538051</v>
+        <v>0.06200955089915933</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06177911797905698</v>
+        <v>0.06141983859946248</v>
       </c>
       <c r="N145" t="n">
-        <v>0.0761731162783934</v>
+        <v>0.0196926677231533</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06058663494818385</v>
+        <v>0.06182190713390074</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.02141159846170863</v>
+        <v>0.01972124041114767</v>
       </c>
       <c r="G146" t="n">
-        <v>0.05962395936683382</v>
+        <v>0.0625946809730745</v>
       </c>
       <c r="J146" t="n">
-        <v>0.02024071850177456</v>
+        <v>0.04375029377145553</v>
       </c>
       <c r="K146" t="n">
-        <v>0.05952166177959239</v>
+        <v>0.062282738315579</v>
       </c>
       <c r="L146" t="n">
-        <v>0.04840917443687348</v>
+        <v>0.0611687707497266</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06255135695379518</v>
+        <v>0.06218758658195575</v>
       </c>
       <c r="N146" t="n">
-        <v>0.07547311576374083</v>
+        <v>0.01972124041114767</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06134396788503613</v>
+        <v>0.0625946809730745</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.02255052040984777</v>
+        <v>0.01954723688467121</v>
       </c>
       <c r="G147" t="n">
-        <v>0.06036005763062188</v>
+        <v>0.06336745481224826</v>
       </c>
       <c r="J147" t="n">
-        <v>0.02045846010940217</v>
+        <v>0.04352823373162215</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06025649711020464</v>
+        <v>0.06305166101083307</v>
       </c>
       <c r="L147" t="n">
-        <v>0.04799709364119167</v>
+        <v>0.06005765865235896</v>
       </c>
       <c r="M147" t="n">
-        <v>0.0633235959285334</v>
+        <v>0.06295533456444903</v>
       </c>
       <c r="N147" t="n">
-        <v>0.07587109002370623</v>
+        <v>0.01954723688467121</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06210130082188844</v>
+        <v>0.06336745481224826</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.02370952772806099</v>
+        <v>0.01947068563420079</v>
       </c>
       <c r="G148" t="n">
-        <v>0.06109615589440996</v>
+        <v>0.06414022865142202</v>
       </c>
       <c r="J148" t="n">
-        <v>0.02043754709665829</v>
+        <v>0.04300021876027768</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06099133244081689</v>
+        <v>0.06382058370608712</v>
       </c>
       <c r="L148" t="n">
-        <v>0.04807955934434202</v>
+        <v>0.05938107192625364</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06409583490327161</v>
+        <v>0.06372308254694233</v>
       </c>
       <c r="N148" t="n">
-        <v>0.07596517561882499</v>
+        <v>0.01947068563420079</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06285863375874073</v>
+        <v>0.06414022865142202</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.02178433515043386</v>
+        <v>0.01949161515021326</v>
       </c>
       <c r="G149" t="n">
-        <v>0.06183225415819803</v>
+        <v>0.06491300249059577</v>
       </c>
       <c r="J149" t="n">
-        <v>0.0206600363102151</v>
+        <v>0.04246677943595001</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06172616777142916</v>
+        <v>0.06458950640134119</v>
       </c>
       <c r="L149" t="n">
-        <v>0.04795680609233127</v>
+        <v>0.05934386789060747</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06486807387800982</v>
+        <v>0.06449083052943559</v>
       </c>
       <c r="N149" t="n">
-        <v>0.0761554256740658</v>
+        <v>0.01949161515021326</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06361596669559304</v>
+        <v>0.06491300249059577</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.0238960851784374</v>
+        <v>0.0194100539231855</v>
       </c>
       <c r="G150" t="n">
-        <v>0.06256835242198611</v>
+        <v>0.06568577632976953</v>
       </c>
       <c r="J150" t="n">
-        <v>0.02061788778912553</v>
+        <v>0.04232844633716717</v>
       </c>
       <c r="K150" t="n">
-        <v>0.0624610031020414</v>
+        <v>0.06535842909659526</v>
       </c>
       <c r="L150" t="n">
-        <v>0.04832906843116641</v>
+        <v>0.05825090386461751</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06564031285274803</v>
+        <v>0.06525857851192889</v>
       </c>
       <c r="N150" t="n">
-        <v>0.07564189331439769</v>
+        <v>0.0194100539231855</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06437329963244534</v>
+        <v>0.06568577632976953</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.02200945212730908</v>
+        <v>0.01932603044359436</v>
       </c>
       <c r="G151" t="n">
-        <v>0.06330445068577417</v>
+        <v>0.0664585501689433</v>
       </c>
       <c r="J151" t="n">
-        <v>0.02075416760812926</v>
+        <v>0.04198575004245714</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06319583843265365</v>
+        <v>0.06612735179184931</v>
       </c>
       <c r="L151" t="n">
-        <v>0.04799658090685421</v>
+        <v>0.05790703716748069</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06641255182748625</v>
+        <v>0.06602632649442215</v>
       </c>
       <c r="N151" t="n">
-        <v>0.07572463166478932</v>
+        <v>0.01932603044359436</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06513063256929763</v>
+        <v>0.0664585501689433</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.02312393520200441</v>
+        <v>0.0190395732019167</v>
       </c>
       <c r="G152" t="n">
-        <v>0.06404054894956224</v>
+        <v>0.06723132400811706</v>
       </c>
       <c r="J152" t="n">
-        <v>0.02058934274602878</v>
+        <v>0.04173922113034786</v>
       </c>
       <c r="K152" t="n">
-        <v>0.0639306737632659</v>
+        <v>0.06689627448710338</v>
       </c>
       <c r="L152" t="n">
-        <v>0.04825957806540154</v>
+        <v>0.057717125118394</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06718479080222446</v>
+        <v>0.06679407447691543</v>
       </c>
       <c r="N152" t="n">
-        <v>0.07610369385020971</v>
+        <v>0.0190395732019167</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06588796550614992</v>
+        <v>0.06723132400811706</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.02323903360747889</v>
+        <v>0.01905071068862937</v>
       </c>
       <c r="G153" t="n">
-        <v>0.06477664721335032</v>
+        <v>0.06800409784729082</v>
       </c>
       <c r="J153" t="n">
-        <v>0.02072338905383785</v>
+        <v>0.04128939017936725</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06466550909387817</v>
+        <v>0.06766519718235743</v>
       </c>
       <c r="L153" t="n">
-        <v>0.0478182944528153</v>
+        <v>0.05668602503655434</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06795702977696268</v>
+        <v>0.06756182245940873</v>
       </c>
       <c r="N153" t="n">
-        <v>0.07567913299562756</v>
+        <v>0.01905071068862937</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06664529844300222</v>
+        <v>0.06800409784729082</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.02235424654868806</v>
+        <v>0.01905947139420924</v>
       </c>
       <c r="G154" t="n">
-        <v>0.06551274547713838</v>
+        <v>0.06877687168646457</v>
       </c>
       <c r="J154" t="n">
-        <v>0.02085628238257026</v>
+        <v>0.04113678776804336</v>
       </c>
       <c r="K154" t="n">
-        <v>0.06540034442449041</v>
+        <v>0.0684341198776115</v>
       </c>
       <c r="L154" t="n">
-        <v>0.0477729646151023</v>
+        <v>0.05681859424115893</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06872926875170089</v>
+        <v>0.06832957044190199</v>
       </c>
       <c r="N154" t="n">
-        <v>0.07605100222601191</v>
+        <v>0.01905947139420924</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06740263137985453</v>
+        <v>0.06877687168646457</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.02246907323058739</v>
+        <v>0.01886588380913316</v>
       </c>
       <c r="G155" t="n">
-        <v>0.06624884374092646</v>
+        <v>0.06954964552563833</v>
       </c>
       <c r="J155" t="n">
-        <v>0.02078799858323982</v>
+        <v>0.04048194447490414</v>
       </c>
       <c r="K155" t="n">
-        <v>0.06613517975510266</v>
+        <v>0.06920304257286555</v>
       </c>
       <c r="L155" t="n">
-        <v>0.04772382309826942</v>
+        <v>0.05609556263852711</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06950150772643911</v>
+        <v>0.06909731842439529</v>
       </c>
       <c r="N155" t="n">
-        <v>0.07531935466633138</v>
+        <v>0.01886588380913316</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06815996431670683</v>
+        <v>0.06954964552563833</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.02458301285813241</v>
+        <v>0.018769976423878</v>
       </c>
       <c r="G156" t="n">
-        <v>0.06698494200471453</v>
+        <v>0.07032241936481209</v>
       </c>
       <c r="J156" t="n">
-        <v>0.02091851350686028</v>
+        <v>0.0401253908784775</v>
       </c>
       <c r="K156" t="n">
-        <v>0.06687001508571491</v>
+        <v>0.06997196526811962</v>
       </c>
       <c r="L156" t="n">
-        <v>0.04807110444832352</v>
+        <v>0.05578714720801115</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07027374670117732</v>
+        <v>0.06986506640688855</v>
       </c>
       <c r="N156" t="n">
-        <v>0.07558424344155495</v>
+        <v>0.018769976423878</v>
       </c>
       <c r="O156" t="n">
-        <v>0.06891729725355912</v>
+        <v>0.07032241936481209</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.02369556463627864</v>
+        <v>0.01877177772892062</v>
       </c>
       <c r="G157" t="n">
-        <v>0.06772104026850261</v>
+        <v>0.07109519320398586</v>
       </c>
       <c r="J157" t="n">
-        <v>0.02094780300444543</v>
+        <v>0.03966765755729146</v>
       </c>
       <c r="K157" t="n">
-        <v>0.06760485041632718</v>
+        <v>0.07074088796337369</v>
       </c>
       <c r="L157" t="n">
-        <v>0.04781504321127147</v>
+        <v>0.05579257819367922</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07104598567591552</v>
+        <v>0.07063281438938185</v>
       </c>
       <c r="N157" t="n">
-        <v>0.0756457216766514</v>
+        <v>0.01877177772892062</v>
       </c>
       <c r="O157" t="n">
-        <v>0.06967463019041142</v>
+        <v>0.07109519320398586</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.02280622776998159</v>
+        <v>0.01847131621473787</v>
       </c>
       <c r="G158" t="n">
-        <v>0.06845713853229068</v>
+        <v>0.07186796704315961</v>
       </c>
       <c r="J158" t="n">
-        <v>0.02087584292700907</v>
+        <v>0.03940927508987396</v>
       </c>
       <c r="K158" t="n">
-        <v>0.06833968574693942</v>
+        <v>0.07150981065862774</v>
       </c>
       <c r="L158" t="n">
-        <v>0.04775587393312011</v>
+        <v>0.05571120716058425</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07181822465065374</v>
+        <v>0.07140056237187513</v>
       </c>
       <c r="N158" t="n">
-        <v>0.07530384249658972</v>
+        <v>0.01847131621473787</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07043196312726371</v>
+        <v>0.07186796704315961</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.02291450146419674</v>
+        <v>0.01856862037180661</v>
       </c>
       <c r="G159" t="n">
-        <v>0.06919323679607875</v>
+        <v>0.07264074088233337</v>
       </c>
       <c r="J159" t="n">
-        <v>0.02090260912556502</v>
+        <v>0.03905077405475302</v>
       </c>
       <c r="K159" t="n">
-        <v>0.06907452107755167</v>
+        <v>0.0722787333538818</v>
       </c>
       <c r="L159" t="n">
-        <v>0.04759383115987634</v>
+        <v>0.05514238567377905</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07259046362539195</v>
+        <v>0.0721683103543684</v>
       </c>
       <c r="N159" t="n">
-        <v>0.07515865902633856</v>
+        <v>0.01856862037180661</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07118929606411602</v>
+        <v>0.07264074088233337</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.02501988492387965</v>
+        <v>0.01846371869060369</v>
       </c>
       <c r="G160" t="n">
-        <v>0.06992933505986683</v>
+        <v>0.07341351472150713</v>
       </c>
       <c r="J160" t="n">
-        <v>0.02102807745112698</v>
+        <v>0.03869268503045659</v>
       </c>
       <c r="K160" t="n">
-        <v>0.06980935640816392</v>
+        <v>0.07304765604913586</v>
       </c>
       <c r="L160" t="n">
-        <v>0.04772914943754694</v>
+        <v>0.05468546529831658</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07336270260013017</v>
+        <v>0.07293605833686169</v>
       </c>
       <c r="N160" t="n">
-        <v>0.07571022439086694</v>
+        <v>0.01846371869060369</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07194662900096831</v>
+        <v>0.07341351472150713</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.02512187735398577</v>
+        <v>0.01815663966160599</v>
       </c>
       <c r="G161" t="n">
-        <v>0.07066543332365489</v>
+        <v>0.07418628856068088</v>
       </c>
       <c r="J161" t="n">
-        <v>0.0208522237547088</v>
+        <v>0.03823553859551257</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07054419173877617</v>
+        <v>0.07381657874438993</v>
       </c>
       <c r="L161" t="n">
-        <v>0.04736206331213877</v>
+        <v>0.05443979759924966</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07413494157486837</v>
+        <v>0.07370380631935496</v>
       </c>
       <c r="N161" t="n">
-        <v>0.07515859171514355</v>
+        <v>0.01815663966160599</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07270396193782061</v>
+        <v>0.07418628856068088</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.02421997795947066</v>
+        <v>0.01824741177529038</v>
       </c>
       <c r="G162" t="n">
-        <v>0.07140153158744296</v>
+        <v>0.07495906239985466</v>
       </c>
       <c r="J162" t="n">
-        <v>0.02107502388732427</v>
+        <v>0.037879865328449</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07127902706938842</v>
+        <v>0.07458550143964399</v>
       </c>
       <c r="L162" t="n">
-        <v>0.04759280732965881</v>
+        <v>0.05410473414163108</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07490718054960659</v>
+        <v>0.07447155430184825</v>
       </c>
       <c r="N162" t="n">
-        <v>0.07550381412413737</v>
+        <v>0.01824741177529038</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07346129487467291</v>
+        <v>0.07495906239985466</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.02531368594528981</v>
+        <v>0.01793606352213369</v>
       </c>
       <c r="G163" t="n">
-        <v>0.07213762985123102</v>
+        <v>0.07573183623902841</v>
       </c>
       <c r="J163" t="n">
-        <v>0.02109645369998714</v>
+        <v>0.03752616080039184</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07201386240000067</v>
+        <v>0.07535442413489805</v>
       </c>
       <c r="L163" t="n">
-        <v>0.04752161603611382</v>
+        <v>0.05417962649051383</v>
       </c>
       <c r="M163" t="n">
-        <v>0.0756794195243448</v>
+        <v>0.07523930228434153</v>
       </c>
       <c r="N163" t="n">
-        <v>0.07514594474281711</v>
+        <v>0.01793606352213369</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07421862781152522</v>
+        <v>0.07573183623902841</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.02340250051639874</v>
+        <v>0.01792262339261279</v>
       </c>
       <c r="G164" t="n">
-        <v>0.0728737281150191</v>
+        <v>0.07650461007820217</v>
       </c>
       <c r="J164" t="n">
-        <v>0.02091648904371121</v>
+        <v>0.03745153873140994</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07274869773061292</v>
+        <v>0.07612334683015212</v>
       </c>
       <c r="L164" t="n">
-        <v>0.04744872397751065</v>
+        <v>0.05366382621095073</v>
       </c>
       <c r="M164" t="n">
-        <v>0.076451658499083</v>
+        <v>0.07600705026683481</v>
       </c>
       <c r="N164" t="n">
-        <v>0.07518503669615179</v>
+        <v>0.01792262339261279</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07497596074837751</v>
+        <v>0.07650461007820217</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.02348592087775295</v>
+        <v>0.01770711987720452</v>
       </c>
       <c r="G165" t="n">
-        <v>0.07360982637880717</v>
+        <v>0.07727738391737593</v>
       </c>
       <c r="J165" t="n">
-        <v>0.02093510576951026</v>
+        <v>0.03673847285176354</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07348353306122517</v>
+        <v>0.07689226952540618</v>
       </c>
       <c r="L165" t="n">
-        <v>0.04737436569985623</v>
+        <v>0.05345668486799465</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07722389747382122</v>
+        <v>0.07677479824932809</v>
       </c>
       <c r="N165" t="n">
-        <v>0.07492114310911013</v>
+        <v>0.01770711987720452</v>
       </c>
       <c r="O165" t="n">
-        <v>0.0757332936852298</v>
+        <v>0.07727738391737593</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.02456344623430794</v>
+        <v>0.01768958146638577</v>
       </c>
       <c r="G166" t="n">
-        <v>0.07434592464259525</v>
+        <v>0.07805015775654968</v>
       </c>
       <c r="J166" t="n">
-        <v>0.0211522797283981</v>
+        <v>0.0364903987669121</v>
       </c>
       <c r="K166" t="n">
-        <v>0.07421836839183743</v>
+        <v>0.07766119222066023</v>
       </c>
       <c r="L166" t="n">
-        <v>0.04719877574915732</v>
+        <v>0.05315755402669842</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07799613644855943</v>
+        <v>0.07754254623182137</v>
       </c>
       <c r="N166" t="n">
-        <v>0.07505431710666099</v>
+        <v>0.01768958146638577</v>
       </c>
       <c r="O166" t="n">
-        <v>0.0764906266220821</v>
+        <v>0.07805015775654968</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.02463457579101926</v>
+        <v>0.0174700366506334</v>
       </c>
       <c r="G167" t="n">
-        <v>0.07508202290638333</v>
+        <v>0.07882293159572344</v>
       </c>
       <c r="J167" t="n">
-        <v>0.02116798677138851</v>
+        <v>0.036010752082315</v>
       </c>
       <c r="K167" t="n">
-        <v>0.07495320372244968</v>
+        <v>0.0784301149159143</v>
       </c>
       <c r="L167" t="n">
-        <v>0.04712218867142084</v>
+        <v>0.05336578525211494</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07876837542329765</v>
+        <v>0.07831029421431465</v>
       </c>
       <c r="N167" t="n">
-        <v>0.07488461181377332</v>
+        <v>0.0174700366506334</v>
       </c>
       <c r="O167" t="n">
-        <v>0.0772479595589344</v>
+        <v>0.07882293159572344</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.02569880875284239</v>
+        <v>0.01744851392042425</v>
       </c>
       <c r="G168" t="n">
-        <v>0.07581812117017139</v>
+        <v>0.0795957054348972</v>
       </c>
       <c r="J168" t="n">
-        <v>0.02118220274949524</v>
+        <v>0.03530296840343167</v>
       </c>
       <c r="K168" t="n">
-        <v>0.07568803905306193</v>
+        <v>0.07919903761116837</v>
       </c>
       <c r="L168" t="n">
-        <v>0.04684483901265368</v>
+        <v>0.05318073010929714</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07954061439803585</v>
+        <v>0.07907804219680793</v>
       </c>
       <c r="N168" t="n">
-        <v>0.07471208035541588</v>
+        <v>0.01744851392042425</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07800529249578669</v>
+        <v>0.0795957054348972</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.02475564432473283</v>
+        <v>0.01732504176623519</v>
       </c>
       <c r="G169" t="n">
-        <v>0.07655421943395947</v>
+        <v>0.08036847927407097</v>
       </c>
       <c r="J169" t="n">
-        <v>0.02109490351373211</v>
+        <v>0.03517048333572159</v>
       </c>
       <c r="K169" t="n">
-        <v>0.07642287438367418</v>
+        <v>0.07996796030642242</v>
       </c>
       <c r="L169" t="n">
-        <v>0.04706696131886268</v>
+        <v>0.05280174016329781</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08031285337277407</v>
+        <v>0.07984579017930121</v>
       </c>
       <c r="N169" t="n">
-        <v>0.07523677585655747</v>
+        <v>0.01732504176623519</v>
       </c>
       <c r="O169" t="n">
-        <v>0.078762625432639</v>
+        <v>0.08036847927407097</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.02480458171164612</v>
+        <v>0.01729964867854307</v>
       </c>
       <c r="G170" t="n">
-        <v>0.07729031769774754</v>
+        <v>0.08114125311324473</v>
       </c>
       <c r="J170" t="n">
-        <v>0.02120606491511291</v>
+        <v>0.03421673248464405</v>
       </c>
       <c r="K170" t="n">
-        <v>0.07715770971428644</v>
+        <v>0.08073688300167647</v>
       </c>
       <c r="L170" t="n">
-        <v>0.04668588525859788</v>
+        <v>0.05242816697916985</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08108509234751228</v>
+        <v>0.08061353816179449</v>
       </c>
       <c r="N170" t="n">
-        <v>0.075058751442167</v>
+        <v>0.01729964867854307</v>
       </c>
       <c r="O170" t="n">
-        <v>0.0795199583694913</v>
+        <v>0.08114125311324473</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.02484512011853776</v>
+        <v>0.01707236314782476</v>
       </c>
       <c r="G171" t="n">
-        <v>0.07802641596153562</v>
+        <v>0.08191402695241848</v>
       </c>
       <c r="J171" t="n">
-        <v>0.02111566280465138</v>
+        <v>0.03394515145565857</v>
       </c>
       <c r="K171" t="n">
-        <v>0.07789254504489869</v>
+        <v>0.08150580569693056</v>
       </c>
       <c r="L171" t="n">
-        <v>0.0465945836593161</v>
+        <v>0.05295936212196606</v>
       </c>
       <c r="M171" t="n">
-        <v>0.0818573313222505</v>
+        <v>0.08138128614428779</v>
       </c>
       <c r="N171" t="n">
-        <v>0.07457806023721336</v>
+        <v>0.01707236314782476</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08027729130634359</v>
+        <v>0.08191402695241848</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.02487675875036324</v>
+        <v>0.01694321366455712</v>
       </c>
       <c r="G172" t="n">
-        <v>0.07876251422532368</v>
+        <v>0.08268680079159224</v>
       </c>
       <c r="J172" t="n">
-        <v>0.02112367303336136</v>
+        <v>0.0332591758542245</v>
       </c>
       <c r="K172" t="n">
-        <v>0.07862738037551094</v>
+        <v>0.08227472839218461</v>
       </c>
       <c r="L172" t="n">
-        <v>0.04669306598868075</v>
+        <v>0.05259467715673943</v>
       </c>
       <c r="M172" t="n">
-        <v>0.0826295702969887</v>
+        <v>0.08214903412678105</v>
       </c>
       <c r="N172" t="n">
-        <v>0.07459475536666532</v>
+        <v>0.01694321366455712</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08103462424319589</v>
+        <v>0.08268680079159224</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.02589899681207809</v>
+        <v>0.01681222871921699</v>
       </c>
       <c r="G173" t="n">
-        <v>0.07949861248911176</v>
+        <v>0.08345957463076599</v>
       </c>
       <c r="J173" t="n">
-        <v>0.02113007145225662</v>
+        <v>0.03246224128580133</v>
       </c>
       <c r="K173" t="n">
-        <v>0.07936221570612319</v>
+        <v>0.08304365108743866</v>
       </c>
       <c r="L173" t="n">
-        <v>0.04648169919920764</v>
+        <v>0.05213346364854277</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08340180927172691</v>
+        <v>0.08291678210927433</v>
       </c>
       <c r="N173" t="n">
-        <v>0.07440888995549172</v>
+        <v>0.01681222871921699</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08179195718004818</v>
+        <v>0.08345957463076599</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.02591133350863785</v>
+        <v>0.01657943680228123</v>
       </c>
       <c r="G174" t="n">
-        <v>0.08023471075289983</v>
+        <v>0.08423234846993977</v>
       </c>
       <c r="J174" t="n">
-        <v>0.02103483391235092</v>
+        <v>0.03205778335584841</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08009705103673545</v>
+        <v>0.08381257378269273</v>
       </c>
       <c r="L174" t="n">
-        <v>0.04626085024341262</v>
+        <v>0.05227507316242896</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08417404824646513</v>
+        <v>0.08368453009176761</v>
       </c>
       <c r="N174" t="n">
-        <v>0.0743205171286615</v>
+        <v>0.01657943680228123</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08254929011690049</v>
+        <v>0.08423234846993977</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.02591318966743868</v>
+        <v>0.01654486640422675</v>
       </c>
       <c r="G175" t="n">
-        <v>0.08097080901668789</v>
+        <v>0.08500512230911351</v>
       </c>
       <c r="J175" t="n">
-        <v>0.02113793626465808</v>
+        <v>0.0315492376698252</v>
       </c>
       <c r="K175" t="n">
-        <v>0.0808318863673477</v>
+        <v>0.0845814964779468</v>
       </c>
       <c r="L175" t="n">
-        <v>0.04613088607381149</v>
+        <v>0.05221885726345077</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08494628722120334</v>
+        <v>0.08445227807426089</v>
       </c>
       <c r="N175" t="n">
-        <v>0.07462969001114345</v>
+        <v>0.01654486640422675</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08330662305375279</v>
+        <v>0.08500512230911351</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.02590322145080544</v>
+        <v>0.01649084587254351</v>
       </c>
       <c r="G176" t="n">
-        <v>0.08170690728047597</v>
+        <v>0.08577789614828728</v>
       </c>
       <c r="J176" t="n">
-        <v>0.02123935436019186</v>
+        <v>0.03074003983319107</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08156672169795995</v>
+        <v>0.08535041917320085</v>
       </c>
       <c r="L176" t="n">
-        <v>0.04599217364292013</v>
+        <v>0.05186416751666117</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08571852619594156</v>
+        <v>0.08522002605675419</v>
       </c>
       <c r="N176" t="n">
-        <v>0.07433646172790637</v>
+        <v>0.01649084587254351</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08406395599060508</v>
+        <v>0.08577789614828728</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.02488143634860795</v>
+        <v>0.01627189745975684</v>
       </c>
       <c r="G177" t="n">
-        <v>0.08244300554426404</v>
+        <v>0.08655066998746104</v>
       </c>
       <c r="J177" t="n">
-        <v>0.02123600974062004</v>
+        <v>0.0300336254514055</v>
       </c>
       <c r="K177" t="n">
-        <v>0.0823015570285722</v>
+        <v>0.08611934186845491</v>
       </c>
       <c r="L177" t="n">
-        <v>0.04604507990325421</v>
+        <v>0.0513103554871131</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08649076517067977</v>
+        <v>0.08598777403924746</v>
       </c>
       <c r="N177" t="n">
-        <v>0.07394088540391924</v>
+        <v>0.01627189745975684</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08482128892745737</v>
+        <v>0.08655066998746104</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.02484827835140575</v>
+        <v>0.01579664137756367</v>
       </c>
       <c r="G178" t="n">
-        <v>0.08317910380805212</v>
+        <v>0.08732344382663479</v>
       </c>
       <c r="J178" t="n">
-        <v>0.02121841235689345</v>
+        <v>0.02943343012992786</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08303639235918445</v>
+        <v>0.08688826456370898</v>
       </c>
       <c r="L178" t="n">
-        <v>0.04608997180732974</v>
+        <v>0.05135677273985928</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08726300414541799</v>
+        <v>0.08675552202174075</v>
       </c>
       <c r="N178" t="n">
-        <v>0.07414301416415076</v>
+        <v>0.01579664137756367</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08557862186430967</v>
+        <v>0.08732344382663479</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.0248041914497584</v>
+        <v>0.01547712983491192</v>
       </c>
       <c r="G179" t="n">
-        <v>0.08391520207184018</v>
+        <v>0.08809621766580855</v>
       </c>
       <c r="J179" t="n">
-        <v>0.02118663854816327</v>
+        <v>0.02914288947421759</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08377122768979671</v>
+        <v>0.08765718725896304</v>
       </c>
       <c r="L179" t="n">
-        <v>0.04572721630766236</v>
+        <v>0.05100277083995264</v>
       </c>
       <c r="M179" t="n">
-        <v>0.0880352431201562</v>
+        <v>0.08752327000423402</v>
       </c>
       <c r="N179" t="n">
-        <v>0.07364290113356986</v>
+        <v>0.01547712983491192</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08633595480116198</v>
+        <v>0.08809621766580855</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.02574961963422544</v>
+        <v>0.01512541504074959</v>
       </c>
       <c r="G180" t="n">
-        <v>0.08465130033562826</v>
+        <v>0.08886899150498231</v>
       </c>
       <c r="J180" t="n">
-        <v>0.02104153264278751</v>
+        <v>0.02866543908973407</v>
       </c>
       <c r="K180" t="n">
-        <v>0.08450606302040896</v>
+        <v>0.0884261099542171</v>
       </c>
       <c r="L180" t="n">
-        <v>0.04535718035676795</v>
+        <v>0.05124770135244611</v>
       </c>
       <c r="M180" t="n">
-        <v>0.0888074820948944</v>
+        <v>0.0882910179867273</v>
       </c>
       <c r="N180" t="n">
-        <v>0.0741405994371454</v>
+        <v>0.01512541504074959</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08709328773801428</v>
+        <v>0.08886899150498231</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.02368500689536643</v>
+        <v>0.01495354920402452</v>
       </c>
       <c r="G181" t="n">
-        <v>0.08538739859941633</v>
+        <v>0.08964176534415608</v>
       </c>
       <c r="J181" t="n">
-        <v>0.02088393896912419</v>
+        <v>0.02790451458193674</v>
       </c>
       <c r="K181" t="n">
-        <v>0.08524089835102121</v>
+        <v>0.08919503264947116</v>
       </c>
       <c r="L181" t="n">
-        <v>0.04528023090716241</v>
+        <v>0.0509909158423924</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08957972106963262</v>
+        <v>0.08905876596922059</v>
       </c>
       <c r="N181" t="n">
-        <v>0.07362851637063411</v>
+        <v>0.01495354920402452</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08785062067486657</v>
+        <v>0.08964176534415608</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.02461079722374093</v>
+        <v>0.01457358453368468</v>
       </c>
       <c r="G182" t="n">
-        <v>0.0861234968632044</v>
+        <v>0.09041453918332984</v>
       </c>
       <c r="J182" t="n">
-        <v>0.02081470185553133</v>
+        <v>0.02726355155628507</v>
       </c>
       <c r="K182" t="n">
-        <v>0.08597573368163346</v>
+        <v>0.08996395534472523</v>
       </c>
       <c r="L182" t="n">
-        <v>0.04519673491136139</v>
+        <v>0.05113176587484458</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09035196004437084</v>
+        <v>0.08982651395171386</v>
       </c>
       <c r="N182" t="n">
-        <v>0.07355244128817212</v>
+        <v>0.01457358453368468</v>
       </c>
       <c r="O182" t="n">
-        <v>0.08860795361171887</v>
+        <v>0.09041453918332984</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.0235274346099085</v>
+        <v>0.01399757323867801</v>
       </c>
       <c r="G183" t="n">
-        <v>0.08685959512699247</v>
+        <v>0.09118731302250359</v>
       </c>
       <c r="J183" t="n">
-        <v>0.02083466563036697</v>
+        <v>0.02704598561823834</v>
       </c>
       <c r="K183" t="n">
-        <v>0.08671056901224572</v>
+        <v>0.09073287803997929</v>
       </c>
       <c r="L183" t="n">
-        <v>0.04490705932188083</v>
+        <v>0.0506696030148554</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09112419901910905</v>
+        <v>0.09059426193420715</v>
       </c>
       <c r="N183" t="n">
-        <v>0.07370670029719784</v>
+        <v>0.01399757323867801</v>
       </c>
       <c r="O183" t="n">
-        <v>0.08936528654857118</v>
+        <v>0.09118731302250359</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.0254353630444287</v>
+        <v>0.01373756752795242</v>
       </c>
       <c r="G184" t="n">
-        <v>0.08759569339078055</v>
+        <v>0.09196008686167735</v>
       </c>
       <c r="J184" t="n">
-        <v>0.02064467462198913</v>
+        <v>0.02625525237325613</v>
       </c>
       <c r="K184" t="n">
-        <v>0.08744540434285797</v>
+        <v>0.09150180073523334</v>
       </c>
       <c r="L184" t="n">
-        <v>0.04461157109123651</v>
+        <v>0.05080377882747766</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09189643799384725</v>
+        <v>0.09136200991670043</v>
       </c>
       <c r="N184" t="n">
-        <v>0.07319730541801289</v>
+        <v>0.01373756752795242</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09012261948542347</v>
+        <v>0.09196008686167735</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.02433502651786104</v>
+        <v>0.01340561961045587</v>
       </c>
       <c r="G185" t="n">
-        <v>0.08833179165456861</v>
+        <v>0.09273286070085111</v>
       </c>
       <c r="J185" t="n">
-        <v>0.02064557315875581</v>
+        <v>0.02609478742679774</v>
       </c>
       <c r="K185" t="n">
-        <v>0.08818023967347022</v>
+        <v>0.09227072343048741</v>
       </c>
       <c r="L185" t="n">
-        <v>0.04471063717194429</v>
+        <v>0.05053364487776435</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09266867696858547</v>
+        <v>0.09212975789919371</v>
       </c>
       <c r="N185" t="n">
-        <v>0.07283026867091863</v>
+        <v>0.01340561961045587</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09087995242227576</v>
+        <v>0.09273286070085111</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.02322686902076514</v>
+        <v>0.01301378169513628</v>
       </c>
       <c r="G186" t="n">
-        <v>0.08906788991835668</v>
+        <v>0.09350563454002488</v>
       </c>
       <c r="J186" t="n">
-        <v>0.02063820556902508</v>
+        <v>0.02556802638432268</v>
       </c>
       <c r="K186" t="n">
-        <v>0.08891507500408247</v>
+        <v>0.09303964612574148</v>
       </c>
       <c r="L186" t="n">
-        <v>0.04440462451651989</v>
+        <v>0.05025855273076829</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09344091594332368</v>
+        <v>0.09289750588168699</v>
       </c>
       <c r="N186" t="n">
-        <v>0.07221160207621691</v>
+        <v>0.01301378169513628</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09163728535912806</v>
+        <v>0.09350563454002488</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.0231113345437005</v>
+        <v>0.01277410599094159</v>
       </c>
       <c r="G187" t="n">
-        <v>0.08980398818214476</v>
+        <v>0.09427840837919862</v>
       </c>
       <c r="J187" t="n">
-        <v>0.02042341618115491</v>
+        <v>0.02527817587114237</v>
       </c>
       <c r="K187" t="n">
-        <v>0.08964991033469472</v>
+        <v>0.09380856882099553</v>
       </c>
       <c r="L187" t="n">
-        <v>0.04419390007747914</v>
+        <v>0.04987785395154243</v>
       </c>
       <c r="M187" t="n">
-        <v>0.0942131549180619</v>
+        <v>0.09366525386418027</v>
       </c>
       <c r="N187" t="n">
-        <v>0.07154731765420941</v>
+        <v>0.01277410599094159</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09239461829598036</v>
+        <v>0.09427840837919862</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.02298886707722671</v>
+        <v>0.0126986447068197</v>
       </c>
       <c r="G188" t="n">
-        <v>0.09054008644593282</v>
+        <v>0.09505118221837239</v>
       </c>
       <c r="J188" t="n">
-        <v>0.02020204932350336</v>
+        <v>0.02480682594340627</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09038474566530696</v>
+        <v>0.0945774915162496</v>
       </c>
       <c r="L188" t="n">
-        <v>0.04397883080733794</v>
+        <v>0.05019090010513955</v>
       </c>
       <c r="M188" t="n">
-        <v>0.0949853938928001</v>
+        <v>0.09443300184667355</v>
       </c>
       <c r="N188" t="n">
-        <v>0.07104342742519748</v>
+        <v>0.0126986447068197</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09315195123283267</v>
+        <v>0.09505118221837239</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.02385991061190329</v>
+        <v>0.01268395143675995</v>
       </c>
       <c r="G189" t="n">
-        <v>0.0912761847097209</v>
+        <v>0.09582395605754615</v>
       </c>
       <c r="J189" t="n">
-        <v>0.02017494932442844</v>
+        <v>0.02454062290457942</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09111958099591921</v>
+        <v>0.09534641421150365</v>
       </c>
       <c r="L189" t="n">
-        <v>0.04355978365861207</v>
+        <v>0.04949704275661249</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09575763286753831</v>
+        <v>0.09520074982916683</v>
       </c>
       <c r="N189" t="n">
-        <v>0.07060594340948295</v>
+        <v>0.01268395143675995</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09390928416968496</v>
+        <v>0.09582395605754615</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.02372490913828984</v>
+        <v>0.01238067018155461</v>
       </c>
       <c r="G190" t="n">
-        <v>0.09201228297350897</v>
+        <v>0.0965967298967199</v>
       </c>
       <c r="J190" t="n">
-        <v>0.02004296051228818</v>
+        <v>0.0240795571578751</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09185441632653146</v>
+        <v>0.09611533690675772</v>
       </c>
       <c r="L190" t="n">
-        <v>0.04373712558381734</v>
+        <v>0.04919563347101419</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09652987184227653</v>
+        <v>0.09596849781166011</v>
       </c>
       <c r="N190" t="n">
-        <v>0.06994087762736734</v>
+        <v>0.01238067018155461</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09466661710653725</v>
+        <v>0.0965967298967199</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.02258430664694587</v>
+        <v>0.01238369719742876</v>
       </c>
       <c r="G191" t="n">
-        <v>0.09274838123729705</v>
+        <v>0.09736950373589366</v>
       </c>
       <c r="J191" t="n">
-        <v>0.01990692721544061</v>
+        <v>0.0234236191065065</v>
       </c>
       <c r="K191" t="n">
-        <v>0.09258925165714373</v>
+        <v>0.09688425960201177</v>
       </c>
       <c r="L191" t="n">
-        <v>0.04331122353546954</v>
+        <v>0.04908602381339744</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09730211081701474</v>
+        <v>0.09673624579415339</v>
       </c>
       <c r="N191" t="n">
-        <v>0.06985424209915231</v>
+        <v>0.01238369719742876</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09542395004338955</v>
+        <v>0.09736950373589366</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.02443854712843095</v>
+        <v>0.0123926926760131</v>
       </c>
       <c r="G192" t="n">
-        <v>0.09348447950108511</v>
+        <v>0.09814227757506742</v>
       </c>
       <c r="J192" t="n">
-        <v>0.01986769376224375</v>
+        <v>0.02327279915368696</v>
       </c>
       <c r="K192" t="n">
-        <v>0.09332408698775597</v>
+        <v>0.09765318229726584</v>
       </c>
       <c r="L192" t="n">
-        <v>0.04288244446608452</v>
+        <v>0.04896756534881525</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09807434979175295</v>
+        <v>0.09750399377664667</v>
       </c>
       <c r="N192" t="n">
-        <v>0.06925204884513952</v>
+        <v>0.0123926926760131</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09618128298024185</v>
+        <v>0.09814227757506742</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02228807457330463</v>
+        <v>0.01220731680893824</v>
       </c>
       <c r="G193" t="n">
-        <v>0.09422057776487319</v>
+        <v>0.09891505141424119</v>
       </c>
       <c r="J193" t="n">
-        <v>0.0196261044810556</v>
+        <v>0.02302708770262968</v>
       </c>
       <c r="K193" t="n">
-        <v>0.09405892231836822</v>
+        <v>0.09842210499251991</v>
       </c>
       <c r="L193" t="n">
-        <v>0.04295115532817811</v>
+        <v>0.04843960964232041</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09884658876649116</v>
+        <v>0.09827174175913996</v>
       </c>
       <c r="N193" t="n">
-        <v>0.06804030988563042</v>
+        <v>0.01220731680893824</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09693861591709414</v>
+        <v>0.09891505141424119</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.0231333329721265</v>
+        <v>0.01222722978783489</v>
       </c>
       <c r="G194" t="n">
-        <v>0.09495667602866127</v>
+        <v>0.09968782525341495</v>
       </c>
       <c r="J194" t="n">
-        <v>0.01948300370023422</v>
+        <v>0.02278647515654791</v>
       </c>
       <c r="K194" t="n">
-        <v>0.09479375764898047</v>
+        <v>0.09919102768777396</v>
       </c>
       <c r="L194" t="n">
-        <v>0.04251772307426605</v>
+        <v>0.04830150825896573</v>
       </c>
       <c r="M194" t="n">
-        <v>0.09961882774122938</v>
+        <v>0.09903948974163324</v>
       </c>
       <c r="N194" t="n">
-        <v>0.0674250372409268</v>
+        <v>0.01222722978783489</v>
       </c>
       <c r="O194" t="n">
-        <v>0.09769594885394645</v>
+        <v>0.09968782525341495</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.02397476631545606</v>
+        <v>0.01195209180433371</v>
       </c>
       <c r="G195" t="n">
-        <v>0.09569277429244934</v>
+        <v>0.1004605990925887</v>
       </c>
       <c r="J195" t="n">
-        <v>0.0192392357481376</v>
+        <v>0.0224509519186549</v>
       </c>
       <c r="K195" t="n">
-        <v>0.09552859297959272</v>
+        <v>0.09995995038302803</v>
       </c>
       <c r="L195" t="n">
-        <v>0.04258251465686422</v>
+        <v>0.04795261276380425</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1003910667159676</v>
+        <v>0.09980723772412652</v>
       </c>
       <c r="N195" t="n">
-        <v>0.0672122429313301</v>
+        <v>0.01195209180433371</v>
       </c>
       <c r="O195" t="n">
-        <v>0.09845328179079875</v>
+        <v>0.1004605990925887</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.0228128185938529</v>
+        <v>0.01188156305006535</v>
       </c>
       <c r="G196" t="n">
-        <v>0.0964288725562374</v>
+        <v>0.1012333729317625</v>
       </c>
       <c r="J196" t="n">
-        <v>0.0190956449531238</v>
+        <v>0.02202050839216399</v>
       </c>
       <c r="K196" t="n">
-        <v>0.09626342831020498</v>
+        <v>0.1007288730782821</v>
       </c>
       <c r="L196" t="n">
-        <v>0.04214589702848842</v>
+        <v>0.04789227472188851</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1011633056907058</v>
+        <v>0.1005749857066198</v>
       </c>
       <c r="N196" t="n">
-        <v>0.06690793897714215</v>
+        <v>0.01188156305006535</v>
       </c>
       <c r="O196" t="n">
-        <v>0.09921061472765105</v>
+        <v>0.1012333729317625</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02264793379787657</v>
+        <v>0.01191530371666049</v>
       </c>
       <c r="G197" t="n">
-        <v>0.09716497082002547</v>
+        <v>0.1020061467709362</v>
       </c>
       <c r="J197" t="n">
-        <v>0.01905307564355081</v>
+        <v>0.0216951349802883</v>
       </c>
       <c r="K197" t="n">
-        <v>0.09699826364081723</v>
+        <v>0.1014977957735362</v>
       </c>
       <c r="L197" t="n">
-        <v>0.04210823714165446</v>
+        <v>0.04811984569827177</v>
       </c>
       <c r="M197" t="n">
-        <v>0.101935544665444</v>
+        <v>0.1013427336891131</v>
       </c>
       <c r="N197" t="n">
-        <v>0.06631813739866443</v>
+        <v>0.01191530371666049</v>
       </c>
       <c r="O197" t="n">
-        <v>0.09996794766450334</v>
+        <v>0.1020061467709362</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02348055591808661</v>
+        <v>0.0117529739957498</v>
       </c>
       <c r="G198" t="n">
-        <v>0.09790106908381355</v>
+        <v>0.10277892061011</v>
       </c>
       <c r="J198" t="n">
-        <v>0.01881237214777669</v>
+        <v>0.02117482208624119</v>
       </c>
       <c r="K198" t="n">
-        <v>0.09773309897142948</v>
+        <v>0.1022667184687902</v>
       </c>
       <c r="L198" t="n">
-        <v>0.04186990194887816</v>
+        <v>0.04743467725800654</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1027077836401822</v>
+        <v>0.1021104816716064</v>
       </c>
       <c r="N198" t="n">
-        <v>0.06524885021619858</v>
+        <v>0.0117529739957498</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1007252806013556</v>
+        <v>0.10277892061011</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02131112894504258</v>
+        <v>0.01189423407896394</v>
       </c>
       <c r="G199" t="n">
-        <v>0.09863716734760161</v>
+        <v>0.1035516944492837</v>
       </c>
       <c r="J199" t="n">
-        <v>0.01877437879415943</v>
+        <v>0.02075956011323585</v>
       </c>
       <c r="K199" t="n">
-        <v>0.09846793430204173</v>
+        <v>0.1030356411640443</v>
       </c>
       <c r="L199" t="n">
-        <v>0.04163125840267537</v>
+        <v>0.04693612096614602</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1034800226149204</v>
+        <v>0.1028782296540997</v>
       </c>
       <c r="N199" t="n">
-        <v>0.06490608945004622</v>
+        <v>0.01189423407896394</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1014826135382079</v>
+        <v>0.1035516944492837</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02114009686930404</v>
+        <v>0.01173874415793355</v>
       </c>
       <c r="G200" t="n">
-        <v>0.09937326561138969</v>
+        <v>0.1043244682884575</v>
       </c>
       <c r="J200" t="n">
-        <v>0.01873993991105706</v>
+        <v>0.02054933946448562</v>
       </c>
       <c r="K200" t="n">
-        <v>0.09920276963265399</v>
+        <v>0.1038045638592983</v>
       </c>
       <c r="L200" t="n">
-        <v>0.04139267345556186</v>
+        <v>0.04662352838774292</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1042522615896587</v>
+        <v>0.1036459776365929</v>
       </c>
       <c r="N200" t="n">
-        <v>0.06409586712050896</v>
+        <v>0.01173874415793355</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1022399464750602</v>
+        <v>0.1043244682884575</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02196790368143056</v>
+        <v>0.01178616442428934</v>
       </c>
       <c r="G201" t="n">
-        <v>0.1001093638751778</v>
+        <v>0.1050972421276313</v>
       </c>
       <c r="J201" t="n">
-        <v>0.01860989982682763</v>
+        <v>0.02014415054320365</v>
       </c>
       <c r="K201" t="n">
-        <v>0.09993760496326624</v>
+        <v>0.1045734865545524</v>
       </c>
       <c r="L201" t="n">
-        <v>0.04115451406005347</v>
+        <v>0.04649625108785005</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1050245005643969</v>
+        <v>0.1044137256190862</v>
       </c>
       <c r="N201" t="n">
-        <v>0.06352419524788844</v>
+        <v>0.01178616442428934</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1029972794119125</v>
+        <v>0.1050972421276313</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02279499337198167</v>
+        <v>0.01173615506966197</v>
       </c>
       <c r="G202" t="n">
-        <v>0.1008454621389658</v>
+        <v>0.105870015966805</v>
       </c>
       <c r="J202" t="n">
-        <v>0.01838510286982913</v>
+        <v>0.01984398375260324</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1006724402938785</v>
+        <v>0.1053424092498065</v>
       </c>
       <c r="L202" t="n">
-        <v>0.04051714716866597</v>
+        <v>0.0460536406315204</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1057967395391351</v>
+        <v>0.1051814736015795</v>
       </c>
       <c r="N202" t="n">
-        <v>0.06319708585248623</v>
+        <v>0.01173615506966197</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1037546123487648</v>
+        <v>0.105870015966805</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02162180993151691</v>
+        <v>0.01168837628568208</v>
       </c>
       <c r="G203" t="n">
-        <v>0.1015815604027539</v>
+        <v>0.1066427898059788</v>
       </c>
       <c r="J203" t="n">
-        <v>0.0181663933684196</v>
+        <v>0.01984882949589767</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1014072756244907</v>
+        <v>0.1061113319450605</v>
       </c>
       <c r="L203" t="n">
-        <v>0.04028093973391525</v>
+        <v>0.0459947777626144</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1065689785138733</v>
+        <v>0.1059492215840728</v>
       </c>
       <c r="N203" t="n">
-        <v>0.06332055095460393</v>
+        <v>0.01168837628568208</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1045119452856171</v>
+        <v>0.1066427898059788</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02244879735059588</v>
+        <v>0.01164248826398034</v>
       </c>
       <c r="G204" t="n">
-        <v>0.102317658666542</v>
+        <v>0.1074155636451525</v>
       </c>
       <c r="J204" t="n">
-        <v>0.01825461565095707</v>
+        <v>0.01935867817630016</v>
       </c>
       <c r="K204" t="n">
-        <v>0.102142110955103</v>
+        <v>0.1068802546403146</v>
       </c>
       <c r="L204" t="n">
-        <v>0.04004625870831705</v>
+        <v>0.04568610251958649</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1073412174886115</v>
+        <v>0.106716969566566</v>
       </c>
       <c r="N204" t="n">
-        <v>0.06300060257454332</v>
+        <v>0.01164248826398034</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1052692782224694</v>
+        <v>0.1074155636451525</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02027639961977809</v>
+        <v>0.01139815119618744</v>
       </c>
       <c r="G205" t="n">
-        <v>0.1030537569303301</v>
+        <v>0.1081883374843263</v>
       </c>
       <c r="J205" t="n">
-        <v>0.01815061404579957</v>
+        <v>0.019273520197024</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1028769462857153</v>
+        <v>0.1076491773355686</v>
       </c>
       <c r="L205" t="n">
-        <v>0.03981347104438723</v>
+        <v>0.04500822176756336</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1081134564633497</v>
+        <v>0.1074847175490593</v>
       </c>
       <c r="N205" t="n">
-        <v>0.06234325273260583</v>
+        <v>0.01139815119618744</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1060266111593217</v>
+        <v>0.1081883374843263</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02210506072962312</v>
+        <v>0.01145502527393403</v>
       </c>
       <c r="G206" t="n">
-        <v>0.1037898551941181</v>
+        <v>0.1089611113235001</v>
       </c>
       <c r="J206" t="n">
-        <v>0.01805523288130509</v>
+        <v>0.01879334596128238</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1036117816163275</v>
+        <v>0.1084181000308227</v>
       </c>
       <c r="L206" t="n">
-        <v>0.03998229553015767</v>
+        <v>0.04446617105509637</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1088856954380879</v>
+        <v>0.1082524655315526</v>
       </c>
       <c r="N206" t="n">
-        <v>0.06245451344909309</v>
+        <v>0.01145502527393403</v>
       </c>
       <c r="O206" t="n">
-        <v>0.106783944096174</v>
+        <v>0.1089611113235001</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02193522467069052</v>
+        <v>0.01151277068885078</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1045259534579062</v>
+        <v>0.1097338851626738</v>
       </c>
       <c r="J207" t="n">
-        <v>0.01786931648583169</v>
+        <v>0.01861814587228863</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1043466169469398</v>
+        <v>0.1091870227260768</v>
       </c>
       <c r="L207" t="n">
-        <v>0.03954938999988056</v>
+        <v>0.04356498593073677</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1096579344128261</v>
+        <v>0.1090202135140459</v>
       </c>
       <c r="N207" t="n">
-        <v>0.0618403967443068</v>
+        <v>0.01151277068885078</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1075412770330263</v>
+        <v>0.1097338851626738</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.01976733543353984</v>
+        <v>0.01137104763256835</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1052620517216943</v>
+        <v>0.1105066590018476</v>
       </c>
       <c r="J208" t="n">
-        <v>0.01789370918773736</v>
+        <v>0.01834791033325592</v>
       </c>
       <c r="K208" t="n">
-        <v>0.105081452277552</v>
+        <v>0.1099559454213308</v>
       </c>
       <c r="L208" t="n">
-        <v>0.03951422760218901</v>
+        <v>0.04300970194303561</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1104301733875644</v>
+        <v>0.1097879614965392</v>
       </c>
       <c r="N208" t="n">
-        <v>0.06190646277431455</v>
+        <v>0.01137104763256835</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1082986099698786</v>
+        <v>0.1105066590018476</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02060183700873064</v>
+        <v>0.01142951629671742</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1059981499854823</v>
+        <v>0.1112794328410213</v>
       </c>
       <c r="J209" t="n">
-        <v>0.01772925531538015</v>
+        <v>0.01828262974739761</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1058162876081643</v>
+        <v>0.1107248681165849</v>
       </c>
       <c r="L209" t="n">
-        <v>0.03887681214017905</v>
+        <v>0.04270535464054415</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1112024123623025</v>
+        <v>0.1105557094790325</v>
       </c>
       <c r="N209" t="n">
-        <v>0.06220654758334049</v>
+        <v>0.01142951629671742</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1090559429067309</v>
+        <v>0.1112794328410213</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.01943917338682247</v>
+        <v>0.01118783687292865</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1067342482492704</v>
+        <v>0.1120522066801951</v>
       </c>
       <c r="J210" t="n">
-        <v>0.01767679919711809</v>
+        <v>0.01792229451792687</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1065511229387765</v>
+        <v>0.1114937908118389</v>
       </c>
       <c r="L210" t="n">
-        <v>0.03863714741694668</v>
+        <v>0.04145697957181349</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1119746513370408</v>
+        <v>0.1113234574615257</v>
       </c>
       <c r="N210" t="n">
-        <v>0.06190705145627523</v>
+        <v>0.01118783687292865</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1098132758435832</v>
+        <v>0.1120522066801951</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.01927978855837489</v>
+        <v>0.01134566955283269</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1074703465130585</v>
+        <v>0.1128249805193689</v>
       </c>
       <c r="J211" t="n">
-        <v>0.01763718516130917</v>
+        <v>0.01746689504805699</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1072859582693888</v>
+        <v>0.112262713507093</v>
       </c>
       <c r="L211" t="n">
-        <v>0.03849523723558784</v>
+        <v>0.04056961228539502</v>
       </c>
       <c r="M211" t="n">
-        <v>0.112746890311779</v>
+        <v>0.112091205444019</v>
       </c>
       <c r="N211" t="n">
-        <v>0.06220835453850454</v>
+        <v>0.01134566955283269</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1105706087804355</v>
+        <v>0.1128249805193689</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02012412651394745</v>
+        <v>0.01130267452806023</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1082064447768466</v>
+        <v>0.1135977543585426</v>
       </c>
       <c r="J212" t="n">
-        <v>0.01771125753631145</v>
+        <v>0.01711642174100117</v>
       </c>
       <c r="K212" t="n">
-        <v>0.108020793600001</v>
+        <v>0.1130316362023471</v>
       </c>
       <c r="L212" t="n">
-        <v>0.03845108539919853</v>
+        <v>0.0397482883298399</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1135191292865172</v>
+        <v>0.1128589534265123</v>
       </c>
       <c r="N212" t="n">
-        <v>0.06211083697541436</v>
+        <v>0.01130267452806023</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1113279417172878</v>
+        <v>0.1135977543585426</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.0189726312440997</v>
+        <v>0.01125851199024193</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1089425430406346</v>
+        <v>0.1143705281977164</v>
       </c>
       <c r="J213" t="n">
-        <v>0.01769986065048294</v>
+        <v>0.01697086499997277</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1087556289306133</v>
+        <v>0.1138005588976011</v>
       </c>
       <c r="L213" t="n">
-        <v>0.0382046957108747</v>
+        <v>0.03899804325369916</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1142913682612554</v>
+        <v>0.1136267014090056</v>
       </c>
       <c r="N213" t="n">
-        <v>0.06201487891239044</v>
+        <v>0.01125851199024193</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1120852746541401</v>
+        <v>0.1143705281977164</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.01882538458860643</v>
+        <v>0.01111284213100844</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1096786413044227</v>
+        <v>0.1151433020368901</v>
       </c>
       <c r="J214" t="n">
-        <v>0.01749961820414161</v>
+        <v>0.01673021522818499</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1094904642612255</v>
+        <v>0.1145694815928552</v>
       </c>
       <c r="L214" t="n">
-        <v>0.03775607197371231</v>
+        <v>0.03872391260552427</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1150636072359936</v>
+        <v>0.1143944493914988</v>
       </c>
       <c r="N214" t="n">
-        <v>0.06202086049481864</v>
+        <v>0.01111284213100844</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1128426075909924</v>
+        <v>0.1151433020368901</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02067836554634499</v>
+        <v>0.01106532514199045</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1104147395682108</v>
+        <v>0.1159160758760639</v>
       </c>
       <c r="J215" t="n">
-        <v>0.01750071000516661</v>
+        <v>0.01679446282885108</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1102252995918378</v>
+        <v>0.1153384042881093</v>
       </c>
       <c r="L215" t="n">
-        <v>0.0374052179908074</v>
+        <v>0.03783093193386611</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1158358462107318</v>
+        <v>0.1151621973739921</v>
       </c>
       <c r="N215" t="n">
-        <v>0.06222916186808475</v>
+        <v>0.01106532514199045</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1135999405278447</v>
+        <v>0.1159160758760639</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02053034446663919</v>
+        <v>0.01101562121481862</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1111508378319988</v>
+        <v>0.1166888497152377</v>
       </c>
       <c r="J216" t="n">
-        <v>0.01770275801753973</v>
+        <v>0.01626359820518428</v>
       </c>
       <c r="K216" t="n">
-        <v>0.11096013492245</v>
+        <v>0.1161073269833633</v>
       </c>
       <c r="L216" t="n">
-        <v>0.03725213756525594</v>
+        <v>0.03682413678727625</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1166080851854701</v>
+        <v>0.1159299453564854</v>
       </c>
       <c r="N216" t="n">
-        <v>0.06224016317757469</v>
+        <v>0.01101562121481862</v>
       </c>
       <c r="O216" t="n">
-        <v>0.114357273464697</v>
+        <v>0.1166888497152377</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.01838132384949412</v>
+        <v>0.0110633905411236</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1118869360957869</v>
+        <v>0.1174616235544114</v>
       </c>
       <c r="J217" t="n">
-        <v>0.0175058388377423</v>
+        <v>0.01623761176039784</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1116949702530623</v>
+        <v>0.1168762496786174</v>
       </c>
       <c r="L217" t="n">
-        <v>0.03709683450015389</v>
+        <v>0.03600856271430564</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1173803241602082</v>
+        <v>0.1166976933389787</v>
       </c>
       <c r="N217" t="n">
-        <v>0.06185424456867428</v>
+        <v>0.0110633905411236</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1151146064015493</v>
+        <v>0.1174616235544114</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.01823130619491488</v>
+        <v>0.01090829331253607</v>
       </c>
       <c r="G218" t="n">
-        <v>0.112623034359575</v>
+        <v>0.1182343973935852</v>
       </c>
       <c r="J218" t="n">
-        <v>0.01771002906225562</v>
+        <v>0.0160164938977051</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1124298055836745</v>
+        <v>0.1176451723738715</v>
       </c>
       <c r="L218" t="n">
-        <v>0.03663931259859721</v>
+        <v>0.03498924526350555</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1181525631349465</v>
+        <v>0.117465441321472</v>
       </c>
       <c r="N218" t="n">
-        <v>0.0619717861867693</v>
+        <v>0.01090829331253607</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1158719393384016</v>
+        <v>0.1182343973935852</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.01808029400290651</v>
+        <v>0.0108499897206867</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1133591326233631</v>
+        <v>0.1190071712327589</v>
       </c>
       <c r="J219" t="n">
-        <v>0.01761540528756098</v>
+        <v>0.01570023502031914</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1131646409142868</v>
+        <v>0.1184140950691255</v>
       </c>
       <c r="L219" t="n">
-        <v>0.03657957566368189</v>
+        <v>0.03387121998342718</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1189248021096847</v>
+        <v>0.1182331893039653</v>
       </c>
       <c r="N219" t="n">
-        <v>0.06199316817724565</v>
+        <v>0.0108499897206867</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1166292722752539</v>
+        <v>0.1190071712327589</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.01892828977347415</v>
+        <v>0.01068813995720615</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1140952308871511</v>
+        <v>0.1197799450719327</v>
       </c>
       <c r="J220" t="n">
-        <v>0.01762204411013968</v>
+        <v>0.01538882553145343</v>
       </c>
       <c r="K220" t="n">
-        <v>0.113899476244899</v>
+        <v>0.1191830177643796</v>
       </c>
       <c r="L220" t="n">
-        <v>0.03641762749850394</v>
+        <v>0.03295952242262179</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1196970410844229</v>
+        <v>0.1190009372864585</v>
       </c>
       <c r="N220" t="n">
-        <v>0.06191877068548912</v>
+        <v>0.01068813995720615</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1173866052121062</v>
+        <v>0.1197799450719327</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.01777529600662285</v>
+        <v>0.0106224042137251</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1148313291509392</v>
+        <v>0.1205527189111065</v>
       </c>
       <c r="J221" t="n">
-        <v>0.01753002212647302</v>
+        <v>0.01538225583432104</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1146343115755113</v>
+        <v>0.1199519404596336</v>
       </c>
       <c r="L221" t="n">
-        <v>0.03605347190615926</v>
+        <v>0.03185918812964045</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1204692800591611</v>
+        <v>0.1197686852689518</v>
       </c>
       <c r="N221" t="n">
-        <v>0.06194897385688558</v>
+        <v>0.0106224042137251</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1181439381489585</v>
+        <v>0.1205527189111065</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.0196213152023577</v>
+        <v>0.01075244268187418</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1155674274147273</v>
+        <v>0.1213254927502802</v>
       </c>
       <c r="J222" t="n">
-        <v>0.01763941593304233</v>
+        <v>0.01508051633213534</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1153691469061235</v>
+        <v>0.1207208631548877</v>
       </c>
       <c r="L222" t="n">
-        <v>0.03588711268974396</v>
+        <v>0.03097525265303458</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1212415190338993</v>
+        <v>0.1205364332514451</v>
       </c>
       <c r="N222" t="n">
-        <v>0.06198415783682082</v>
+        <v>0.01075244268187418</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1189012710858108</v>
+        <v>0.1213254927502802</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.01846634986068384</v>
+        <v>0.0106779155532841</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1163035256785153</v>
+        <v>0.122098266589454</v>
       </c>
       <c r="J223" t="n">
-        <v>0.01765030212632888</v>
+        <v>0.01498359742810956</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1161039822367358</v>
+        <v>0.1214897858501418</v>
       </c>
       <c r="L223" t="n">
-        <v>0.03541855365235388</v>
+        <v>0.03001275154135519</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1220137580086375</v>
+        <v>0.1213041812339384</v>
       </c>
       <c r="N223" t="n">
-        <v>0.06262470277068072</v>
+        <v>0.0106779155532841</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1196586040226631</v>
+        <v>0.122098266589454</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.0193104024816063</v>
+        <v>0.01059941242668674</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1170396239423034</v>
+        <v>0.1228710404286277</v>
       </c>
       <c r="J224" t="n">
-        <v>0.01756275730281401</v>
+        <v>0.01489148952545694</v>
       </c>
       <c r="K224" t="n">
-        <v>0.116838817567348</v>
+        <v>0.1222587085453958</v>
       </c>
       <c r="L224" t="n">
-        <v>0.03534779859708512</v>
+        <v>0.02947672034315352</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1227859969833758</v>
+        <v>0.1220719292164317</v>
       </c>
       <c r="N224" t="n">
-        <v>0.06217098880385113</v>
+        <v>0.01059941242668674</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1204159369595154</v>
+        <v>0.1228710404286277</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.01715347556513018</v>
+        <v>0.01031877243331979</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1177757222060915</v>
+        <v>0.1236438142678015</v>
       </c>
       <c r="J225" t="n">
-        <v>0.01767685805897899</v>
+        <v>0.01470315892536678</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1175736528979603</v>
+        <v>0.1230276312406499</v>
       </c>
       <c r="L225" t="n">
-        <v>0.03487485132703352</v>
+        <v>0.02877219460698083</v>
       </c>
       <c r="M225" t="n">
-        <v>0.123558235958114</v>
+        <v>0.122839677198925</v>
       </c>
       <c r="N225" t="n">
-        <v>0.06252339608171781</v>
+        <v>0.01031877243331979</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1211732698963677</v>
+        <v>0.1236438142678015</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.01699557161126057</v>
+        <v>0.01043608335512796</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1185118204698796</v>
+        <v>0.1244165881069752</v>
       </c>
       <c r="J226" t="n">
-        <v>0.01779268099130513</v>
+        <v>0.01421615759956071</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1183084882285725</v>
+        <v>0.1237965539359039</v>
       </c>
       <c r="L226" t="n">
-        <v>0.03479971564529521</v>
+        <v>0.02760420988138834</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1243304749328522</v>
+        <v>0.1236074251814182</v>
       </c>
       <c r="N226" t="n">
-        <v>0.06238230474966672</v>
+        <v>0.01043608335512796</v>
       </c>
       <c r="O226" t="n">
-        <v>0.12193060283322</v>
+        <v>0.1244165881069752</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.01783669312000256</v>
+        <v>0.01035136986319003</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1192479187336676</v>
+        <v>0.125189361946149</v>
       </c>
       <c r="J227" t="n">
-        <v>0.01771030269627373</v>
+        <v>0.01413046539909221</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1190433235591848</v>
+        <v>0.124565476631158</v>
       </c>
       <c r="L227" t="n">
-        <v>0.03442239535496605</v>
+        <v>0.02727045024055669</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1251027139075904</v>
+        <v>0.1243751731639115</v>
       </c>
       <c r="N227" t="n">
-        <v>0.06224809495308364</v>
+        <v>0.01035136986319003</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1226879357700723</v>
+        <v>0.125189361946149</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.01667684259136125</v>
+        <v>0.01006465662858471</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1199840169974557</v>
+        <v>0.1259621357853228</v>
       </c>
       <c r="J228" t="n">
-        <v>0.01762979977036611</v>
+        <v>0.01394617523712266</v>
       </c>
       <c r="K228" t="n">
-        <v>0.119778158889797</v>
+        <v>0.1253343993264121</v>
       </c>
       <c r="L228" t="n">
-        <v>0.03404289425914209</v>
+        <v>0.02614227254321649</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1258749528823286</v>
+        <v>0.1251429211464048</v>
       </c>
       <c r="N228" t="n">
-        <v>0.06292114683735434</v>
+        <v>0.01006465662858471</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1234452687069246</v>
+        <v>0.1259621357853228</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01751602252534169</v>
+        <v>0.01007596832239079</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1207201152612438</v>
+        <v>0.1267349096244965</v>
       </c>
       <c r="J229" t="n">
-        <v>0.01785124881006356</v>
+        <v>0.01356338002681351</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1205129942204093</v>
+        <v>0.1261033220216661</v>
       </c>
       <c r="L229" t="n">
-        <v>0.03396121616091927</v>
+        <v>0.02561625104917947</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1266471918570668</v>
+        <v>0.1259106691288981</v>
       </c>
       <c r="N229" t="n">
-        <v>0.06270184054786471</v>
+        <v>0.01007596832239079</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1242026016437769</v>
+        <v>0.1267349096244965</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01835423542194901</v>
+        <v>0.00998532961568703</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1214562135250318</v>
+        <v>0.1275076834636703</v>
       </c>
       <c r="J230" t="n">
-        <v>0.01777472641184738</v>
+        <v>0.01348217268132612</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1212478295510215</v>
+        <v>0.1268722447169202</v>
       </c>
       <c r="L230" t="n">
-        <v>0.03357736486339358</v>
+        <v>0.02499243255586048</v>
       </c>
       <c r="M230" t="n">
-        <v>0.127419430831805</v>
+        <v>0.1266784171113914</v>
       </c>
       <c r="N230" t="n">
-        <v>0.06309055623000065</v>
+        <v>0.00998532961568703</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1249599345806292</v>
+        <v>0.1275076834636703</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01819148378118828</v>
+        <v>0.009792765179552194</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1221923117888199</v>
+        <v>0.128280457302844</v>
       </c>
       <c r="J231" t="n">
-        <v>0.01780030917219887</v>
+        <v>0.01350264611382188</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1219826648816338</v>
+        <v>0.1276411674121742</v>
       </c>
       <c r="L231" t="n">
-        <v>0.03319134416966096</v>
+        <v>0.02417086386067457</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1281916698065432</v>
+        <v>0.1274461650938847</v>
       </c>
       <c r="N231" t="n">
-        <v>0.06258767402914794</v>
+        <v>0.009792765179552194</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1257172675174815</v>
+        <v>0.128280457302844</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01702777010306458</v>
+        <v>0.009698299685065012</v>
       </c>
       <c r="G232" t="n">
-        <v>0.122928410052608</v>
+        <v>0.1290532311420178</v>
       </c>
       <c r="J232" t="n">
-        <v>0.01782807368759934</v>
+        <v>0.01342489323746227</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1227175002122461</v>
+        <v>0.1284100901074283</v>
       </c>
       <c r="L232" t="n">
-        <v>0.03300315788281746</v>
+        <v>0.02355159176103655</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1289639087812814</v>
+        <v>0.1282139130763779</v>
       </c>
       <c r="N232" t="n">
-        <v>0.06299357409069234</v>
+        <v>0.009698299685065012</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1264746004543338</v>
+        <v>0.1290532311420178</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.016863096887583</v>
+        <v>0.009601957803304272</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1236645083163961</v>
+        <v>0.1298260049811915</v>
       </c>
       <c r="J233" t="n">
-        <v>0.01785809655453009</v>
+        <v>0.01284900696540864</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1234523355428583</v>
+        <v>0.1291790128026824</v>
       </c>
       <c r="L233" t="n">
-        <v>0.03261280980595904</v>
+        <v>0.02293466305436148</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1297361477560196</v>
+        <v>0.1289816610588712</v>
       </c>
       <c r="N233" t="n">
-        <v>0.06330863656001984</v>
+        <v>0.009601957803304272</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1272319333911861</v>
+        <v>0.1298260049811915</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01769746663474864</v>
+        <v>0.009503764205348722</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1244006065801841</v>
+        <v>0.1305987788203653</v>
       </c>
       <c r="J234" t="n">
-        <v>0.01789045436947244</v>
+        <v>0.01297508021082244</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1241871708734706</v>
+        <v>0.1299479354979364</v>
       </c>
       <c r="L234" t="n">
-        <v>0.03252030374218168</v>
+        <v>0.02202012453806418</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1305083867307578</v>
+        <v>0.1297494090413644</v>
       </c>
       <c r="N234" t="n">
-        <v>0.06293324158251618</v>
+        <v>0.009503764205348722</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1279892663280384</v>
+        <v>0.1305987788203653</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01553088184456657</v>
+        <v>0.009503743562277109</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1251367048439722</v>
+        <v>0.1313715526595391</v>
       </c>
       <c r="J235" t="n">
-        <v>0.01802522372890768</v>
+        <v>0.01270320588686505</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1249220062040828</v>
+        <v>0.1307168581931905</v>
       </c>
       <c r="L235" t="n">
-        <v>0.03222564349458129</v>
+        <v>0.02100802300955967</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1312806257054961</v>
+        <v>0.1305171570238578</v>
       </c>
       <c r="N235" t="n">
-        <v>0.06346776930356712</v>
+        <v>0.009503743562277109</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1287465992648907</v>
+        <v>0.1313715526595391</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01636334501704189</v>
+        <v>0.009301920545168207</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1258728031077603</v>
+        <v>0.1321443264987129</v>
       </c>
       <c r="J236" t="n">
-        <v>0.0179624812293171</v>
+        <v>0.01243347690669794</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1256568415346951</v>
+        <v>0.1314857808884446</v>
       </c>
       <c r="L236" t="n">
-        <v>0.03202883286625391</v>
+        <v>0.02059840526626289</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1320528646802343</v>
+        <v>0.131284905006351</v>
       </c>
       <c r="N236" t="n">
-        <v>0.06381259986855869</v>
+        <v>0.009301920545168207</v>
       </c>
       <c r="O236" t="n">
-        <v>0.129503932201743</v>
+        <v>0.1321443264987129</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01519485865217968</v>
+        <v>0.009198319825100783</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1266089013715483</v>
+        <v>0.1329171003378866</v>
       </c>
       <c r="J237" t="n">
-        <v>0.01800230346718201</v>
+        <v>0.0125659861834824</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1263916768653073</v>
+        <v>0.1322547035836986</v>
       </c>
       <c r="L237" t="n">
-        <v>0.03142987566029554</v>
+        <v>0.02009131810558878</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1328251036549725</v>
+        <v>0.1320526529888443</v>
       </c>
       <c r="N237" t="n">
-        <v>0.06366811342287659</v>
+        <v>0.009198319825100783</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1302612651385953</v>
+        <v>0.1329171003378866</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01502542524998503</v>
+        <v>0.009092966073153581</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1273449996353364</v>
+        <v>0.1336898741770604</v>
       </c>
       <c r="J238" t="n">
-        <v>0.01794476703898371</v>
+        <v>0.01220082663037994</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1271265121959196</v>
+        <v>0.1330236262789527</v>
       </c>
       <c r="L238" t="n">
-        <v>0.03102877567980206</v>
+        <v>0.01928680832495228</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1335973426297107</v>
+        <v>0.1328204009713376</v>
       </c>
       <c r="N238" t="n">
-        <v>0.06393469011190672</v>
+        <v>0.009092966073153581</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1310185980754476</v>
+        <v>0.1336898741770604</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01585504731046303</v>
+        <v>0.008985883960405346</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1280810978991245</v>
+        <v>0.1344626480162341</v>
       </c>
       <c r="J239" t="n">
-        <v>0.01798994854120353</v>
+        <v>0.01203809116055199</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1278613475265318</v>
+        <v>0.1337925489742068</v>
       </c>
       <c r="L239" t="n">
-        <v>0.03102553672786959</v>
+        <v>0.01868492272176836</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1343695816044489</v>
+        <v>0.1335881489538309</v>
       </c>
       <c r="N239" t="n">
-        <v>0.06441271008103494</v>
+        <v>0.008985883960405346</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1317759310122998</v>
+        <v>0.1344626480162341</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01568372733361876</v>
+        <v>0.009077098157934865</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1288171961629126</v>
+        <v>0.1352354218554079</v>
       </c>
       <c r="J240" t="n">
-        <v>0.01823792457032274</v>
+        <v>0.0118778726871599</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1285961828571441</v>
+        <v>0.1345614716694608</v>
       </c>
       <c r="L240" t="n">
-        <v>0.03062016260759401</v>
+        <v>0.01758570809345195</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1351418205791871</v>
+        <v>0.1343558969363242</v>
       </c>
       <c r="N240" t="n">
-        <v>0.06390255347564705</v>
+        <v>0.009077098157934865</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1325332639491522</v>
+        <v>0.1352354218554079</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01451146781945731</v>
+        <v>0.00876663333682088</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1295532944267006</v>
+        <v>0.1360081956945816</v>
       </c>
       <c r="J241" t="n">
-        <v>0.01818877172282266</v>
+        <v>0.01192026412336508</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1293310181877563</v>
+        <v>0.1353303943647149</v>
       </c>
       <c r="L241" t="n">
-        <v>0.03041265712207133</v>
+        <v>0.0171892112374179</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1359140595539254</v>
+        <v>0.1351236449188175</v>
       </c>
       <c r="N241" t="n">
-        <v>0.06480460044112879</v>
+        <v>0.00876663333682088</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1332905968860044</v>
+        <v>0.1360081956945816</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01633827126798378</v>
+        <v>0.008854514168142161</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1302893926904887</v>
+        <v>0.1367809695337554</v>
       </c>
       <c r="J242" t="n">
-        <v>0.01834256659518459</v>
+        <v>0.01176535838232898</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1300658535183686</v>
+        <v>0.1360993170599689</v>
       </c>
       <c r="L242" t="n">
-        <v>0.02980302407439744</v>
+        <v>0.01649547895108133</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1366862985286636</v>
+        <v>0.1358913929013107</v>
       </c>
       <c r="N242" t="n">
-        <v>0.06491923112286613</v>
+        <v>0.008854514168142161</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1340479298228568</v>
+        <v>0.1367809695337554</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01616414017920324</v>
+        <v>0.008540765322977456</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1310254909542768</v>
+        <v>0.1375537433729291</v>
       </c>
       <c r="J243" t="n">
-        <v>0.01829938578388982</v>
+        <v>0.01131324837721298</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1308006888489808</v>
+        <v>0.136868239755223</v>
       </c>
       <c r="L243" t="n">
-        <v>0.02979126726766848</v>
+        <v>0.01590455803185714</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1374585375034018</v>
+        <v>0.136659140883804</v>
       </c>
       <c r="N243" t="n">
-        <v>0.06484682566624483</v>
+        <v>0.008540765322977456</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1348052627597091</v>
+        <v>0.1375537433729291</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01398907705312078</v>
+        <v>0.008525411472405521</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1317615892180649</v>
+        <v>0.1383265172121029</v>
       </c>
       <c r="J244" t="n">
-        <v>0.01845930588541965</v>
+        <v>0.01146402702117849</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1315355241795931</v>
+        <v>0.1376371624504771</v>
       </c>
       <c r="L244" t="n">
-        <v>0.02947739050498036</v>
+        <v>0.01471649527716024</v>
       </c>
       <c r="M244" t="n">
-        <v>0.13823077647814</v>
+        <v>0.1374268888662973</v>
       </c>
       <c r="N244" t="n">
-        <v>0.06488776421665082</v>
+        <v>0.008525411472405521</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1355625956965614</v>
+        <v>0.1383265172121029</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.0148130843897415</v>
+        <v>0.008308477287505125</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1324976874818529</v>
+        <v>0.1390992910512767</v>
       </c>
       <c r="J245" t="n">
-        <v>0.0184224034962554</v>
+        <v>0.01131778722738694</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1322703595102053</v>
+        <v>0.1384060851457311</v>
       </c>
       <c r="L245" t="n">
-        <v>0.02896139758942901</v>
+        <v>0.01453133748440544</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1390030154528782</v>
+        <v>0.1381946368487906</v>
       </c>
       <c r="N245" t="n">
-        <v>0.06514242691946986</v>
+        <v>0.008308477287505125</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1363199286334137</v>
+        <v>0.1390992910512767</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01563616468907048</v>
+        <v>0.00828998743935503</v>
       </c>
       <c r="G246" t="n">
-        <v>0.133233785745641</v>
+        <v>0.1398720648904504</v>
       </c>
       <c r="J246" t="n">
-        <v>0.01848875521287839</v>
+        <v>0.01077462190899969</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1330051948408176</v>
+        <v>0.1391750078409852</v>
       </c>
       <c r="L246" t="n">
-        <v>0.02894329232411044</v>
+        <v>0.01344913145100785</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1397752544276164</v>
+        <v>0.1389623848312838</v>
       </c>
       <c r="N246" t="n">
-        <v>0.06581119392008777</v>
+        <v>0.00828998743935503</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1370772615702659</v>
+        <v>0.1398720648904504</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.0144583204511128</v>
+        <v>0.008069966599033994</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1339698840094291</v>
+        <v>0.1406448387296242</v>
       </c>
       <c r="J247" t="n">
-        <v>0.0186584376317699</v>
+        <v>0.01063462397917825</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1337400301714298</v>
+        <v>0.1399439305362392</v>
       </c>
       <c r="L247" t="n">
-        <v>0.02842307851212064</v>
+        <v>0.01316992397438244</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1405474934023546</v>
+        <v>0.1397301328137771</v>
       </c>
       <c r="N247" t="n">
-        <v>0.06559444536389047</v>
+        <v>0.008069966599033994</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1378345945071182</v>
+        <v>0.1406448387296242</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01327955417587354</v>
+        <v>0.00804843943762075</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1347059822732171</v>
+        <v>0.141417612568798</v>
       </c>
       <c r="J248" t="n">
-        <v>0.0186315273494112</v>
+        <v>0.01089788635108391</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1344748655020421</v>
+        <v>0.1407128532314933</v>
       </c>
       <c r="L248" t="n">
-        <v>0.02810075995655559</v>
+        <v>0.01229376185194403</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1413197323770928</v>
+        <v>0.1404978807962704</v>
       </c>
       <c r="N248" t="n">
-        <v>0.06639256139626371</v>
+        <v>0.00804843943762075</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1385919274439705</v>
+        <v>0.141417612568798</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01409986836335782</v>
+        <v>0.007925430626194087</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1354420805370052</v>
+        <v>0.1421903864079717</v>
       </c>
       <c r="J249" t="n">
-        <v>0.01880810096228366</v>
+        <v>0.01066450193787816</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1352097008326544</v>
+        <v>0.1414817759267474</v>
       </c>
       <c r="L249" t="n">
-        <v>0.02777634046051125</v>
+        <v>0.01192069188110767</v>
       </c>
       <c r="M249" t="n">
-        <v>0.142091971351831</v>
+        <v>0.1412656287787637</v>
       </c>
       <c r="N249" t="n">
-        <v>0.06670592216259341</v>
+        <v>0.007925430626194087</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1393492603808228</v>
+        <v>0.1421903864079717</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01491926551357071</v>
+        <v>0.007800964835832751</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1361781788007933</v>
+        <v>0.1429631602471455</v>
       </c>
       <c r="J250" t="n">
-        <v>0.01878823506686854</v>
+        <v>0.01043456365272238</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1359445361632666</v>
+        <v>0.1422506986220014</v>
       </c>
       <c r="L250" t="n">
-        <v>0.02754982382708365</v>
+        <v>0.01115076085928829</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1428642103265693</v>
+        <v>0.142033376761257</v>
       </c>
       <c r="N250" t="n">
-        <v>0.0672349078082653</v>
+        <v>0.007800964835832751</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1401065933176751</v>
+        <v>0.1429631602471455</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01273774812651727</v>
+        <v>0.007775066737615514</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1369142770645814</v>
+        <v>0.1437359340863192</v>
       </c>
       <c r="J251" t="n">
-        <v>0.01887200625964713</v>
+        <v>0.01040816440877804</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1366793714938788</v>
+        <v>0.1430196213172555</v>
       </c>
       <c r="L251" t="n">
-        <v>0.02702121385936868</v>
+        <v>0.01028401558390069</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1436364493013075</v>
+        <v>0.1428011247437503</v>
       </c>
       <c r="N251" t="n">
-        <v>0.06737989847866532</v>
+        <v>0.007775066737615514</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1408639262545274</v>
+        <v>0.1437359340863192</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01455531870220264</v>
+        <v>0.007547761002621105</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1376503753283694</v>
+        <v>0.144508707925493</v>
       </c>
       <c r="J252" t="n">
-        <v>0.01905949113710079</v>
+        <v>0.01038539711920644</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1374142068244911</v>
+        <v>0.1437885440125096</v>
       </c>
       <c r="L252" t="n">
-        <v>0.02689051436046236</v>
+        <v>0.009420502852360013</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1444086882760457</v>
+        <v>0.1435688727262435</v>
       </c>
       <c r="N252" t="n">
-        <v>0.06734127431917925</v>
+        <v>0.007547761002621105</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1416212591913797</v>
+        <v>0.144508707925493</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.01437197974063187</v>
+        <v>0.007319072301928319</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1383864735921575</v>
+        <v>0.1452814817646667</v>
       </c>
       <c r="J253" t="n">
-        <v>0.01915076629571076</v>
+        <v>0.009966354697169083</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1381490421551033</v>
+        <v>0.1445574667077636</v>
       </c>
       <c r="L253" t="n">
-        <v>0.02655772913346069</v>
+        <v>0.009360269462081128</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1451809272507839</v>
+        <v>0.1443366207087368</v>
       </c>
       <c r="N253" t="n">
-        <v>0.06761941547519296</v>
+        <v>0.007319072301928319</v>
       </c>
       <c r="O253" t="n">
-        <v>0.142378592128232</v>
+        <v>0.1452814817646667</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.01218773374181005</v>
+        <v>0.007289025306615876</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1391225718559456</v>
+        <v>0.1460542556038405</v>
       </c>
       <c r="J254" t="n">
-        <v>0.01904590833195838</v>
+        <v>0.01015113005582732</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1388838774857156</v>
+        <v>0.1453263894030177</v>
       </c>
       <c r="L254" t="n">
-        <v>0.0259228619814596</v>
+        <v>0.00810336221047897</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1459531662255221</v>
+        <v>0.1451043686912301</v>
       </c>
       <c r="N254" t="n">
-        <v>0.06801470209209226</v>
+        <v>0.007289025306615876</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1431359250650843</v>
+        <v>0.1460542556038405</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.01300258320574228</v>
+        <v>0.007257644687762577</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1398586701197337</v>
+        <v>0.1468270294430143</v>
       </c>
       <c r="J255" t="n">
-        <v>0.01914499384232494</v>
+        <v>0.009639816108342608</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1396187128163278</v>
+        <v>0.1460953120982717</v>
       </c>
       <c r="L255" t="n">
-        <v>0.02588591670755513</v>
+        <v>0.007949827894968509</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1467254052002603</v>
+        <v>0.1458721166737234</v>
       </c>
       <c r="N255" t="n">
-        <v>0.06862751431526298</v>
+        <v>0.007257644687762577</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1438932580019366</v>
+        <v>0.1468270294430143</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.01281653063243365</v>
+        <v>0.006924955116447161</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1405947683835217</v>
+        <v>0.147599803282188</v>
       </c>
       <c r="J256" t="n">
-        <v>0.01944809942329176</v>
+        <v>0.009932505767876326</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1403535481469401</v>
+        <v>0.1468642347935258</v>
       </c>
       <c r="L256" t="n">
-        <v>0.02524689711484324</v>
+        <v>0.006999713312964506</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1474976441749985</v>
+        <v>0.1466398646562166</v>
       </c>
       <c r="N256" t="n">
-        <v>0.06885823229009103</v>
+        <v>0.006924955116447161</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1446505909387889</v>
+        <v>0.147599803282188</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.01362957852188922</v>
+        <v>0.006890981263748368</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1413308666473098</v>
+        <v>0.1483725771213618</v>
       </c>
       <c r="J257" t="n">
-        <v>0.01955530167134012</v>
+        <v>0.009629291947589907</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1410883834775523</v>
+        <v>0.1476331574887799</v>
       </c>
       <c r="L257" t="n">
-        <v>0.02500580700641988</v>
+        <v>0.006153065261882196</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1482698831497367</v>
+        <v>0.1474076126387099</v>
       </c>
       <c r="N257" t="n">
-        <v>0.06980723616196216</v>
+        <v>0.006890981263748368</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1454079238756412</v>
+        <v>0.1483725771213618</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.01144172937411411</v>
+        <v>0.006755747800744977</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1420669649110979</v>
+        <v>0.1491453509605355</v>
       </c>
       <c r="J258" t="n">
-        <v>0.01946667718295132</v>
+        <v>0.009430267560644745</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1418232188081646</v>
+        <v>0.1484020801840339</v>
       </c>
       <c r="L258" t="n">
-        <v>0.02466265018538105</v>
+        <v>0.006009930539136399</v>
       </c>
       <c r="M258" t="n">
-        <v>0.149042122124475</v>
+        <v>0.1481753606212032</v>
       </c>
       <c r="N258" t="n">
-        <v>0.06987490607626223</v>
+        <v>0.006755747800744977</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1461652568124935</v>
+        <v>0.1491453509605355</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.01125298568911339</v>
+        <v>0.00671927939851575</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1428030631748859</v>
+        <v>0.1499181247997093</v>
       </c>
       <c r="J259" t="n">
-        <v>0.01968230255460668</v>
+        <v>0.009435525520202215</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1425580541387768</v>
+        <v>0.149171002879288</v>
       </c>
       <c r="L259" t="n">
-        <v>0.0246174304548227</v>
+        <v>0.005170355942142046</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1498143610992132</v>
+        <v>0.1489431086036965</v>
       </c>
       <c r="N259" t="n">
-        <v>0.07096162217837709</v>
+        <v>0.00671927939851575</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1469225897493458</v>
+        <v>0.1499181247997093</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.01206334996689214</v>
+        <v>0.006381600728139432</v>
       </c>
       <c r="G260" t="n">
-        <v>0.143539161438674</v>
+        <v>0.1506908986388831</v>
       </c>
       <c r="J260" t="n">
-        <v>0.0197022543827875</v>
+        <v>0.009545158739423798</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1432928894693891</v>
+        <v>0.1499399255745421</v>
       </c>
       <c r="L260" t="n">
-        <v>0.02427015161784085</v>
+        <v>0.004834388268314116</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1505866000739514</v>
+        <v>0.1497108565861898</v>
       </c>
       <c r="N260" t="n">
-        <v>0.07096776461369259</v>
+        <v>0.006381600728139432</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1476799226861981</v>
+        <v>0.1506908986388831</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.01187282470745548</v>
+        <v>0.006342736460694796</v>
       </c>
       <c r="G261" t="n">
-        <v>0.144275259702462</v>
+        <v>0.1514636724780568</v>
       </c>
       <c r="J261" t="n">
-        <v>0.02002660926397508</v>
+        <v>0.009259260131470881</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1440277248000013</v>
+        <v>0.1507088482697961</v>
       </c>
       <c r="L261" t="n">
-        <v>0.02352081747753146</v>
+        <v>0.003502074315067438</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1513588390486896</v>
+        <v>0.1504786045686831</v>
       </c>
       <c r="N261" t="n">
-        <v>0.07189371352759455</v>
+        <v>0.006342736460694796</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1484372556230504</v>
+        <v>0.1514636724780568</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.01268141241080846</v>
+        <v>0.006102711267260599</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1450113579662501</v>
+        <v>0.1522364463172306</v>
       </c>
       <c r="J262" t="n">
-        <v>0.02015544379465072</v>
+        <v>0.009377922609504874</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1447625601306136</v>
+        <v>0.1514777709650502</v>
       </c>
       <c r="L262" t="n">
-        <v>0.02346943183699052</v>
+        <v>0.003373460879817158</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1521310780234278</v>
+        <v>0.1512463525511763</v>
       </c>
       <c r="N262" t="n">
-        <v>0.07253984906546879</v>
+        <v>0.006102711267260599</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1491945885599027</v>
+        <v>0.1522364463172306</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.01248911557695619</v>
+        <v>0.006161549818915583</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1457474562300382</v>
+        <v>0.1530092201564043</v>
       </c>
       <c r="J263" t="n">
-        <v>0.02028883457129572</v>
+        <v>0.009101239086687168</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1454973954612258</v>
+        <v>0.1522466936603042</v>
       </c>
       <c r="L263" t="n">
-        <v>0.02321599849931399</v>
+        <v>0.002448594759978051</v>
       </c>
       <c r="M263" t="n">
-        <v>0.152903316998166</v>
+        <v>0.1520141005336696</v>
       </c>
       <c r="N263" t="n">
-        <v>0.07310655137270122</v>
+        <v>0.006161549818915583</v>
       </c>
       <c r="O263" t="n">
-        <v>0.149951921496755</v>
+        <v>0.1530092201564043</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.01029593670590375</v>
+        <v>0.005919276786738523</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1464835544938263</v>
+        <v>0.1537819939955781</v>
       </c>
       <c r="J264" t="n">
-        <v>0.02032685819039139</v>
+        <v>0.008929302476179179</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1462322307918381</v>
+        <v>0.1530156163555583</v>
       </c>
       <c r="L264" t="n">
-        <v>0.02286052126759786</v>
+        <v>0.001927522752965094</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1536755559729042</v>
+        <v>0.1527818485161629</v>
       </c>
       <c r="N264" t="n">
-        <v>0.07359420059467758</v>
+        <v>0.005919276786738523</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1507092544336073</v>
+        <v>0.1537819939955781</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1187.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1187.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8491,8 +8491,14 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="n"/>
-      <c r="C47" s="144" t="n"/>
+      <c r="B47" s="144" t="inlineStr">
+        <is>
+          <t>K0, д.е.</t>
+        </is>
+      </c>
+      <c r="C47" s="144" t="n">
+        <v>0.8781306565948526</v>
+      </c>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8549,8 +8555,14 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="n"/>
-      <c r="C48" s="144" t="n"/>
+      <c r="B48" s="144" t="inlineStr">
+        <is>
+          <t>q_zg, МПа</t>
+        </is>
+      </c>
+      <c r="C48" s="144" t="n">
+        <v>0.04390653282974263</v>
+      </c>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8700,12 +8712,20 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="n"/>
+      <c r="F50" s="144" t="inlineStr">
+        <is>
+          <t>Точки модуля (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n"/>
-      <c r="K50" s="144" t="n"/>
+      <c r="J50" s="144" t="n">
+        <v>0.04390653282974263</v>
+      </c>
+      <c r="K50" s="144" t="n">
+        <v>0.07025045252758821</v>
+      </c>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8782,11 +8802,17 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="n"/>
+      <c r="F51" s="144" t="inlineStr">
+        <is>
+          <t>qf (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n"/>
+      <c r="J51" s="144" t="n">
+        <v>0.08334391969784559</v>
+      </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9232,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.01033001815510755</v>
+        <v>0.03334391969784559</v>
       </c>
       <c r="B65" t="n">
-        <v>0.007819902001129711</v>
+        <v>0.0152703264235122</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9292,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.002122638350651664</v>
+        <v>0.001490939049294773</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007727738391737593</v>
+        <v>0.0006589174386213353</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.005999999999999978</v>
+        <v>0.001697841195765895</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0009663926499032842</v>
+        <v>0.0007727738391737593</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.01049833511702669</v>
+        <v>0.005802151060540967</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007677479824932809</v>
+        <v>0.0007681766240988017</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.002122638350651664</v>
+        <v>0.01056404730724775</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007727738391737593</v>
+        <v>0.0007657836241133022</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9332,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.003867496255115246</v>
+        <v>0.002976219242766281</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001545547678347519</v>
+        <v>0.001317834877242671</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.00860338297916502</v>
+        <v>0.003999999999999997</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001537845390508124</v>
+        <v>0.00181681818181818</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01984820086094924</v>
+        <v>0.01103691259321526</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001535495964986562</v>
+        <v>0.001536353248197603</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.003867496255115246</v>
+        <v>0.01942160306667434</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001545547678347519</v>
+        <v>0.001531567248226604</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9374,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.005602968806379297</v>
+        <v>0.004456020580730087</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002318321517521277</v>
+        <v>0.001976752315864006</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.01183378812682565</v>
+        <v>0.004545881910627464</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002306768085762185</v>
+        <v>0.002318321517521277</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.02721529501315806</v>
+        <v>0.01599999999999999</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002303243947479842</v>
+        <v>0.002471861471861469</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.005602968806379297</v>
+        <v>0.02500000000000002</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002318321517521277</v>
+        <v>0.002122451146983859</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9421,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.006999999999999999</v>
+        <v>0.005930523063501759</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003179431818181817</v>
+        <v>0.002635669754485341</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.01471415626162889</v>
+        <v>0.005725661849977061</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003075690781016247</v>
+        <v>0.003091095356695037</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.03100000000000003</v>
+        <v>0.01790027956657278</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.00296428229665072</v>
+        <v>0.003072706496395207</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.006999999999999999</v>
+        <v>0.02961323569155871</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003179431818181817</v>
+        <v>0.003063134496453209</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9458,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.003179431818181817</v>
+        <v>0.011965528071851</v>
       </c>
       <c r="B70" t="n">
-        <v>0.006999999999999999</v>
+        <v>0.02634391969784558</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.007612071622953652</v>
+        <v>0.007399906691396854</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003863869195868796</v>
+        <v>0.003294587193106677</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.0173876059618184</v>
+        <v>0.006816919061470215</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003844613476270309</v>
+        <v>0.003863869195868796</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.03378896782306745</v>
+        <v>0.01996958257151005</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003838739912466405</v>
+        <v>0.003840883120494008</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.007612071622953652</v>
+        <v>0.03297338624352486</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003863869195868796</v>
+        <v>0.003828918120566511</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.00819981279358787</v>
+        <v>0.008864351464730941</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004636643035042555</v>
+        <v>0.003953504631728012</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.01989725580563775</v>
+        <v>0.007614948899889354</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004613536171524371</v>
+        <v>0.004636643035042555</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.03537529577132242</v>
+        <v>0.02166871120360517</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004606487894959685</v>
+        <v>0.00460905974459281</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.00819981279358787</v>
+        <v>0.03557005670577223</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004636643035042555</v>
+        <v>0.004594701744679813</v>
       </c>
     </row>
     <row r="72">
@@ -9528,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.008982370746228568</v>
+        <v>0.01032403738381957</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005409416874216315</v>
+        <v>0.004612422070349348</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.02178622437133063</v>
+        <v>0.00841504672001691</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005382458866778432</v>
+        <v>0.005409416874216315</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.03637254024199504</v>
+        <v>0.02293437442630711</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005374235877452966</v>
+        <v>0.005377236368691612</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.008982370746228568</v>
+        <v>0.0380865581391967</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005409416874216315</v>
+        <v>0.005389123933813694</v>
       </c>
     </row>
     <row r="73">
@@ -9574,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.00927855872601583</v>
+        <v>0.01177914444897833</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006182190713390074</v>
+        <v>0.005271339508970682</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
+        <v>0.00921250787663537</v>
+      </c>
+      <c r="K73" s="171" t="n">
+        <v>0.006182190713390074</v>
+      </c>
+      <c r="L73" s="172" t="n">
         <v>0.02420828814715215</v>
       </c>
-      <c r="K73" s="171" t="n">
-        <v>0.006498531036707976</v>
-      </c>
-      <c r="L73" s="172" t="n">
-        <v>0.0380865581391967</v>
-      </c>
       <c r="M73" s="170" t="n">
-        <v>0.006069855378084897</v>
+        <v>0.006233284871944387</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.00927855872601583</v>
+        <v>0.03909485845793592</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006182190713390074</v>
+        <v>0.006126268992906417</v>
       </c>
     </row>
     <row r="74">
@@ -9611,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.009907189978089724</v>
+        <v>0.01322985266052275</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006954964552563833</v>
+        <v>0.005930256947592018</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.02465728526190802</v>
+        <v>0.009602627724527149</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.006920304257286556</v>
+        <v>0.006954964552563833</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.03931156055945212</v>
+        <v>0.02490323462054736</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006909731842439528</v>
+        <v>0.006913589616889215</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.009907189978089724</v>
+        <v>0.04043203740082368</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006954964552563833</v>
+        <v>0.00689205261701972</v>
       </c>
     </row>
     <row r="75">
@@ -9655,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01033001815510755</v>
+        <v>0.01467634201876843</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007819902001129711</v>
+        <v>0.006589174386213354</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.02564200242620118</v>
+        <v>0.01033001815510755</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007689226952540617</v>
+        <v>0.007819902001129711</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.03991845274866412</v>
+        <v>0.02588872182463628</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.00767747982493281</v>
+        <v>0.007681766240988016</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.01033001815510755</v>
+        <v>0.04224274889910762</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007819902001129711</v>
+        <v>0.007657836241133023</v>
       </c>
     </row>
     <row r="76">
@@ -9697,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01064486324976432</v>
+        <v>0.0161187925240309</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008500512230911353</v>
+        <v>0.007248091824834689</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.02660586484499744</v>
+        <v>0.01058568463612154</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008458149647794679</v>
+        <v>0.008500512230911353</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.04152029652882339</v>
+        <v>0.02666109459809426</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008445227807426091</v>
+        <v>0.008449942865086818</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.01064486324976432</v>
+        <v>0.04372685078093297</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008500512230911353</v>
+        <v>0.008423619865246324</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9734,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01080032995535953</v>
+        <v>0.01755738417662574</v>
       </c>
       <c r="G77" t="n">
+        <v>0.007907009263456024</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.0108836843008661</v>
+      </c>
+      <c r="K77" t="n">
         <v>0.00927328607008511</v>
       </c>
-      <c r="J77" t="n">
-        <v>0.02744886754320711</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.009227072343048742</v>
-      </c>
       <c r="L77" t="n">
-        <v>0.04291619692575449</v>
+        <v>0.02732010433603954</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009212975789919369</v>
+        <v>0.009218119489185619</v>
       </c>
       <c r="N77" t="n">
-        <v>0.01080032995535953</v>
+        <v>0.04508420087444509</v>
       </c>
       <c r="O77" t="n">
-        <v>0.00927328607008511</v>
+        <v>0.009189403489359626</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9774,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01125341151579108</v>
+        <v>0.01899229697686851</v>
       </c>
       <c r="G78" t="n">
+        <v>0.00856592670207736</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.01137537147058908</v>
+      </c>
+      <c r="K78" t="n">
         <v>0.01004605990925887</v>
       </c>
-      <c r="J78" t="n">
-        <v>0.02837100554574057</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.009995995038302802</v>
-      </c>
       <c r="L78" t="n">
-        <v>0.04410525896528161</v>
+        <v>0.02846550243359053</v>
       </c>
       <c r="M78" t="n">
-        <v>0.009980723772412652</v>
+        <v>0.009986296113284422</v>
       </c>
       <c r="N78" t="n">
-        <v>0.01125341151579108</v>
+        <v>0.04601465700778912</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01004605990925887</v>
+        <v>0.009955187113472928</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9816,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01160385283918391</v>
+        <v>0.02042371092507478</v>
       </c>
       <c r="G79" t="n">
+        <v>0.009224844140698695</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.0116606272976174</v>
+      </c>
+      <c r="K79" t="n">
         <v>0.01081883374843263</v>
       </c>
-      <c r="J79" t="n">
-        <v>0.02907227387750824</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.01076491773355686</v>
-      </c>
       <c r="L79" t="n">
-        <v>0.04508658767322926</v>
+        <v>0.02889704028586548</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01074847175490593</v>
+        <v>0.01075447273738322</v>
       </c>
       <c r="N79" t="n">
-        <v>0.01160385283918391</v>
+        <v>0.0473180770091105</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01081883374843263</v>
+        <v>0.01072097073758623</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9847,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.011851398833663</v>
+        <v>0.0218518060215601</v>
       </c>
       <c r="G80" t="n">
+        <v>0.009883761579320031</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.01223933293427787</v>
+      </c>
+      <c r="K80" t="n">
         <v>0.01159160758760639</v>
       </c>
-      <c r="J80" t="n">
-        <v>0.03025266756342052</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.01153384042881093</v>
-      </c>
       <c r="L80" t="n">
-        <v>0.0465592880754217</v>
+        <v>0.02991446928798275</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01151621973739921</v>
+        <v>0.01152264936148202</v>
       </c>
       <c r="N80" t="n">
-        <v>0.011851398833663</v>
+        <v>0.04829431870655437</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01159160758760639</v>
+        <v>0.01148675436169953</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9884,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01219579440735329</v>
+        <v>0.02327676226664004</v>
       </c>
       <c r="G81" t="n">
+        <v>0.01054267901794136</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.0126113695328974</v>
+      </c>
+      <c r="K81" t="n">
         <v>0.01236438142678015</v>
       </c>
-      <c r="J81" t="n">
-        <v>0.03101218162838776</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.01230276312406499</v>
-      </c>
       <c r="L81" t="n">
-        <v>0.04732246519768357</v>
+        <v>0.03081754083506066</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01228396771989249</v>
+        <v>0.01229082598558083</v>
       </c>
       <c r="N81" t="n">
-        <v>0.01219579440735329</v>
+        <v>0.05014323992826608</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01236438142678015</v>
+        <v>0.01225253798581283</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9918,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01263678446837974</v>
+        <v>0.02469875966063015</v>
       </c>
       <c r="G82" t="n">
+        <v>0.0112015964565627</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.01287661824580286</v>
+      </c>
+      <c r="K82" t="n">
         <v>0.01313715526595391</v>
       </c>
-      <c r="J82" t="n">
-        <v>0.03175081109732042</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.01307168581931905</v>
-      </c>
       <c r="L82" t="n">
-        <v>0.04847522406583898</v>
+        <v>0.03140600632221749</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01305171570238577</v>
+        <v>0.01305900260967963</v>
       </c>
       <c r="N82" t="n">
-        <v>0.01263678446837974</v>
+        <v>0.05086469850239073</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01313715526595391</v>
+        <v>0.01301832160992614</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9949,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01297411392486729</v>
+        <v>0.02634391969784558</v>
       </c>
       <c r="G83" t="n">
+        <v>0.011965528071851</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.01323496022532107</v>
+      </c>
+      <c r="K83" t="n">
         <v>0.01390992910512767</v>
       </c>
-      <c r="J83" t="n">
-        <v>0.03246855099512877</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.01384060851457311</v>
-      </c>
       <c r="L83" t="n">
-        <v>0.04981666970571258</v>
+        <v>0.03237961714457163</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01381946368487906</v>
+        <v>0.01382717923377843</v>
       </c>
       <c r="N83" t="n">
-        <v>0.01297411392486729</v>
+        <v>0.05245855225707391</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01390992910512767</v>
+        <v>0.01378410523403944</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -9985,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.01340752768494091</v>
+        <v>0.02760480751380626</v>
       </c>
       <c r="G84" t="n">
+        <v>0.01251943133380537</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.01348627662377898</v>
+      </c>
+      <c r="K84" t="n">
         <v>0.01468270294430143</v>
       </c>
-      <c r="J84" t="n">
-        <v>0.03336539634672334</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.01460953120982717</v>
-      </c>
       <c r="L84" t="n">
-        <v>0.05054590714312851</v>
+        <v>0.03313812469724134</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01458721166737234</v>
+        <v>0.01459535585787723</v>
       </c>
       <c r="N84" t="n">
-        <v>0.01340752768494091</v>
+        <v>0.05342465902046051</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01468270294430143</v>
+        <v>0.01454988885815274</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10025,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01373677065672553</v>
+        <v>0.02920217117509552</v>
       </c>
       <c r="G85" t="n">
+        <v>0.01317834877242671</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.01383044859350339</v>
+      </c>
+      <c r="K85" t="n">
         <v>0.01545547678347519</v>
       </c>
-      <c r="J85" t="n">
-        <v>0.0343413421770144</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.01537845390508123</v>
-      </c>
       <c r="L85" t="n">
-        <v>0.05176204140391139</v>
+        <v>0.03388128037534491</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01535495964986562</v>
+        <v>0.01536353248197603</v>
       </c>
       <c r="N85" t="n">
-        <v>0.01373677065672553</v>
+        <v>0.05466287662069602</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01545547678347519</v>
+        <v>0.01531567248226605</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10067,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.01396158774834615</v>
+        <v>0.03076598953930682</v>
       </c>
       <c r="G86" t="n">
+        <v>0.01383726621104804</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.01436735728682122</v>
+      </c>
+      <c r="K86" t="n">
         <v>0.01622825062264894</v>
       </c>
-      <c r="J86" t="n">
-        <v>0.03489638351091234</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.0161473766003353</v>
-      </c>
       <c r="L86" t="n">
-        <v>0.0533641775138855</v>
+        <v>0.0345088355740007</v>
       </c>
       <c r="M86" t="n">
-        <v>0.0161227076323589</v>
+        <v>0.01613170910607484</v>
       </c>
       <c r="N86" t="n">
-        <v>0.01396158774834615</v>
+        <v>0.05537306288592575</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01622825062264894</v>
+        <v>0.01608145610637935</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10098,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.01438172386792769</v>
+        <v>0.03214903530975195</v>
       </c>
       <c r="G87" t="n">
+        <v>0.01449618364966938</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.0146968838560593</v>
+      </c>
+      <c r="K87" t="n">
         <v>0.01700102446182271</v>
       </c>
-      <c r="J87" t="n">
-        <v>0.03593051537332767</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.01691629929558936</v>
-      </c>
       <c r="L87" t="n">
-        <v>0.05405142049887524</v>
+        <v>0.03502054168832705</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01689045561485218</v>
+        <v>0.01689988573017364</v>
       </c>
       <c r="N87" t="n">
-        <v>0.01438172386792769</v>
+        <v>0.05685507564429471</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01700102446182271</v>
+        <v>0.01684723973049265</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10133,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.0146969239235951</v>
+        <v>0.03334391969784559</v>
       </c>
       <c r="G88" t="n">
+        <v>0.0152703264235122</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.01491890945354454</v>
+      </c>
+      <c r="K88" t="n">
         <v>0.01777379830099646</v>
       </c>
-      <c r="J88" t="n">
-        <v>0.03624373278917062</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.01768522199084342</v>
-      </c>
       <c r="L88" t="n">
-        <v>0.05502287538470507</v>
+        <v>0.03571615011344226</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01765820359734546</v>
+        <v>0.01766806235427244</v>
       </c>
       <c r="N88" t="n">
-        <v>0.0146969239235951</v>
+        <v>0.05820877272394848</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01777379830099646</v>
+        <v>0.01761302335460595</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10167,4780 +10193,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.01490693282347336</v>
+        <v>0.03395651728671598</v>
       </c>
       <c r="G89" t="n">
+        <v>0.01581401852691205</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.01513331523160377</v>
+      </c>
+      <c r="K89" t="n">
         <v>0.01854657214017022</v>
       </c>
-      <c r="J89" t="n">
-        <v>0.03733603078335174</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.01845414468609748</v>
-      </c>
       <c r="L89" t="n">
-        <v>0.05597764719719933</v>
+        <v>0.03649541224446468</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01842595157983874</v>
+        <v>0.01843623897837124</v>
       </c>
       <c r="N89" t="n">
-        <v>0.01490693282347336</v>
+        <v>0.0591340119530322</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01854657214017022</v>
+        <v>0.01837880697871925</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.01511149547568741</v>
+        <v>0.03466807302115837</v>
       </c>
       <c r="G90" t="n">
+        <v>0.01647293596553338</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.01553998234256389</v>
+      </c>
+      <c r="K90" t="n">
         <v>0.01931934597934398</v>
       </c>
-      <c r="J90" t="n">
-        <v>0.03800740438078126</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.01922306738135154</v>
-      </c>
       <c r="L90" t="n">
-        <v>0.05761484096218239</v>
+        <v>0.03745807947651256</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01919369956233202</v>
+        <v>0.01920441560247004</v>
       </c>
       <c r="N90" t="n">
-        <v>0.01511149547568741</v>
+        <v>0.06013065115969113</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01931934597934398</v>
+        <v>0.01914459060283255</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.01551035678836218</v>
+        <v>0.03534667595524248</v>
       </c>
       <c r="G91" t="n">
+        <v>0.01713185340415472</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.01593879193875175</v>
+      </c>
+      <c r="K91" t="n">
         <v>0.02009211981851774</v>
       </c>
-      <c r="J91" t="n">
-        <v>0.03855784860636965</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.0199919900766056</v>
-      </c>
       <c r="L91" t="n">
-        <v>0.05823356170547872</v>
+        <v>0.03800390320470429</v>
       </c>
       <c r="M91" t="n">
-        <v>0.0199614475448253</v>
+        <v>0.01997259222656884</v>
       </c>
       <c r="N91" t="n">
-        <v>0.01551035678836218</v>
+        <v>0.06069854817207049</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02009211981851774</v>
+        <v>0.01991037422694586</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.01580326166962268</v>
+        <v>0.03599325566718765</v>
       </c>
       <c r="G92" t="n">
+        <v>0.01779077084277605</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.01612962517249425</v>
+      </c>
+      <c r="K92" t="n">
         <v>0.0208648936576915</v>
       </c>
-      <c r="J92" t="n">
-        <v>0.03888735848502731</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.02076091277185967</v>
-      </c>
       <c r="L92" t="n">
-        <v>0.05923291445291268</v>
+        <v>0.0386326348241581</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02072919552731858</v>
+        <v>0.02074076885066764</v>
       </c>
       <c r="N92" t="n">
-        <v>0.01580326166962268</v>
+        <v>0.06143756081831558</v>
       </c>
       <c r="O92" t="n">
-        <v>0.0208648936576915</v>
+        <v>0.02067615785105916</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.01618995502759382</v>
+        <v>0.03660874173521322</v>
       </c>
       <c r="G93" t="n">
+        <v>0.01844968828139739</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.01641236319611822</v>
+      </c>
+      <c r="K93" t="n">
         <v>0.02163766749686526</v>
       </c>
-      <c r="J93" t="n">
-        <v>0.03959592904166459</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.02152983546711373</v>
-      </c>
       <c r="L93" t="n">
-        <v>0.06001200423030872</v>
+        <v>0.03904402572999241</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02149694350981186</v>
+        <v>0.02150894547476645</v>
       </c>
       <c r="N93" t="n">
-        <v>0.01618995502759382</v>
+        <v>0.06304754692657172</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02163766749686526</v>
+        <v>0.02144194147517246</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.01647018177040056</v>
+        <v>0.03719406373753853</v>
       </c>
       <c r="G94" t="n">
+        <v>0.01910860572001872</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.01668688716195056</v>
+      </c>
+      <c r="K94" t="n">
         <v>0.02241044133603902</v>
       </c>
-      <c r="J94" t="n">
-        <v>0.04038355530119192</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.02229875816236779</v>
-      </c>
       <c r="L94" t="n">
-        <v>0.06126993606349107</v>
+        <v>0.03993782731732545</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02226469149230515</v>
+        <v>0.02227712209886525</v>
       </c>
       <c r="N94" t="n">
-        <v>0.01647018177040056</v>
+        <v>0.06342836432498417</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02241044133603902</v>
+        <v>0.02220772509928576</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.01664368680616786</v>
+        <v>0.03775015125238292</v>
       </c>
       <c r="G95" t="n">
+        <v>0.01976752315864006</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.01695307822231812</v>
+      </c>
+      <c r="K95" t="n">
         <v>0.02318321517521278</v>
       </c>
-      <c r="J95" t="n">
-        <v>0.04095023228851966</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.02306768085762185</v>
-      </c>
       <c r="L95" t="n">
-        <v>0.06190581497828429</v>
+        <v>0.04011379098127563</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02303243947479843</v>
+        <v>0.02304529872296405</v>
       </c>
       <c r="N95" t="n">
-        <v>0.01664368680616786</v>
+        <v>0.06417987084169813</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02318321517521278</v>
+        <v>0.02297350872339907</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.01681021504302069</v>
+        <v>0.03827793385796573</v>
       </c>
       <c r="G96" t="n">
+        <v>0.02042644059726139</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.01721081752954777</v>
+      </c>
+      <c r="K96" t="n">
         <v>0.02395598901438654</v>
       </c>
-      <c r="J96" t="n">
-        <v>0.04159595502855815</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.02383660355287591</v>
-      </c>
       <c r="L96" t="n">
-        <v>0.06321874600051269</v>
+        <v>0.04087166811696119</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02380018745729171</v>
+        <v>0.02381347534706285</v>
       </c>
       <c r="N96" t="n">
-        <v>0.01681021504302069</v>
+        <v>0.06510192430485889</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02395598901438654</v>
+        <v>0.02373929234751237</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.01726951138908399</v>
+        <v>0.03877834113250633</v>
       </c>
       <c r="G97" t="n">
+        <v>0.02108535803588273</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.01735998623596639</v>
+      </c>
+      <c r="K97" t="n">
         <v>0.0247287628535603</v>
       </c>
-      <c r="J97" t="n">
-        <v>0.04182071854621788</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.02460552624812998</v>
-      </c>
       <c r="L97" t="n">
-        <v>0.06380783415600072</v>
+        <v>0.04151121011950051</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02456793543978499</v>
+        <v>0.02458165197116165</v>
       </c>
       <c r="N97" t="n">
-        <v>0.01726951138908399</v>
+        <v>0.06639438254261176</v>
       </c>
       <c r="O97" t="n">
-        <v>0.0247287628535603</v>
+        <v>0.02450507597162567</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.01752132075248271</v>
+        <v>0.03925230265422401</v>
       </c>
       <c r="G98" t="n">
+        <v>0.02174427547450407</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.01760046549390087</v>
+      </c>
+      <c r="K98" t="n">
         <v>0.02550153669273406</v>
       </c>
-      <c r="J98" t="n">
-        <v>0.04232451786640914</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0.02537444894338404</v>
-      </c>
       <c r="L98" t="n">
-        <v>0.06457218447057278</v>
+        <v>0.04203216838401189</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02533568342227827</v>
+        <v>0.02534982859526046</v>
       </c>
       <c r="N98" t="n">
-        <v>0.01752132075248271</v>
+        <v>0.0666571033831021</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02550153669273406</v>
+        <v>0.02527085959573897</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.01756538804134181</v>
+        <v>0.03970074800133813</v>
       </c>
       <c r="G99" t="n">
+        <v>0.0224031929131254</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.01793213645567805</v>
+      </c>
+      <c r="K99" t="n">
         <v>0.02627431053190782</v>
       </c>
-      <c r="J99" t="n">
-        <v>0.04290734801404239</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.0261433716386381</v>
-      </c>
       <c r="L99" t="n">
-        <v>0.06581090197005318</v>
+        <v>0.04253429430561362</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02610343140477155</v>
+        <v>0.02611800521935926</v>
       </c>
       <c r="N99" t="n">
-        <v>0.01756538804134181</v>
+        <v>0.0673899446544749</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02627431053190782</v>
+        <v>0.02603664321985228</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.01800145816378623</v>
+        <v>0.04012460675206805</v>
       </c>
       <c r="G100" t="n">
+        <v>0.02306211035174674</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.0182548802736248</v>
+      </c>
+      <c r="K100" t="n">
         <v>0.02704708437108157</v>
       </c>
-      <c r="J100" t="n">
-        <v>0.04316920401402796</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.02691229433389216</v>
-      </c>
       <c r="L100" t="n">
-        <v>0.06672309168026641</v>
+        <v>0.04301733927942403</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02687117938726483</v>
+        <v>0.02688618184345806</v>
       </c>
       <c r="N100" t="n">
-        <v>0.01800145816378623</v>
+        <v>0.06829276418487568</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02704708437108157</v>
+        <v>0.02680242684396558</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.01822927602794094</v>
+        <v>0.04052480848463311</v>
       </c>
       <c r="G101" t="n">
+        <v>0.02372102779036807</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.01836857810006802</v>
+      </c>
+      <c r="K101" t="n">
         <v>0.02781985821025533</v>
       </c>
-      <c r="J101" t="n">
-        <v>0.04401008089127634</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.02768121702914622</v>
-      </c>
       <c r="L101" t="n">
-        <v>0.06710785862703678</v>
+        <v>0.04328105470056143</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02763892736975811</v>
+        <v>0.02765435846755686</v>
       </c>
       <c r="N101" t="n">
-        <v>0.01822927602794094</v>
+        <v>0.06866541980244961</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02781985821025533</v>
+        <v>0.02756821046807888</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.0182485865419309</v>
+        <v>0.04090228277725262</v>
       </c>
       <c r="G102" t="n">
+        <v>0.02437994522898941</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.01867311108733455</v>
+      </c>
+      <c r="K102" t="n">
         <v>0.02859263204942909</v>
       </c>
-      <c r="J102" t="n">
-        <v>0.04412997367069782</v>
-      </c>
-      <c r="K102" t="n">
-        <v>0.02845013972440028</v>
-      </c>
       <c r="L102" t="n">
-        <v>0.06826430783618881</v>
+        <v>0.04372519196414415</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02840667535225139</v>
+        <v>0.02842253509165566</v>
       </c>
       <c r="N102" t="n">
-        <v>0.0182485865419309</v>
+        <v>0.06940776933534204</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02859263204942909</v>
+        <v>0.02833399409219218</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.01845913461388105</v>
+        <v>0.04125795920814596</v>
       </c>
       <c r="G103" t="n">
+        <v>0.02503886266761074</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.01866836038775126</v>
+      </c>
+      <c r="K103" t="n">
         <v>0.02936540588860286</v>
       </c>
-      <c r="J103" t="n">
-        <v>0.0447288773772028</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0.02921906241965435</v>
-      </c>
       <c r="L103" t="n">
-        <v>0.06899154433354676</v>
+        <v>0.04414950246529056</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02917442333474467</v>
+        <v>0.02919071171575446</v>
       </c>
       <c r="N103" t="n">
-        <v>0.01845913461388105</v>
+        <v>0.07011967061169805</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02936540588860286</v>
+        <v>0.02909977771630548</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.01886066515191637</v>
+        <v>0.04159276735553244</v>
       </c>
       <c r="G104" t="n">
+        <v>0.02569778010623208</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.01905420715364503</v>
+      </c>
+      <c r="K104" t="n">
         <v>0.03013817972777661</v>
       </c>
-      <c r="J104" t="n">
-        <v>0.04480678703570165</v>
-      </c>
-      <c r="K104" t="n">
-        <v>0.02998798511490841</v>
-      </c>
       <c r="L104" t="n">
-        <v>0.0696886731449351</v>
+        <v>0.04445373759911886</v>
       </c>
       <c r="M104" t="n">
-        <v>0.02994217131723796</v>
+        <v>0.02995888833985327</v>
       </c>
       <c r="N104" t="n">
-        <v>0.01886066515191637</v>
+        <v>0.07110098145966309</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03013817972777661</v>
+        <v>0.02986556134041879</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.01905292306416176</v>
+        <v>0.04190763679763143</v>
       </c>
       <c r="G105" t="n">
+        <v>0.02635669754485341</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.01923053253734275</v>
+      </c>
+      <c r="K105" t="n">
         <v>0.03091095356695037</v>
       </c>
-      <c r="J105" t="n">
-        <v>0.04546369767110486</v>
-      </c>
-      <c r="K105" t="n">
-        <v>0.03075690781016247</v>
-      </c>
       <c r="L105" t="n">
-        <v>0.07015479929617813</v>
+        <v>0.04523764876074754</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03070991929973124</v>
+        <v>0.03072706496395207</v>
       </c>
       <c r="N105" t="n">
-        <v>0.01905292306416176</v>
+        <v>0.07145155970738237</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03091095356695037</v>
+        <v>0.03063134496453209</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.01903565325874222</v>
+        <v>0.04220349711266223</v>
       </c>
       <c r="G106" t="n">
+        <v>0.02701561498347475</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.01919721769117125</v>
+      </c>
+      <c r="K106" t="n">
         <v>0.03168372740612413</v>
       </c>
-      <c r="J106" t="n">
-        <v>0.04589960430832268</v>
-      </c>
-      <c r="K106" t="n">
-        <v>0.03152583050541653</v>
-      </c>
       <c r="L106" t="n">
-        <v>0.07108902781310045</v>
+        <v>0.04540098734529477</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03147766728222452</v>
+        <v>0.03149524158805087</v>
       </c>
       <c r="N106" t="n">
-        <v>0.01903565325874222</v>
+        <v>0.07217126318300121</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03168372740612413</v>
+        <v>0.03139712858864539</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.01940860064378271</v>
+        <v>0.04248127787884425</v>
       </c>
       <c r="G107" t="n">
+        <v>0.02767453242209608</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.01955414376745743</v>
+      </c>
+      <c r="K107" t="n">
         <v>0.03245650124529788</v>
       </c>
-      <c r="J107" t="n">
-        <v>0.04611450197226563</v>
-      </c>
-      <c r="K107" t="n">
-        <v>0.03229475320067059</v>
-      </c>
       <c r="L107" t="n">
-        <v>0.07119046372152621</v>
+        <v>0.04574350474787889</v>
       </c>
       <c r="M107" t="n">
-        <v>0.0322454152647178</v>
+        <v>0.03226341821214967</v>
       </c>
       <c r="N107" t="n">
-        <v>0.01940860064378271</v>
+        <v>0.07195994971466474</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03245650124529788</v>
+        <v>0.03216291221275869</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.01937151012740815</v>
+        <v>0.04274190867439677</v>
       </c>
       <c r="G108" t="n">
+        <v>0.02833344986071742</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.01970119191852815</v>
+      </c>
+      <c r="K108" t="n">
         <v>0.03322927508447165</v>
       </c>
-      <c r="J108" t="n">
-        <v>0.04620838568784399</v>
-      </c>
-      <c r="K108" t="n">
-        <v>0.03306367589592465</v>
-      </c>
       <c r="L108" t="n">
-        <v>0.07185821204727999</v>
+        <v>0.04606495236361829</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03301316324721108</v>
+        <v>0.03303159483624847</v>
       </c>
       <c r="N108" t="n">
-        <v>0.01937151012740815</v>
+        <v>0.07251747713051832</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03322927508447165</v>
+        <v>0.032928695836872</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.01962412661774351</v>
+        <v>0.04298631907753914</v>
       </c>
       <c r="G109" t="n">
+        <v>0.02899236729933876</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.01963824329671027</v>
+      </c>
+      <c r="K109" t="n">
         <v>0.03400204892364541</v>
       </c>
-      <c r="J109" t="n">
-        <v>0.04668125047996821</v>
-      </c>
-      <c r="K109" t="n">
-        <v>0.03383259859117872</v>
-      </c>
       <c r="L109" t="n">
-        <v>0.07209137781618619</v>
+        <v>0.04646508158763127</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03378091122970436</v>
+        <v>0.03379977146034727</v>
       </c>
       <c r="N109" t="n">
-        <v>0.01962412661774351</v>
+        <v>0.07304370325870729</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03400204892364541</v>
+        <v>0.0336944794609853</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.01966619502291377</v>
+        <v>0.04321543866649072</v>
       </c>
       <c r="G110" t="n">
+        <v>0.02965128473796009</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.01976517905433067</v>
+      </c>
+      <c r="K110" t="n">
         <v>0.03477482276281917</v>
       </c>
-      <c r="J110" t="n">
-        <v>0.04663309137354865</v>
-      </c>
-      <c r="K110" t="n">
-        <v>0.03460152128643278</v>
-      </c>
       <c r="L110" t="n">
-        <v>0.07308906605406901</v>
+        <v>0.0467436438150361</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03454865921219764</v>
+        <v>0.03456794808444608</v>
       </c>
       <c r="N110" t="n">
-        <v>0.01966619502291377</v>
+        <v>0.07373848592737681</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03477482276281917</v>
+        <v>0.0344602630850986</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.01979746025104383</v>
+        <v>0.0434303971728878</v>
       </c>
       <c r="G111" t="n">
+        <v>0.03031020217658142</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.01988188034371623</v>
+      </c>
+      <c r="K111" t="n">
         <v>0.03554759660199293</v>
       </c>
-      <c r="J111" t="n">
-        <v>0.0470639033934957</v>
-      </c>
-      <c r="K111" t="n">
-        <v>0.03537044398168684</v>
-      </c>
       <c r="L111" t="n">
-        <v>0.07325038178675303</v>
+        <v>0.04710039044095113</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03531640719469092</v>
+        <v>0.03533612470854488</v>
       </c>
       <c r="N111" t="n">
-        <v>0.01979746025104383</v>
+        <v>0.07420168296467211</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03554759660199293</v>
+        <v>0.0352260467092119</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.02011766721025869</v>
+        <v>0.04363954268625836</v>
       </c>
       <c r="G112" t="n">
+        <v>0.03096911961520276</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.02008822831719378</v>
+      </c>
+      <c r="K112" t="n">
         <v>0.03632037044116668</v>
       </c>
-      <c r="J112" t="n">
-        <v>0.04747368156471976</v>
-      </c>
-      <c r="K112" t="n">
-        <v>0.0361393666769409</v>
-      </c>
       <c r="L112" t="n">
-        <v>0.07387443004006256</v>
+        <v>0.04693507286049467</v>
       </c>
       <c r="M112" t="n">
-        <v>0.0360841551771842</v>
+        <v>0.03610430133264368</v>
       </c>
       <c r="N112" t="n">
-        <v>0.02011766721025869</v>
+        <v>0.07403315219873857</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03632037044116668</v>
+        <v>0.0359918303333252</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.02022656080868328</v>
+        <v>0.04384681957668712</v>
       </c>
       <c r="G113" t="n">
+        <v>0.0316280370538241</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.02008410412709025</v>
+      </c>
+      <c r="K113" t="n">
         <v>0.03709314428034044</v>
       </c>
-      <c r="J113" t="n">
-        <v>0.04756242091213123</v>
-      </c>
-      <c r="K113" t="n">
-        <v>0.03690828937219497</v>
-      </c>
       <c r="L113" t="n">
-        <v>0.07436031583982206</v>
+        <v>0.04734744246878506</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03685190315967748</v>
+        <v>0.03687247795674248</v>
       </c>
       <c r="N113" t="n">
-        <v>0.02022656080868328</v>
+        <v>0.07453275145772142</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03709314428034044</v>
+        <v>0.0367576139574385</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.02012388595444256</v>
+        <v>0.04405214570179294</v>
       </c>
       <c r="G114" t="n">
+        <v>0.03228695449244543</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.02016938892573246</v>
+      </c>
+      <c r="K114" t="n">
         <v>0.0378659181195142</v>
       </c>
-      <c r="J114" t="n">
-        <v>0.04743011646064046</v>
-      </c>
-      <c r="K114" t="n">
-        <v>0.03767721206744903</v>
-      </c>
       <c r="L114" t="n">
-        <v>0.07440714421185579</v>
+        <v>0.04743725066094057</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03761965114217077</v>
+        <v>0.03764065458084128</v>
       </c>
       <c r="N114" t="n">
-        <v>0.02012388595444256</v>
+        <v>0.07450033856976596</v>
       </c>
       <c r="O114" t="n">
-        <v>0.0378659181195142</v>
+        <v>0.03752339758155181</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.0204093875556615</v>
+        <v>0.04425543891919466</v>
       </c>
       <c r="G115" t="n">
+        <v>0.03294587193106677</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.02024396386544731</v>
+      </c>
+      <c r="K115" t="n">
         <v>0.03863869195868797</v>
       </c>
-      <c r="J115" t="n">
-        <v>0.04777676323515789</v>
-      </c>
-      <c r="K115" t="n">
-        <v>0.03844613476270309</v>
-      </c>
       <c r="L115" t="n">
-        <v>0.07461402018198832</v>
+        <v>0.04790424883207961</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03838739912466405</v>
+        <v>0.03840883120494008</v>
       </c>
       <c r="N115" t="n">
-        <v>0.0204093875556615</v>
+        <v>0.07473577136301734</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03863869195868797</v>
+        <v>0.03828918120566511</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.02038281052046503</v>
+        <v>0.04445661708651109</v>
       </c>
       <c r="G116" t="n">
+        <v>0.0336047893696881</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.02030771009856169</v>
+      </c>
+      <c r="K116" t="n">
         <v>0.03941146579786172</v>
       </c>
-      <c r="J116" t="n">
-        <v>0.04800235626059388</v>
-      </c>
-      <c r="K116" t="n">
-        <v>0.03921505745795715</v>
-      </c>
       <c r="L116" t="n">
-        <v>0.07498004877604392</v>
+        <v>0.0479481883773204</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03915514710715733</v>
+        <v>0.03917700782903889</v>
       </c>
       <c r="N116" t="n">
-        <v>0.02038281052046503</v>
+        <v>0.07523890766562097</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03941146579786172</v>
+        <v>0.03905496482977842</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.02044389975697812</v>
+        <v>0.04465559806136112</v>
       </c>
       <c r="G117" t="n">
+        <v>0.03426370680830944</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.02036050877740239</v>
+      </c>
+      <c r="K117" t="n">
         <v>0.04018423963703548</v>
       </c>
-      <c r="J117" t="n">
-        <v>0.04820689056185878</v>
-      </c>
-      <c r="K117" t="n">
-        <v>0.03998398015321121</v>
-      </c>
       <c r="L117" t="n">
-        <v>0.07520433501984708</v>
+        <v>0.04786882069178131</v>
       </c>
       <c r="M117" t="n">
-        <v>0.03992289508965061</v>
+        <v>0.03994518445313769</v>
       </c>
       <c r="N117" t="n">
-        <v>0.02044389975697812</v>
+        <v>0.07530960530572212</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04018423963703548</v>
+        <v>0.03982074845389171</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.02059240017332573</v>
+        <v>0.04485229970136356</v>
       </c>
       <c r="G118" t="n">
+        <v>0.03492262424693077</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.02050224105429636</v>
+      </c>
+      <c r="K118" t="n">
         <v>0.04095701347620924</v>
       </c>
-      <c r="J118" t="n">
-        <v>0.04829036116386301</v>
-      </c>
-      <c r="K118" t="n">
-        <v>0.04075290284846528</v>
-      </c>
       <c r="L118" t="n">
-        <v>0.07558598393922211</v>
+        <v>0.04826589717058064</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04069064307214389</v>
+        <v>0.04071336107723649</v>
       </c>
       <c r="N118" t="n">
-        <v>0.02059240017332573</v>
+        <v>0.07544772211146589</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04095701347620924</v>
+        <v>0.04058653207800502</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.02042805667763278</v>
+        <v>0.04504663986413726</v>
       </c>
       <c r="G119" t="n">
+        <v>0.03558154168555211</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0.02063278808157043</v>
+      </c>
+      <c r="K119" t="n">
         <v>0.04172978731538299</v>
       </c>
-      <c r="J119" t="n">
-        <v>0.047952763091517</v>
-      </c>
-      <c r="K119" t="n">
-        <v>0.04152182554371933</v>
-      </c>
       <c r="L119" t="n">
-        <v>0.07542410055999349</v>
+        <v>0.04803916920883675</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04145839105463717</v>
+        <v>0.04148153770133529</v>
       </c>
       <c r="N119" t="n">
-        <v>0.02042805667763278</v>
+        <v>0.07555311591099767</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04172978731538299</v>
+        <v>0.04135231570211832</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
+        <v>0.04523853640730109</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.03624045912417345</v>
+      </c>
+      <c r="J120" t="n">
         <v>0.0206600363102151</v>
       </c>
-      <c r="G120" t="n">
+      <c r="K120" t="n">
         <v>0.04250256115455676</v>
       </c>
-      <c r="J120" t="n">
+      <c r="L120" t="n">
         <v>0.04841657629430426</v>
       </c>
-      <c r="K120" t="n">
-        <v>0.0422907482389734</v>
-      </c>
-      <c r="L120" t="n">
-        <v>0.0761731162783934</v>
-      </c>
       <c r="M120" t="n">
-        <v>0.04222613903713045</v>
+        <v>0.0422497143254341</v>
       </c>
       <c r="N120" t="n">
-        <v>0.0206600363102151</v>
+        <v>0.07612564453246273</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04250256115455676</v>
+        <v>0.04211809932623162</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.02065981758262514</v>
+        <v>0.04542790718847386</v>
       </c>
       <c r="G121" t="n">
+        <v>0.03689937656279478</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.02055985099656639</v>
+      </c>
+      <c r="K121" t="n">
         <v>0.04327533499373052</v>
       </c>
-      <c r="J121" t="n">
-        <v>0.04801434102341562</v>
-      </c>
-      <c r="K121" t="n">
-        <v>0.04305967093422745</v>
-      </c>
       <c r="L121" t="n">
-        <v>0.07566615700902268</v>
+        <v>0.04841330554419243</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04299388701962373</v>
+        <v>0.04301789094953289</v>
       </c>
       <c r="N121" t="n">
-        <v>0.02065981758262514</v>
+        <v>0.0761731162783934</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04327533499373052</v>
+        <v>0.04288388295034493</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.02045893260856044</v>
+        <v>0.04561467006527445</v>
       </c>
       <c r="G122" t="n">
+        <v>0.03755829400141612</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.02045543291382694</v>
+      </c>
+      <c r="K122" t="n">
         <v>0.04404810883290428</v>
       </c>
-      <c r="J122" t="n">
-        <v>0.04811375110140095</v>
-      </c>
-      <c r="K122" t="n">
-        <v>0.04382859362948152</v>
-      </c>
       <c r="L122" t="n">
-        <v>0.07616404255307396</v>
+        <v>0.0484129538841824</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04376163500211701</v>
+        <v>0.0437860675736317</v>
       </c>
       <c r="N122" t="n">
-        <v>0.02045893260856044</v>
+        <v>0.07567096091858266</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04404810883290428</v>
+        <v>0.04364966657445823</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.02055462160099683</v>
+        <v>0.04579874289532165</v>
       </c>
       <c r="G123" t="n">
+        <v>0.03821721144003744</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.02053773005929109</v>
+      </c>
+      <c r="K123" t="n">
         <v>0.04482088267207804</v>
       </c>
-      <c r="J123" t="n">
-        <v>0.0480937829762251</v>
-      </c>
-      <c r="K123" t="n">
-        <v>0.04459751632473558</v>
-      </c>
       <c r="L123" t="n">
-        <v>0.07608151730450619</v>
+        <v>0.04798307796250945</v>
       </c>
       <c r="M123" t="n">
-        <v>0.0445293829846103</v>
+        <v>0.0445542441977305</v>
       </c>
       <c r="N123" t="n">
-        <v>0.02055462160099683</v>
+        <v>0.07573481848629104</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04482088267207804</v>
+        <v>0.04441545019857153</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.02054707909799462</v>
+        <v>0.04598004353623437</v>
       </c>
       <c r="G124" t="n">
+        <v>0.03887612887865879</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.02050732686153497</v>
+      </c>
+      <c r="K124" t="n">
         <v>0.04559365651125179</v>
       </c>
-      <c r="J124" t="n">
-        <v>0.04815512603486688</v>
-      </c>
-      <c r="K124" t="n">
-        <v>0.04536643901998964</v>
-      </c>
       <c r="L124" t="n">
-        <v>0.0757169417664732</v>
+        <v>0.04792412793658427</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04529713096710358</v>
+        <v>0.0453224208218293</v>
       </c>
       <c r="N124" t="n">
-        <v>0.02054707909799462</v>
+        <v>0.07595560914816624</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04559365651125179</v>
+        <v>0.04518123382268483</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.02053633359003069</v>
+        <v>0.0461584898456314</v>
       </c>
       <c r="G125" t="n">
+        <v>0.03953504631728012</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.02036484484404917</v>
+      </c>
+      <c r="K125" t="n">
         <v>0.04636643035042556</v>
       </c>
-      <c r="J125" t="n">
-        <v>0.04809831085585425</v>
-      </c>
-      <c r="K125" t="n">
-        <v>0.0461353617152437</v>
-      </c>
       <c r="L125" t="n">
-        <v>0.07547517325817193</v>
+        <v>0.04823743627022786</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04606487894959686</v>
+        <v>0.0460905974459281</v>
       </c>
       <c r="N125" t="n">
-        <v>0.02053633359003069</v>
+        <v>0.07593527818258639</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04636643035042556</v>
+        <v>0.04594701744679813</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.0204224135675819</v>
+        <v>0.0463339996811316</v>
       </c>
       <c r="G126" t="n">
+        <v>0.04019396375590146</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.02031090553032422</v>
+      </c>
+      <c r="K126" t="n">
         <v>0.04713920418959931</v>
       </c>
-      <c r="J126" t="n">
-        <v>0.04822386801771522</v>
-      </c>
-      <c r="K126" t="n">
-        <v>0.04690428441049777</v>
-      </c>
       <c r="L126" t="n">
-        <v>0.07506106909879939</v>
+        <v>0.04772433542726112</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04683262693209014</v>
+        <v>0.0468587740700269</v>
       </c>
       <c r="N126" t="n">
-        <v>0.0204224135675819</v>
+        <v>0.0751757708679297</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04713920418959931</v>
+        <v>0.04671280107091143</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.02050534752112511</v>
+        <v>0.04650649090035383</v>
       </c>
       <c r="G127" t="n">
+        <v>0.04085288119452279</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.02024613044385065</v>
+      </c>
+      <c r="K127" t="n">
         <v>0.04791197802877308</v>
       </c>
-      <c r="J127" t="n">
-        <v>0.04813232809897769</v>
-      </c>
-      <c r="K127" t="n">
-        <v>0.04767320710575183</v>
-      </c>
       <c r="L127" t="n">
-        <v>0.07457948660755254</v>
+        <v>0.04798615787150504</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04760037491458342</v>
+        <v>0.0476269506941257</v>
       </c>
       <c r="N127" t="n">
-        <v>0.02050534752112511</v>
+        <v>0.0750790324825743</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04791197802877308</v>
+        <v>0.04747858469502474</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.02038516394113715</v>
+        <v>0.04667588136091691</v>
       </c>
       <c r="G128" t="n">
+        <v>0.04151179863314412</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.02017114110811906</v>
+      </c>
+      <c r="K128" t="n">
         <v>0.04868475186794683</v>
       </c>
-      <c r="J128" t="n">
-        <v>0.04772422167816973</v>
-      </c>
-      <c r="K128" t="n">
-        <v>0.04844212980100589</v>
-      </c>
       <c r="L128" t="n">
-        <v>0.07443528310362846</v>
+        <v>0.04772423606678058</v>
       </c>
       <c r="M128" t="n">
-        <v>0.0483681228970767</v>
+        <v>0.04839512731822451</v>
       </c>
       <c r="N128" t="n">
-        <v>0.02038516394113715</v>
+        <v>0.07464700830489851</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04868475186794683</v>
+        <v>0.04824436831913804</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.02046189131809492</v>
+        <v>0.0468420889204397</v>
       </c>
       <c r="G129" t="n">
+        <v>0.04217071607176546</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.02028655904661995</v>
+      </c>
+      <c r="K129" t="n">
         <v>0.04945752570712059</v>
       </c>
-      <c r="J129" t="n">
-        <v>0.04760007933381918</v>
-      </c>
-      <c r="K129" t="n">
-        <v>0.04921105249625995</v>
-      </c>
       <c r="L129" t="n">
-        <v>0.07343331590622398</v>
+        <v>0.04743990247690863</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04913587087956998</v>
+        <v>0.04916330394232331</v>
       </c>
       <c r="N129" t="n">
-        <v>0.02046189131809492</v>
+        <v>0.07468164361328028</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04945752570712059</v>
+        <v>0.04901015194325134</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.02053555814247525</v>
+        <v>0.04700503143654103</v>
       </c>
       <c r="G130" t="n">
+        <v>0.0428296335103868</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.02009300578284388</v>
+      </c>
+      <c r="K130" t="n">
         <v>0.05023029954629435</v>
       </c>
-      <c r="J130" t="n">
-        <v>0.04736043164445408</v>
-      </c>
-      <c r="K130" t="n">
-        <v>0.04997997519151402</v>
-      </c>
       <c r="L130" t="n">
-        <v>0.07307844233453614</v>
+        <v>0.04733448956571024</v>
       </c>
       <c r="M130" t="n">
-        <v>0.04990361886206326</v>
+        <v>0.0499314805664221</v>
       </c>
       <c r="N130" t="n">
-        <v>0.02053555814247525</v>
+        <v>0.07448488368609801</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05023029954629435</v>
+        <v>0.04977593556736465</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.02030619290475502</v>
+        <v>0.04716462676683976</v>
       </c>
       <c r="G131" t="n">
+        <v>0.04348855094900814</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.02009110284028143</v>
+      </c>
+      <c r="K131" t="n">
         <v>0.05100307338546811</v>
       </c>
-      <c r="J131" t="n">
-        <v>0.04740580918860243</v>
-      </c>
-      <c r="K131" t="n">
-        <v>0.05074889788676808</v>
-      </c>
       <c r="L131" t="n">
-        <v>0.07267551970776198</v>
+        <v>0.04680932979700628</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05067136684455654</v>
+        <v>0.05069965719052091</v>
       </c>
       <c r="N131" t="n">
-        <v>0.02030619290475502</v>
+        <v>0.07375867380172973</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05100307338546811</v>
+        <v>0.05054171919147794</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.02047382409541108</v>
+        <v>0.04732079276895475</v>
       </c>
       <c r="G132" t="n">
+        <v>0.04414746838762947</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0.01988147174242311</v>
+      </c>
+      <c r="K132" t="n">
         <v>0.05177584722464187</v>
       </c>
-      <c r="J132" t="n">
-        <v>0.04723674254479213</v>
-      </c>
-      <c r="K132" t="n">
-        <v>0.05151782058202214</v>
-      </c>
       <c r="L132" t="n">
-        <v>0.07202940534509833</v>
+        <v>0.04656575563461776</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05143911482704983</v>
+        <v>0.05146783381461971</v>
       </c>
       <c r="N132" t="n">
-        <v>0.02047382409541108</v>
+        <v>0.07390495923855367</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05177584722464187</v>
+        <v>0.05130750281559125</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.02023848020492029</v>
+        <v>0.0474734473005048</v>
       </c>
       <c r="G133" t="n">
+        <v>0.0448063858262508</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0.01976473401275947</v>
+      </c>
+      <c r="K133" t="n">
         <v>0.05254862106381563</v>
       </c>
-      <c r="J133" t="n">
-        <v>0.04685376229155119</v>
-      </c>
-      <c r="K133" t="n">
-        <v>0.0522867432772762</v>
-      </c>
       <c r="L133" t="n">
-        <v>0.07084495656574225</v>
+        <v>0.04630509954236564</v>
       </c>
       <c r="M133" t="n">
-        <v>0.0522068628095431</v>
+        <v>0.05223601043871852</v>
       </c>
       <c r="N133" t="n">
-        <v>0.02023848020492029</v>
+        <v>0.07322568527494794</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05254862106381563</v>
+        <v>0.05207328643970455</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.0202001897237595</v>
+        <v>0.04762250821910877</v>
       </c>
       <c r="G134" t="n">
+        <v>0.04546530326487214</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.01964151117478108</v>
+      </c>
+      <c r="K134" t="n">
         <v>0.05332139490298939</v>
       </c>
-      <c r="J134" t="n">
-        <v>0.0470573990074076</v>
-      </c>
-      <c r="K134" t="n">
-        <v>0.05305566597253026</v>
-      </c>
       <c r="L134" t="n">
-        <v>0.07012703068889076</v>
+        <v>0.04642869398407082</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05297461079203638</v>
+        <v>0.05300418706281731</v>
       </c>
       <c r="N134" t="n">
-        <v>0.0202001897237595</v>
+        <v>0.07332279718929074</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05332139490298939</v>
+        <v>0.05283907006381786</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.0203589811424056</v>
+        <v>0.0477678933823855</v>
       </c>
       <c r="G135" t="n">
+        <v>0.04612422070349348</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.01951242475197847</v>
+      </c>
+      <c r="K135" t="n">
         <v>0.05409416874216315</v>
       </c>
-      <c r="J135" t="n">
-        <v>0.04654818327088928</v>
-      </c>
-      <c r="K135" t="n">
-        <v>0.05382458866778432</v>
-      </c>
       <c r="L135" t="n">
-        <v>0.06958048503374076</v>
+        <v>0.04573787142355429</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05374235877452967</v>
+        <v>0.05377236368691612</v>
       </c>
       <c r="N135" t="n">
-        <v>0.0203589811424056</v>
+        <v>0.07269824025996036</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05409416874216315</v>
+        <v>0.05360485368793115</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.02011488295133541</v>
+        <v>0.04790952064795387</v>
       </c>
       <c r="G136" t="n">
+        <v>0.04678313814211481</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.01927809626784222</v>
+      </c>
+      <c r="K136" t="n">
         <v>0.05486694258133691</v>
       </c>
-      <c r="J136" t="n">
-        <v>0.04642664566052418</v>
-      </c>
-      <c r="K136" t="n">
-        <v>0.05459351136303839</v>
-      </c>
       <c r="L136" t="n">
-        <v>0.06871017691948927</v>
+        <v>0.04573396432463703</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05451010675702294</v>
+        <v>0.05454054031101492</v>
       </c>
       <c r="N136" t="n">
-        <v>0.02011488295133541</v>
+        <v>0.07215395976533479</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05486694258133691</v>
+        <v>0.05437063731204445</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.02006792364102582</v>
+        <v>0.04804730787343268</v>
       </c>
       <c r="G137" t="n">
+        <v>0.04744205558073614</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.01923914724586286</v>
+      </c>
+      <c r="K137" t="n">
         <v>0.05563971642051067</v>
       </c>
-      <c r="J137" t="n">
-        <v>0.04609331675484035</v>
-      </c>
-      <c r="K137" t="n">
-        <v>0.05536243405829245</v>
-      </c>
       <c r="L137" t="n">
-        <v>0.06832096366533325</v>
+        <v>0.04551830515113994</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05527785473951623</v>
+        <v>0.05530871693511372</v>
       </c>
       <c r="N137" t="n">
-        <v>0.02006792364102582</v>
+        <v>0.07169190098379236</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05563971642051067</v>
+        <v>0.05513642093615776</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.02011813170195367</v>
+        <v>0.04818117291644079</v>
       </c>
       <c r="G138" t="n">
+        <v>0.04810097301935748</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.0191961992095309</v>
+      </c>
+      <c r="K138" t="n">
         <v>0.05641249025968443</v>
       </c>
-      <c r="J138" t="n">
-        <v>0.0461487271323657</v>
-      </c>
-      <c r="K138" t="n">
-        <v>0.0561313567535465</v>
-      </c>
       <c r="L138" t="n">
-        <v>0.06731770259046965</v>
+        <v>0.04479222636688399</v>
       </c>
       <c r="M138" t="n">
-        <v>0.0560456027220095</v>
+        <v>0.05607689355921252</v>
       </c>
       <c r="N138" t="n">
-        <v>0.02011813170195367</v>
+        <v>0.07101400919371115</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05641249025968443</v>
+        <v>0.05590220456027106</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.01996553562459583</v>
+        <v>0.04831103363459704</v>
       </c>
       <c r="G139" t="n">
+        <v>0.04875989045797881</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.01904987368233696</v>
+      </c>
+      <c r="K139" t="n">
         <v>0.05718526409885818</v>
       </c>
-      <c r="J139" t="n">
-        <v>0.0455934073716282</v>
-      </c>
-      <c r="K139" t="n">
-        <v>0.05690027944880056</v>
-      </c>
       <c r="L139" t="n">
-        <v>0.06660525101409548</v>
+        <v>0.04465706043569012</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05681335070450279</v>
+        <v>0.05684507018331133</v>
       </c>
       <c r="N139" t="n">
-        <v>0.01996553562459583</v>
+        <v>0.07032222967346946</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05718526409885818</v>
+        <v>0.05666798818438436</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.01991016389942915</v>
+        <v>0.04843680788552028</v>
       </c>
       <c r="G140" t="n">
+        <v>0.04941880789660015</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0.01880079218777153</v>
+      </c>
+      <c r="K140" t="n">
         <v>0.05795803793803195</v>
       </c>
-      <c r="J140" t="n">
-        <v>0.04552788805115582</v>
-      </c>
-      <c r="K140" t="n">
-        <v>0.05766920214405463</v>
-      </c>
       <c r="L140" t="n">
-        <v>0.06558846625540776</v>
+        <v>0.04451413982137936</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05758109868699607</v>
+        <v>0.05761324680741013</v>
       </c>
       <c r="N140" t="n">
-        <v>0.01991016389942915</v>
+        <v>0.0705185077014453</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05795803793803195</v>
+        <v>0.05743377180849767</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.0198520450169305</v>
+        <v>0.04855841352682935</v>
       </c>
       <c r="G141" t="n">
+        <v>0.05007772533522149</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.0187495762493252</v>
+      </c>
+      <c r="K141" t="n">
         <v>0.05873081177720571</v>
       </c>
-      <c r="J141" t="n">
-        <v>0.04495269974947655</v>
-      </c>
-      <c r="K141" t="n">
-        <v>0.05843812483930869</v>
-      </c>
       <c r="L141" t="n">
-        <v>0.06517220563360343</v>
+        <v>0.0438647969877726</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05834884666948934</v>
+        <v>0.05838142343150893</v>
       </c>
       <c r="N141" t="n">
-        <v>0.0198520450169305</v>
+        <v>0.06960478855601693</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05873081177720571</v>
+        <v>0.05819955543261096</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.01989120746757672</v>
+        <v>0.04867576841614311</v>
       </c>
       <c r="G142" t="n">
+        <v>0.05073664277384282</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0.0183968473904885</v>
+      </c>
+      <c r="K142" t="n">
         <v>0.05950358561637946</v>
       </c>
-      <c r="J142" t="n">
-        <v>0.04466837304511834</v>
-      </c>
-      <c r="K142" t="n">
-        <v>0.05920704753456275</v>
-      </c>
       <c r="L142" t="n">
-        <v>0.06376132646787941</v>
+        <v>0.04361036439869079</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05911659465198263</v>
+        <v>0.05914960005560773</v>
       </c>
       <c r="N142" t="n">
-        <v>0.01989120746757672</v>
+        <v>0.06928301751556254</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05950358561637946</v>
+        <v>0.05896533905672427</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.01972767974184469</v>
+        <v>0.04878879041108038</v>
       </c>
       <c r="G143" t="n">
+        <v>0.05139556021246416</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0.01824322713475196</v>
+      </c>
+      <c r="K143" t="n">
         <v>0.06027635945555323</v>
       </c>
-      <c r="J143" t="n">
-        <v>0.04457543851660914</v>
-      </c>
-      <c r="K143" t="n">
-        <v>0.05997597022981682</v>
-      </c>
       <c r="L143" t="n">
-        <v>0.06316068607743275</v>
+        <v>0.04345217451795491</v>
       </c>
       <c r="M143" t="n">
-        <v>0.05988434263447592</v>
+        <v>0.05991777667970653</v>
       </c>
       <c r="N143" t="n">
-        <v>0.01972767974184469</v>
+        <v>0.06855513985846023</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06027635945555323</v>
+        <v>0.05973112268083757</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.01976149033021127</v>
+        <v>0.04889739736926001</v>
       </c>
       <c r="G144" t="n">
+        <v>0.05205447765108549</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.01808933700560617</v>
+      </c>
+      <c r="K144" t="n">
         <v>0.06104913329472698</v>
       </c>
-      <c r="J144" t="n">
-        <v>0.04427442674247697</v>
-      </c>
-      <c r="K144" t="n">
-        <v>0.06074489292507088</v>
-      </c>
       <c r="L144" t="n">
-        <v>0.06237514178146042</v>
+        <v>0.04269155980938588</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06065209061696919</v>
+        <v>0.06068595330380533</v>
       </c>
       <c r="N144" t="n">
-        <v>0.01976149033021127</v>
+        <v>0.0681231008630882</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06104913329472698</v>
+        <v>0.06049690630495088</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.0196926677231533</v>
+        <v>0.04900150714830084</v>
       </c>
       <c r="G145" t="n">
+        <v>0.05271339508970683</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.01813579852654165</v>
+      </c>
+      <c r="K145" t="n">
         <v>0.06182190713390074</v>
       </c>
-      <c r="J145" t="n">
-        <v>0.04376586830124976</v>
-      </c>
-      <c r="K145" t="n">
-        <v>0.06151381562032494</v>
-      </c>
       <c r="L145" t="n">
-        <v>0.06200955089915933</v>
+        <v>0.04262985273680472</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06141983859946248</v>
+        <v>0.06145412992790413</v>
       </c>
       <c r="N145" t="n">
-        <v>0.0196926677231533</v>
+        <v>0.06738884580782478</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06182190713390074</v>
+        <v>0.06126268992906418</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.01972124041114767</v>
+        <v>0.04910103760582173</v>
       </c>
       <c r="G146" t="n">
+        <v>0.05337231252832816</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0.01778323322104895</v>
+      </c>
+      <c r="K146" t="n">
         <v>0.0625946809730745</v>
       </c>
-      <c r="J146" t="n">
-        <v>0.04375029377145553</v>
-      </c>
-      <c r="K146" t="n">
-        <v>0.062282738315579</v>
-      </c>
       <c r="L146" t="n">
-        <v>0.0611687707497266</v>
+        <v>0.04226838576403233</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06218758658195575</v>
+        <v>0.06222230655200294</v>
       </c>
       <c r="N146" t="n">
-        <v>0.01972124041114767</v>
+        <v>0.06665431997104798</v>
       </c>
       <c r="O146" t="n">
-        <v>0.0625946809730745</v>
+        <v>0.06202847355317748</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.01954723688467121</v>
+        <v>0.04919590659944151</v>
       </c>
       <c r="G147" t="n">
+        <v>0.05403122996694949</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0.01763226261261862</v>
+      </c>
+      <c r="K147" t="n">
         <v>0.06336745481224826</v>
       </c>
-      <c r="J147" t="n">
-        <v>0.04352823373162215</v>
-      </c>
-      <c r="K147" t="n">
-        <v>0.06305166101083307</v>
-      </c>
       <c r="L147" t="n">
-        <v>0.06005765865235896</v>
+        <v>0.04200849135488965</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06295533456444903</v>
+        <v>0.06299048317610173</v>
       </c>
       <c r="N147" t="n">
-        <v>0.01954723688467121</v>
+        <v>0.06662146863113594</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06336745481224826</v>
+        <v>0.06279425717729077</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.01947068563420079</v>
+        <v>0.04928603198677906</v>
       </c>
       <c r="G148" t="n">
+        <v>0.05469014740557084</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0.01758350822474124</v>
+      </c>
+      <c r="K148" t="n">
         <v>0.06414022865142202</v>
       </c>
-      <c r="J148" t="n">
-        <v>0.04300021876027768</v>
-      </c>
-      <c r="K148" t="n">
-        <v>0.06382058370608712</v>
-      </c>
       <c r="L148" t="n">
-        <v>0.05938107192625364</v>
+        <v>0.0416515019731977</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06372308254694233</v>
+        <v>0.06375865980020054</v>
       </c>
       <c r="N148" t="n">
-        <v>0.01947068563420079</v>
+        <v>0.06559223706646694</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06414022865142202</v>
+        <v>0.06356004080140408</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.01949161515021326</v>
+        <v>0.04937133162545314</v>
       </c>
       <c r="G149" t="n">
+        <v>0.05534906484419216</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0.01753759158090731</v>
+      </c>
+      <c r="K149" t="n">
         <v>0.06491300249059577</v>
       </c>
-      <c r="J149" t="n">
-        <v>0.04246677943595001</v>
-      </c>
-      <c r="K149" t="n">
-        <v>0.06458950640134119</v>
-      </c>
       <c r="L149" t="n">
-        <v>0.05934386789060747</v>
+        <v>0.04129875008277739</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06449083052943559</v>
+        <v>0.06452683642429935</v>
       </c>
       <c r="N149" t="n">
-        <v>0.01949161515021326</v>
+        <v>0.06536857055541906</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06491300249059577</v>
+        <v>0.06432582442551739</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.0194100539231855</v>
+        <v>0.04945172337308266</v>
       </c>
       <c r="G150" t="n">
+        <v>0.05600798228281351</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0.01739513420460741</v>
+      </c>
+      <c r="K150" t="n">
         <v>0.06568577632976953</v>
       </c>
-      <c r="J150" t="n">
-        <v>0.04232844633716717</v>
-      </c>
-      <c r="K150" t="n">
-        <v>0.06535842909659526</v>
-      </c>
       <c r="L150" t="n">
-        <v>0.05825090386461751</v>
+        <v>0.04065156814744969</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06525857851192889</v>
+        <v>0.06529501304839813</v>
       </c>
       <c r="N150" t="n">
-        <v>0.0194100539231855</v>
+        <v>0.06465241437637059</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06568577632976953</v>
+        <v>0.0650916080496307</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.01932603044359436</v>
+        <v>0.04952712508728646</v>
       </c>
       <c r="G151" t="n">
+        <v>0.05666689972143484</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0.01705675761933206</v>
+      </c>
+      <c r="K151" t="n">
         <v>0.0664585501689433</v>
       </c>
-      <c r="J151" t="n">
-        <v>0.04198575004245714</v>
-      </c>
-      <c r="K151" t="n">
-        <v>0.06612735179184931</v>
-      </c>
       <c r="L151" t="n">
-        <v>0.05790703716748069</v>
+        <v>0.04041128863103552</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06602632649442215</v>
+        <v>0.06606318967249694</v>
       </c>
       <c r="N151" t="n">
-        <v>0.01932603044359436</v>
+        <v>0.06404571380769974</v>
       </c>
       <c r="O151" t="n">
-        <v>0.0664585501689433</v>
+        <v>0.06585739167374399</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.0190395732019167</v>
+        <v>0.04959745462568339</v>
       </c>
       <c r="G152" t="n">
+        <v>0.05732581716005617</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0.01702308334857185</v>
+      </c>
+      <c r="K152" t="n">
         <v>0.06723132400811706</v>
       </c>
-      <c r="J152" t="n">
-        <v>0.04173922113034786</v>
-      </c>
-      <c r="K152" t="n">
-        <v>0.06689627448710338</v>
-      </c>
       <c r="L152" t="n">
-        <v>0.057717125118394</v>
+        <v>0.04017924399735587</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06679407447691543</v>
+        <v>0.06683136629659575</v>
       </c>
       <c r="N152" t="n">
-        <v>0.0190395732019167</v>
+        <v>0.06425041412778448</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06723132400811706</v>
+        <v>0.06662317529785729</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.01905071068862937</v>
+        <v>0.04966262984589226</v>
       </c>
       <c r="G153" t="n">
+        <v>0.05798473459867751</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0.01689473291581729</v>
+      </c>
+      <c r="K153" t="n">
         <v>0.06800409784729082</v>
       </c>
-      <c r="J153" t="n">
-        <v>0.04128939017936725</v>
-      </c>
-      <c r="K153" t="n">
-        <v>0.06766519718235743</v>
-      </c>
       <c r="L153" t="n">
-        <v>0.05668602503655434</v>
+        <v>0.03985676671023169</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06756182245940873</v>
+        <v>0.06759954292069455</v>
       </c>
       <c r="N153" t="n">
-        <v>0.01905071068862937</v>
+        <v>0.06306846061500315</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06800409784729082</v>
+        <v>0.0673889589219706</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.01905947139420924</v>
+        <v>0.04972256860553194</v>
       </c>
       <c r="G154" t="n">
+        <v>0.05864365203729884</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0.01667232784455895</v>
+      </c>
+      <c r="K154" t="n">
         <v>0.06877687168646457</v>
       </c>
-      <c r="J154" t="n">
-        <v>0.04113678776804336</v>
-      </c>
-      <c r="K154" t="n">
-        <v>0.0684341198776115</v>
-      </c>
       <c r="L154" t="n">
-        <v>0.05681859424115893</v>
+        <v>0.03954518923348396</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06832957044190199</v>
+        <v>0.06836771954479334</v>
       </c>
       <c r="N154" t="n">
-        <v>0.01905947139420924</v>
+        <v>0.06300179854773386</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06877687168646457</v>
+        <v>0.06815474254608389</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.01886588380913316</v>
+        <v>0.04977718876222124</v>
       </c>
       <c r="G155" t="n">
+        <v>0.05930256947592018</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0.01665648965828738</v>
+      </c>
+      <c r="K155" t="n">
         <v>0.06954964552563833</v>
       </c>
-      <c r="J155" t="n">
-        <v>0.04048194447490414</v>
-      </c>
-      <c r="K155" t="n">
-        <v>0.06920304257286555</v>
-      </c>
       <c r="L155" t="n">
-        <v>0.05609556263852711</v>
+        <v>0.03894584403093354</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06909731842439529</v>
+        <v>0.06913589616889215</v>
       </c>
       <c r="N155" t="n">
-        <v>0.01886588380913316</v>
+        <v>0.06275237320435484</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06954964552563833</v>
+        <v>0.0689205261701972</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.018769976423878</v>
+        <v>0.04982640817357906</v>
       </c>
       <c r="G156" t="n">
+        <v>0.05996148691454152</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0.01644783988049313</v>
+      </c>
+      <c r="K156" t="n">
         <v>0.07032241936481209</v>
       </c>
-      <c r="J156" t="n">
-        <v>0.0401253908784775</v>
-      </c>
-      <c r="K156" t="n">
-        <v>0.06997196526811962</v>
-      </c>
       <c r="L156" t="n">
-        <v>0.05578714720801115</v>
+        <v>0.03866006356640148</v>
       </c>
       <c r="M156" t="n">
-        <v>0.06986506640688855</v>
+        <v>0.06990407279299096</v>
       </c>
       <c r="N156" t="n">
-        <v>0.018769976423878</v>
+        <v>0.06192212986324419</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07032241936481209</v>
+        <v>0.06968630979431051</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.01877177772892062</v>
+        <v>0.04987014469722419</v>
       </c>
       <c r="G157" t="n">
+        <v>0.06062040435316285</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0.01644700003466673</v>
+      </c>
+      <c r="K157" t="n">
         <v>0.07109519320398586</v>
       </c>
-      <c r="J157" t="n">
-        <v>0.03966765755729146</v>
-      </c>
-      <c r="K157" t="n">
-        <v>0.07074088796337369</v>
-      </c>
       <c r="L157" t="n">
-        <v>0.05579257819367922</v>
+        <v>0.0385891803037087</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07063281438938185</v>
+        <v>0.07067224941708976</v>
       </c>
       <c r="N157" t="n">
-        <v>0.01877177772892062</v>
+        <v>0.06131301380278015</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07109519320398586</v>
+        <v>0.0704520934184238</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.01847131621473787</v>
+        <v>0.0499083161907755</v>
       </c>
       <c r="G158" t="n">
+        <v>0.06127932179178419</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0.01645232101329347</v>
+      </c>
+      <c r="K158" t="n">
         <v>0.07186796704315961</v>
       </c>
-      <c r="J158" t="n">
-        <v>0.03940927508987396</v>
-      </c>
-      <c r="K158" t="n">
-        <v>0.07150981065862774</v>
-      </c>
       <c r="L158" t="n">
-        <v>0.05571120716058425</v>
+        <v>0.03833097764586987</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07140056237187513</v>
+        <v>0.07144042604118855</v>
       </c>
       <c r="N158" t="n">
-        <v>0.01847131621473787</v>
+        <v>0.06142146603306808</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07186796704315961</v>
+        <v>0.0712178770425371</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.01856862037180661</v>
+        <v>0.04994084051185185</v>
       </c>
       <c r="G159" t="n">
+        <v>0.06193823923040552</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0.01616015985744504</v>
+      </c>
+      <c r="K159" t="n">
         <v>0.07264074088233337</v>
       </c>
-      <c r="J159" t="n">
-        <v>0.03905077405475302</v>
-      </c>
-      <c r="K159" t="n">
-        <v>0.0722787333538818</v>
-      </c>
       <c r="L159" t="n">
-        <v>0.05514238567377905</v>
+        <v>0.03797981013259816</v>
       </c>
       <c r="M159" t="n">
-        <v>0.0721683103543684</v>
+        <v>0.07220860266528736</v>
       </c>
       <c r="N159" t="n">
-        <v>0.01856862037180661</v>
+        <v>0.06103822040760692</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07264074088233337</v>
+        <v>0.07198366066665041</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.01846371869060369</v>
+        <v>0.04996763551807204</v>
       </c>
       <c r="G160" t="n">
+        <v>0.06259715666902685</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0.01627030244256396</v>
+      </c>
+      <c r="K160" t="n">
         <v>0.07341351472150713</v>
       </c>
-      <c r="J160" t="n">
-        <v>0.03869268503045659</v>
-      </c>
-      <c r="K160" t="n">
-        <v>0.07304765604913586</v>
-      </c>
       <c r="L160" t="n">
-        <v>0.05468546529831658</v>
+        <v>0.03763500245932799</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07293605833686169</v>
+        <v>0.07297677928938616</v>
       </c>
       <c r="N160" t="n">
-        <v>0.01846371869060369</v>
+        <v>0.0603623853062118</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07341351472150713</v>
+        <v>0.07274944429076372</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.01815663966160599</v>
+        <v>0.04998861906705496</v>
       </c>
       <c r="G161" t="n">
+        <v>0.06325607410764819</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0.01598259279228331</v>
+      </c>
+      <c r="K161" t="n">
         <v>0.07418628856068088</v>
       </c>
-      <c r="J161" t="n">
-        <v>0.03823553859551257</v>
-      </c>
-      <c r="K161" t="n">
-        <v>0.07381657874438993</v>
-      </c>
       <c r="L161" t="n">
-        <v>0.05443979759924966</v>
+        <v>0.03739596064568623</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07370380631935496</v>
+        <v>0.07374495591348496</v>
       </c>
       <c r="N161" t="n">
-        <v>0.01815663966160599</v>
+        <v>0.06009324125579957</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07418628856068088</v>
+        <v>0.07351522791487701</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.01824741177529038</v>
+        <v>0.05000370901641943</v>
       </c>
       <c r="G162" t="n">
+        <v>0.06391499154626952</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0.01589687493023616</v>
+      </c>
+      <c r="K162" t="n">
         <v>0.07495906239985466</v>
       </c>
-      <c r="J162" t="n">
-        <v>0.037879865328449</v>
-      </c>
-      <c r="K162" t="n">
-        <v>0.07458550143964399</v>
-      </c>
       <c r="L162" t="n">
-        <v>0.05410473414163108</v>
+        <v>0.03716209071129983</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07447155430184825</v>
+        <v>0.07451313253758376</v>
       </c>
       <c r="N162" t="n">
-        <v>0.01824741177529038</v>
+        <v>0.05993006878328705</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07495906239985466</v>
+        <v>0.07428101153899032</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.01793606352213369</v>
+        <v>0.05001282322378428</v>
       </c>
       <c r="G163" t="n">
+        <v>0.06457390898489086</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0.01581299288005562</v>
+      </c>
+      <c r="K163" t="n">
         <v>0.07573183623902841</v>
       </c>
-      <c r="J163" t="n">
-        <v>0.03752616080039184</v>
-      </c>
-      <c r="K163" t="n">
-        <v>0.07535442413489805</v>
-      </c>
       <c r="L163" t="n">
-        <v>0.05417962649051383</v>
+        <v>0.03723279867579571</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07523930228434153</v>
+        <v>0.07528130916168256</v>
       </c>
       <c r="N163" t="n">
-        <v>0.01793606352213369</v>
+        <v>0.0592721484155907</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07573183623902841</v>
+        <v>0.07504679516310361</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.01792262339261279</v>
+        <v>0.05001587954676838</v>
       </c>
       <c r="G164" t="n">
+        <v>0.06523282642351221</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0.01573079066537476</v>
+      </c>
+      <c r="K164" t="n">
         <v>0.07650461007820217</v>
       </c>
-      <c r="J164" t="n">
-        <v>0.03745153873140994</v>
-      </c>
-      <c r="K164" t="n">
-        <v>0.07612334683015212</v>
-      </c>
       <c r="L164" t="n">
-        <v>0.05366382621095073</v>
+        <v>0.03680749055880067</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07600705026683481</v>
+        <v>0.07604948578578137</v>
       </c>
       <c r="N164" t="n">
-        <v>0.01792262339261279</v>
+        <v>0.05891876067962742</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07650461007820217</v>
+        <v>0.07581257878721692</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.01770711987720452</v>
+        <v>0.05001587954676838</v>
       </c>
       <c r="G165" t="n">
+        <v>0.06523282642351221</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0.01565011230982669</v>
+      </c>
+      <c r="K165" t="n">
         <v>0.07727738391737593</v>
       </c>
-      <c r="J165" t="n">
-        <v>0.03673847285176354</v>
-      </c>
-      <c r="K165" t="n">
-        <v>0.07689226952540618</v>
-      </c>
       <c r="L165" t="n">
-        <v>0.05345668486799465</v>
+        <v>0.03678557237994165</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07677479824932809</v>
+        <v>0.07681766240988017</v>
       </c>
       <c r="N165" t="n">
-        <v>0.01770711987720452</v>
+        <v>0.05886918610231395</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07727738391737593</v>
+        <v>0.07657836241133022</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.01768958146638577</v>
+        <v>0.04915040038377649</v>
       </c>
       <c r="G166" t="n">
+        <v>0.06523255789504818</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0.01557080183704448</v>
+      </c>
+      <c r="K166" t="n">
         <v>0.07805015775654968</v>
       </c>
-      <c r="J166" t="n">
-        <v>0.0364903987669121</v>
-      </c>
-      <c r="K166" t="n">
-        <v>0.07766119222066023</v>
-      </c>
       <c r="L166" t="n">
-        <v>0.05315755402669842</v>
+        <v>0.0363664501588456</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07754254623182137</v>
+        <v>0.07758583903397896</v>
       </c>
       <c r="N166" t="n">
-        <v>0.01768958146638577</v>
+        <v>0.05812270521056701</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07805015775654968</v>
+        <v>0.07734414603544353</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.0174700366506334</v>
+        <v>0.04829477137711827</v>
       </c>
       <c r="G167" t="n">
+        <v>0.06523228936658416</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0.01559270327066126</v>
+      </c>
+      <c r="K167" t="n">
         <v>0.07882293159572344</v>
       </c>
-      <c r="J167" t="n">
-        <v>0.036010752082315</v>
-      </c>
-      <c r="K167" t="n">
-        <v>0.0784301149159143</v>
-      </c>
       <c r="L167" t="n">
-        <v>0.05336578525211494</v>
+        <v>0.03624952991513936</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07831029421431465</v>
+        <v>0.07835401565807777</v>
       </c>
       <c r="N167" t="n">
-        <v>0.0174700366506334</v>
+        <v>0.05767859853130319</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07882293159572344</v>
+        <v>0.07810992965955683</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.01744851392042425</v>
+        <v>0.04744949331528352</v>
       </c>
       <c r="G168" t="n">
+        <v>0.06523202083812014</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0.01551566063431005</v>
+      </c>
+      <c r="K168" t="n">
         <v>0.0795957054348972</v>
       </c>
-      <c r="J168" t="n">
-        <v>0.03530296840343167</v>
-      </c>
-      <c r="K168" t="n">
-        <v>0.07919903761116837</v>
-      </c>
       <c r="L168" t="n">
-        <v>0.05318073010929714</v>
+        <v>0.0359342176684499</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07907804219680793</v>
+        <v>0.07912219228217658</v>
       </c>
       <c r="N168" t="n">
-        <v>0.01744851392042425</v>
+        <v>0.05783614659143937</v>
       </c>
       <c r="O168" t="n">
-        <v>0.0795957054348972</v>
+        <v>0.07887571328367012</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.01732504176623519</v>
+        <v>0.04661506698687219</v>
       </c>
       <c r="G169" t="n">
+        <v>0.06523175230965612</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0.01543951795162402</v>
+      </c>
+      <c r="K169" t="n">
         <v>0.08036847927407097</v>
       </c>
-      <c r="J169" t="n">
-        <v>0.03517048333572159</v>
-      </c>
-      <c r="K169" t="n">
-        <v>0.07996796030642242</v>
-      </c>
       <c r="L169" t="n">
-        <v>0.05280174016329781</v>
+        <v>0.03581991943840404</v>
       </c>
       <c r="M169" t="n">
-        <v>0.07984579017930121</v>
+        <v>0.07989036890627538</v>
       </c>
       <c r="N169" t="n">
-        <v>0.01732504176623519</v>
+        <v>0.05699462991789223</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08036847927407097</v>
+        <v>0.07964149690778342</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.01729964867854307</v>
+        <v>0.04579199318037365</v>
       </c>
       <c r="G170" t="n">
+        <v>0.06523148378119212</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0.01536411924623621</v>
+      </c>
+      <c r="K170" t="n">
         <v>0.08114125311324473</v>
       </c>
-      <c r="J170" t="n">
-        <v>0.03421673248464405</v>
-      </c>
-      <c r="K170" t="n">
-        <v>0.08073688300167647</v>
-      </c>
       <c r="L170" t="n">
-        <v>0.05242816697916985</v>
+        <v>0.03580604124462874</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08061353816179449</v>
+        <v>0.08065854553037417</v>
       </c>
       <c r="N170" t="n">
-        <v>0.01729964867854307</v>
+        <v>0.05715332903757847</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08114125311324473</v>
+        <v>0.08040728053189673</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.01707236314782476</v>
+        <v>0.04498077268431423</v>
       </c>
       <c r="G171" t="n">
+        <v>0.0652312152527281</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0.01528930854177975</v>
+      </c>
+      <c r="K171" t="n">
         <v>0.08191402695241848</v>
       </c>
-      <c r="J171" t="n">
-        <v>0.03394515145565857</v>
-      </c>
-      <c r="K171" t="n">
-        <v>0.08150580569693056</v>
-      </c>
       <c r="L171" t="n">
-        <v>0.05295936212196606</v>
+        <v>0.03529198910675091</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08138128614428779</v>
+        <v>0.08142672215447298</v>
       </c>
       <c r="N171" t="n">
-        <v>0.01707236314782476</v>
+        <v>0.05701152447741481</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08191402695241848</v>
+        <v>0.08117306415601004</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.01694321366455712</v>
+        <v>0.04418190628718585</v>
       </c>
       <c r="G172" t="n">
+        <v>0.06523094672426408</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0.01521492986188767</v>
+      </c>
+      <c r="K172" t="n">
         <v>0.08268680079159224</v>
       </c>
-      <c r="J172" t="n">
-        <v>0.0332591758542245</v>
-      </c>
-      <c r="K172" t="n">
-        <v>0.08227472839218461</v>
-      </c>
       <c r="L172" t="n">
-        <v>0.05259467715673943</v>
+        <v>0.03517716904439741</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08214903412678105</v>
+        <v>0.08219489877857178</v>
       </c>
       <c r="N172" t="n">
-        <v>0.01694321366455712</v>
+        <v>0.056268496764318</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08268680079159224</v>
+        <v>0.08193884778012334</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.01681222871921699</v>
+        <v>0.04339589477758439</v>
       </c>
       <c r="G173" t="n">
+        <v>0.06523067819580006</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0.01504082723019309</v>
+      </c>
+      <c r="K173" t="n">
         <v>0.08345957463076599</v>
       </c>
-      <c r="J173" t="n">
-        <v>0.03246224128580133</v>
-      </c>
-      <c r="K173" t="n">
-        <v>0.08304365108743866</v>
-      </c>
       <c r="L173" t="n">
-        <v>0.05213346364854277</v>
+        <v>0.03516098707719514</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08291678210927433</v>
+        <v>0.08296307540267057</v>
       </c>
       <c r="N173" t="n">
-        <v>0.01681222871921699</v>
+        <v>0.05632352642520488</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08345957463076599</v>
+        <v>0.08270463140423664</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.01657943680228123</v>
+        <v>0.0426232389440012</v>
       </c>
       <c r="G174" t="n">
+        <v>0.06523040966733605</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0.01506684467032914</v>
+      </c>
+      <c r="K174" t="n">
         <v>0.08423234846993977</v>
       </c>
-      <c r="J174" t="n">
-        <v>0.03205778335584841</v>
-      </c>
-      <c r="K174" t="n">
-        <v>0.08381257378269273</v>
-      </c>
       <c r="L174" t="n">
-        <v>0.05227507316242896</v>
+        <v>0.03464284922477109</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08368453009176761</v>
+        <v>0.08373125202676938</v>
       </c>
       <c r="N174" t="n">
-        <v>0.01657943680228123</v>
+        <v>0.05597589398699199</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08423234846993977</v>
+        <v>0.08347041502834994</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.01654486640422675</v>
+        <v>0.04186443957496261</v>
       </c>
       <c r="G175" t="n">
+        <v>0.06523014113887203</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0.01489282620592886</v>
+      </c>
+      <c r="K175" t="n">
         <v>0.08500512230911351</v>
       </c>
-      <c r="J175" t="n">
-        <v>0.0315492376698252</v>
-      </c>
-      <c r="K175" t="n">
-        <v>0.0845814964779468</v>
-      </c>
       <c r="L175" t="n">
-        <v>0.05221885726345077</v>
+        <v>0.03432216150675202</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08445227807426089</v>
+        <v>0.08449942865086819</v>
       </c>
       <c r="N175" t="n">
-        <v>0.01654486640422675</v>
+        <v>0.05532487997659608</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08500512230911351</v>
+        <v>0.08423619865246323</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.01649084587254351</v>
+        <v>0.04111999745896294</v>
       </c>
       <c r="G176" t="n">
+        <v>0.06522987261040801</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0.01501861586062535</v>
+      </c>
+      <c r="K176" t="n">
         <v>0.08577789614828728</v>
       </c>
-      <c r="J176" t="n">
-        <v>0.03074003983319107</v>
-      </c>
-      <c r="K176" t="n">
-        <v>0.08535041917320085</v>
-      </c>
       <c r="L176" t="n">
-        <v>0.05186416751666117</v>
+        <v>0.03409832994276496</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08522002605675419</v>
+        <v>0.08526760527496698</v>
       </c>
       <c r="N176" t="n">
-        <v>0.01649084587254351</v>
+        <v>0.05466976492093412</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08577789614828728</v>
+        <v>0.08500198227657654</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.01627189745975684</v>
+        <v>0.04039041338459336</v>
       </c>
       <c r="G177" t="n">
+        <v>0.06522960408194399</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0.01484405765805172</v>
+      </c>
+      <c r="K177" t="n">
         <v>0.08655066998746104</v>
       </c>
-      <c r="J177" t="n">
-        <v>0.0300336254514055</v>
-      </c>
-      <c r="K177" t="n">
-        <v>0.08611934186845491</v>
-      </c>
       <c r="L177" t="n">
-        <v>0.0513103554871131</v>
+        <v>0.03427076055243672</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08598777403924746</v>
+        <v>0.08603578189906579</v>
       </c>
       <c r="N177" t="n">
-        <v>0.01627189745975684</v>
+        <v>0.0549098293469224</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08655066998746104</v>
+        <v>0.08576776590068985</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.01579664137756367</v>
+        <v>0.03967618814034751</v>
       </c>
       <c r="G178" t="n">
+        <v>0.06522933555347998</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0.01466899562184104</v>
+      </c>
+      <c r="K178" t="n">
         <v>0.08732344382663479</v>
       </c>
-      <c r="J178" t="n">
-        <v>0.02943343012992786</v>
-      </c>
-      <c r="K178" t="n">
-        <v>0.08688826456370898</v>
-      </c>
       <c r="L178" t="n">
-        <v>0.05135677273985928</v>
+        <v>0.03383885935539427</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08675552202174075</v>
+        <v>0.0868039585231646</v>
       </c>
       <c r="N178" t="n">
-        <v>0.01579664137756367</v>
+        <v>0.05404435378147804</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08732344382663479</v>
+        <v>0.08653354952480315</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.01547712983491192</v>
+        <v>0.03897782251475178</v>
       </c>
       <c r="G179" t="n">
+        <v>0.06522906702501596</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0.0145932737756264</v>
+      </c>
+      <c r="K179" t="n">
         <v>0.08809621766580855</v>
       </c>
-      <c r="J179" t="n">
-        <v>0.02914288947421759</v>
-      </c>
-      <c r="K179" t="n">
-        <v>0.08765718725896304</v>
-      </c>
       <c r="L179" t="n">
-        <v>0.05100277083995264</v>
+        <v>0.03380203237126447</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08752327000423402</v>
+        <v>0.08757213514726339</v>
       </c>
       <c r="N179" t="n">
-        <v>0.01547712983491192</v>
+        <v>0.05417261875151763</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08809621766580855</v>
+        <v>0.08729933314891646</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.01512541504074959</v>
+        <v>0.03829581729630319</v>
       </c>
       <c r="G180" t="n">
+        <v>0.06522879849655194</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0.01471673614304092</v>
+      </c>
+      <c r="K180" t="n">
         <v>0.08886899150498231</v>
       </c>
-      <c r="J180" t="n">
-        <v>0.02866543908973407</v>
-      </c>
-      <c r="K180" t="n">
-        <v>0.0884261099542171</v>
-      </c>
       <c r="L180" t="n">
-        <v>0.05124770135244611</v>
+        <v>0.0331596856196742</v>
       </c>
       <c r="M180" t="n">
-        <v>0.0882910179867273</v>
+        <v>0.08834031177136219</v>
       </c>
       <c r="N180" t="n">
-        <v>0.01512541504074959</v>
+        <v>0.05379390478395785</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08886899150498231</v>
+        <v>0.08806511677302975</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.01495354920402452</v>
+        <v>0.03763067327358749</v>
       </c>
       <c r="G181" t="n">
+        <v>0.06522852996808792</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0.01463922674771764</v>
+      </c>
+      <c r="K181" t="n">
         <v>0.08964176534415608</v>
       </c>
-      <c r="J181" t="n">
-        <v>0.02790451458193674</v>
-      </c>
-      <c r="K181" t="n">
-        <v>0.08919503264947116</v>
-      </c>
       <c r="L181" t="n">
-        <v>0.0509909158423924</v>
+        <v>0.03321122512025046</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08905876596922059</v>
+        <v>0.089108488395461</v>
       </c>
       <c r="N181" t="n">
-        <v>0.01495354920402452</v>
+        <v>0.05290749240571541</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08964176534415608</v>
+        <v>0.08883090039714306</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.01457358453368468</v>
+        <v>0.03698289123510101</v>
       </c>
       <c r="G182" t="n">
+        <v>0.0652282614396239</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0.0145605896132897</v>
+      </c>
+      <c r="K182" t="n">
         <v>0.09041453918332984</v>
       </c>
-      <c r="J182" t="n">
-        <v>0.02726355155628507</v>
-      </c>
-      <c r="K182" t="n">
-        <v>0.08996395534472523</v>
-      </c>
       <c r="L182" t="n">
-        <v>0.05113176587484458</v>
+        <v>0.03265605689262002</v>
       </c>
       <c r="M182" t="n">
-        <v>0.08982651395171386</v>
+        <v>0.08987666501955979</v>
       </c>
       <c r="N182" t="n">
-        <v>0.01457358453368468</v>
+        <v>0.05251266214370715</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09041453918332984</v>
+        <v>0.08959668402125635</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.01399757323867801</v>
+        <v>0.03635297196937012</v>
       </c>
       <c r="G183" t="n">
+        <v>0.0652279929111599</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0.01428066876339015</v>
+      </c>
+      <c r="K183" t="n">
         <v>0.09118731302250359</v>
       </c>
-      <c r="J183" t="n">
-        <v>0.02704598561823834</v>
-      </c>
-      <c r="K183" t="n">
-        <v>0.09073287803997929</v>
-      </c>
       <c r="L183" t="n">
-        <v>0.0506696030148554</v>
+        <v>0.03249358695640991</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09059426193420715</v>
+        <v>0.0906448416436586</v>
       </c>
       <c r="N183" t="n">
-        <v>0.01399757323867801</v>
+        <v>0.05190869452484981</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09118731302250359</v>
+        <v>0.09036246764536966</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.01373756752795242</v>
+        <v>0.03574141626489498</v>
       </c>
       <c r="G184" t="n">
+        <v>0.06522772438269586</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0.01439930822165214</v>
+      </c>
+      <c r="K184" t="n">
         <v>0.09196008686167735</v>
       </c>
-      <c r="J184" t="n">
-        <v>0.02625525237325613</v>
-      </c>
-      <c r="K184" t="n">
-        <v>0.09150180073523334</v>
-      </c>
       <c r="L184" t="n">
-        <v>0.05080377882747766</v>
+        <v>0.03222322133124694</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09136200991670043</v>
+        <v>0.0914130182677574</v>
       </c>
       <c r="N184" t="n">
-        <v>0.01373756752795242</v>
+        <v>0.05199487007605996</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09196008686167735</v>
+        <v>0.09112825126948297</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.01340561961045587</v>
+        <v>0.03514872491025517</v>
       </c>
       <c r="G185" t="n">
+        <v>0.06522745585423186</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0.01421635201170869</v>
+      </c>
+      <c r="K185" t="n">
         <v>0.09273286070085111</v>
       </c>
-      <c r="J185" t="n">
-        <v>0.02609478742679774</v>
-      </c>
-      <c r="K185" t="n">
-        <v>0.09227072343048741</v>
-      </c>
       <c r="L185" t="n">
-        <v>0.05053364487776435</v>
+        <v>0.03194436603675802</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09212975789919371</v>
+        <v>0.09218119489185619</v>
       </c>
       <c r="N185" t="n">
-        <v>0.01340561961045587</v>
+        <v>0.05177046932425439</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09273286070085111</v>
+        <v>0.09189403489359627</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.01301378169513628</v>
+        <v>0.03457539869395007</v>
       </c>
       <c r="G186" t="n">
+        <v>0.06522718732576784</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0.01423164415719291</v>
+      </c>
+      <c r="K186" t="n">
         <v>0.09350563454002488</v>
       </c>
-      <c r="J186" t="n">
-        <v>0.02556802638432268</v>
-      </c>
-      <c r="K186" t="n">
-        <v>0.09303964612574148</v>
-      </c>
       <c r="L186" t="n">
-        <v>0.05025855273076829</v>
+        <v>0.03155642709257006</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09289750588168699</v>
+        <v>0.092949371515955</v>
       </c>
       <c r="N186" t="n">
-        <v>0.01301378169513628</v>
+        <v>0.05093477279634989</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09350563454002488</v>
+        <v>0.09265981851770956</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.01277410599094159</v>
+        <v>0.03402193840450604</v>
       </c>
       <c r="G187" t="n">
+        <v>0.06522691879730383</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0.01404502868173793</v>
+      </c>
+      <c r="K187" t="n">
         <v>0.09427840837919862</v>
       </c>
-      <c r="J187" t="n">
-        <v>0.02527817587114237</v>
-      </c>
-      <c r="K187" t="n">
-        <v>0.09380856882099553</v>
-      </c>
       <c r="L187" t="n">
-        <v>0.04987785395154243</v>
+        <v>0.03125881051831003</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09366525386418027</v>
+        <v>0.0937175481400538</v>
       </c>
       <c r="N187" t="n">
-        <v>0.01277410599094159</v>
+        <v>0.05038706101926316</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09427840837919862</v>
+        <v>0.09342560214182287</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.0126986447068197</v>
+        <v>0.03348884483042669</v>
       </c>
       <c r="G188" t="n">
+        <v>0.06522665026883979</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0.01405634960897681</v>
+      </c>
+      <c r="K188" t="n">
         <v>0.09505118221837239</v>
       </c>
-      <c r="J188" t="n">
-        <v>0.02480682594340627</v>
-      </c>
-      <c r="K188" t="n">
-        <v>0.0945774915162496</v>
-      </c>
       <c r="L188" t="n">
-        <v>0.05019090010513955</v>
+        <v>0.03125092233360477</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09443300184667355</v>
+        <v>0.09448572476415261</v>
       </c>
       <c r="N188" t="n">
-        <v>0.0126986447068197</v>
+        <v>0.04992661451991087</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09505118221837239</v>
+        <v>0.09419138576593618</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.01268395143675995</v>
+        <v>0.03297661876028478</v>
       </c>
       <c r="G189" t="n">
+        <v>0.06522638174037579</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0.01386545096254262</v>
+      </c>
+      <c r="K189" t="n">
         <v>0.09582395605754615</v>
       </c>
-      <c r="J189" t="n">
-        <v>0.02454062290457942</v>
-      </c>
-      <c r="K189" t="n">
-        <v>0.09534641421150365</v>
-      </c>
       <c r="L189" t="n">
-        <v>0.04949704275661249</v>
+        <v>0.03073216855808117</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09520074982916683</v>
+        <v>0.09525390138825141</v>
       </c>
       <c r="N189" t="n">
-        <v>0.01268395143675995</v>
+        <v>0.0496527138252098</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09582395605754615</v>
+        <v>0.09495716939004947</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.01238067018155461</v>
+        <v>0.03248371609610057</v>
       </c>
       <c r="G190" t="n">
+        <v>0.06522611321191177</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0.01367217676606849</v>
+      </c>
+      <c r="K190" t="n">
         <v>0.0965967298967199</v>
       </c>
-      <c r="J190" t="n">
-        <v>0.0240795571578751</v>
-      </c>
-      <c r="K190" t="n">
-        <v>0.09611533690675772</v>
-      </c>
       <c r="L190" t="n">
-        <v>0.04919563347101419</v>
+        <v>0.03040195521136616</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09596849781166011</v>
+        <v>0.09602207801235021</v>
       </c>
       <c r="N190" t="n">
-        <v>0.01238067018155461</v>
+        <v>0.04896463946207669</v>
       </c>
       <c r="O190" t="n">
-        <v>0.0965967298967199</v>
+        <v>0.09572295301416278</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.01238369719742876</v>
+        <v>0.03199836830750431</v>
       </c>
       <c r="G191" t="n">
+        <v>0.06522584468344776</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0.01377637104318749</v>
+      </c>
+      <c r="K191" t="n">
         <v>0.09736950373589366</v>
       </c>
-      <c r="J191" t="n">
-        <v>0.0234236191065065</v>
-      </c>
-      <c r="K191" t="n">
-        <v>0.09688425960201177</v>
-      </c>
       <c r="L191" t="n">
-        <v>0.04908602381339744</v>
+        <v>0.03005968831308661</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09673624579415339</v>
+        <v>0.09679025463644901</v>
       </c>
       <c r="N191" t="n">
-        <v>0.01238369719742876</v>
+        <v>0.04866167195742821</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09736950373589366</v>
+        <v>0.09648873663827608</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.0123926926760131</v>
+        <v>0.03151903129651878</v>
       </c>
       <c r="G192" t="n">
+        <v>0.06522557615498373</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0.01367787781753271</v>
+      </c>
+      <c r="K192" t="n">
         <v>0.09814227757506742</v>
       </c>
-      <c r="J192" t="n">
-        <v>0.02327279915368696</v>
-      </c>
-      <c r="K192" t="n">
-        <v>0.09765318229726584</v>
-      </c>
       <c r="L192" t="n">
-        <v>0.04896756534881525</v>
+        <v>0.02960477388286942</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09750399377664667</v>
+        <v>0.09755843126054781</v>
       </c>
       <c r="N192" t="n">
-        <v>0.0123926926760131</v>
+        <v>0.04814309183818111</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09814227757506742</v>
+        <v>0.09725452026238939</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.01220731680893824</v>
+        <v>0.0310462058517121</v>
       </c>
       <c r="G193" t="n">
+        <v>0.06522530762651972</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0.0135762136354997</v>
+      </c>
+      <c r="K193" t="n">
         <v>0.09891505141424119</v>
       </c>
-      <c r="J193" t="n">
-        <v>0.02302708770262968</v>
-      </c>
-      <c r="K193" t="n">
-        <v>0.09842210499251991</v>
-      </c>
       <c r="L193" t="n">
-        <v>0.04843960964232041</v>
+        <v>0.02931346061553611</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09827174175913996</v>
+        <v>0.09832660788464662</v>
       </c>
       <c r="N193" t="n">
-        <v>0.01220731680893824</v>
+        <v>0.04789227193277751</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09891505141424119</v>
+        <v>0.09802030388650268</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.01222722978783489</v>
+        <v>0.03058039276158965</v>
       </c>
       <c r="G194" t="n">
+        <v>0.0652250390980557</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0.0132710125197552</v>
+      </c>
+      <c r="K194" t="n">
         <v>0.09968782525341495</v>
       </c>
-      <c r="J194" t="n">
-        <v>0.02278647515654791</v>
-      </c>
-      <c r="K194" t="n">
-        <v>0.09919102768777396</v>
-      </c>
       <c r="L194" t="n">
-        <v>0.04830150825896573</v>
+        <v>0.02915908765737804</v>
       </c>
       <c r="M194" t="n">
-        <v>0.09903948974163324</v>
+        <v>0.09909478450874543</v>
       </c>
       <c r="N194" t="n">
-        <v>0.01222722978783489</v>
+        <v>0.04669134835533356</v>
       </c>
       <c r="O194" t="n">
-        <v>0.09968782525341495</v>
+        <v>0.09878608751061599</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.01195209180433371</v>
+        <v>0.03012209281467776</v>
       </c>
       <c r="G195" t="n">
+        <v>0.06522477056959168</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0.01326244295294927</v>
+      </c>
+      <c r="K195" t="n">
         <v>0.1004605990925887</v>
       </c>
-      <c r="J195" t="n">
-        <v>0.0224509519186549</v>
-      </c>
-      <c r="K195" t="n">
-        <v>0.09995995038302803</v>
-      </c>
       <c r="L195" t="n">
-        <v>0.04795261276380425</v>
+        <v>0.02834560834725477</v>
       </c>
       <c r="M195" t="n">
-        <v>0.09980723772412652</v>
+        <v>0.09986296113284421</v>
       </c>
       <c r="N195" t="n">
-        <v>0.01195209180433371</v>
+        <v>0.04594316918881308</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1004605990925887</v>
+        <v>0.0995518711347293</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.01188156305006535</v>
+        <v>0.02967180679948341</v>
       </c>
       <c r="G196" t="n">
+        <v>0.06522450204112766</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0.01305067501325298</v>
+      </c>
+      <c r="K196" t="n">
         <v>0.1012333729317625</v>
       </c>
-      <c r="J196" t="n">
-        <v>0.02202050839216399</v>
-      </c>
-      <c r="K196" t="n">
-        <v>0.1007288730782821</v>
-      </c>
       <c r="L196" t="n">
-        <v>0.04789227472188851</v>
+        <v>0.02807706743836155</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1005749857066198</v>
+        <v>0.100631137756943</v>
       </c>
       <c r="N196" t="n">
-        <v>0.01188156305006535</v>
+        <v>0.04535063163372338</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1012333729317625</v>
+        <v>0.1003176547588426</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.01191530371666049</v>
+        <v>0.02923003550457219</v>
       </c>
       <c r="G197" t="n">
+        <v>0.06522423351266364</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0.01313587877883729</v>
+      </c>
+      <c r="K197" t="n">
         <v>0.1020061467709362</v>
       </c>
-      <c r="J197" t="n">
-        <v>0.0216951349802883</v>
-      </c>
-      <c r="K197" t="n">
-        <v>0.1014977957735362</v>
-      </c>
       <c r="L197" t="n">
-        <v>0.04811984569827177</v>
+        <v>0.02705750968389373</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1013427336891131</v>
+        <v>0.1013993143810418</v>
       </c>
       <c r="N197" t="n">
-        <v>0.01191530371666049</v>
+        <v>0.04521663289057165</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1020061467709362</v>
+        <v>0.1010834383829559</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.0117529739957498</v>
+        <v>0.02879727971845066</v>
       </c>
       <c r="G198" t="n">
+        <v>0.06522396498419963</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0.01301822432787329</v>
+      </c>
+      <c r="K198" t="n">
         <v>0.10277892061011</v>
       </c>
-      <c r="J198" t="n">
-        <v>0.02117482208624119</v>
-      </c>
-      <c r="K198" t="n">
-        <v>0.1022667184687902</v>
-      </c>
       <c r="L198" t="n">
-        <v>0.04743467725800654</v>
+        <v>0.02669097983704657</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1021104816716064</v>
+        <v>0.1021674910051406</v>
       </c>
       <c r="N198" t="n">
-        <v>0.0117529739957498</v>
+        <v>0.04384407015986519</v>
       </c>
       <c r="O198" t="n">
-        <v>0.10277892061011</v>
+        <v>0.1018492220070692</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.01189423407896394</v>
+        <v>0.02837404022964519</v>
       </c>
       <c r="G199" t="n">
+        <v>0.06522369645573561</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0.01289788173853199</v>
+      </c>
+      <c r="K199" t="n">
         <v>0.1035516944492837</v>
       </c>
-      <c r="J199" t="n">
-        <v>0.02075956011323585</v>
-      </c>
-      <c r="K199" t="n">
-        <v>0.1030356411640443</v>
-      </c>
       <c r="L199" t="n">
-        <v>0.04693612096614602</v>
+        <v>0.02588152265101532</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1028782296540997</v>
+        <v>0.1029356676292394</v>
       </c>
       <c r="N199" t="n">
-        <v>0.01189423407896394</v>
+        <v>0.0434358406421112</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1035516944492837</v>
+        <v>0.1026150056311825</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.01173874415793355</v>
+        <v>0.02796081782666442</v>
       </c>
       <c r="G200" t="n">
+        <v>0.06522342792727159</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0.0126750210889844</v>
+      </c>
+      <c r="K200" t="n">
         <v>0.1043244682884575</v>
       </c>
-      <c r="J200" t="n">
-        <v>0.02054933946448562</v>
-      </c>
-      <c r="K200" t="n">
-        <v>0.1038045638592983</v>
-      </c>
       <c r="L200" t="n">
-        <v>0.04662352838774292</v>
+        <v>0.02503318287899536</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1036459776365929</v>
+        <v>0.1037038442533382</v>
       </c>
       <c r="N200" t="n">
-        <v>0.01173874415793355</v>
+        <v>0.04209484153781701</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1043244682884575</v>
+        <v>0.1033807892552958</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.01178616442428934</v>
+        <v>0.02755811329807066</v>
       </c>
       <c r="G201" t="n">
+        <v>0.06522315939880757</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0.01264981245740157</v>
+      </c>
+      <c r="K201" t="n">
         <v>0.1050972421276313</v>
       </c>
-      <c r="J201" t="n">
-        <v>0.02014415054320365</v>
-      </c>
-      <c r="K201" t="n">
-        <v>0.1045734865545524</v>
-      </c>
       <c r="L201" t="n">
-        <v>0.04649625108785005</v>
+        <v>0.024550005274182</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1044137256190862</v>
+        <v>0.104472020877437</v>
       </c>
       <c r="N201" t="n">
-        <v>0.01178616442428934</v>
+        <v>0.04162397004748969</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1050972421276313</v>
+        <v>0.1041465728794091</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.01173615506966197</v>
+        <v>0.02716642743237213</v>
       </c>
       <c r="G202" t="n">
+        <v>0.06522289087034357</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0.01232242592195452</v>
+      </c>
+      <c r="K202" t="n">
         <v>0.105870015966805</v>
       </c>
-      <c r="J202" t="n">
-        <v>0.01984398375260324</v>
-      </c>
-      <c r="K202" t="n">
-        <v>0.1053424092498065</v>
-      </c>
       <c r="L202" t="n">
-        <v>0.0460536406315204</v>
+        <v>0.02353603458977047</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1051814736015795</v>
+        <v>0.1052401975015358</v>
       </c>
       <c r="N202" t="n">
-        <v>0.01173615506966197</v>
+        <v>0.04062612337163674</v>
       </c>
       <c r="O202" t="n">
-        <v>0.105870015966805</v>
+        <v>0.1049123565035224</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.01168837628568208</v>
+        <v>0.02678626101809511</v>
       </c>
       <c r="G203" t="n">
+        <v>0.06522262234187955</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0.01219303156081428</v>
+      </c>
+      <c r="K203" t="n">
         <v>0.1066427898059788</v>
       </c>
-      <c r="J203" t="n">
-        <v>0.01984882949589767</v>
-      </c>
-      <c r="K203" t="n">
-        <v>0.1061113319450605</v>
-      </c>
       <c r="L203" t="n">
-        <v>0.0459947777626144</v>
+        <v>0.02259531557895611</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1059492215840728</v>
+        <v>0.1060083741256346</v>
       </c>
       <c r="N203" t="n">
-        <v>0.01168837628568208</v>
+        <v>0.04000419871076522</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1066427898059788</v>
+        <v>0.1056781401276357</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.01164248826398034</v>
+        <v>0.02641811484375028</v>
       </c>
       <c r="G204" t="n">
+        <v>0.06522235381341553</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0.01226179945215186</v>
+      </c>
+      <c r="K204" t="n">
         <v>0.1074155636451525</v>
       </c>
-      <c r="J204" t="n">
-        <v>0.01935867817630016</v>
-      </c>
-      <c r="K204" t="n">
-        <v>0.1068802546403146</v>
-      </c>
       <c r="L204" t="n">
-        <v>0.04568610251958649</v>
+        <v>0.02183189299493424</v>
       </c>
       <c r="M204" t="n">
-        <v>0.106716969566566</v>
+        <v>0.1067765507497334</v>
       </c>
       <c r="N204" t="n">
-        <v>0.01164248826398034</v>
+        <v>0.03916109326538253</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1074155636451525</v>
+        <v>0.106443923751749</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.01139815119618744</v>
+        <v>0.02606248969789607</v>
       </c>
       <c r="G205" t="n">
+        <v>0.06522208528495151</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0.0120288996741383</v>
+      </c>
+      <c r="K205" t="n">
         <v>0.1081883374843263</v>
       </c>
-      <c r="J205" t="n">
-        <v>0.019273520197024</v>
-      </c>
-      <c r="K205" t="n">
-        <v>0.1076491773355686</v>
-      </c>
       <c r="L205" t="n">
-        <v>0.04500822176756336</v>
+        <v>0.02074981159090009</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1074847175490593</v>
+        <v>0.1075447273738322</v>
       </c>
       <c r="N205" t="n">
-        <v>0.01139815119618744</v>
+        <v>0.03759970423599579</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1081883374843263</v>
+        <v>0.1072097073758623</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.01145502527393403</v>
+        <v>0.02571988636904253</v>
       </c>
       <c r="G206" t="n">
+        <v>0.06522181675648749</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0.01189450230494463</v>
+      </c>
+      <c r="K206" t="n">
         <v>0.1089611113235001</v>
       </c>
-      <c r="J206" t="n">
-        <v>0.01879334596128238</v>
-      </c>
-      <c r="K206" t="n">
-        <v>0.1084181000308227</v>
-      </c>
       <c r="L206" t="n">
-        <v>0.04446617105509637</v>
+        <v>0.020153116120049</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1082524655315526</v>
+        <v>0.108312903997931</v>
       </c>
       <c r="N206" t="n">
-        <v>0.01145502527393403</v>
+        <v>0.03692292882311221</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1089611113235001</v>
+        <v>0.1079754909999756</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.01151277068885078</v>
+        <v>0.02539080564571602</v>
       </c>
       <c r="G207" t="n">
+        <v>0.06522154822802348</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0.01175877742274189</v>
+      </c>
+      <c r="K207" t="n">
         <v>0.1097338851626738</v>
       </c>
-      <c r="J207" t="n">
-        <v>0.01861814587228863</v>
-      </c>
-      <c r="K207" t="n">
-        <v>0.1091870227260768</v>
-      </c>
       <c r="L207" t="n">
-        <v>0.04356498593073677</v>
+        <v>0.01894585133557627</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1090202135140459</v>
+        <v>0.1090810806220298</v>
       </c>
       <c r="N207" t="n">
-        <v>0.01151277068885078</v>
+        <v>0.03623366422723917</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1097338851626738</v>
+        <v>0.1087412746240889</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.01137104763256835</v>
+        <v>0.02507574831642954</v>
       </c>
       <c r="G208" t="n">
+        <v>0.06522127969955945</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0.01162189510570109</v>
+      </c>
+      <c r="K208" t="n">
         <v>0.1105066590018476</v>
       </c>
-      <c r="J208" t="n">
-        <v>0.01834791033325592</v>
-      </c>
-      <c r="K208" t="n">
-        <v>0.1099559454213308</v>
-      </c>
       <c r="L208" t="n">
-        <v>0.04300970194303561</v>
+        <v>0.01823206199067723</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1097879614965392</v>
+        <v>0.1098492572461287</v>
       </c>
       <c r="N208" t="n">
-        <v>0.01137104763256835</v>
+        <v>0.03473480764888387</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1105066590018476</v>
+        <v>0.1095070582482022</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.01142951629671742</v>
+        <v>0.02477521516973688</v>
       </c>
       <c r="G209" t="n">
+        <v>0.06522101117109544</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0.01148402543199326</v>
+      </c>
+      <c r="K209" t="n">
         <v>0.1112794328410213</v>
       </c>
-      <c r="J209" t="n">
-        <v>0.01828262974739761</v>
-      </c>
-      <c r="K209" t="n">
-        <v>0.1107248681165849</v>
-      </c>
       <c r="L209" t="n">
-        <v>0.04270535464054415</v>
+        <v>0.01721579283854716</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1105557094790325</v>
+        <v>0.1106174338702274</v>
       </c>
       <c r="N209" t="n">
-        <v>0.01142951629671742</v>
+        <v>0.03422925628855356</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1112794328410213</v>
+        <v>0.1102728418723155</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.01118783687292865</v>
+        <v>0.02448970699415039</v>
       </c>
       <c r="G210" t="n">
+        <v>0.06522074264263142</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0.01134533847978943</v>
+      </c>
+      <c r="K210" t="n">
         <v>0.1120522066801951</v>
       </c>
-      <c r="J210" t="n">
-        <v>0.01792229451792687</v>
-      </c>
-      <c r="K210" t="n">
-        <v>0.1114937908118389</v>
-      </c>
       <c r="L210" t="n">
-        <v>0.04145697957181349</v>
+        <v>0.01650108863238134</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1113234574615257</v>
+        <v>0.1113856104943262</v>
       </c>
       <c r="N210" t="n">
-        <v>0.01118783687292865</v>
+        <v>0.03291990734675554</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1120522066801951</v>
+        <v>0.1110386254964288</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.01134566955283269</v>
+        <v>0.02421972457819642</v>
       </c>
       <c r="G211" t="n">
+        <v>0.06522047411416741</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0.01110600432726063</v>
+      </c>
+      <c r="K211" t="n">
         <v>0.1128249805193689</v>
       </c>
-      <c r="J211" t="n">
-        <v>0.01746689504805699</v>
-      </c>
-      <c r="K211" t="n">
-        <v>0.112262713507093</v>
-      </c>
       <c r="L211" t="n">
-        <v>0.04056961228539502</v>
+        <v>0.01529199412537499</v>
       </c>
       <c r="M211" t="n">
-        <v>0.112091205444019</v>
+        <v>0.112153787118425</v>
       </c>
       <c r="N211" t="n">
-        <v>0.01134566955283269</v>
+        <v>0.03160965802399696</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1128249805193689</v>
+        <v>0.1118044091205421</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.01130267452806023</v>
+        <v>0.02396576871039065</v>
       </c>
       <c r="G212" t="n">
+        <v>0.06522020558570338</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0.01106619305257787</v>
+      </c>
+      <c r="K212" t="n">
         <v>0.1135977543585426</v>
       </c>
-      <c r="J212" t="n">
-        <v>0.01711642174100117</v>
-      </c>
-      <c r="K212" t="n">
-        <v>0.1130316362023471</v>
-      </c>
       <c r="L212" t="n">
-        <v>0.0397482883298399</v>
+        <v>0.01479255407072361</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1128589534265123</v>
+        <v>0.1129219637425238</v>
       </c>
       <c r="N212" t="n">
-        <v>0.01130267452806023</v>
+        <v>0.03100140552078517</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1135977543585426</v>
+        <v>0.1125701927446554</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.01125851199024193</v>
+        <v>0.02372834017928159</v>
       </c>
       <c r="G213" t="n">
+        <v>0.06521993705723937</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0.01102607473391221</v>
+      </c>
+      <c r="K213" t="n">
         <v>0.1143705281977164</v>
       </c>
-      <c r="J213" t="n">
-        <v>0.01697086499997277</v>
-      </c>
-      <c r="K213" t="n">
-        <v>0.1138005588976011</v>
-      </c>
       <c r="L213" t="n">
-        <v>0.03899804325369916</v>
+        <v>0.01360681322162235</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1136267014090056</v>
+        <v>0.1136901403666227</v>
       </c>
       <c r="N213" t="n">
-        <v>0.01125851199024193</v>
+        <v>0.02979804703762723</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1143705281977164</v>
+        <v>0.1133359763687687</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.01111284213100844</v>
+        <v>0.02350793977338418</v>
       </c>
       <c r="G214" t="n">
+        <v>0.06521966852877535</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0.01068581944943466</v>
+      </c>
+      <c r="K214" t="n">
         <v>0.1151433020368901</v>
       </c>
-      <c r="J214" t="n">
-        <v>0.01673021522818499</v>
-      </c>
-      <c r="K214" t="n">
-        <v>0.1145694815928552</v>
-      </c>
       <c r="L214" t="n">
-        <v>0.03872391260552427</v>
+        <v>0.01293881633126651</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1143944493914988</v>
+        <v>0.1144583169907215</v>
       </c>
       <c r="N214" t="n">
-        <v>0.01111284213100844</v>
+        <v>0.02890247977503063</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1151433020368901</v>
+        <v>0.114101759992882</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.01106532514199045</v>
+        <v>0.02350793977338418</v>
       </c>
       <c r="G215" t="n">
+        <v>0.06521966852877535</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0.01064559727731624</v>
+      </c>
+      <c r="K215" t="n">
         <v>0.1159160758760639</v>
       </c>
-      <c r="J215" t="n">
-        <v>0.01679446282885108</v>
-      </c>
-      <c r="K215" t="n">
-        <v>0.1153384042881093</v>
-      </c>
       <c r="L215" t="n">
-        <v>0.03783093193386611</v>
+        <v>0.01179260815285144</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1151621973739921</v>
+        <v>0.1152264936148203</v>
       </c>
       <c r="N215" t="n">
-        <v>0.01106532514199045</v>
+        <v>0.02771760093350245</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1159160758760639</v>
+        <v>0.1148675436169953</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.01101562121481862</v>
+        <v>0.02289622131399385</v>
       </c>
       <c r="G216" t="n">
+        <v>0.06513667086580946</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0.01060557829572799</v>
+      </c>
+      <c r="K216" t="n">
         <v>0.1166888497152377</v>
       </c>
-      <c r="J216" t="n">
-        <v>0.01626359820518428</v>
-      </c>
-      <c r="K216" t="n">
-        <v>0.1161073269833633</v>
-      </c>
       <c r="L216" t="n">
-        <v>0.03682413678727625</v>
+        <v>0.01127223343957245</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1159299453564854</v>
+        <v>0.115994670238919</v>
       </c>
       <c r="N216" t="n">
-        <v>0.01101562121481862</v>
+        <v>0.02714630771355014</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1166888497152377</v>
+        <v>0.1156333272411086</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.0110633905411236</v>
+        <v>0.02229152022230618</v>
       </c>
       <c r="G217" t="n">
+        <v>0.06505367320284357</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0.01026593258284093</v>
+      </c>
+      <c r="K217" t="n">
         <v>0.1174616235544114</v>
       </c>
-      <c r="J217" t="n">
-        <v>0.01623761176039784</v>
-      </c>
-      <c r="K217" t="n">
-        <v>0.1168762496786174</v>
-      </c>
       <c r="L217" t="n">
-        <v>0.03600856271430564</v>
+        <v>0.01028173694462481</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1166976933389787</v>
+        <v>0.1167628468630179</v>
       </c>
       <c r="N217" t="n">
-        <v>0.0110633905411236</v>
+        <v>0.0257914973156807</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1174616235544114</v>
+        <v>0.1163991108652219</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.01090829331253607</v>
+        <v>0.02169420933722918</v>
       </c>
       <c r="G218" t="n">
+        <v>0.06497067553987768</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0.01012683021682609</v>
+      </c>
+      <c r="K218" t="n">
         <v>0.1182343973935852</v>
       </c>
-      <c r="J218" t="n">
-        <v>0.0160164938977051</v>
-      </c>
-      <c r="K218" t="n">
-        <v>0.1176451723738715</v>
-      </c>
       <c r="L218" t="n">
-        <v>0.03498924526350555</v>
+        <v>0.009525163421203797</v>
       </c>
       <c r="M218" t="n">
-        <v>0.117465441321472</v>
+        <v>0.1175310234871167</v>
       </c>
       <c r="N218" t="n">
-        <v>0.01090829331253607</v>
+        <v>0.02505606694040147</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1182343973935852</v>
+        <v>0.1171648944893352</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.0108499897206867</v>
+        <v>0.02110466149767107</v>
       </c>
       <c r="G219" t="n">
+        <v>0.06488767787691177</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0.0099884412758545</v>
+      </c>
+      <c r="K219" t="n">
         <v>0.1190071712327589</v>
       </c>
-      <c r="J219" t="n">
-        <v>0.01570023502031914</v>
-      </c>
-      <c r="K219" t="n">
-        <v>0.1184140950691255</v>
-      </c>
       <c r="L219" t="n">
-        <v>0.03387121998342718</v>
+        <v>0.008906557622504752</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1182331893039653</v>
+        <v>0.1182992001112155</v>
       </c>
       <c r="N219" t="n">
-        <v>0.0108499897206867</v>
+        <v>0.02384291378821973</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1190071712327589</v>
+        <v>0.1179306781134485</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.01068813995720615</v>
+        <v>0.02052324954254006</v>
       </c>
       <c r="G220" t="n">
+        <v>0.06480468021394588</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0.009850935838097173</v>
+      </c>
+      <c r="K220" t="n">
         <v>0.1197799450719327</v>
       </c>
-      <c r="J220" t="n">
-        <v>0.01538882553145343</v>
-      </c>
-      <c r="K220" t="n">
-        <v>0.1191830177643796</v>
-      </c>
       <c r="L220" t="n">
-        <v>0.03295952242262179</v>
+        <v>0.008029964301722925</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1190009372864585</v>
+        <v>0.1190673767353143</v>
       </c>
       <c r="N220" t="n">
-        <v>0.01068813995720615</v>
+        <v>0.02315493505964272</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1197799450719327</v>
+        <v>0.1186964617375618</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.0106224042137251</v>
+        <v>0.01995034631074435</v>
       </c>
       <c r="G221" t="n">
+        <v>0.06472168255097999</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0.009914483981725161</v>
+      </c>
+      <c r="K221" t="n">
         <v>0.1205527189111065</v>
       </c>
-      <c r="J221" t="n">
-        <v>0.01538225583432104</v>
-      </c>
-      <c r="K221" t="n">
-        <v>0.1199519404596336</v>
-      </c>
       <c r="L221" t="n">
-        <v>0.03185918812964045</v>
+        <v>0.007599428212053699</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1197686852689518</v>
+        <v>0.1198355533594131</v>
       </c>
       <c r="N221" t="n">
-        <v>0.0106224042137251</v>
+        <v>0.02199502795517777</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1205527189111065</v>
+        <v>0.1194622453616751</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.01075244268187418</v>
+        <v>0.01938632464119201</v>
       </c>
       <c r="G222" t="n">
+        <v>0.06463868488801409</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0.009679255784909482</v>
+      </c>
+      <c r="K222" t="n">
         <v>0.1213254927502802</v>
       </c>
-      <c r="J222" t="n">
-        <v>0.01508051633213534</v>
-      </c>
-      <c r="K222" t="n">
-        <v>0.1207208631548877</v>
-      </c>
       <c r="L222" t="n">
-        <v>0.03097525265303458</v>
+        <v>0.007218994106692328</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1205364332514451</v>
+        <v>0.1206037299835118</v>
       </c>
       <c r="N222" t="n">
-        <v>0.01075244268187418</v>
+        <v>0.02146608967533198</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1213254927502802</v>
+        <v>0.1202280289857884</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.0106779155532841</v>
+        <v>0.01883155737279127</v>
       </c>
       <c r="G223" t="n">
+        <v>0.06455568722504819</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0.009545421325821153</v>
+      </c>
+      <c r="K223" t="n">
         <v>0.122098266589454</v>
       </c>
-      <c r="J223" t="n">
-        <v>0.01498359742810956</v>
-      </c>
-      <c r="K223" t="n">
-        <v>0.1214897858501418</v>
-      </c>
       <c r="L223" t="n">
-        <v>0.03001275154135519</v>
+        <v>0.006492706738834036</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1213041812339384</v>
+        <v>0.1213719066076107</v>
       </c>
       <c r="N223" t="n">
-        <v>0.0106779155532841</v>
+        <v>0.0208710174206127</v>
       </c>
       <c r="O223" t="n">
-        <v>0.122098266589454</v>
+        <v>0.1209938126099018</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.01059941242668674</v>
+        <v>0.01828641734445035</v>
       </c>
       <c r="G224" t="n">
+        <v>0.0644726895620823</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0.00951315068263122</v>
+      </c>
+      <c r="K224" t="n">
         <v>0.1228710404286277</v>
       </c>
-      <c r="J224" t="n">
-        <v>0.01489148952545694</v>
-      </c>
-      <c r="K224" t="n">
-        <v>0.1222587085453958</v>
-      </c>
       <c r="L224" t="n">
-        <v>0.02947672034315352</v>
+        <v>0.006224610861674251</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1220719292164317</v>
+        <v>0.1221400832317095</v>
       </c>
       <c r="N224" t="n">
-        <v>0.01059941242668674</v>
+        <v>0.01991270839152709</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1228710404286277</v>
+        <v>0.121759596234015</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.01031877243331979</v>
+        <v>0.01775127739507729</v>
       </c>
       <c r="G225" t="n">
+        <v>0.06438969189911641</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0.009182613933510692</v>
+      </c>
+      <c r="K225" t="n">
         <v>0.1236438142678015</v>
       </c>
-      <c r="J225" t="n">
-        <v>0.01470315892536678</v>
-      </c>
-      <c r="K225" t="n">
-        <v>0.1230276312406499</v>
-      </c>
       <c r="L225" t="n">
-        <v>0.02877219460698083</v>
+        <v>0.005718751228408203</v>
       </c>
       <c r="M225" t="n">
-        <v>0.122839677198925</v>
+        <v>0.1229082598558083</v>
       </c>
       <c r="N225" t="n">
-        <v>0.01031877243331979</v>
+        <v>0.0193940597885825</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1236438142678015</v>
+        <v>0.1225253798581284</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.01043608335512796</v>
+        <v>0.01722651036358033</v>
       </c>
       <c r="G226" t="n">
+        <v>0.0643066942361505</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0.00915398115663061</v>
+      </c>
+      <c r="K226" t="n">
         <v>0.1244165881069752</v>
       </c>
-      <c r="J226" t="n">
-        <v>0.01421615759956071</v>
-      </c>
-      <c r="K226" t="n">
-        <v>0.1237965539359039</v>
-      </c>
       <c r="L226" t="n">
-        <v>0.02760420988138834</v>
+        <v>0.005379172592231168</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1236074251814182</v>
+        <v>0.1236764364799071</v>
       </c>
       <c r="N226" t="n">
-        <v>0.01043608335512796</v>
+        <v>0.01881796881228615</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1244165881069752</v>
+        <v>0.1232911634822417</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.01035136986319003</v>
+        <v>0.01671248908886765</v>
       </c>
       <c r="G227" t="n">
+        <v>0.06422369657318461</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0.00902742243016199</v>
+      </c>
+      <c r="K227" t="n">
         <v>0.125189361946149</v>
       </c>
-      <c r="J227" t="n">
-        <v>0.01413046539909221</v>
-      </c>
-      <c r="K227" t="n">
-        <v>0.124565476631158</v>
-      </c>
       <c r="L227" t="n">
-        <v>0.02727045024055669</v>
+        <v>0.004809919706338511</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1243751731639115</v>
+        <v>0.1244446131040059</v>
       </c>
       <c r="N227" t="n">
-        <v>0.01035136986319003</v>
+        <v>0.01828733266314525</v>
       </c>
       <c r="O227" t="n">
-        <v>0.125189361946149</v>
+        <v>0.124056947106355</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.01006465662858471</v>
+        <v>0.01620958640984747</v>
       </c>
       <c r="G228" t="n">
+        <v>0.06414069891021872</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0.008903107832275881</v>
+      </c>
+      <c r="K228" t="n">
         <v>0.1259621357853228</v>
       </c>
-      <c r="J228" t="n">
-        <v>0.01394617523712266</v>
-      </c>
-      <c r="K228" t="n">
-        <v>0.1253343993264121</v>
-      </c>
       <c r="L228" t="n">
-        <v>0.02614227254321649</v>
+        <v>0.004915037323925509</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1251429211464048</v>
+        <v>0.1252127897281047</v>
       </c>
       <c r="N228" t="n">
-        <v>0.01006465662858471</v>
+        <v>0.01730504854166703</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1259621357853228</v>
+        <v>0.1248227307304683</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01007596832239079</v>
+        <v>0.01571817516542785</v>
       </c>
       <c r="G229" t="n">
+        <v>0.06405770124725282</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0.008681207441143292</v>
+      </c>
+      <c r="K229" t="n">
         <v>0.1267349096244965</v>
       </c>
-      <c r="J229" t="n">
-        <v>0.01356338002681351</v>
-      </c>
-      <c r="K229" t="n">
-        <v>0.1261033220216661</v>
-      </c>
       <c r="L229" t="n">
-        <v>0.02561625104917947</v>
+        <v>0.004498570198187418</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1259106691288981</v>
+        <v>0.1259809663522035</v>
       </c>
       <c r="N229" t="n">
-        <v>0.01007596832239079</v>
+        <v>0.01687401364835889</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1267349096244965</v>
+        <v>0.1255885143545815</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.00998532961568703</v>
+        <v>0.015238628194517</v>
       </c>
       <c r="G230" t="n">
+        <v>0.06397470358428692</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0.008761877516668286</v>
+      </c>
+      <c r="K230" t="n">
         <v>0.1275076834636703</v>
       </c>
-      <c r="J230" t="n">
-        <v>0.01348217268132612</v>
-      </c>
-      <c r="K230" t="n">
-        <v>0.1268722447169202</v>
-      </c>
       <c r="L230" t="n">
-        <v>0.02499243255586048</v>
+        <v>0.004464137800155421</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1266784171113914</v>
+        <v>0.1267491429763023</v>
       </c>
       <c r="N230" t="n">
-        <v>0.00998532961568703</v>
+        <v>0.01649682451759876</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1275076834636703</v>
+        <v>0.1263542979786949</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.009792765179552194</v>
+        <v>0.01477131833602317</v>
       </c>
       <c r="G231" t="n">
+        <v>0.06389170592132104</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0.008443913770556775</v>
+      </c>
+      <c r="K231" t="n">
         <v>0.128280457302844</v>
       </c>
-      <c r="J231" t="n">
-        <v>0.01350264611382188</v>
-      </c>
-      <c r="K231" t="n">
-        <v>0.1276411674121742</v>
-      </c>
       <c r="L231" t="n">
-        <v>0.02417086386067457</v>
+        <v>0.004664141121816762</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1274461650938847</v>
+        <v>0.1275173196004011</v>
       </c>
       <c r="N231" t="n">
-        <v>0.009792765179552194</v>
+        <v>0.01574325944661975</v>
       </c>
       <c r="O231" t="n">
-        <v>0.128280457302844</v>
+        <v>0.1271200816028082</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.009698299685065012</v>
+        <v>0.01431661842885439</v>
       </c>
       <c r="G232" t="n">
+        <v>0.06380870825835513</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0.00852645688662907</v>
+      </c>
+      <c r="K232" t="n">
         <v>0.1290532311420178</v>
       </c>
-      <c r="J232" t="n">
-        <v>0.01342489323746227</v>
-      </c>
-      <c r="K232" t="n">
-        <v>0.1284100901074283</v>
-      </c>
       <c r="L232" t="n">
-        <v>0.02355159176103655</v>
+        <v>0.004564160947274049</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1282139130763779</v>
+        <v>0.1282854962244999</v>
       </c>
       <c r="N232" t="n">
-        <v>0.009698299685065012</v>
+        <v>0.01519214352423903</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1290532311420178</v>
+        <v>0.1278858652269215</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.009601957803304272</v>
+        <v>0.0138749013119189</v>
       </c>
       <c r="G233" t="n">
+        <v>0.06372571059538924</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0.008309509500990651</v>
+      </c>
+      <c r="K233" t="n">
         <v>0.1298260049811915</v>
       </c>
-      <c r="J233" t="n">
-        <v>0.01284900696540864</v>
-      </c>
-      <c r="K233" t="n">
-        <v>0.1291790128026824</v>
-      </c>
       <c r="L233" t="n">
-        <v>0.02293466305436148</v>
+        <v>0.004664212289348046</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1289816610588712</v>
+        <v>0.1290536728485987</v>
       </c>
       <c r="N233" t="n">
-        <v>0.009601957803304272</v>
+        <v>0.0152440334144251</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1298260049811915</v>
+        <v>0.1286516488510348</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.009503764205348722</v>
+        <v>0.01344653982412489</v>
       </c>
       <c r="G234" t="n">
+        <v>0.06364271293242334</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0.008193074249747023</v>
+      </c>
+      <c r="K234" t="n">
         <v>0.1305987788203653</v>
       </c>
-      <c r="J234" t="n">
-        <v>0.01297508021082244</v>
-      </c>
-      <c r="K234" t="n">
-        <v>0.1299479354979364</v>
-      </c>
       <c r="L234" t="n">
-        <v>0.02202012453806418</v>
+        <v>0.00446431016085963</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1297494090413644</v>
+        <v>0.1298218494726975</v>
       </c>
       <c r="N234" t="n">
-        <v>0.009503764205348722</v>
+        <v>0.01479948578114632</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1305987788203653</v>
+        <v>0.1294174324751481</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.009503743562277109</v>
+        <v>0.01303190680438056</v>
       </c>
       <c r="G235" t="n">
+        <v>0.06355971526945746</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0.008077153769003698</v>
+      </c>
+      <c r="K235" t="n">
         <v>0.1313715526595391</v>
       </c>
-      <c r="J235" t="n">
-        <v>0.01270320588686505</v>
-      </c>
-      <c r="K235" t="n">
-        <v>0.1307168581931905</v>
-      </c>
       <c r="L235" t="n">
-        <v>0.02100802300955967</v>
+        <v>0.004664469574629598</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1305171570238578</v>
+        <v>0.1305900260967963</v>
       </c>
       <c r="N235" t="n">
-        <v>0.009503743562277109</v>
+        <v>0.01425905728837129</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1313715526595391</v>
+        <v>0.1301832160992614</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.009301920545168207</v>
+        <v>0.01263137509159398</v>
       </c>
       <c r="G236" t="n">
+        <v>0.06347671760649155</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0.007861750694866165</v>
+      </c>
+      <c r="K236" t="n">
         <v>0.1321443264987129</v>
       </c>
-      <c r="J236" t="n">
-        <v>0.01243347690669794</v>
-      </c>
-      <c r="K236" t="n">
-        <v>0.1314857808884446</v>
-      </c>
       <c r="L236" t="n">
-        <v>0.02059840526626289</v>
+        <v>0.004464705543478692</v>
       </c>
       <c r="M236" t="n">
-        <v>0.131284905006351</v>
+        <v>0.1313582027208951</v>
       </c>
       <c r="N236" t="n">
-        <v>0.009301920545168207</v>
+        <v>0.01362330460006839</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1321443264987129</v>
+        <v>0.1309489997233747</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.009198319825100783</v>
+        <v>0.01224531752467336</v>
       </c>
       <c r="G237" t="n">
+        <v>0.06339371994352566</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0.007746867663439932</v>
+      </c>
+      <c r="K237" t="n">
         <v>0.1329171003378866</v>
       </c>
-      <c r="J237" t="n">
-        <v>0.0125659861834824</v>
-      </c>
-      <c r="K237" t="n">
-        <v>0.1322547035836986</v>
-      </c>
       <c r="L237" t="n">
-        <v>0.02009131810558878</v>
+        <v>0.004865033080227787</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1320526529888443</v>
+        <v>0.1321263793449939</v>
       </c>
       <c r="N237" t="n">
-        <v>0.009198319825100783</v>
+        <v>0.01359278438020611</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1329171003378866</v>
+        <v>0.131714783347488</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.009092966073153581</v>
+        <v>0.01187410694252694</v>
       </c>
       <c r="G238" t="n">
+        <v>0.06331072228055977</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0.007632507310830469</v>
+      </c>
+      <c r="K238" t="n">
         <v>0.1336898741770604</v>
       </c>
-      <c r="J238" t="n">
-        <v>0.01220082663037994</v>
-      </c>
-      <c r="K238" t="n">
-        <v>0.1330236262789527</v>
-      </c>
       <c r="L238" t="n">
-        <v>0.01928680832495228</v>
+        <v>0.004465467197697609</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1328204009713376</v>
+        <v>0.1328945559690927</v>
       </c>
       <c r="N238" t="n">
-        <v>0.009092966073153581</v>
+        <v>0.01276805329275293</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1336898741770604</v>
+        <v>0.1324805669716013</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.008985883960405346</v>
+        <v>0.01151811618406279</v>
       </c>
       <c r="G239" t="n">
+        <v>0.06322772461759388</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0.007718672273143302</v>
+      </c>
+      <c r="K239" t="n">
         <v>0.1344626480162341</v>
       </c>
-      <c r="J239" t="n">
-        <v>0.01203809116055199</v>
-      </c>
-      <c r="K239" t="n">
-        <v>0.1337925489742068</v>
-      </c>
       <c r="L239" t="n">
-        <v>0.01868492272176836</v>
+        <v>0.004566022908709055</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1335881489538309</v>
+        <v>0.1336627325931915</v>
       </c>
       <c r="N239" t="n">
-        <v>0.008985883960405346</v>
+        <v>0.01264966800167744</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1344626480162341</v>
+        <v>0.1332463505957146</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.009077098157934865</v>
+        <v>0.01117619566264741</v>
       </c>
       <c r="G240" t="n">
+        <v>0.06314472695462797</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0.007505365186483912</v>
+      </c>
+      <c r="K240" t="n">
         <v>0.1352354218554079</v>
       </c>
-      <c r="J240" t="n">
-        <v>0.0118778726871599</v>
-      </c>
-      <c r="K240" t="n">
-        <v>0.1345614716694608</v>
-      </c>
       <c r="L240" t="n">
-        <v>0.01758570809345195</v>
+        <v>0.004566715226082818</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1343558969363242</v>
+        <v>0.1344309092172903</v>
       </c>
       <c r="N240" t="n">
-        <v>0.009077098157934865</v>
+        <v>0.01223818517094794</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1352354218554079</v>
+        <v>0.1340121342198279</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.00876663333682088</v>
+        <v>0.01083958366393883</v>
       </c>
       <c r="G241" t="n">
+        <v>0.06306172929166208</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0.007492588686957805</v>
+      </c>
+      <c r="K241" t="n">
         <v>0.1360081956945816</v>
       </c>
-      <c r="J241" t="n">
-        <v>0.01192026412336508</v>
-      </c>
-      <c r="K241" t="n">
-        <v>0.1353303943647149</v>
-      </c>
       <c r="L241" t="n">
-        <v>0.0171892112374179</v>
+        <v>0.004667559162639778</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1351236449188175</v>
+        <v>0.1351990858413891</v>
       </c>
       <c r="N241" t="n">
-        <v>0.00876663333682088</v>
+        <v>0.01123416146453299</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1360081956945816</v>
+        <v>0.1347779178439412</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.008854514168142161</v>
+        <v>0.01050713060130357</v>
       </c>
       <c r="G242" t="n">
+        <v>0.06297873162869619</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0.00738034541067048</v>
+      </c>
+      <c r="K242" t="n">
         <v>0.1367809695337554</v>
       </c>
-      <c r="J242" t="n">
-        <v>0.01176535838232898</v>
-      </c>
-      <c r="K242" t="n">
-        <v>0.1360993170599689</v>
-      </c>
       <c r="L242" t="n">
-        <v>0.01649547895108133</v>
+        <v>0.004668569731200695</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1358913929013107</v>
+        <v>0.1359672624654879</v>
       </c>
       <c r="N242" t="n">
-        <v>0.008854514168142161</v>
+        <v>0.01113815354640102</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1367809695337554</v>
+        <v>0.1355437014680545</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.008540765322977456</v>
+        <v>0.0101792093136497</v>
       </c>
       <c r="G243" t="n">
+        <v>0.0628957339657303</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0.007168637993727425</v>
+      </c>
+      <c r="K243" t="n">
         <v>0.1375537433729291</v>
       </c>
-      <c r="J243" t="n">
-        <v>0.01131324837721298</v>
-      </c>
-      <c r="K243" t="n">
-        <v>0.136868239755223</v>
-      </c>
       <c r="L243" t="n">
-        <v>0.01590455803185714</v>
+        <v>0.004869761944586437</v>
       </c>
       <c r="M243" t="n">
-        <v>0.136659140883804</v>
+        <v>0.1367354390895867</v>
       </c>
       <c r="N243" t="n">
-        <v>0.008540765322977456</v>
+        <v>0.01065071808052059</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1375537433729291</v>
+        <v>0.1363094850921678</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.008525411472405521</v>
+        <v>0.009856192639885436</v>
       </c>
       <c r="G244" t="n">
+        <v>0.06281273630276439</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0.006957469072234164</v>
+      </c>
+      <c r="K244" t="n">
         <v>0.1383265172121029</v>
       </c>
-      <c r="J244" t="n">
-        <v>0.01146402702117849</v>
-      </c>
-      <c r="K244" t="n">
-        <v>0.1376371624504771</v>
-      </c>
       <c r="L244" t="n">
-        <v>0.01471649527716024</v>
+        <v>0.004771150815617742</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1374268888662973</v>
+        <v>0.1375036157136855</v>
       </c>
       <c r="N244" t="n">
-        <v>0.008525411472405521</v>
+        <v>0.01037241173086001</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1383265172121029</v>
+        <v>0.1370752687162811</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.008308477287505125</v>
+        <v>0.009538453418918999</v>
       </c>
       <c r="G245" t="n">
+        <v>0.06272973863979851</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0.006946841282296161</v>
+      </c>
+      <c r="K245" t="n">
         <v>0.1390992910512767</v>
       </c>
-      <c r="J245" t="n">
-        <v>0.01131778722738694</v>
-      </c>
-      <c r="K245" t="n">
-        <v>0.1384060851457311</v>
-      </c>
       <c r="L245" t="n">
-        <v>0.01453133748440544</v>
+        <v>0.004672751357115396</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1381946368487906</v>
+        <v>0.1382717923377843</v>
       </c>
       <c r="N245" t="n">
-        <v>0.008308477287505125</v>
+        <v>0.009903791161387898</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1390992910512767</v>
+        <v>0.1378410523403944</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.00828998743935503</v>
+        <v>0.00922636448965846</v>
       </c>
       <c r="G246" t="n">
+        <v>0.06264674097683261</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0.006836757260018929</v>
+      </c>
+      <c r="K246" t="n">
         <v>0.1398720648904504</v>
       </c>
-      <c r="J246" t="n">
-        <v>0.01077462190899969</v>
-      </c>
-      <c r="K246" t="n">
-        <v>0.1391750078409852</v>
-      </c>
       <c r="L246" t="n">
-        <v>0.01344913145100785</v>
+        <v>0.00477457858190028</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1389623848312838</v>
+        <v>0.1390399689618831</v>
       </c>
       <c r="N246" t="n">
-        <v>0.00828998743935503</v>
+        <v>0.00984541303607267</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1398720648904504</v>
+        <v>0.1386068359645077</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.008069966599033994</v>
+        <v>0.008920298691012046</v>
       </c>
       <c r="G247" t="n">
+        <v>0.06256374331386672</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0.006827219641507988</v>
+      </c>
+      <c r="K247" t="n">
         <v>0.1406448387296242</v>
       </c>
-      <c r="J247" t="n">
-        <v>0.01063462397917825</v>
-      </c>
-      <c r="K247" t="n">
-        <v>0.1399439305362392</v>
-      </c>
       <c r="L247" t="n">
-        <v>0.01316992397438244</v>
+        <v>0.004476647502793113</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1397301328137771</v>
+        <v>0.1398081455859819</v>
       </c>
       <c r="N247" t="n">
-        <v>0.008069966599033994</v>
+        <v>0.009497834018882767</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1406448387296242</v>
+        <v>0.139372619588621</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.00804843943762075</v>
+        <v>0.008620628861887927</v>
       </c>
       <c r="G248" t="n">
+        <v>0.06248074565090081</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0.006718231062868799</v>
+      </c>
+      <c r="K248" t="n">
         <v>0.141417612568798</v>
       </c>
-      <c r="J248" t="n">
-        <v>0.01089788635108391</v>
-      </c>
-      <c r="K248" t="n">
-        <v>0.1407128532314933</v>
-      </c>
       <c r="L248" t="n">
-        <v>0.01229376185194403</v>
+        <v>0.004678973132614783</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1404978807962704</v>
+        <v>0.1405763222100807</v>
       </c>
       <c r="N248" t="n">
-        <v>0.00804843943762075</v>
+        <v>0.009261610773786677</v>
       </c>
       <c r="O248" t="n">
-        <v>0.141417612568798</v>
+        <v>0.1401384032127343</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.007925430626194087</v>
+        <v>0.008327727841194288</v>
       </c>
       <c r="G249" t="n">
+        <v>0.06239774798793492</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0.006609794160206871</v>
+      </c>
+      <c r="K249" t="n">
         <v>0.1421903864079717</v>
       </c>
-      <c r="J249" t="n">
-        <v>0.01066450193787816</v>
-      </c>
-      <c r="K249" t="n">
-        <v>0.1414817759267474</v>
-      </c>
       <c r="L249" t="n">
-        <v>0.01192069188110767</v>
+        <v>0.004881570484186026</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1412656287787637</v>
+        <v>0.1413444988341795</v>
       </c>
       <c r="N249" t="n">
-        <v>0.007925430626194087</v>
+        <v>0.008637299964752931</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1421903864079717</v>
+        <v>0.1409041868368476</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.007800964835832751</v>
+        <v>0.00804196846783925</v>
       </c>
       <c r="G250" t="n">
+        <v>0.06231475032496903</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0.006401911569627716</v>
+      </c>
+      <c r="K250" t="n">
         <v>0.1429631602471455</v>
       </c>
-      <c r="J250" t="n">
-        <v>0.01043456365272238</v>
-      </c>
-      <c r="K250" t="n">
-        <v>0.1422506986220014</v>
-      </c>
       <c r="L250" t="n">
-        <v>0.01115076085928829</v>
+        <v>0.004784454570327668</v>
       </c>
       <c r="M250" t="n">
-        <v>0.142033376761257</v>
+        <v>0.1421126754582783</v>
       </c>
       <c r="N250" t="n">
-        <v>0.007800964835832751</v>
+        <v>0.008125458255749896</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1429631602471455</v>
+        <v>0.1416699704609609</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.007775066737615514</v>
+        <v>0.007763723580731005</v>
       </c>
       <c r="G251" t="n">
+        <v>0.06223175266200313</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0.006394585927236816</v>
+      </c>
+      <c r="K251" t="n">
         <v>0.1437359340863192</v>
       </c>
-      <c r="J251" t="n">
-        <v>0.01040816440877804</v>
-      </c>
-      <c r="K251" t="n">
-        <v>0.1430196213172555</v>
-      </c>
       <c r="L251" t="n">
-        <v>0.01028401558390069</v>
+        <v>0.004487640403860488</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1428011247437503</v>
+        <v>0.1428808520823771</v>
       </c>
       <c r="N251" t="n">
-        <v>0.007775066737615514</v>
+        <v>0.008026642310746179</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1437359340863192</v>
+        <v>0.1424357540850742</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.007547761002621105</v>
+        <v>0.007493366018777765</v>
       </c>
       <c r="G252" t="n">
+        <v>0.06214875499903724</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0.006287819869139677</v>
+      </c>
+      <c r="K252" t="n">
         <v>0.144508707925493</v>
       </c>
-      <c r="J252" t="n">
-        <v>0.01038539711920644</v>
-      </c>
-      <c r="K252" t="n">
-        <v>0.1437885440125096</v>
-      </c>
       <c r="L252" t="n">
-        <v>0.009420502852360013</v>
+        <v>0.004591142997605352</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1435688727262435</v>
+        <v>0.1436490287064759</v>
       </c>
       <c r="N252" t="n">
-        <v>0.007547761002621105</v>
+        <v>0.007741408793710158</v>
       </c>
       <c r="O252" t="n">
-        <v>0.144508707925493</v>
+        <v>0.1432015377091875</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.007319072301928319</v>
+        <v>0.007231268620887632</v>
       </c>
       <c r="G253" t="n">
+        <v>0.06206575733607134</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0.006181616031441795</v>
+      </c>
+      <c r="K253" t="n">
         <v>0.1452814817646667</v>
       </c>
-      <c r="J253" t="n">
-        <v>0.009966354697169083</v>
-      </c>
-      <c r="K253" t="n">
-        <v>0.1445574667077636</v>
-      </c>
       <c r="L253" t="n">
-        <v>0.009360269462081128</v>
+        <v>0.004794977364383002</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1443366207087368</v>
+        <v>0.1444172053305747</v>
       </c>
       <c r="N253" t="n">
-        <v>0.007319072301928319</v>
+        <v>0.007470314368610287</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1452814817646667</v>
+        <v>0.1439673213333008</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.007289025306615876</v>
+        <v>0.006977804225968803</v>
       </c>
       <c r="G254" t="n">
+        <v>0.06198275967310544</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0.006075977050248677</v>
+      </c>
+      <c r="K254" t="n">
         <v>0.1460542556038405</v>
       </c>
-      <c r="J254" t="n">
-        <v>0.01015113005582732</v>
-      </c>
-      <c r="K254" t="n">
-        <v>0.1453263894030177</v>
-      </c>
       <c r="L254" t="n">
-        <v>0.00810336221047897</v>
+        <v>0.004599158517014229</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1451043686912301</v>
+        <v>0.1451853819546735</v>
       </c>
       <c r="N254" t="n">
-        <v>0.007289025306615876</v>
+        <v>0.00741391569941513</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1460542556038405</v>
+        <v>0.1447331049574141</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.007257644687762577</v>
+        <v>0.006733345672929457</v>
       </c>
       <c r="G255" t="n">
+        <v>0.06189976201013955</v>
+      </c>
+      <c r="J255" t="n">
+        <v>0.005770905561665811</v>
+      </c>
+      <c r="K255" t="n">
         <v>0.1468270294430143</v>
       </c>
-      <c r="J255" t="n">
-        <v>0.009639816108342608</v>
-      </c>
-      <c r="K255" t="n">
-        <v>0.1460953120982717</v>
-      </c>
       <c r="L255" t="n">
-        <v>0.007949827894968509</v>
+        <v>0.004503701468319882</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1458721166737234</v>
+        <v>0.1459535585787723</v>
       </c>
       <c r="N255" t="n">
-        <v>0.007257644687762577</v>
+        <v>0.006972769450093008</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1468270294430143</v>
+        <v>0.1454988885815274</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.006924955116447161</v>
+        <v>0.006498265800677791</v>
       </c>
       <c r="G256" t="n">
+        <v>0.06181676434717366</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0.005866404201798688</v>
+      </c>
+      <c r="K256" t="n">
         <v>0.147599803282188</v>
       </c>
-      <c r="J256" t="n">
-        <v>0.009932505767876326</v>
-      </c>
-      <c r="K256" t="n">
-        <v>0.1468642347935258</v>
-      </c>
       <c r="L256" t="n">
-        <v>0.006999713312964506</v>
+        <v>0.004808621231120774</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1466398646562166</v>
+        <v>0.1467217352028711</v>
       </c>
       <c r="N256" t="n">
-        <v>0.006924955116447161</v>
+        <v>0.006747432284612498</v>
       </c>
       <c r="O256" t="n">
-        <v>0.147599803282188</v>
+        <v>0.1462646722056407</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.006890981263748368</v>
+        <v>0.006272937448121907</v>
       </c>
       <c r="G257" t="n">
+        <v>0.06173376668420776</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0.005762475606752818</v>
+      </c>
+      <c r="K257" t="n">
         <v>0.1483725771213618</v>
       </c>
-      <c r="J257" t="n">
-        <v>0.009629291947589907</v>
-      </c>
-      <c r="K257" t="n">
-        <v>0.1476331574887799</v>
-      </c>
       <c r="L257" t="n">
-        <v>0.006153065261882196</v>
+        <v>0.004613932818237659</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1474076126387099</v>
+        <v>0.1474899118269699</v>
       </c>
       <c r="N257" t="n">
-        <v>0.006890981263748368</v>
+        <v>0.006738460866942186</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1483725771213618</v>
+        <v>0.147030455829754</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.006755747800744977</v>
+        <v>0.006057733454170024</v>
       </c>
       <c r="G258" t="n">
+        <v>0.06165076902124186</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0.005659122412633701</v>
+      </c>
+      <c r="K258" t="n">
         <v>0.1491453509605355</v>
       </c>
-      <c r="J258" t="n">
-        <v>0.009430267560644745</v>
-      </c>
-      <c r="K258" t="n">
-        <v>0.1484020801840339</v>
-      </c>
       <c r="L258" t="n">
-        <v>0.006009930539136399</v>
+        <v>0.004819651242491368</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1481753606212032</v>
+        <v>0.1482580884510687</v>
       </c>
       <c r="N258" t="n">
-        <v>0.006755747800744977</v>
+        <v>0.006446411861050272</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1491453509605355</v>
+        <v>0.1477962394538673</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.00671927939851575</v>
+        <v>0.005853026657730319</v>
       </c>
       <c r="G259" t="n">
+        <v>0.06156777135827598</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0.00555634725554683</v>
+      </c>
+      <c r="K259" t="n">
         <v>0.1499181247997093</v>
       </c>
-      <c r="J259" t="n">
-        <v>0.009435525520202215</v>
-      </c>
-      <c r="K259" t="n">
-        <v>0.149171002879288</v>
-      </c>
       <c r="L259" t="n">
-        <v>0.005170355942142046</v>
+        <v>0.004525791516702654</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1489431086036965</v>
+        <v>0.1490262650751675</v>
       </c>
       <c r="N259" t="n">
-        <v>0.00671927939851575</v>
+        <v>0.006571841930905487</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1499181247997093</v>
+        <v>0.1485620230779806</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.006381600728139432</v>
+        <v>0.005659189897710908</v>
       </c>
       <c r="G260" t="n">
+        <v>0.06148477369531008</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0.005354152771597689</v>
+      </c>
+      <c r="K260" t="n">
         <v>0.1506908986388831</v>
       </c>
-      <c r="J260" t="n">
-        <v>0.009545158739423798</v>
-      </c>
-      <c r="K260" t="n">
-        <v>0.1499399255745421</v>
-      </c>
       <c r="L260" t="n">
-        <v>0.004834388268314116</v>
+        <v>0.004932368653692398</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1497108565861898</v>
+        <v>0.1497944416992663</v>
       </c>
       <c r="N260" t="n">
-        <v>0.006381600728139432</v>
+        <v>0.006015307740476206</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1506908986388831</v>
+        <v>0.1493278067020939</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.006342736460694796</v>
+        <v>0.005476596013020002</v>
       </c>
       <c r="G261" t="n">
+        <v>0.06140177603234418</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0.005152541596891817</v>
+      </c>
+      <c r="K261" t="n">
         <v>0.1514636724780568</v>
       </c>
-      <c r="J261" t="n">
-        <v>0.009259260131470881</v>
-      </c>
-      <c r="K261" t="n">
-        <v>0.1507088482697961</v>
-      </c>
       <c r="L261" t="n">
-        <v>0.003502074315067438</v>
+        <v>0.004939397666281375</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1504786045686831</v>
+        <v>0.1505626183233651</v>
       </c>
       <c r="N261" t="n">
-        <v>0.006342736460694796</v>
+        <v>0.006277365953730796</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1514636724780568</v>
+        <v>0.1500935903262072</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.006102711267260599</v>
+        <v>0.005305617842565766</v>
       </c>
       <c r="G262" t="n">
+        <v>0.06131877836937828</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0.005051516367534668</v>
+      </c>
+      <c r="K262" t="n">
         <v>0.1522364463172306</v>
       </c>
-      <c r="J262" t="n">
-        <v>0.009377922609504874</v>
-      </c>
-      <c r="K262" t="n">
-        <v>0.1514777709650502</v>
-      </c>
       <c r="L262" t="n">
-        <v>0.003373460879817158</v>
+        <v>0.004746893567290356</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1512463525511763</v>
+        <v>0.1513307949474639</v>
       </c>
       <c r="N262" t="n">
-        <v>0.006102711267260599</v>
+        <v>0.005858573234637843</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1522364463172306</v>
+        <v>0.1508593739503205</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.006161549818915583</v>
+        <v>0.00514662822525639</v>
       </c>
       <c r="G263" t="n">
+        <v>0.06123578070641239</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0.004951079719631754</v>
+      </c>
+      <c r="K263" t="n">
         <v>0.1530092201564043</v>
       </c>
-      <c r="J263" t="n">
-        <v>0.009101239086687168</v>
-      </c>
-      <c r="K263" t="n">
-        <v>0.1522466936603042</v>
-      </c>
       <c r="L263" t="n">
-        <v>0.002448594759978051</v>
+        <v>0.00475487136954017</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1520141005336696</v>
+        <v>0.1520989715715627</v>
       </c>
       <c r="N263" t="n">
-        <v>0.006161549818915583</v>
+        <v>0.005859486247165868</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1530092201564043</v>
+        <v>0.1516251575744338</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.005919276786738523</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
+        <v>0.06115278304344649</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0.005051234289288588</v>
+      </c>
+      <c r="K264" t="n">
         <v>0.1537819939955781</v>
       </c>
-      <c r="J264" t="n">
-        <v>0.008929302476179179</v>
-      </c>
-      <c r="K264" t="n">
-        <v>0.1530156163555583</v>
-      </c>
       <c r="L264" t="n">
-        <v>0.001927522752965094</v>
+        <v>0.004563346085851627</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1527818485161629</v>
+        <v>0.1528671481956615</v>
       </c>
       <c r="N264" t="n">
-        <v>0.005919276786738523</v>
+        <v>0.005980661655283215</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1537819939955781</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1523909411985472</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.06113962514870965</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005640580086804306</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.06113989367717367</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.006277358833763937</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.06114016220563768</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.006910288664016814</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.06114043073410171</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.00753932200061834</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.06114069926256572</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.008164411266706625</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.06114096779102973</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.00878550888539216</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.06114123631949375</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.009402567279812188</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.06114150484795777</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.01001553887302346</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.06114177337642179</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.01062437608816343</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.0611420419048858</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.01122903134834256</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.06114231043334981</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.01182945707669739</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.06114257896181384</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.01242560569628612</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.06114284749027785</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.01301742963024546</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.06114311601874187</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.01360488130168591</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.06114338454720589</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.01418791313374321</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.06114365307566991</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.0147664775494771</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.06114392160413393</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.01534052697202352</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.06114419013259794</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.01591001382449298</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.06114445866106195</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.01647489053002041</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.06114472718952598</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.01703510951166715</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.06114499571798999</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.01759062319256836</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.06114526424645401</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.01814138399583452</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.06114553277491802</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.01868734434459976</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.06114580130338205</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.01922845666192705</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.06114606983184606</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.01976486764324963</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.06114633836031008</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.02029769534547116</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.0611466068887741</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.02082708646402393</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.06114687541723812</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.02135299342197235</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.06114714394570214</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.02187536864245002</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.06114741247416615</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.02239416454856742</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.06114768100263016</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.0229093335634574</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.06114794953109419</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.02342082811018553</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.0611482180595582</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.02392860061188487</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.06114848658802222</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.02443260349166583</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.06114875511648623</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.02493278917266066</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.06114902364495026</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.02542911007793622</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.06114929217341427</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.02592151863062492</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.06114956070187829</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.02640996725383719</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.0611498292303423</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.02689440837070452</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.06115009775880633</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.02737479440429522</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.06115036628727034</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.02785107777774097</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.06115063481573436</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.02832321091415223</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.06115090334419837</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.02879114623665975</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.0611511718726624</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.0292548361683333</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.06115144040112641</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.0297142331323038</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.06115170892959042</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.03016928955168174</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.06115197745805444</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.03061995784959713</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.06115224598651847</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.03106619044912122</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.06115251451498248</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.03150793977338417</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.06115278304344649</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.03150793977338419</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.06113962514870965</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.03200037536273619</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.06122315986860358</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.03248814856640256</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.0613066945884975</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.03297112731367055</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.06139022930839144</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.03344917953382724</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.06147376402828537</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.03392217315615986</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.0615572987481793</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.03438997610995562</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.06164083346807323</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.03485245632450167</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.06172436818796715</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.03530948172908527</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.06180790290786109</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.03576092025299349</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.06189143762775502</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.03620663982551356</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.06197497234764895</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.03664650837593267</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.06205850706754287</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.03708039383353799</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.0621420417874368</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.0375081641276168</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.06222557650733074</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.03792968718745617</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.06230911122722466</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.03834483094234328</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.0623926459471186</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.03875346332156537</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.06247618066701252</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.03915545225440961</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.06255971538690645</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.03955066567016323</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.06264325010680039</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.03993897149811332</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.06272678482669432</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.04032023766754712</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.06281031954658824</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.04069433210775181</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.06289385426648217</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.0410611227480146</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.0629773889863761</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.04142047751762262</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.06306092370627003</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.04177226434586305</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.06314445842616397</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.04211689045076711</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.06322799314605788</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.04245745949408597</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.06331152786595182</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.04279437869385085</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.06339506258584575</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.04312751597934882</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.06347859730573968</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.04345673927986712</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.06356213202563361</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.04378191652469297</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.06364566674552753</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.04410291564311351</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.06372920146542146</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.04441960456441597</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.0638127361853154</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.04473185121788749</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.06389627090520933</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.04503952353281523</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.06397980562510326</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.04534248943848646</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.06406334034499718</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.04564061686418829</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.06414687506489111</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.04593377373920798</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.06423040978478504</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.04622182799283263</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.06431394450467898</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.04650464755434947</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.06439747922457291</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.04678210035304566</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.06448101394446683</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.0470540543182084</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.06456454866436076</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.04732037737912491</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.06464808338425469</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.04758093746508232</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.06473161810414862</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.04783560250536782</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.06481515282404256</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.04808424042926861</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.06489868754393648</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.04832671916607187</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.06498222226383041</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.04856290664506481</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.06506575698372434</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.04879267079553459</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.06514929170361827</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.04901587954676838</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.06523282642351221</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.04034391969784559</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.06523282642351221</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.04912548917257509</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.06702941706956411</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.04922678156075971</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.06882600771561602</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.04932008488429473</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.07062259836166794</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.0494057273161526</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.07241918900771986</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.04948403702930575</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.07421577965377177</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.04955534219672662</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.07601237029982369</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.04961997099138775</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.0778089609458756</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.04967825158626152</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.07960555159192752</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.04973051215432044</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.08140214223797942</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.04977708086853692</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.08319873288403135</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.04981828590188345</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.08499532353008325</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.04985445542733247</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.08679191417613517</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.04988591761785643</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.08858850482218709</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.0499130006464278</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.090385095468239</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.04993603268601904</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.09218168611429092</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.04995534190960259</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.09397827676034283</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.04997125649015091</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.09577486740639474</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.04998410460063649</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.09757145805244666</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.04999421441403175</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.09936804869849858</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.05000191410330916</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.1011646393445505</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.05000753184144117</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.1029612299906024</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.05001139580140025</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.1047578206366543</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.05001383415615886</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.1065544112827062</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.05001517507868943</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.1083510019287581</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.05001574674196442</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.1101475925748101</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.05001587731895631</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.111944183220862</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.04999939291444733</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.1137407738669139</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.04991311595339698</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.1155373645129658</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.04975746950906094</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.1173339551590177</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.04953751044979092</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.1191305458050696</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.04925829564393858</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1209271364511215</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.04892488195985563</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1227237270971735</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.04854232626589379</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1245203177432254</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.04811568543040474</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1263169083892773</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.04765001632174018</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1281134990353292</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.04715037580825181</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1299100896813811</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.04662182075829134</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.131706680327433</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.04606940804021044</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1335032709734849</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.04549819452236083</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1352998616195369</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.04491323707309419</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1370964522655888</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.04431959256076225</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1388930429116407</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.04372231785371669</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1406896335576926</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.04312646982030918</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1424862242037445</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.04253710532889148</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1442828148497964</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.04195928124781524</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1460794054958484</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.04139805444543217</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1478759961419003</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.04085848179009398</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.04034562015015233</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1514691774340041</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.03986452639395899</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.153265768080056</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.03942025738986557</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.1550623587261079</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.03899408826268286</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.1568589493721598</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.03855613456131901</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.1586555400182117</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.03810800544740016</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.1604521306642637</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.03765151753278928</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.1622487213103156</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.0371884874293493</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.1640453119563675</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.03672073174894309</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.1658419026024194</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.03625006710343359</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.1676384932484713</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.03577831010468377</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.1694350838945232</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.03530727736455651</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.1712316745405752</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.03483878549491475</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.1730282651866271</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.0343746511076214</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.174824855832679</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.03391669081453938</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.1766214464787309</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.03346672122753165</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.1784180371247828</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.03302655895846111</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.1802146277708347</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.03259802061919066</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.1820112184168866</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.03218292282158328</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.1838078090629386</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.03178308217750185</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.1856043997089905</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.03140031529880929</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.1874009903550424</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.03103643879736856</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.1891975810010943</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.03069326928504255</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.1909941716471462</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.03037262337369422</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.1927907622931981</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.03007631767518644</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.19458735293925</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.02980616880138218</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.196383943585302</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.02956399336414436</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.1981805342313538</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.02935160797533588</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.1999771248774058</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.02917024725955594</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.2017737155234577</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.02900036047017815</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.2035703061695096</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.02883207197058442</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.2053668968155615</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.02866593555237733</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.2071634874616134</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.02850250500715955</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.2089600781076654</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.02834233412653371</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.2107566687537172</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.02818597670210242</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.2125532593997692</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.02803398652546835</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.2143498500458211</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.02788691738823412</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.216146440691873</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.02774532308200235</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.2179430313379249</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.02760975739837569</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.2197396219839768</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.02748077412895678</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.2215362126300287</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.02735892706534823</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.2233328032760806</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.02724476999915271</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.2251293939221326</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.02713885672197282</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.2269259845681845</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.02704174102541122</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.2287225752142364</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.02695397670107051</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.2305191658602883</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.02687611754055336</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.2323157565063403</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.02680871733546238</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.2341123471523922</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.02675232987740023</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.235908937798444</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.02670750895796951</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.237705528444496</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.0266748083687729</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.2395021190905479</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.026654781901413</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.2412987097365998</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.02664798334749245</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.2430953003826517</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1187.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1187.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF464"/>
+  <dimension ref="A1:BF264"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8811,7 +8811,7 @@
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
       <c r="J51" s="144" t="n">
-        <v>0.08334391969784559</v>
+        <v>0.0618547638640305</v>
       </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
@@ -9258,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.03334391969784559</v>
+        <v>0.0118547638640305</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0152703264235122</v>
+        <v>0.008974146053888238</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.001490939049294773</v>
+        <v>0.003087288125336145</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0006589174386213353</v>
+        <v>0.001627318364679089</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.001697841195765895</v>
+        <v>0.00454520798824732</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007727738391737593</v>
+        <v>0.002064454128298243</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.005802151060540967</v>
+        <v>0.01283039271799064</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007681766240988017</v>
+        <v>0.001962162522719948</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.01056404730724775</v>
+        <v>0.02094760697655818</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007657836241133022</v>
+        <v>0.002046128667773778</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.002976219242766281</v>
+        <v>0.006585979924461388</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001317834877242671</v>
+        <v>0.002991382017962746</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.003999999999999997</v>
+        <v>0.00575085896153929</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.00181681818181818</v>
+        <v>0.003267153877286209</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01103691259321526</v>
+        <v>0.01550711554149312</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001536353248197603</v>
+        <v>0.003268191347696109</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.01942160306667434</v>
+        <v>0.02443227647699692</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001531567248226604</v>
+        <v>0.00327488470517934</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.004456020580730087</v>
+        <v>0.008743890142887831</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.001976752315864006</v>
+        <v>0.004881955094037267</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.004545881910627464</v>
+        <v>0.00706306159627846</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002318321517521277</v>
+        <v>0.004900730815929314</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01599999999999999</v>
+        <v>0.01833275983378607</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002471861471861469</v>
+        <v>0.004902287021544164</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.02500000000000002</v>
+        <v>0.02874832784146875</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002122451146983859</v>
+        <v>0.004912327057769009</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.005930523063501759</v>
+        <v>0.01016279602973089</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.002635669754485341</v>
+        <v>0.006509273458716356</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.005725661849977061</v>
+        <v>0.008266115063587633</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003091095356695037</v>
+        <v>0.006534307754572417</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.01790027956657278</v>
+        <v>0.02019839812796934</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003072706496395207</v>
+        <v>0.006536382695392219</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.02961323569155871</v>
+        <v>0.03121700713949055</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003063134496453209</v>
+        <v>0.00654976941035868</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.011965528071851</v>
+        <v>0.002991382017962746</v>
       </c>
       <c r="B70" t="n">
-        <v>0.02634391969784558</v>
+        <v>0.006585979924461388</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.007399906691396854</v>
+        <v>0.009318435201567977</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003294587193106677</v>
+        <v>0.008136591823395446</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.006816919061470215</v>
+        <v>0.009177260353364379</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003863869195868796</v>
+        <v>0.008167884693215522</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.01996958257151005</v>
+        <v>0.02197940954304545</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003840883120494008</v>
+        <v>0.008170478369240274</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.03297338624352486</v>
+        <v>0.03376548706458438</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003828918120566511</v>
+        <v>0.008187211762948348</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.008864351464730941</v>
+        <v>0.0118547638640305</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.003953504631728012</v>
+        <v>0.008974146053888238</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.007614948899889354</v>
+        <v>0.01033001815510755</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004636643035042555</v>
+        <v>0.01021960227272726</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.02166871120360517</v>
+        <v>0.02420828814715215</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.00460905974459281</v>
+        <v>0.01032283057851239</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.03557005670577223</v>
+        <v>0.03632094031027266</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004594701744679813</v>
+        <v>0.009824654115538019</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.01032403738381957</v>
+        <v>0.01234003744666214</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.004612422070349348</v>
+        <v>0.01139122855275362</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.00841504672001691</v>
+        <v>0.01086140327564603</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005409416874216315</v>
+        <v>0.01143503857050173</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.02293437442630711</v>
+        <v>0.02546183160052076</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005377236368691612</v>
+        <v>0.01143866971693638</v>
       </c>
       <c r="N72" s="171" t="n">
         <v>0.0380865581391967</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005389123933813694</v>
+        <v>0.01098881964809383</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01177914444897833</v>
+        <v>0.01429985091826734</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.005271339508970682</v>
+        <v>0.01301854691743271</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.00921250787663537</v>
+        <v>0.01169688747717782</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006182190713390074</v>
+        <v>0.01306861550914483</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.02420828814715215</v>
+        <v>0.02700928400483987</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006233284871944387</v>
+        <v>0.01307276539078444</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.03909485845793592</v>
+        <v>0.04096650575802291</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006126268992906417</v>
+        <v>0.01309953882071736</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01322985266052275</v>
+        <v>0.01522177582628757</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.005930256947592018</v>
+        <v>0.0146458652821118</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.009602627724527149</v>
+        <v>0.0124121369103145</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.006954964552563833</v>
+        <v>0.01470219244778794</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.02490323462054736</v>
+        <v>0.0289531362244298</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006913589616889215</v>
+        <v>0.01470686106463249</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.04043203740082368</v>
+        <v>0.04390177051248528</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.00689205261701972</v>
+        <v>0.01473698117330703</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01467634201876843</v>
+        <v>0.01410101558161837</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.006589174386213354</v>
+        <v>0.01627318364679089</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.01033001815510755</v>
+        <v>0.01330146990034746</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007819902001129711</v>
+        <v>0.01633576938643104</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.02588872182463628</v>
+        <v>0.03057382032109976</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007681766240988016</v>
+        <v>0.01634095673848055</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.04224274889910762</v>
+        <v>0.04724763402962046</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007657836241133023</v>
+        <v>0.0163744235258967</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.0161187925240309</v>
+        <v>0.01593277359515535</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.007248091824834689</v>
+        <v>0.01790050201146998</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01058568463612154</v>
+        <v>0.01415920477256818</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008500512230911353</v>
+        <v>0.01796934632507415</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.02666109459809426</v>
+        <v>0.0325517683566591</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008449942865086818</v>
+        <v>0.0179750524123286</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.04372685078093297</v>
+        <v>0.04976751490711318</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008423619865246324</v>
+        <v>0.01801186587848637</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01755738417662574</v>
+        <v>0.01771225327779405</v>
       </c>
       <c r="G77" t="n">
-        <v>0.007907009263456024</v>
+        <v>0.01952782037614907</v>
       </c>
       <c r="J77" t="n">
-        <v>0.0108836843008661</v>
+        <v>0.01487965985226812</v>
       </c>
       <c r="K77" t="n">
-        <v>0.00927328607008511</v>
+        <v>0.01960292326371725</v>
       </c>
       <c r="L77" t="n">
-        <v>0.02732010433603954</v>
+        <v>0.03426741239291711</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009218119489185619</v>
+        <v>0.01960914808617666</v>
       </c>
       <c r="N77" t="n">
-        <v>0.04508420087444509</v>
+        <v>0.05222483174264791</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009189403489359626</v>
+        <v>0.01964930823107604</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01899229697686851</v>
+        <v>0.01843465804043003</v>
       </c>
       <c r="G78" t="n">
-        <v>0.00856592670207736</v>
+        <v>0.02115513874082816</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01137537147058908</v>
+        <v>0.01535715346473869</v>
       </c>
       <c r="K78" t="n">
-        <v>0.01004605990925887</v>
+        <v>0.02123650020236036</v>
       </c>
       <c r="L78" t="n">
-        <v>0.02846550243359053</v>
+        <v>0.03610118449168309</v>
       </c>
       <c r="M78" t="n">
-        <v>0.009986296113284422</v>
+        <v>0.02124324376002471</v>
       </c>
       <c r="N78" t="n">
-        <v>0.04601465700778912</v>
+        <v>0.05498300313390919</v>
       </c>
       <c r="O78" t="n">
-        <v>0.009955187113472928</v>
+        <v>0.02128675058366571</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.02042371092507478</v>
+        <v>0.01709519129395888</v>
       </c>
       <c r="G79" t="n">
-        <v>0.009224844140698695</v>
+        <v>0.02278245710550725</v>
       </c>
       <c r="J79" t="n">
-        <v>0.0116606272976174</v>
+        <v>0.01618600393527135</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01081883374843263</v>
+        <v>0.02287007714100346</v>
       </c>
       <c r="L79" t="n">
-        <v>0.02889704028586548</v>
+        <v>0.0374335167147663</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01075447273738322</v>
+        <v>0.02287733943387276</v>
       </c>
       <c r="N79" t="n">
-        <v>0.0473180770091105</v>
+        <v>0.05800544767858157</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01072097073758623</v>
+        <v>0.02292419293625538</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.0218518060215601</v>
+        <v>0.01868905644927614</v>
       </c>
       <c r="G80" t="n">
-        <v>0.009883761579320031</v>
+        <v>0.02440977547018634</v>
       </c>
       <c r="J80" t="n">
-        <v>0.01223933293427787</v>
+        <v>0.01656052958915755</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01159160758760639</v>
+        <v>0.02450365407964656</v>
       </c>
       <c r="L80" t="n">
-        <v>0.02991446928798275</v>
+        <v>0.038944841123976</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01152264936148202</v>
+        <v>0.02451143510772082</v>
       </c>
       <c r="N80" t="n">
-        <v>0.04829431870655437</v>
+        <v>0.0601555839743495</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01148675436169953</v>
+        <v>0.02456163528884505</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.02327676226664004</v>
+        <v>0.01821145691727737</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01054267901794136</v>
+        <v>0.02603709383486542</v>
       </c>
       <c r="J81" t="n">
-        <v>0.0126113695328974</v>
+        <v>0.01707504875168873</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01236438142678015</v>
+        <v>0.02613723101828967</v>
       </c>
       <c r="L81" t="n">
-        <v>0.03081754083506066</v>
+        <v>0.04031558978112154</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01229082598558083</v>
+        <v>0.02614553078156888</v>
       </c>
       <c r="N81" t="n">
-        <v>0.05014323992826608</v>
+        <v>0.06219683061889775</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01225253798581283</v>
+        <v>0.02619907764143472</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.02469875966063015</v>
+        <v>0.02065759610885816</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0112015964565627</v>
+        <v>0.02766441219954451</v>
       </c>
       <c r="J82" t="n">
-        <v>0.01287661824580286</v>
+        <v>0.01752387974815635</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01313715526595391</v>
+        <v>0.02777080795693277</v>
       </c>
       <c r="L82" t="n">
-        <v>0.03140600632221749</v>
+        <v>0.04142619474801218</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01305900260967963</v>
+        <v>0.02777962645541693</v>
       </c>
       <c r="N82" t="n">
-        <v>0.05086469850239073</v>
+        <v>0.06399260620991071</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01301832160992614</v>
+        <v>0.02783651999402439</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.02634391969784558</v>
+        <v>0.01902267743491405</v>
       </c>
       <c r="G83" t="n">
-        <v>0.011965528071851</v>
+        <v>0.0292917305642236</v>
       </c>
       <c r="J83" t="n">
-        <v>0.01323496022532107</v>
+        <v>0.01810134090385183</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01390992910512767</v>
+        <v>0.02940438489557588</v>
       </c>
       <c r="L83" t="n">
-        <v>0.03237961714457163</v>
+        <v>0.04195708808645721</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01382717923377843</v>
+        <v>0.02941372212926499</v>
       </c>
       <c r="N83" t="n">
-        <v>0.05245855225707391</v>
+        <v>0.06570632934507287</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01378410523403944</v>
+        <v>0.02947396234661406</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.02760480751380626</v>
+        <v>0.0203148750768106</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01251943133380537</v>
+        <v>0.03091904892890269</v>
       </c>
       <c r="J84" t="n">
-        <v>0.01348627662377898</v>
+        <v>0.01820175054406661</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01468270294430143</v>
+        <v>0.03103796183421898</v>
       </c>
       <c r="L84" t="n">
-        <v>0.03313812469724134</v>
+        <v>0.04268870185826593</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01459535585787723</v>
+        <v>0.03104781780311304</v>
       </c>
       <c r="N84" t="n">
-        <v>0.05342465902046051</v>
+        <v>0.06690141862206894</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01454988885815274</v>
+        <v>0.03111140469920373</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.02920217117509552</v>
+        <v>0.02059203276588713</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01317834877242671</v>
+        <v>0.03254636729358178</v>
       </c>
       <c r="J85" t="n">
-        <v>0.01383044859350339</v>
+        <v>0.01844937858133036</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01545547678347519</v>
+        <v>0.03267153877286209</v>
       </c>
       <c r="L85" t="n">
-        <v>0.03388128037534491</v>
+        <v>0.04347211776023249</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01536353248197603</v>
+        <v>0.0326819134769611</v>
       </c>
       <c r="N85" t="n">
-        <v>0.05466287662069602</v>
+        <v>0.06777692583580142</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01531567248226605</v>
+        <v>0.03274884705179339</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.03076598953930682</v>
+        <v>0.02086015289721618</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01383726621104804</v>
+        <v>0.03417368565826086</v>
       </c>
       <c r="J86" t="n">
-        <v>0.01436735728682122</v>
+        <v>0.01878951004125774</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01622825062264894</v>
+        <v>0.03430511571150519</v>
       </c>
       <c r="L86" t="n">
-        <v>0.0345088355740007</v>
+        <v>0.04413605067873969</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01613170910607484</v>
+        <v>0.03431600915080914</v>
       </c>
       <c r="N86" t="n">
-        <v>0.05537306288592575</v>
+        <v>0.06897577162995083</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01608145610637935</v>
+        <v>0.03438628940438307</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.03214903530975195</v>
+        <v>0.02111741357035139</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01449618364966938</v>
+        <v>0.03580100402293996</v>
       </c>
       <c r="J87" t="n">
-        <v>0.0146968838560593</v>
+        <v>0.01892120103835901</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01700102446182271</v>
+        <v>0.03593869265014829</v>
       </c>
       <c r="L87" t="n">
-        <v>0.03502054168832705</v>
+        <v>0.04448040376020174</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01689988573017364</v>
+        <v>0.0359501048246572</v>
       </c>
       <c r="N87" t="n">
-        <v>0.05685507564429471</v>
+        <v>0.06954585589718887</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01684723973049265</v>
+        <v>0.03602373175697274</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.03334391969784559</v>
+        <v>0.02136199288484641</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0152703264235122</v>
+        <v>0.03742832238761905</v>
       </c>
       <c r="J88" t="n">
-        <v>0.01491890945354454</v>
+        <v>0.01924284561522244</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01777379830099646</v>
+        <v>0.0375722695887914</v>
       </c>
       <c r="L88" t="n">
-        <v>0.03571615011344226</v>
+        <v>0.04500140987400264</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01766806235427244</v>
+        <v>0.03758420049850526</v>
       </c>
       <c r="N88" t="n">
-        <v>0.05820877272394848</v>
+        <v>0.07088121537479686</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01761302335460595</v>
+        <v>0.03766117410956241</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,6180 +10193,4780 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.03395651728671598</v>
+        <v>0.02159206894025489</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01581401852691205</v>
+        <v>0.03905564075229814</v>
       </c>
       <c r="J89" t="n">
-        <v>0.01513331523160377</v>
+        <v>0.01955283781443636</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01854657214017022</v>
+        <v>0.03920584652743451</v>
       </c>
       <c r="L89" t="n">
-        <v>0.03649541224446468</v>
+        <v>0.04569530188952625</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01843623897837124</v>
+        <v>0.03921829617235331</v>
       </c>
       <c r="N89" t="n">
-        <v>0.0591340119530322</v>
+        <v>0.07117588680005654</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01837880697871925</v>
+        <v>0.03929861646215208</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.03466807302115837</v>
+        <v>0.02280581983613048</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01647293596553338</v>
+        <v>0.04068295911697722</v>
       </c>
       <c r="J90" t="n">
-        <v>0.01553998234256389</v>
+        <v>0.01954957167858903</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01931934597934398</v>
+        <v>0.04083942346607761</v>
       </c>
       <c r="L90" t="n">
-        <v>0.03745807947651256</v>
+        <v>0.04585831267615642</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01920441560247004</v>
+        <v>0.04085239184620137</v>
       </c>
       <c r="N90" t="n">
-        <v>0.06013065115969113</v>
+        <v>0.07222390691024944</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01914459060283255</v>
+        <v>0.04093605881474174</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.03534667595524248</v>
+        <v>0.02200142367202679</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01713185340415472</v>
+        <v>0.04231027748165631</v>
       </c>
       <c r="J91" t="n">
-        <v>0.01593879193875175</v>
+        <v>0.01983144125026881</v>
       </c>
       <c r="K91" t="n">
-        <v>0.02009211981851774</v>
+        <v>0.04247300040472071</v>
       </c>
       <c r="L91" t="n">
-        <v>0.03800390320470429</v>
+        <v>0.04638667510327721</v>
       </c>
       <c r="M91" t="n">
-        <v>0.01997259222656884</v>
+        <v>0.04248648752004942</v>
       </c>
       <c r="N91" t="n">
-        <v>0.06069854817207049</v>
+        <v>0.07311931244265718</v>
       </c>
       <c r="O91" t="n">
-        <v>0.01991037422694586</v>
+        <v>0.04257350116733142</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.03599325566718765</v>
+        <v>0.02217705854749748</v>
       </c>
       <c r="G92" t="n">
-        <v>0.01779077084277605</v>
+        <v>0.04393759584633541</v>
       </c>
       <c r="J92" t="n">
-        <v>0.01612962517249425</v>
+        <v>0.02009684057206397</v>
       </c>
       <c r="K92" t="n">
-        <v>0.0208648936576915</v>
+        <v>0.04410657734336382</v>
       </c>
       <c r="L92" t="n">
-        <v>0.0386326348241581</v>
+        <v>0.04687662204027238</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02074076885066764</v>
+        <v>0.04412058319389748</v>
       </c>
       <c r="N92" t="n">
-        <v>0.06143756081831558</v>
+        <v>0.0735561401345613</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02067615785105916</v>
+        <v>0.04421094351992109</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.03660874173521322</v>
+        <v>0.02133090256209622</v>
       </c>
       <c r="G93" t="n">
-        <v>0.01844968828139739</v>
+        <v>0.0455649142110145</v>
       </c>
       <c r="J93" t="n">
-        <v>0.01641236319611822</v>
+        <v>0.0200441636865628</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02163766749686526</v>
+        <v>0.04574015428200692</v>
       </c>
       <c r="L93" t="n">
-        <v>0.03904402572999241</v>
+        <v>0.04722438635652595</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02150894547476645</v>
+        <v>0.04575467886774553</v>
       </c>
       <c r="N93" t="n">
-        <v>0.06304754692657172</v>
+        <v>0.07422842672324348</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02144194147517246</v>
+        <v>0.04584838587251076</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.03719406373753853</v>
+        <v>0.02246113381537662</v>
       </c>
       <c r="G94" t="n">
-        <v>0.01910860572001872</v>
+        <v>0.04719223257569358</v>
       </c>
       <c r="J94" t="n">
-        <v>0.01668688716195056</v>
+        <v>0.02027180463635361</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02241044133603902</v>
+        <v>0.04737373122065002</v>
       </c>
       <c r="L94" t="n">
-        <v>0.03993782731732545</v>
+        <v>0.04752620092142174</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02227712209886525</v>
+        <v>0.04738877454159358</v>
       </c>
       <c r="N94" t="n">
-        <v>0.06342836432498417</v>
+        <v>0.07473020894598525</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02220772509928576</v>
+        <v>0.04748582822510043</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.03775015125238292</v>
+        <v>0.02256593040689234</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01976752315864006</v>
+        <v>0.04881955094037267</v>
       </c>
       <c r="J95" t="n">
-        <v>0.01695307822231812</v>
+        <v>0.02027815746402468</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02318321517521278</v>
+        <v>0.04900730815929313</v>
       </c>
       <c r="L95" t="n">
-        <v>0.04011379098127563</v>
+        <v>0.04767829860434369</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02304529872296405</v>
+        <v>0.04902287021544164</v>
       </c>
       <c r="N95" t="n">
-        <v>0.06417987084169813</v>
+        <v>0.07495552354006813</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02297350872339907</v>
+        <v>0.0491232705776901</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.03827793385796573</v>
+        <v>0.02164347043619702</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02042644059726139</v>
+        <v>0.05044686930505176</v>
       </c>
       <c r="J96" t="n">
-        <v>0.01721081752954777</v>
+        <v>0.02046161621216434</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02395598901438654</v>
+        <v>0.05064088509793623</v>
       </c>
       <c r="L96" t="n">
-        <v>0.04087166811696119</v>
+        <v>0.04787691227467569</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02381347534706285</v>
+        <v>0.0506569658892897</v>
       </c>
       <c r="N96" t="n">
-        <v>0.06510192430485889</v>
+        <v>0.07559840724277378</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02373929234751237</v>
+        <v>0.05076071293027977</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.03877834113250633</v>
+        <v>0.02370952772806099</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02108535803588273</v>
+        <v>0.05207418766973085</v>
       </c>
       <c r="J97" t="n">
-        <v>0.01735998623596639</v>
+        <v>0.02052057492336085</v>
       </c>
       <c r="K97" t="n">
-        <v>0.0247287628535603</v>
+        <v>0.05227446203657934</v>
       </c>
       <c r="L97" t="n">
-        <v>0.04151121011950051</v>
+        <v>0.0483182748018017</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02458165197116165</v>
+        <v>0.05229106156313775</v>
       </c>
       <c r="N97" t="n">
-        <v>0.06639438254261176</v>
+        <v>0.07545289679138378</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02450507597162567</v>
+        <v>0.05239815528286944</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.03925230265422401</v>
+        <v>0.02370949320638785</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02174427547450407</v>
+        <v>0.05370150603440994</v>
       </c>
       <c r="J98" t="n">
-        <v>0.01760046549390087</v>
+        <v>0.0206600363102151</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02550153669273406</v>
+        <v>0.05390803897522244</v>
       </c>
       <c r="L98" t="n">
-        <v>0.04203216838401189</v>
+        <v>0.04841657629430426</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02534982859526046</v>
+        <v>0.05392515723698581</v>
       </c>
       <c r="N98" t="n">
-        <v>0.0666571033831021</v>
+        <v>0.0761731162783934</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02527085959573897</v>
+        <v>0.05403559763545911</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.03970074800133813</v>
+        <v>0.02270234813966136</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0224031929131254</v>
+        <v>0.05532882439908902</v>
       </c>
       <c r="J99" t="n">
-        <v>0.01793213645567805</v>
+        <v>0.02065932562232896</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02627431053190782</v>
+        <v>0.05554161591386555</v>
       </c>
       <c r="L99" t="n">
-        <v>0.04253429430561362</v>
+        <v>0.04821541276110755</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02611800521935926</v>
+        <v>0.05555925291083386</v>
       </c>
       <c r="N99" t="n">
-        <v>0.0673899446544749</v>
+        <v>0.07577284037544313</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02603664321985228</v>
+        <v>0.05567303998804878</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.04012460675206805</v>
+        <v>0.02168002240519888</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02306211035174674</v>
+        <v>0.05695614276376811</v>
       </c>
       <c r="J100" t="n">
-        <v>0.0182548802736248</v>
+        <v>0.02054809059981266</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02704708437108157</v>
+        <v>0.05717519285250865</v>
       </c>
       <c r="L100" t="n">
-        <v>0.04301733927942403</v>
+        <v>0.04799072213359432</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02688618184345806</v>
+        <v>0.05719334858468192</v>
       </c>
       <c r="N100" t="n">
-        <v>0.06829276418487568</v>
+        <v>0.07545101140855942</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02680242684396558</v>
+        <v>0.05731048234063844</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.04052480848463311</v>
+        <v>0.0236434937687037</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02372102779036807</v>
+        <v>0.05858346112844721</v>
       </c>
       <c r="J101" t="n">
-        <v>0.01836857810006802</v>
+        <v>0.0206238522571433</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02781985821025533</v>
+        <v>0.05880876979115175</v>
       </c>
       <c r="L101" t="n">
-        <v>0.04328105470056143</v>
+        <v>0.04823543564560759</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02765435846755686</v>
+        <v>0.05882744425852997</v>
       </c>
       <c r="N101" t="n">
-        <v>0.06866541980244961</v>
+        <v>0.07547965529778716</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02756821046807888</v>
+        <v>0.05894792469322812</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.04090228277725262</v>
+        <v>0.02359372242425173</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02437994522898941</v>
+        <v>0.0602107794931263</v>
       </c>
       <c r="J102" t="n">
-        <v>0.01867311108733455</v>
+        <v>0.02048745698019004</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02859263204942909</v>
+        <v>0.06044234672979485</v>
       </c>
       <c r="L102" t="n">
-        <v>0.04372519196414415</v>
+        <v>0.04785153868361994</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02842253509165566</v>
+        <v>0.06046153993237803</v>
       </c>
       <c r="N102" t="n">
-        <v>0.06940776933534204</v>
+        <v>0.07576205515189294</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02833399409219218</v>
+        <v>0.0605853670458178</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.04125795920814596</v>
+        <v>0.02253166856591889</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02503886266761074</v>
+        <v>0.06183809785780538</v>
       </c>
       <c r="J103" t="n">
-        <v>0.01866836038775126</v>
+        <v>0.02053975115482212</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02936540588860286</v>
+        <v>0.06207592366843797</v>
       </c>
       <c r="L103" t="n">
-        <v>0.04414950246529056</v>
+        <v>0.04814101663410422</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02919071171575446</v>
+        <v>0.06209563560622609</v>
       </c>
       <c r="N103" t="n">
-        <v>0.07011967061169805</v>
+        <v>0.07570135378230014</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02909977771630548</v>
+        <v>0.06222280939840746</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.04159276735553244</v>
+        <v>0.02345829238778109</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02569778010623208</v>
+        <v>0.06346541622248447</v>
       </c>
       <c r="J104" t="n">
-        <v>0.01905420715364503</v>
+        <v>0.02048158116690874</v>
       </c>
       <c r="K104" t="n">
-        <v>0.03013817972777661</v>
+        <v>0.06370950060708107</v>
       </c>
       <c r="L104" t="n">
-        <v>0.04445373759911886</v>
+        <v>0.04760585488353306</v>
       </c>
       <c r="M104" t="n">
-        <v>0.02995888833985327</v>
+        <v>0.06372973128007414</v>
       </c>
       <c r="N104" t="n">
-        <v>0.07110098145966309</v>
+        <v>0.07510069400043246</v>
       </c>
       <c r="O104" t="n">
-        <v>0.02986556134041879</v>
+        <v>0.06386025175099713</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.04190763679763143</v>
+        <v>0.02337455408391427</v>
       </c>
       <c r="G105" t="n">
-        <v>0.02635669754485341</v>
+        <v>0.06509273458716357</v>
       </c>
       <c r="J105" t="n">
-        <v>0.01923053253734275</v>
+        <v>0.02031379340231909</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03091095356695037</v>
+        <v>0.06534307754572417</v>
       </c>
       <c r="L105" t="n">
-        <v>0.04523764876074754</v>
+        <v>0.0474480388183792</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03072706496395207</v>
+        <v>0.06536382695392219</v>
       </c>
       <c r="N105" t="n">
-        <v>0.07145155970738237</v>
+        <v>0.07536321861771333</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03063134496453209</v>
+        <v>0.06549769410358679</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.04220349711266223</v>
+        <v>0.02228141384839437</v>
       </c>
       <c r="G106" t="n">
-        <v>0.02701561498347475</v>
+        <v>0.06672005295184265</v>
       </c>
       <c r="J106" t="n">
-        <v>0.01919721769117125</v>
+        <v>0.02033723424692241</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03168372740612413</v>
+        <v>0.06697665448436728</v>
       </c>
       <c r="L106" t="n">
-        <v>0.04540098734529477</v>
+        <v>0.04756955382511535</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03149524158805087</v>
+        <v>0.06699792262777024</v>
       </c>
       <c r="N106" t="n">
-        <v>0.07217126318300121</v>
+        <v>0.07499207044556655</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03139712858864539</v>
+        <v>0.06713513645617647</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.04248127787884425</v>
+        <v>0.02317983187529729</v>
       </c>
       <c r="G107" t="n">
-        <v>0.02767453242209608</v>
+        <v>0.06834737131652173</v>
       </c>
       <c r="J107" t="n">
-        <v>0.01955414376745743</v>
+        <v>0.0201527500865879</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03245650124529788</v>
+        <v>0.06861023142301038</v>
       </c>
       <c r="L107" t="n">
-        <v>0.04574350474787889</v>
+        <v>0.04727238529021413</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03226341821214967</v>
+        <v>0.06863201830161829</v>
       </c>
       <c r="N107" t="n">
-        <v>0.07195994971466474</v>
+        <v>0.07459039229541548</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03216291221275869</v>
+        <v>0.06877257880876614</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.04274190867439677</v>
+        <v>0.02307076835869898</v>
       </c>
       <c r="G108" t="n">
-        <v>0.02833344986071742</v>
+        <v>0.06997468968120084</v>
       </c>
       <c r="J108" t="n">
-        <v>0.01970119191852815</v>
+        <v>0.01996118730718476</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03322927508447165</v>
+        <v>0.07024380836165349</v>
       </c>
       <c r="L108" t="n">
-        <v>0.04606495236361829</v>
+        <v>0.04715851860014839</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03303159483624847</v>
+        <v>0.07026611397546635</v>
       </c>
       <c r="N108" t="n">
-        <v>0.07251747713051832</v>
+        <v>0.07446132697868374</v>
       </c>
       <c r="O108" t="n">
-        <v>0.032928695836872</v>
+        <v>0.07041002116135581</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.04298631907753914</v>
+        <v>0.02195518349267533</v>
       </c>
       <c r="G109" t="n">
-        <v>0.02899236729933876</v>
+        <v>0.07160200804587992</v>
       </c>
       <c r="J109" t="n">
-        <v>0.01963824329671027</v>
+        <v>0.02006339229458223</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03400204892364541</v>
+        <v>0.07187738530029658</v>
       </c>
       <c r="L109" t="n">
-        <v>0.04646508158763127</v>
+        <v>0.04692993914139068</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03379977146034727</v>
+        <v>0.0719002096493144</v>
       </c>
       <c r="N109" t="n">
-        <v>0.07304370325870729</v>
+        <v>0.07390801730679492</v>
       </c>
       <c r="O109" t="n">
-        <v>0.0336944794609853</v>
+        <v>0.07204746351394548</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.04321543866649072</v>
+        <v>0.0218340374713023</v>
       </c>
       <c r="G110" t="n">
-        <v>0.02965128473796009</v>
+        <v>0.073229326410559</v>
       </c>
       <c r="J110" t="n">
-        <v>0.01976517905433067</v>
+        <v>0.01976021143464948</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03477482276281917</v>
+        <v>0.0735109622389397</v>
       </c>
       <c r="L110" t="n">
-        <v>0.0467436438150361</v>
+        <v>0.04638863230041379</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03456794808444608</v>
+        <v>0.07353430532316246</v>
       </c>
       <c r="N110" t="n">
-        <v>0.07373848592737681</v>
+        <v>0.0734336060911725</v>
       </c>
       <c r="O110" t="n">
-        <v>0.0344602630850986</v>
+        <v>0.07368490586653514</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.0434303971728878</v>
+        <v>0.0207082904886558</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03031020217658142</v>
+        <v>0.0748566447752381</v>
       </c>
       <c r="J111" t="n">
-        <v>0.01988188034371623</v>
+        <v>0.01975249111325576</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03554759660199293</v>
+        <v>0.07514453917758279</v>
       </c>
       <c r="L111" t="n">
-        <v>0.04710039044095113</v>
+        <v>0.04653658346369044</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03533612470854488</v>
+        <v>0.07516840099701051</v>
       </c>
       <c r="N111" t="n">
-        <v>0.07420168296467211</v>
+        <v>0.07334123614324023</v>
       </c>
       <c r="O111" t="n">
-        <v>0.0352260467092119</v>
+        <v>0.07532234821912481</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.04363954268625836</v>
+        <v>0.02157890273881176</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03096911961520276</v>
+        <v>0.07648396313991719</v>
       </c>
       <c r="J112" t="n">
-        <v>0.02008822831719378</v>
+        <v>0.01974107771627026</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03632037044116668</v>
+        <v>0.0767781161162259</v>
       </c>
       <c r="L112" t="n">
-        <v>0.04693507286049467</v>
+        <v>0.04627577801769328</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03610430133264368</v>
+        <v>0.07680249667085857</v>
       </c>
       <c r="N112" t="n">
-        <v>0.07403315219873857</v>
+        <v>0.07243405027442151</v>
       </c>
       <c r="O112" t="n">
-        <v>0.0359918303333252</v>
+        <v>0.0769597905717145</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.04384681957668712</v>
+        <v>0.02144683441584612</v>
       </c>
       <c r="G113" t="n">
-        <v>0.0316280370538241</v>
+        <v>0.07811128150459627</v>
       </c>
       <c r="J113" t="n">
-        <v>0.02008410412709025</v>
+        <v>0.01962681762956218</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03709314428034044</v>
+        <v>0.07841169305486902</v>
       </c>
       <c r="L113" t="n">
-        <v>0.04734744246878506</v>
+        <v>0.04600820134889505</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03687247795674248</v>
+        <v>0.07843659234470662</v>
       </c>
       <c r="N113" t="n">
-        <v>0.07453275145772142</v>
+        <v>0.07181519129614</v>
       </c>
       <c r="O113" t="n">
-        <v>0.0367576139574385</v>
+        <v>0.07859723292430415</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.04405214570179294</v>
+        <v>0.02131304571383476</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03228695449244543</v>
+        <v>0.07973859986927537</v>
       </c>
       <c r="J114" t="n">
-        <v>0.02016938892573246</v>
+        <v>0.01951055723900075</v>
       </c>
       <c r="K114" t="n">
-        <v>0.0378659181195142</v>
+        <v>0.08004526999351211</v>
       </c>
       <c r="L114" t="n">
-        <v>0.04743725066094057</v>
+        <v>0.04573583884376844</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03764065458084128</v>
+        <v>0.08007068801855469</v>
       </c>
       <c r="N114" t="n">
-        <v>0.07450033856976596</v>
+        <v>0.07178780201981916</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03752339758155181</v>
+        <v>0.08023467527689383</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.04425543891919466</v>
+        <v>0.02117849682685365</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03294587193106677</v>
+        <v>0.08136591823395445</v>
       </c>
       <c r="J115" t="n">
-        <v>0.02024396386544731</v>
+        <v>0.01919314293045517</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03863869195868797</v>
+        <v>0.08167884693215521</v>
       </c>
       <c r="L115" t="n">
-        <v>0.04790424883207961</v>
+        <v>0.04546067588878619</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03840883120494008</v>
+        <v>0.08170478369240274</v>
       </c>
       <c r="N115" t="n">
-        <v>0.07473577136301734</v>
+        <v>0.07095502525688263</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03828918120566511</v>
+        <v>0.08187211762948349</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.04445661708651109</v>
+        <v>0.02004414794897869</v>
       </c>
       <c r="G116" t="n">
-        <v>0.0336047893696881</v>
+        <v>0.08299323659863354</v>
       </c>
       <c r="J116" t="n">
-        <v>0.02030771009856169</v>
+        <v>0.01917542108979466</v>
       </c>
       <c r="K116" t="n">
-        <v>0.03941146579786172</v>
+        <v>0.08331242387079832</v>
       </c>
       <c r="L116" t="n">
-        <v>0.0479481883773204</v>
+        <v>0.04518469787042098</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03917700782903889</v>
+        <v>0.0833388793662508</v>
       </c>
       <c r="N116" t="n">
-        <v>0.07523890766562097</v>
+        <v>0.07052000381875406</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03905496482977842</v>
+        <v>0.08350955998207317</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.04465559806136112</v>
+        <v>0.01991095927428581</v>
       </c>
       <c r="G117" t="n">
-        <v>0.03426370680830944</v>
+        <v>0.08462055496331262</v>
       </c>
       <c r="J117" t="n">
-        <v>0.02036050877740239</v>
+        <v>0.01895823810288842</v>
       </c>
       <c r="K117" t="n">
-        <v>0.04018423963703548</v>
+        <v>0.08494600080944142</v>
       </c>
       <c r="L117" t="n">
-        <v>0.04786882069178131</v>
+        <v>0.04450989017514545</v>
       </c>
       <c r="M117" t="n">
-        <v>0.03994518445313769</v>
+        <v>0.08497297504009885</v>
       </c>
       <c r="N117" t="n">
-        <v>0.07530960530572212</v>
+        <v>0.07038588051685685</v>
       </c>
       <c r="O117" t="n">
-        <v>0.03982074845389171</v>
+        <v>0.08514700233466284</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.04485229970136356</v>
+        <v>0.02077528132574187</v>
       </c>
       <c r="G118" t="n">
-        <v>0.03492262424693077</v>
+        <v>0.08624787332799172</v>
       </c>
       <c r="J118" t="n">
-        <v>0.02050224105429636</v>
+        <v>0.01884240954073681</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04095701347620924</v>
+        <v>0.08657957774808453</v>
       </c>
       <c r="L118" t="n">
-        <v>0.04826589717058064</v>
+        <v>0.04433823699092929</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04071336107723649</v>
+        <v>0.08660707071394691</v>
       </c>
       <c r="N118" t="n">
-        <v>0.07544772211146589</v>
+        <v>0.07005579816261459</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04058653207800502</v>
+        <v>0.08678444468725251</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.04504663986413726</v>
+        <v>0.02062105281848825</v>
       </c>
       <c r="G119" t="n">
-        <v>0.03558154168555211</v>
+        <v>0.08787519169267081</v>
       </c>
       <c r="J119" t="n">
-        <v>0.02063278808157043</v>
+        <v>0.01891715584163252</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04172978731538299</v>
+        <v>0.08821315468672764</v>
       </c>
       <c r="L119" t="n">
-        <v>0.04803916920883675</v>
+        <v>0.04404657916893212</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04148153770133529</v>
+        <v>0.08824116638779496</v>
       </c>
       <c r="N119" t="n">
-        <v>0.07555311591099767</v>
+        <v>0.06951305565965182</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04135231570211832</v>
+        <v>0.08842188703984218</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.04523853640730109</v>
+        <v>0.02044954092931152</v>
       </c>
       <c r="G120" t="n">
-        <v>0.03624045912417345</v>
+        <v>0.0895025100573499</v>
       </c>
       <c r="J120" t="n">
-        <v>0.0206600363102151</v>
+        <v>0.01867519373195686</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04250256115455676</v>
+        <v>0.08984673162537073</v>
       </c>
       <c r="L120" t="n">
-        <v>0.04841657629430426</v>
+        <v>0.043715442744507</v>
       </c>
       <c r="M120" t="n">
-        <v>0.0422497143254341</v>
+        <v>0.08987526206164302</v>
       </c>
       <c r="N120" t="n">
-        <v>0.07612564453246273</v>
+        <v>0.06870837460401896</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04211809932623162</v>
+        <v>0.09005932939243184</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.04542790718847386</v>
+        <v>0.01926387408528805</v>
       </c>
       <c r="G121" t="n">
-        <v>0.03689937656279478</v>
+        <v>0.09112982842202899</v>
       </c>
       <c r="J121" t="n">
-        <v>0.02055985099656639</v>
+        <v>0.01851928083804473</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04327533499373052</v>
+        <v>0.09148030856401385</v>
       </c>
       <c r="L121" t="n">
-        <v>0.04841330554419243</v>
+        <v>0.04365129634410558</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04301789094953289</v>
+        <v>0.09150935773549106</v>
       </c>
       <c r="N121" t="n">
-        <v>0.0761731162783934</v>
+        <v>0.06834853280475783</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04288388295034493</v>
+        <v>0.09169677174502151</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.04561467006527445</v>
+        <v>0.02006718071349427</v>
       </c>
       <c r="G122" t="n">
-        <v>0.03755829400141612</v>
+        <v>0.09275714678670807</v>
       </c>
       <c r="J122" t="n">
-        <v>0.02045543291382694</v>
+        <v>0.0184521747862309</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04404810883290428</v>
+        <v>0.09311388550265694</v>
       </c>
       <c r="L122" t="n">
-        <v>0.0484129538841824</v>
+        <v>0.04326060859417963</v>
       </c>
       <c r="M122" t="n">
-        <v>0.0437860675736317</v>
+        <v>0.09314345340933912</v>
       </c>
       <c r="N122" t="n">
-        <v>0.07567096091858266</v>
+        <v>0.06794376991716305</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04364966657445823</v>
+        <v>0.09333421409761118</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.04579874289532165</v>
+        <v>0.01986258924100651</v>
       </c>
       <c r="G123" t="n">
-        <v>0.03821721144003744</v>
+        <v>0.09438446515138717</v>
       </c>
       <c r="J123" t="n">
-        <v>0.02053773005929109</v>
+        <v>0.01817663320285018</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04482088267207804</v>
+        <v>0.09474746244130004</v>
       </c>
       <c r="L123" t="n">
-        <v>0.04798307796250945</v>
+        <v>0.04254984812118079</v>
       </c>
       <c r="M123" t="n">
-        <v>0.0445542441977305</v>
+        <v>0.09477754908318717</v>
       </c>
       <c r="N123" t="n">
-        <v>0.07573481848629104</v>
+        <v>0.06710432559652935</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04441545019857153</v>
+        <v>0.09497165645020085</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.04598004353623437</v>
+        <v>0.01965322809490117</v>
       </c>
       <c r="G124" t="n">
-        <v>0.03887612887865879</v>
+        <v>0.09601178351606626</v>
       </c>
       <c r="J124" t="n">
-        <v>0.02050732686153497</v>
+        <v>0.01789541371423739</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04559365651125179</v>
+        <v>0.09638103937994316</v>
       </c>
       <c r="L124" t="n">
-        <v>0.04792412793658427</v>
+        <v>0.04232548355156077</v>
       </c>
       <c r="M124" t="n">
-        <v>0.0453224208218293</v>
+        <v>0.09641164475703523</v>
       </c>
       <c r="N124" t="n">
-        <v>0.07595560914816624</v>
+        <v>0.06684043949815127</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04518123382268483</v>
+        <v>0.09660909880279052</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.0461584898456314</v>
+        <v>0.01944222570225462</v>
       </c>
       <c r="G125" t="n">
-        <v>0.03953504631728012</v>
+        <v>0.09763910188074534</v>
       </c>
       <c r="J125" t="n">
-        <v>0.02036484484404917</v>
+        <v>0.01791127394672737</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04636643035042556</v>
+        <v>0.09801461631858625</v>
       </c>
       <c r="L125" t="n">
-        <v>0.04823743627022786</v>
+        <v>0.0418939835117712</v>
       </c>
       <c r="M125" t="n">
-        <v>0.0460905974459281</v>
+        <v>0.09804574043088328</v>
       </c>
       <c r="N125" t="n">
-        <v>0.07593527818258639</v>
+        <v>0.06626235127732349</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04594701744679813</v>
+        <v>0.0982465411553802</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.0463339996811316</v>
+        <v>0.01923271049014323</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04019396375590146</v>
+        <v>0.09926642024542442</v>
       </c>
       <c r="J126" t="n">
-        <v>0.02031090553032422</v>
+        <v>0.01762697152665488</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04713920418959931</v>
+        <v>0.09964819325722936</v>
       </c>
       <c r="L126" t="n">
-        <v>0.04772433542726112</v>
+        <v>0.04156181662826383</v>
       </c>
       <c r="M126" t="n">
-        <v>0.0468587740700269</v>
+        <v>0.09967983610473134</v>
       </c>
       <c r="N126" t="n">
-        <v>0.0751757708679297</v>
+        <v>0.0652803005893407</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04671280107091143</v>
+        <v>0.09988398350796986</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.04650649090035383</v>
+        <v>0.01902781088564341</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04085288119452279</v>
+        <v>0.1008937386101035</v>
       </c>
       <c r="J127" t="n">
-        <v>0.02024613044385065</v>
+        <v>0.01754526408035476</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04791197802877308</v>
+        <v>0.1012817701958725</v>
       </c>
       <c r="L127" t="n">
-        <v>0.04798615787150504</v>
+        <v>0.04113545152749035</v>
       </c>
       <c r="M127" t="n">
-        <v>0.0476269506941257</v>
+        <v>0.1013139317785794</v>
       </c>
       <c r="N127" t="n">
-        <v>0.0750790324825743</v>
+        <v>0.06420452708949753</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04747858469502474</v>
+        <v>0.1015214258605595</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.04667588136091691</v>
+        <v>0.0178306553158315</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04151179863314412</v>
+        <v>0.1025210569747826</v>
       </c>
       <c r="J128" t="n">
-        <v>0.02017114110811906</v>
+        <v>0.01726890923416183</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04868475186794683</v>
+        <v>0.1029153471345156</v>
       </c>
       <c r="L128" t="n">
-        <v>0.04772423606678058</v>
+        <v>0.04042135683590239</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04839512731822451</v>
+        <v>0.1029480274524274</v>
       </c>
       <c r="N128" t="n">
-        <v>0.07464700830489851</v>
+        <v>0.06404527043308861</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04824436831913804</v>
+        <v>0.1031588682131492</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.0468420889204397</v>
+        <v>0.01964028807224499</v>
       </c>
       <c r="G129" t="n">
-        <v>0.04217071607176546</v>
+        <v>0.1041483753394617</v>
       </c>
       <c r="J129" t="n">
-        <v>0.02028655904661995</v>
+        <v>0.01710066461441087</v>
       </c>
       <c r="K129" t="n">
-        <v>0.04945752570712059</v>
+        <v>0.1045489240731587</v>
       </c>
       <c r="L129" t="n">
-        <v>0.04743990247690863</v>
+        <v>0.04002600117995173</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04916330394232331</v>
+        <v>0.1045821231262755</v>
       </c>
       <c r="N129" t="n">
-        <v>0.07468164361328028</v>
+        <v>0.06341277027540854</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04901015194325134</v>
+        <v>0.1047963105657389</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.04700503143654103</v>
+        <v>0.01943445519137887</v>
       </c>
       <c r="G130" t="n">
-        <v>0.0428296335103868</v>
+        <v>0.1057756937041408</v>
       </c>
       <c r="J130" t="n">
-        <v>0.02009300578284388</v>
+        <v>0.01682919577107828</v>
       </c>
       <c r="K130" t="n">
-        <v>0.05023029954629435</v>
+        <v>0.1061825010118018</v>
       </c>
       <c r="L130" t="n">
-        <v>0.04733448956571024</v>
+        <v>0.03972565291775454</v>
       </c>
       <c r="M130" t="n">
-        <v>0.0499314805664221</v>
+        <v>0.1062162188001236</v>
       </c>
       <c r="N130" t="n">
-        <v>0.07448488368609801</v>
+        <v>0.06289368831644471</v>
       </c>
       <c r="O130" t="n">
-        <v>0.04977593556736465</v>
+        <v>0.1064337529183285</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.04716462676683976</v>
+        <v>0.0172130249027552</v>
       </c>
       <c r="G131" t="n">
-        <v>0.04348855094900814</v>
+        <v>0.1074030120688199</v>
       </c>
       <c r="J131" t="n">
-        <v>0.02009110284028143</v>
+        <v>0.01674202051013388</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05100307338546811</v>
+        <v>0.1078160779504449</v>
       </c>
       <c r="L131" t="n">
-        <v>0.04680932979700628</v>
+        <v>0.03948824527457856</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05069965719052091</v>
+        <v>0.1078503144739716</v>
       </c>
       <c r="N131" t="n">
-        <v>0.07375867380172973</v>
+        <v>0.06171872588248323</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05054171919147794</v>
+        <v>0.1080711952709182</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.04732079276895475</v>
+        <v>0.01898047555065029</v>
       </c>
       <c r="G132" t="n">
-        <v>0.04414746838762947</v>
+        <v>0.109030330433499</v>
       </c>
       <c r="J132" t="n">
-        <v>0.01988147174242311</v>
+        <v>0.01654307016353876</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05177584722464187</v>
+        <v>0.109449654889088</v>
       </c>
       <c r="L132" t="n">
-        <v>0.04656575563461776</v>
+        <v>0.03862283436292976</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05146783381461971</v>
+        <v>0.1094844101478197</v>
       </c>
       <c r="N132" t="n">
-        <v>0.07390495923855367</v>
+        <v>0.06099554113198191</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05130750281559125</v>
+        <v>0.1097086376235079</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.0474734473005048</v>
+        <v>0.01774128547934045</v>
       </c>
       <c r="G133" t="n">
-        <v>0.0448063858262508</v>
+        <v>0.110657648798178</v>
       </c>
       <c r="J133" t="n">
-        <v>0.01976473401275947</v>
+        <v>0.01643629227419911</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05254862106381563</v>
+        <v>0.1110832318277311</v>
       </c>
       <c r="L133" t="n">
-        <v>0.04630509954236564</v>
+        <v>0.03853868002346883</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05223601043871852</v>
+        <v>0.1111185058216677</v>
       </c>
       <c r="N133" t="n">
-        <v>0.07322568527494794</v>
+        <v>0.06053879213449476</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05207328643970455</v>
+        <v>0.1113460799760976</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.04762250821910877</v>
+        <v>0.01849993303310202</v>
       </c>
       <c r="G134" t="n">
-        <v>0.04546530326487214</v>
+        <v>0.1122849671628571</v>
       </c>
       <c r="J134" t="n">
-        <v>0.01964151117478108</v>
+        <v>0.016125634385021</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05332139490298939</v>
+        <v>0.1127168087663742</v>
       </c>
       <c r="L134" t="n">
-        <v>0.04642869398407082</v>
+        <v>0.03794504209685631</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05300418706281731</v>
+        <v>0.1127526014955158</v>
       </c>
       <c r="N134" t="n">
-        <v>0.07332279718929074</v>
+        <v>0.05976313695957586</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05283907006381786</v>
+        <v>0.1129835223286872</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.0477678933823855</v>
+        <v>0.01626089655621128</v>
       </c>
       <c r="G135" t="n">
-        <v>0.04612422070349348</v>
+        <v>0.1139122855275362</v>
       </c>
       <c r="J135" t="n">
-        <v>0.01951242475197847</v>
+        <v>0.01581504403891061</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05409416874216315</v>
+        <v>0.1143503857050173</v>
       </c>
       <c r="L135" t="n">
-        <v>0.04573787142355429</v>
+        <v>0.03735118042375274</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05377236368691612</v>
+        <v>0.1143866971693638</v>
       </c>
       <c r="N135" t="n">
-        <v>0.07269824025996036</v>
+        <v>0.0585832336767792</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05360485368793115</v>
+        <v>0.1146209646812769</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.04790952064795387</v>
+        <v>0.01702865439294456</v>
       </c>
       <c r="G136" t="n">
-        <v>0.04678313814211481</v>
+        <v>0.1155396038922153</v>
       </c>
       <c r="J136" t="n">
-        <v>0.01927809626784222</v>
+        <v>0.01570846877877406</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05486694258133691</v>
+        <v>0.1159839626436604</v>
       </c>
       <c r="L136" t="n">
-        <v>0.04573396432463703</v>
+        <v>0.03686635484481873</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05454054031101492</v>
+        <v>0.1160207928432119</v>
       </c>
       <c r="N136" t="n">
-        <v>0.07215395976533479</v>
+        <v>0.05841374035565877</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05437063731204445</v>
+        <v>0.1162584070338666</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.04804730787343268</v>
+        <v>0.01680768488757818</v>
       </c>
       <c r="G137" t="n">
-        <v>0.04744205558073614</v>
+        <v>0.1171669222568944</v>
       </c>
       <c r="J137" t="n">
-        <v>0.01923914724586286</v>
+        <v>0.0155098561475175</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05563971642051067</v>
+        <v>0.1176175395823035</v>
       </c>
       <c r="L137" t="n">
-        <v>0.04551830515113994</v>
+        <v>0.03659982520071489</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05530871693511372</v>
+        <v>0.1176548885170599</v>
       </c>
       <c r="N137" t="n">
-        <v>0.07169190098379236</v>
+        <v>0.0577693150657686</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05513642093615776</v>
+        <v>0.1178958493864562</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.04818117291644079</v>
+        <v>0.01660246638438843</v>
       </c>
       <c r="G138" t="n">
-        <v>0.04810097301935748</v>
+        <v>0.1187942406215735</v>
       </c>
       <c r="J138" t="n">
-        <v>0.0191961992095309</v>
+        <v>0.01542315368804703</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05641249025968443</v>
+        <v>0.1192511165209466</v>
       </c>
       <c r="L138" t="n">
-        <v>0.04479222636688399</v>
+        <v>0.03596085133210183</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05607689355921252</v>
+        <v>0.119288984190908</v>
       </c>
       <c r="N138" t="n">
-        <v>0.07101400919371115</v>
+        <v>0.05636461587666258</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05590220456027106</v>
+        <v>0.1195332917390459</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.04831103363459704</v>
+        <v>0.01641747722765163</v>
       </c>
       <c r="G139" t="n">
-        <v>0.04875989045797881</v>
+        <v>0.1204215589862526</v>
       </c>
       <c r="J139" t="n">
-        <v>0.01904987368233696</v>
+        <v>0.0152523089432688</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05718526409885818</v>
+        <v>0.1208846934595897</v>
       </c>
       <c r="L139" t="n">
-        <v>0.04465706043569012</v>
+        <v>0.03555869307964007</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05684507018331133</v>
+        <v>0.1209230798647561</v>
       </c>
       <c r="N139" t="n">
-        <v>0.07032222967346946</v>
+        <v>0.05591430085789484</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05666798818438436</v>
+        <v>0.1211707340916356</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.04843680788552028</v>
+        <v>0.01625719576164411</v>
       </c>
       <c r="G140" t="n">
-        <v>0.04941880789660015</v>
+        <v>0.1220488773509317</v>
       </c>
       <c r="J140" t="n">
-        <v>0.01880079218777153</v>
+        <v>0.01500126945608897</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05795803793803195</v>
+        <v>0.1225182703982328</v>
       </c>
       <c r="L140" t="n">
-        <v>0.04451413982137936</v>
+        <v>0.03520261028399022</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05761324680741013</v>
+        <v>0.1225571755386041</v>
       </c>
       <c r="N140" t="n">
-        <v>0.0705185077014453</v>
+        <v>0.05513302807901932</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05743377180849767</v>
+        <v>0.1228081764442252</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.04855841352682935</v>
+        <v>0.01712610033064216</v>
       </c>
       <c r="G141" t="n">
-        <v>0.05007772533522149</v>
+        <v>0.1236761957156108</v>
       </c>
       <c r="J141" t="n">
-        <v>0.0187495762493252</v>
+        <v>0.01497398276941363</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05873081177720571</v>
+        <v>0.1241518473368759</v>
       </c>
       <c r="L141" t="n">
-        <v>0.0438647969877726</v>
+        <v>0.03490186278581289</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05838142343150893</v>
+        <v>0.1241912712124522</v>
       </c>
       <c r="N141" t="n">
-        <v>0.06960478855601693</v>
+        <v>0.05523545560959009</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05819955543261096</v>
+        <v>0.1244456187968149</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.04867576841614311</v>
+        <v>0.01502866927892211</v>
       </c>
       <c r="G142" t="n">
-        <v>0.05073664277384282</v>
+        <v>0.1253035140802898</v>
       </c>
       <c r="J142" t="n">
-        <v>0.0183968473904885</v>
+        <v>0.01467439642614894</v>
       </c>
       <c r="K142" t="n">
-        <v>0.05950358561637946</v>
+        <v>0.125785424275519</v>
       </c>
       <c r="L142" t="n">
-        <v>0.04361036439869079</v>
+        <v>0.03456571042576867</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05914960005560773</v>
+        <v>0.1258253668863002</v>
       </c>
       <c r="N142" t="n">
-        <v>0.06928301751556254</v>
+        <v>0.05453624151916103</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05896533905672427</v>
+        <v>0.1260830611494046</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.04878879041108038</v>
+        <v>0.01596938095076027</v>
       </c>
       <c r="G143" t="n">
-        <v>0.05139556021246416</v>
+        <v>0.1269308324449689</v>
       </c>
       <c r="J143" t="n">
-        <v>0.01824322713475196</v>
+        <v>0.01480645796920103</v>
       </c>
       <c r="K143" t="n">
-        <v>0.06027635945555323</v>
+        <v>0.1274190012141621</v>
       </c>
       <c r="L143" t="n">
-        <v>0.04345217451795491</v>
+        <v>0.03430341304451806</v>
       </c>
       <c r="M143" t="n">
-        <v>0.05991777667970653</v>
+        <v>0.1274594625601483</v>
       </c>
       <c r="N143" t="n">
-        <v>0.06855513985846023</v>
+        <v>0.05445004387728641</v>
       </c>
       <c r="O143" t="n">
-        <v>0.05973112268083757</v>
+        <v>0.1277205035019943</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.04889739736926001</v>
+        <v>0.01595237048357502</v>
       </c>
       <c r="G144" t="n">
-        <v>0.05205447765108549</v>
+        <v>0.1285581508096481</v>
       </c>
       <c r="J144" t="n">
-        <v>0.01808933700560617</v>
+        <v>0.01467411494147604</v>
       </c>
       <c r="K144" t="n">
-        <v>0.06104913329472698</v>
+        <v>0.1290525781528052</v>
       </c>
       <c r="L144" t="n">
-        <v>0.04269155980938588</v>
+        <v>0.03442423048272172</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06068595330380533</v>
+        <v>0.1290935582339963</v>
       </c>
       <c r="N144" t="n">
-        <v>0.0681231008630882</v>
+        <v>0.05449152075351993</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06049690630495088</v>
+        <v>0.1293579458545839</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.04900150714830084</v>
+        <v>0.0169565715859799</v>
       </c>
       <c r="G145" t="n">
-        <v>0.05271339508970683</v>
+        <v>0.1301854691743271</v>
       </c>
       <c r="J145" t="n">
-        <v>0.01813579852654165</v>
+        <v>0.01477325148949286</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06182190713390074</v>
+        <v>0.1306861550914483</v>
       </c>
       <c r="L145" t="n">
-        <v>0.04262985273680472</v>
+        <v>0.03462062002891203</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06145412992790413</v>
+        <v>0.1307276539078444</v>
       </c>
       <c r="N145" t="n">
-        <v>0.06738884580782478</v>
+        <v>0.05446543127827819</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06126268992906418</v>
+        <v>0.1309953882071736</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.04910103760582173</v>
+        <v>0.0159671828815583</v>
       </c>
       <c r="G146" t="n">
-        <v>0.05337231252832816</v>
+        <v>0.1318127875390062</v>
       </c>
       <c r="J146" t="n">
-        <v>0.01778323322104895</v>
+        <v>0.01468001368951879</v>
       </c>
       <c r="K146" t="n">
-        <v>0.0625946809730745</v>
+        <v>0.1323197320300914</v>
       </c>
       <c r="L146" t="n">
-        <v>0.04226838576403233</v>
+        <v>0.03423597631153846</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06222230655200294</v>
+        <v>0.1323617495816924</v>
       </c>
       <c r="N146" t="n">
-        <v>0.06665431997104798</v>
+        <v>0.053784560350087</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06202847355317748</v>
+        <v>0.1326328305597633</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.04919590659944151</v>
+        <v>0.01598387530320409</v>
       </c>
       <c r="G147" t="n">
-        <v>0.05403122996694949</v>
+        <v>0.1334401059036853</v>
       </c>
       <c r="J147" t="n">
-        <v>0.01763226261261862</v>
+        <v>0.01459224683878757</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06336745481224826</v>
+        <v>0.1339533089687346</v>
       </c>
       <c r="L147" t="n">
-        <v>0.04200849135488965</v>
+        <v>0.03426418733676401</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06299048317610173</v>
+        <v>0.1339958452555405</v>
       </c>
       <c r="N147" t="n">
-        <v>0.06662146863113594</v>
+        <v>0.05412425629228601</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06279425717729077</v>
+        <v>0.1342702729123529</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.04928603198677906</v>
+        <v>0.01500631978381118</v>
       </c>
       <c r="G148" t="n">
-        <v>0.05469014740557084</v>
+        <v>0.1350674242683644</v>
       </c>
       <c r="J148" t="n">
-        <v>0.01758350822474124</v>
+        <v>0.01470966087328439</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06414022865142202</v>
+        <v>0.1355868859073777</v>
       </c>
       <c r="L148" t="n">
-        <v>0.0416515019731977</v>
+        <v>0.03440457269486996</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06375865980020054</v>
+        <v>0.1356299409293885</v>
       </c>
       <c r="N148" t="n">
-        <v>0.06559223706646694</v>
+        <v>0.05418344203526382</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06356004080140408</v>
+        <v>0.1359077152649426</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.04937133162545314</v>
+        <v>0.01703418725627346</v>
       </c>
       <c r="G149" t="n">
-        <v>0.05534906484419216</v>
+        <v>0.1366947426330435</v>
       </c>
       <c r="J149" t="n">
-        <v>0.01753759158090731</v>
+        <v>0.0146319657289945</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06491300249059577</v>
+        <v>0.1372204628460208</v>
       </c>
       <c r="L149" t="n">
-        <v>0.04129875008277739</v>
+        <v>0.03435645197613768</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06452683642429935</v>
+        <v>0.1372640366032366</v>
       </c>
       <c r="N149" t="n">
-        <v>0.06536857055541906</v>
+        <v>0.0544610405094092</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06432582442551739</v>
+        <v>0.1375451576175323</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.04945172337308266</v>
+        <v>0.01506714865348482</v>
       </c>
       <c r="G150" t="n">
-        <v>0.05600798228281351</v>
+        <v>0.1383220609977226</v>
       </c>
       <c r="J150" t="n">
-        <v>0.01739513420460741</v>
+        <v>0.01475887134190308</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06568577632976953</v>
+        <v>0.1388540397846639</v>
       </c>
       <c r="L150" t="n">
-        <v>0.04065156814744969</v>
+        <v>0.03471914477084848</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06529501304839813</v>
+        <v>0.1388981322770847</v>
       </c>
       <c r="N150" t="n">
-        <v>0.06465241437637059</v>
+        <v>0.05445597464511059</v>
       </c>
       <c r="O150" t="n">
-        <v>0.0650916080496307</v>
+        <v>0.1391825999701219</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.04952712508728646</v>
+        <v>0.01710487490833917</v>
       </c>
       <c r="G151" t="n">
-        <v>0.05666689972143484</v>
+        <v>0.1399493793624017</v>
       </c>
       <c r="J151" t="n">
-        <v>0.01705675761933206</v>
+        <v>0.01489008764799539</v>
       </c>
       <c r="K151" t="n">
-        <v>0.0664585501689433</v>
+        <v>0.140487616723307</v>
       </c>
       <c r="L151" t="n">
-        <v>0.04041128863103552</v>
+        <v>0.03459197066928366</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06606318967249694</v>
+        <v>0.1405322279509327</v>
       </c>
       <c r="N151" t="n">
-        <v>0.06404571380769974</v>
+        <v>0.05476716737275683</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06585739167374399</v>
+        <v>0.1408200423227116</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.04959745462568339</v>
+        <v>0.01614703695373038</v>
       </c>
       <c r="G152" t="n">
-        <v>0.05732581716005617</v>
+        <v>0.1415766977270808</v>
       </c>
       <c r="J152" t="n">
-        <v>0.01702308334857185</v>
+        <v>0.01472532458325664</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06723132400811706</v>
+        <v>0.1421211936619501</v>
       </c>
       <c r="L152" t="n">
-        <v>0.04017924399735587</v>
+        <v>0.03497424926172454</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06683136629659575</v>
+        <v>0.1421663236247808</v>
       </c>
       <c r="N152" t="n">
-        <v>0.06425041412778448</v>
+        <v>0.0549935416227364</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06662317529785729</v>
+        <v>0.1424574846753013</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.04966262984589226</v>
+        <v>0.01519330572255237</v>
       </c>
       <c r="G153" t="n">
-        <v>0.05798473459867751</v>
+        <v>0.1432040160917598</v>
       </c>
       <c r="J153" t="n">
-        <v>0.01689473291581729</v>
+        <v>0.01496429208367203</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06800409784729082</v>
+        <v>0.1437547706005932</v>
       </c>
       <c r="L153" t="n">
-        <v>0.03985676671023169</v>
+        <v>0.03496530013845248</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06759954292069455</v>
+        <v>0.1438004192986288</v>
       </c>
       <c r="N153" t="n">
-        <v>0.06306846061500315</v>
+        <v>0.054734020325438</v>
       </c>
       <c r="O153" t="n">
-        <v>0.0673889589219706</v>
+        <v>0.144094927027891</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.04972256860553194</v>
+        <v>0.01524335214769901</v>
       </c>
       <c r="G154" t="n">
-        <v>0.05864365203729884</v>
+        <v>0.1448313344564389</v>
       </c>
       <c r="J154" t="n">
-        <v>0.01667232784455895</v>
+        <v>0.0148067000852268</v>
       </c>
       <c r="K154" t="n">
-        <v>0.06877687168646457</v>
+        <v>0.1453883475392363</v>
       </c>
       <c r="L154" t="n">
-        <v>0.03954518923348396</v>
+        <v>0.03516444288974879</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06836771954479334</v>
+        <v>0.1454345149724769</v>
       </c>
       <c r="N154" t="n">
-        <v>0.06300179854773386</v>
+        <v>0.05488752641125033</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06815474254608389</v>
+        <v>0.1457323693804806</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.04977718876222124</v>
+        <v>0.01729684716206423</v>
       </c>
       <c r="G155" t="n">
-        <v>0.05930256947592018</v>
+        <v>0.146458652821118</v>
       </c>
       <c r="J155" t="n">
-        <v>0.01665648965828738</v>
+        <v>0.01505225852390617</v>
       </c>
       <c r="K155" t="n">
-        <v>0.06954964552563833</v>
+        <v>0.1470219244778794</v>
       </c>
       <c r="L155" t="n">
-        <v>0.03894584403093354</v>
+        <v>0.0351709971058948</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06913589616889215</v>
+        <v>0.1470686106463249</v>
       </c>
       <c r="N155" t="n">
-        <v>0.06275237320435484</v>
+        <v>0.05515298281056191</v>
       </c>
       <c r="O155" t="n">
-        <v>0.0689205261701972</v>
+        <v>0.1473698117330703</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.04982640817357906</v>
+        <v>0.01735353176836307</v>
       </c>
       <c r="G156" t="n">
-        <v>0.05996148691454152</v>
+        <v>0.1480859711857971</v>
       </c>
       <c r="J156" t="n">
-        <v>0.01644783988049313</v>
+        <v>0.01490067733569535</v>
       </c>
       <c r="K156" t="n">
-        <v>0.07032241936481209</v>
+        <v>0.1486555014165225</v>
       </c>
       <c r="L156" t="n">
-        <v>0.03866006356640148</v>
+        <v>0.03528428237717182</v>
       </c>
       <c r="M156" t="n">
-        <v>0.06990407279299096</v>
+        <v>0.148702706320173</v>
       </c>
       <c r="N156" t="n">
-        <v>0.06192212986324419</v>
+        <v>0.05532931245376144</v>
       </c>
       <c r="O156" t="n">
-        <v>0.06968630979431051</v>
+        <v>0.14900725408566</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.04987014469722419</v>
+        <v>0.01744349102271074</v>
       </c>
       <c r="G157" t="n">
-        <v>0.06062040435316285</v>
+        <v>0.1497132895504762</v>
       </c>
       <c r="J157" t="n">
-        <v>0.01644700003466673</v>
+        <v>0.01516175208744948</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07109519320398586</v>
+        <v>0.1502890783551656</v>
       </c>
       <c r="L157" t="n">
-        <v>0.0385891803037087</v>
+        <v>0.03552483207321103</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07067224941708976</v>
+        <v>0.150336801994021</v>
       </c>
       <c r="N157" t="n">
-        <v>0.06131301380278015</v>
+        <v>0.05582906927933212</v>
       </c>
       <c r="O157" t="n">
-        <v>0.0704520934184238</v>
+        <v>0.1506446964382496</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.0499083161907755</v>
+        <v>0.01658487940257438</v>
       </c>
       <c r="G158" t="n">
-        <v>0.06127932179178419</v>
+        <v>0.1513406079151553</v>
       </c>
       <c r="J158" t="n">
-        <v>0.01645232101329347</v>
+        <v>0.01506805071741817</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07186796704315961</v>
+        <v>0.1519226552938087</v>
       </c>
       <c r="L158" t="n">
-        <v>0.03833097764586987</v>
+        <v>0.03557049092177419</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07144042604118855</v>
+        <v>0.1519708976678691</v>
       </c>
       <c r="N158" t="n">
-        <v>0.06142146603306808</v>
+        <v>0.05617955938837227</v>
       </c>
       <c r="O158" t="n">
-        <v>0.0712178770425371</v>
+        <v>0.1522821387908393</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.04994084051185185</v>
+        <v>0.01776776316625245</v>
       </c>
       <c r="G159" t="n">
-        <v>0.06193823923040552</v>
+        <v>0.1529679262798344</v>
       </c>
       <c r="J159" t="n">
-        <v>0.01616015985744504</v>
+        <v>0.01541434232197413</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07264074088233337</v>
+        <v>0.1535562322324518</v>
       </c>
       <c r="L159" t="n">
-        <v>0.03797981013259816</v>
+        <v>0.03581062356602507</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07220860266528736</v>
+        <v>0.1536049933417171</v>
       </c>
       <c r="N159" t="n">
-        <v>0.06103822040760692</v>
+        <v>0.05608633733425183</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07198366066665041</v>
+        <v>0.153919581143429</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.04996763551807204</v>
+        <v>0.01698220857204338</v>
       </c>
       <c r="G160" t="n">
-        <v>0.06259715666902685</v>
+        <v>0.1545952446445135</v>
       </c>
       <c r="J160" t="n">
-        <v>0.01627030244256396</v>
+        <v>0.01559187056860563</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07341351472150713</v>
+        <v>0.1551898091710949</v>
       </c>
       <c r="L160" t="n">
-        <v>0.03763500245932799</v>
+        <v>0.03632469007878428</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07297677928938616</v>
+        <v>0.1552390890155652</v>
       </c>
       <c r="N160" t="n">
-        <v>0.0603623853062118</v>
+        <v>0.05721688898500421</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07274944429076372</v>
+        <v>0.1555570234960186</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.04998861906705496</v>
+        <v>0.01621828187824563</v>
       </c>
       <c r="G161" t="n">
-        <v>0.06325607410764819</v>
+        <v>0.1562225630091925</v>
       </c>
       <c r="J161" t="n">
-        <v>0.01598259279228331</v>
+        <v>0.01559187912480092</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07418628856068088</v>
+        <v>0.156823386109738</v>
       </c>
       <c r="L161" t="n">
-        <v>0.03739596064568623</v>
+        <v>0.03699215053287247</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07374495591348496</v>
+        <v>0.1568731846894132</v>
       </c>
       <c r="N161" t="n">
-        <v>0.06009324125579957</v>
+        <v>0.05733870020866244</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07351522791487701</v>
+        <v>0.1571944658486083</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.05000370901641943</v>
+        <v>0.01646604934315764</v>
       </c>
       <c r="G162" t="n">
-        <v>0.06391499154626952</v>
+        <v>0.1578498813738716</v>
       </c>
       <c r="J162" t="n">
-        <v>0.01589687493023616</v>
+        <v>0.01590561165804832</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07495906239985466</v>
+        <v>0.1584569630483811</v>
       </c>
       <c r="L162" t="n">
-        <v>0.03716209071129983</v>
+        <v>0.03739246500111013</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07451313253758376</v>
+        <v>0.1585072803632613</v>
       </c>
       <c r="N162" t="n">
-        <v>0.05993006878328705</v>
+        <v>0.05841925687325972</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07428101153899032</v>
+        <v>0.158831908201198</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.05001282322378428</v>
+        <v>0.0187155772250779</v>
       </c>
       <c r="G163" t="n">
-        <v>0.06457390898489086</v>
+        <v>0.1594771997385507</v>
       </c>
       <c r="J163" t="n">
-        <v>0.01581299288005562</v>
+        <v>0.0161243118358361</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07573183623902841</v>
+        <v>0.1600905399870242</v>
       </c>
       <c r="L163" t="n">
-        <v>0.03723279867579571</v>
+        <v>0.03800509355631798</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07528130916168256</v>
+        <v>0.1601413760371094</v>
       </c>
       <c r="N163" t="n">
-        <v>0.0592721484155907</v>
+        <v>0.05952604484682933</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07504679516310361</v>
+        <v>0.1604693505537877</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.05001587954676838</v>
+        <v>0.0189569317823048</v>
       </c>
       <c r="G164" t="n">
-        <v>0.06523282642351221</v>
+        <v>0.1611045181032298</v>
       </c>
       <c r="J164" t="n">
-        <v>0.01573079066537476</v>
+        <v>0.01623922332565257</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07650461007820217</v>
+        <v>0.1617241169256673</v>
       </c>
       <c r="L164" t="n">
-        <v>0.03680749055880067</v>
+        <v>0.03820949627131656</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07604948578578137</v>
+        <v>0.1617754717109574</v>
       </c>
       <c r="N164" t="n">
-        <v>0.05891876067962742</v>
+        <v>0.06022654999740429</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07581257878721692</v>
+        <v>0.1621067929063773</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.05001587954676838</v>
+        <v>0.01718017927313682</v>
       </c>
       <c r="G165" t="n">
-        <v>0.06523282642351221</v>
+        <v>0.1627318364679089</v>
       </c>
       <c r="J165" t="n">
-        <v>0.01565011230982669</v>
+        <v>0.01644158979498599</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07727738391737593</v>
+        <v>0.1633576938643104</v>
       </c>
       <c r="L165" t="n">
-        <v>0.03678557237994165</v>
+        <v>0.0385851332189264</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07681766240988017</v>
+        <v>0.1634095673848055</v>
       </c>
       <c r="N165" t="n">
-        <v>0.05886918610231395</v>
+        <v>0.06118825819301799</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07657836241133022</v>
+        <v>0.163744235258967</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.04915040038377649</v>
+        <v>0.01837538595587242</v>
       </c>
       <c r="G166" t="n">
-        <v>0.06523255789504818</v>
+        <v>0.164359154832588</v>
       </c>
       <c r="J166" t="n">
-        <v>0.01557080183704448</v>
+        <v>0.01662265491132466</v>
       </c>
       <c r="K166" t="n">
-        <v>0.07805015775654968</v>
+        <v>0.1649912708029535</v>
       </c>
       <c r="L166" t="n">
-        <v>0.0363664501588456</v>
+        <v>0.03921146447196824</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07758583903397896</v>
+        <v>0.1650436630586535</v>
       </c>
       <c r="N166" t="n">
-        <v>0.05812270521056701</v>
+        <v>0.06187865530170339</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07734414603544353</v>
+        <v>0.1653816776115567</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.04829477137711827</v>
+        <v>0.01755053384241202</v>
       </c>
       <c r="G167" t="n">
-        <v>0.06523228936658416</v>
+        <v>0.1659864731972671</v>
       </c>
       <c r="J167" t="n">
-        <v>0.01559270327066126</v>
+        <v>0.01697948956282694</v>
       </c>
       <c r="K167" t="n">
-        <v>0.07882293159572344</v>
+        <v>0.1666248477415966</v>
       </c>
       <c r="L167" t="n">
-        <v>0.03624952991513936</v>
+        <v>0.03978022742583848</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07835401565807777</v>
+        <v>0.1666777587325016</v>
       </c>
       <c r="N167" t="n">
-        <v>0.05767859853130319</v>
+        <v>0.06227341704901052</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07810992965955683</v>
+        <v>0.1670191199641463</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.04744949331528352</v>
+        <v>0.01872133465760992</v>
       </c>
       <c r="G168" t="n">
-        <v>0.06523202083812014</v>
+        <v>0.1676137915619462</v>
       </c>
       <c r="J168" t="n">
-        <v>0.01551566063431005</v>
+        <v>0.01703027274669394</v>
       </c>
       <c r="K168" t="n">
-        <v>0.0795957054348972</v>
+        <v>0.1682584246802397</v>
       </c>
       <c r="L168" t="n">
-        <v>0.0359342176684499</v>
+        <v>0.03983397019892218</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07912219228217658</v>
+        <v>0.1683118544063496</v>
       </c>
       <c r="N168" t="n">
-        <v>0.05783614659143937</v>
+        <v>0.06303388273013644</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07887571328367012</v>
+        <v>0.168656562316736</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.04661506698687219</v>
+        <v>0.01788810660765043</v>
       </c>
       <c r="G169" t="n">
-        <v>0.06523175230965612</v>
+        <v>0.1692411099266252</v>
       </c>
       <c r="J169" t="n">
-        <v>0.01543951795162402</v>
+        <v>0.01707741603226014</v>
       </c>
       <c r="K169" t="n">
-        <v>0.08036847927407097</v>
+        <v>0.1698920016188828</v>
       </c>
       <c r="L169" t="n">
-        <v>0.03581991943840404</v>
+        <v>0.0404791576336975</v>
       </c>
       <c r="M169" t="n">
-        <v>0.07989036890627538</v>
+        <v>0.1699459500801977</v>
       </c>
       <c r="N169" t="n">
-        <v>0.05699462991789223</v>
+        <v>0.06338063084964096</v>
       </c>
       <c r="O169" t="n">
-        <v>0.07964149690778342</v>
+        <v>0.1702940046693257</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.04579199318037365</v>
+        <v>0.02005116482071873</v>
       </c>
       <c r="G170" t="n">
-        <v>0.06523148378119212</v>
+        <v>0.1708684282913044</v>
       </c>
       <c r="J170" t="n">
-        <v>0.01536411924623621</v>
+        <v>0.01722119719674742</v>
       </c>
       <c r="K170" t="n">
-        <v>0.08114125311324473</v>
+        <v>0.171525578557526</v>
       </c>
       <c r="L170" t="n">
-        <v>0.03580604124462874</v>
+        <v>0.04051644131847523</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08065854553037417</v>
+        <v>0.1715800457540457</v>
       </c>
       <c r="N170" t="n">
-        <v>0.05715332903757847</v>
+        <v>0.06341469285365059</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08040728053189673</v>
+        <v>0.1719314470219153</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.04498077268431423</v>
+        <v>0.01821082442500001</v>
       </c>
       <c r="G171" t="n">
-        <v>0.0652312152527281</v>
+        <v>0.1724957466559834</v>
       </c>
       <c r="J171" t="n">
-        <v>0.01528930854177975</v>
+        <v>0.01736189401737777</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08191402695241848</v>
+        <v>0.1731591554961691</v>
       </c>
       <c r="L171" t="n">
-        <v>0.03529198910675091</v>
+        <v>0.04094647284156633</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08142672215447298</v>
+        <v>0.1732141414278938</v>
       </c>
       <c r="N171" t="n">
-        <v>0.05701152447741481</v>
+        <v>0.06433710018829181</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08117306415601004</v>
+        <v>0.173568889374505</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.04418190628718585</v>
+        <v>0.01936740054867944</v>
       </c>
       <c r="G172" t="n">
-        <v>0.06523094672426408</v>
+        <v>0.1741230650206625</v>
       </c>
       <c r="J172" t="n">
-        <v>0.01521492986188767</v>
+        <v>0.0174997842713731</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08268680079159224</v>
+        <v>0.1747927324348122</v>
       </c>
       <c r="L172" t="n">
-        <v>0.03517716904439741</v>
+        <v>0.04146990379128157</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08219489877857178</v>
+        <v>0.1748482371017419</v>
       </c>
       <c r="N172" t="n">
-        <v>0.056268496764318</v>
+        <v>0.06444888429969114</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08193884778012334</v>
+        <v>0.1752063317270947</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.04339589477758439</v>
+        <v>0.01952120831994225</v>
       </c>
       <c r="G173" t="n">
-        <v>0.06523067819580006</v>
+        <v>0.1757503833853416</v>
       </c>
       <c r="J173" t="n">
-        <v>0.01504082723019309</v>
+        <v>0.01783514573595534</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08345957463076599</v>
+        <v>0.1764263093734553</v>
       </c>
       <c r="L173" t="n">
-        <v>0.03516098707719514</v>
+        <v>0.04168738575593192</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08296307540267057</v>
+        <v>0.1764823327755899</v>
       </c>
       <c r="N173" t="n">
-        <v>0.05632352642520488</v>
+        <v>0.06505107663397502</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08270463140423664</v>
+        <v>0.1768437740796844</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.0426232389440012</v>
+        <v>0.01967256286697358</v>
       </c>
       <c r="G174" t="n">
-        <v>0.06523040966733605</v>
+        <v>0.1773777017500207</v>
       </c>
       <c r="J174" t="n">
-        <v>0.01506684467032914</v>
+        <v>0.01796825618834644</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08423234846993977</v>
+        <v>0.1780598863120983</v>
       </c>
       <c r="L174" t="n">
-        <v>0.03464284922477109</v>
+        <v>0.04169957032382807</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08373125202676938</v>
+        <v>0.178116428449438</v>
       </c>
       <c r="N174" t="n">
-        <v>0.05597589398699199</v>
+        <v>0.06614470863727001</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08347041502834994</v>
+        <v>0.178481216432274</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.04186443957496261</v>
+        <v>0.01882177931795864</v>
       </c>
       <c r="G175" t="n">
-        <v>0.06523014113887203</v>
+        <v>0.1790050201146998</v>
       </c>
       <c r="J175" t="n">
-        <v>0.01489282620592886</v>
+        <v>0.01809939340576834</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08500512230911351</v>
+        <v>0.1796934632507415</v>
       </c>
       <c r="L175" t="n">
-        <v>0.03432216150675202</v>
+        <v>0.04210710908328114</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08449942865086819</v>
+        <v>0.179750524123286</v>
       </c>
       <c r="N175" t="n">
-        <v>0.05532487997659608</v>
+        <v>0.06633081175570249</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08423619865246323</v>
+        <v>0.1801186587848637</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.04111999745896294</v>
+        <v>0.02096917280108261</v>
       </c>
       <c r="G176" t="n">
-        <v>0.06522987261040801</v>
+        <v>0.1806323384793789</v>
       </c>
       <c r="J176" t="n">
-        <v>0.01501861586062535</v>
+        <v>0.01802883516544299</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08577789614828728</v>
+        <v>0.1813270401893846</v>
       </c>
       <c r="L176" t="n">
-        <v>0.03409832994276496</v>
+        <v>0.04231065362260178</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08526760527496698</v>
+        <v>0.1813846197971341</v>
       </c>
       <c r="N176" t="n">
-        <v>0.05466976492093412</v>
+        <v>0.06671041743539907</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08500198227657654</v>
+        <v>0.1817561011374534</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.04039041338459336</v>
+        <v>0.0211150584445307</v>
       </c>
       <c r="G177" t="n">
-        <v>0.06522960408194399</v>
+        <v>0.182259656844058</v>
       </c>
       <c r="J177" t="n">
-        <v>0.01484405765805172</v>
+        <v>0.01825685924459229</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08655066998746104</v>
+        <v>0.1829606171280277</v>
       </c>
       <c r="L177" t="n">
-        <v>0.03427076055243672</v>
+        <v>0.04301085553010095</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08603578189906579</v>
+        <v>0.1830187154709821</v>
       </c>
       <c r="N177" t="n">
-        <v>0.0549098293469224</v>
+        <v>0.06748455712248624</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08576776590068985</v>
+        <v>0.183393543490043</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.03967618814034751</v>
+        <v>0.01926249835134833</v>
       </c>
       <c r="G178" t="n">
-        <v>0.06522933555347998</v>
+        <v>0.1838869752087371</v>
       </c>
       <c r="J178" t="n">
-        <v>0.01466899562184104</v>
+        <v>0.01838435341012871</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08732344382663479</v>
+        <v>0.1845941940666708</v>
       </c>
       <c r="L178" t="n">
-        <v>0.03383885935539427</v>
+        <v>0.04310956712535818</v>
       </c>
       <c r="M178" t="n">
-        <v>0.0868039585231646</v>
+        <v>0.1846528111448302</v>
       </c>
       <c r="N178" t="n">
-        <v>0.05404435378147804</v>
+        <v>0.06735456983530119</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08653354952480315</v>
+        <v>0.1850309858426327</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.03897782251475178</v>
+        <v>0.02041858751429923</v>
       </c>
       <c r="G179" t="n">
-        <v>0.06522906702501596</v>
+        <v>0.1855142935734161</v>
       </c>
       <c r="J179" t="n">
-        <v>0.0145932737756264</v>
+        <v>0.01851866501882156</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08809621766580855</v>
+        <v>0.1862277710053139</v>
       </c>
       <c r="L179" t="n">
-        <v>0.03380203237126447</v>
+        <v>0.04362393879499141</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08757213514726339</v>
+        <v>0.1862869068186782</v>
       </c>
       <c r="N179" t="n">
-        <v>0.05417261875151763</v>
+        <v>0.06844492256093143</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08729933314891646</v>
+        <v>0.1866684281952224</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.03829581729630319</v>
+        <v>0.02157880892288119</v>
       </c>
       <c r="G180" t="n">
-        <v>0.06522879849655194</v>
+        <v>0.1871416119380952</v>
       </c>
       <c r="J180" t="n">
-        <v>0.01471673614304092</v>
+        <v>0.01855815906303603</v>
       </c>
       <c r="K180" t="n">
-        <v>0.08886899150498231</v>
+        <v>0.187861347943957</v>
       </c>
       <c r="L180" t="n">
-        <v>0.0331596856196742</v>
+        <v>0.04395076518409238</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08834031177136219</v>
+        <v>0.1879210024925263</v>
       </c>
       <c r="N180" t="n">
-        <v>0.05379390478395785</v>
+        <v>0.06885802863091228</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08806511677302975</v>
+        <v>0.188305870547812</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.03763067327358749</v>
+        <v>0.02173774923067322</v>
       </c>
       <c r="G181" t="n">
-        <v>0.06522852996808792</v>
+        <v>0.1887689303027743</v>
       </c>
       <c r="J181" t="n">
-        <v>0.01463922674771764</v>
+        <v>0.01889806382002281</v>
       </c>
       <c r="K181" t="n">
-        <v>0.08964176534415608</v>
+        <v>0.1894949248826001</v>
       </c>
       <c r="L181" t="n">
-        <v>0.03321122512025046</v>
+        <v>0.04387885315470519</v>
       </c>
       <c r="M181" t="n">
-        <v>0.089108488395461</v>
+        <v>0.1895550981663743</v>
       </c>
       <c r="N181" t="n">
-        <v>0.05290749240571541</v>
+        <v>0.06897616961998143</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08883090039714306</v>
+        <v>0.1899433129004017</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.03698289123510101</v>
+        <v>0.01988999509125432</v>
       </c>
       <c r="G182" t="n">
-        <v>0.0652282614396239</v>
+        <v>0.1903962486674534</v>
       </c>
       <c r="J182" t="n">
-        <v>0.0145605896132897</v>
+        <v>0.01893360756703251</v>
       </c>
       <c r="K182" t="n">
-        <v>0.09041453918332984</v>
+        <v>0.1911285018212432</v>
       </c>
       <c r="L182" t="n">
-        <v>0.03265605689262002</v>
+        <v>0.04449700956887381</v>
       </c>
       <c r="M182" t="n">
-        <v>0.08987666501955979</v>
+        <v>0.1911891938402224</v>
       </c>
       <c r="N182" t="n">
-        <v>0.05251266214370715</v>
+        <v>0.06958162710287641</v>
       </c>
       <c r="O182" t="n">
-        <v>0.08959668402125635</v>
+        <v>0.1915807552529914</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.03635297196937012</v>
+        <v>0.02103013315820347</v>
       </c>
       <c r="G183" t="n">
-        <v>0.0652279929111599</v>
+        <v>0.1920235670321325</v>
       </c>
       <c r="J183" t="n">
-        <v>0.01428066876339015</v>
+        <v>0.01906001858131579</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09118731302250359</v>
+        <v>0.1927620787598863</v>
       </c>
       <c r="L183" t="n">
-        <v>0.03249358695640991</v>
+        <v>0.04459404128864233</v>
       </c>
       <c r="M183" t="n">
-        <v>0.0906448416436586</v>
+        <v>0.1928232895140705</v>
       </c>
       <c r="N183" t="n">
-        <v>0.05190869452484981</v>
+        <v>0.06995668265433486</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09036246764536966</v>
+        <v>0.193218197605581</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.03574141626489498</v>
+        <v>0.02115275008509968</v>
       </c>
       <c r="G184" t="n">
-        <v>0.06522772438269586</v>
+        <v>0.1936508853968116</v>
       </c>
       <c r="J184" t="n">
-        <v>0.01439930822165214</v>
+        <v>0.01907252514012332</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09196008686167735</v>
+        <v>0.1943956556985294</v>
       </c>
       <c r="L184" t="n">
-        <v>0.03222322133124694</v>
+        <v>0.0450587551760547</v>
       </c>
       <c r="M184" t="n">
-        <v>0.0914130182677574</v>
+        <v>0.1944573851879185</v>
       </c>
       <c r="N184" t="n">
-        <v>0.05199487007605996</v>
+        <v>0.07098361784909446</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09112825126948297</v>
+        <v>0.1948556399581707</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.03514872491025517</v>
+        <v>0.02225243252552192</v>
       </c>
       <c r="G185" t="n">
-        <v>0.06522745585423186</v>
+        <v>0.1952782037614907</v>
       </c>
       <c r="J185" t="n">
-        <v>0.01421635201170869</v>
+        <v>0.01936635552070576</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09273286070085111</v>
+        <v>0.1960292326371725</v>
       </c>
       <c r="L185" t="n">
-        <v>0.03194436603675802</v>
+        <v>0.04537995809315504</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09218119489185619</v>
+        <v>0.1960914808617666</v>
       </c>
       <c r="N185" t="n">
-        <v>0.05177046932425439</v>
+        <v>0.07124471426189272</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09189403489359627</v>
+        <v>0.1964930823107604</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.03457539869395007</v>
+        <v>0.02132394383688879</v>
       </c>
       <c r="G186" t="n">
-        <v>0.06522718732576784</v>
+        <v>0.1969055221261698</v>
       </c>
       <c r="J186" t="n">
-        <v>0.01423164415719291</v>
+        <v>0.01923673800031372</v>
       </c>
       <c r="K186" t="n">
-        <v>0.09350563454002488</v>
+        <v>0.1976628095758156</v>
       </c>
       <c r="L186" t="n">
-        <v>0.03155642709257006</v>
+        <v>0.04544645690198737</v>
       </c>
       <c r="M186" t="n">
-        <v>0.092949371515955</v>
+        <v>0.1977255765356146</v>
       </c>
       <c r="N186" t="n">
-        <v>0.05093477279634989</v>
+        <v>0.07152225346746732</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09265981851770956</v>
+        <v>0.1981305246633501</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.03402193840450604</v>
+        <v>0.0223820583560093</v>
       </c>
       <c r="G187" t="n">
-        <v>0.06522691879730383</v>
+        <v>0.1985328404908488</v>
       </c>
       <c r="J187" t="n">
-        <v>0.01404502868173793</v>
+        <v>0.01948842153202997</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09427840837919862</v>
+        <v>0.1992963865144587</v>
       </c>
       <c r="L187" t="n">
-        <v>0.03125881051831003</v>
+        <v>0.04526800856696753</v>
       </c>
       <c r="M187" t="n">
-        <v>0.0937175481400538</v>
+        <v>0.1993596722094627</v>
       </c>
       <c r="N187" t="n">
-        <v>0.05038706101926316</v>
+        <v>0.07181933045047473</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09342560214182287</v>
+        <v>0.1997679670159397</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.03348884483042669</v>
+        <v>0.02243891522538914</v>
       </c>
       <c r="G188" t="n">
-        <v>0.06522665026883979</v>
+        <v>0.200160158855528</v>
       </c>
       <c r="J188" t="n">
-        <v>0.01405634960897681</v>
+        <v>0.0193384815528662</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09505118221837239</v>
+        <v>0.2009299634531018</v>
       </c>
       <c r="L188" t="n">
-        <v>0.03125092233360477</v>
+        <v>0.0454854240286986</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09448572476415261</v>
+        <v>0.2009937678833107</v>
       </c>
       <c r="N188" t="n">
-        <v>0.04992661451991087</v>
+        <v>0.07170507753731686</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09419138576593618</v>
+        <v>0.2014054093685294</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.03297661876028478</v>
+        <v>0.020494494523181</v>
       </c>
       <c r="G189" t="n">
-        <v>0.06522638174037579</v>
+        <v>0.201787477220207</v>
       </c>
       <c r="J189" t="n">
-        <v>0.01386545096254262</v>
+        <v>0.01938742485553639</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09582395605754615</v>
+        <v>0.2025635403917449</v>
       </c>
       <c r="L189" t="n">
-        <v>0.03073216855808117</v>
+        <v>0.04550022180472188</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09525390138825141</v>
+        <v>0.2026278635571588</v>
       </c>
       <c r="N189" t="n">
-        <v>0.0496527138252098</v>
+        <v>0.071486699498433</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09495716939004947</v>
+        <v>0.2030428517211191</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.03248371609610057</v>
+        <v>0.02154877632753752</v>
       </c>
       <c r="G190" t="n">
-        <v>0.06522611321191177</v>
+        <v>0.2034147955848861</v>
       </c>
       <c r="J190" t="n">
-        <v>0.01367217676606849</v>
+        <v>0.01953523387945505</v>
       </c>
       <c r="K190" t="n">
-        <v>0.0965967298967199</v>
+        <v>0.204197117330388</v>
       </c>
       <c r="L190" t="n">
-        <v>0.03040195521136616</v>
+        <v>0.04561236070277513</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09602207801235021</v>
+        <v>0.2042619592310068</v>
       </c>
       <c r="N190" t="n">
-        <v>0.04896463946207669</v>
+        <v>0.07236413112762036</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09572295301416278</v>
+        <v>0.2046802940737087</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.03199836830750431</v>
+        <v>0.02060174071661132</v>
       </c>
       <c r="G191" t="n">
-        <v>0.06522584468344776</v>
+        <v>0.2050421139495652</v>
       </c>
       <c r="J191" t="n">
-        <v>0.01377637104318749</v>
+        <v>0.0196818910640368</v>
       </c>
       <c r="K191" t="n">
-        <v>0.09736950373589366</v>
+        <v>0.2058306942690311</v>
       </c>
       <c r="L191" t="n">
-        <v>0.03005968831308661</v>
+        <v>0.04602179953059604</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09679025463644901</v>
+        <v>0.2058960549048549</v>
       </c>
       <c r="N191" t="n">
-        <v>0.04866167195742821</v>
+        <v>0.07193730721867658</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09648873663827608</v>
+        <v>0.2063177364262984</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.03151903129651878</v>
+        <v>0.02165336776855509</v>
       </c>
       <c r="G192" t="n">
-        <v>0.06522557615498373</v>
+        <v>0.2066694323142443</v>
       </c>
       <c r="J192" t="n">
-        <v>0.01367787781753271</v>
+        <v>0.0197273788486962</v>
       </c>
       <c r="K192" t="n">
-        <v>0.09814227757506742</v>
+        <v>0.2074642712076742</v>
       </c>
       <c r="L192" t="n">
-        <v>0.02960477388286942</v>
+        <v>0.04612849709592223</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09755843126054781</v>
+        <v>0.207530150578703</v>
       </c>
       <c r="N192" t="n">
-        <v>0.04814309183818111</v>
+        <v>0.07270616256539886</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09725452026238939</v>
+        <v>0.2079551787788881</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.0310462058517121</v>
+        <v>0.02070363756152149</v>
       </c>
       <c r="G193" t="n">
-        <v>0.06522530762651972</v>
+        <v>0.2082967506789234</v>
       </c>
       <c r="J193" t="n">
-        <v>0.0135762136354997</v>
+        <v>0.01957167967284787</v>
       </c>
       <c r="K193" t="n">
-        <v>0.09891505141424119</v>
+        <v>0.2090978481463173</v>
       </c>
       <c r="L193" t="n">
-        <v>0.02931346061553611</v>
+        <v>0.04603241220649149</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09832660788464662</v>
+        <v>0.209164246252551</v>
       </c>
       <c r="N193" t="n">
-        <v>0.04789227193277751</v>
+        <v>0.0726706319615848</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09802030388650268</v>
+        <v>0.2095926211314778</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.03058039276158965</v>
+        <v>0.02275253017366315</v>
       </c>
       <c r="G194" t="n">
-        <v>0.0652250390980557</v>
+        <v>0.2099240690436025</v>
       </c>
       <c r="J194" t="n">
-        <v>0.0132710125197552</v>
+        <v>0.01961477597590637</v>
       </c>
       <c r="K194" t="n">
-        <v>0.09968782525341495</v>
+        <v>0.2107314250849605</v>
       </c>
       <c r="L194" t="n">
-        <v>0.02915908765737804</v>
+        <v>0.04643350367004148</v>
       </c>
       <c r="M194" t="n">
-        <v>0.09909478450874543</v>
+        <v>0.2107983419263991</v>
       </c>
       <c r="N194" t="n">
-        <v>0.04669134835533356</v>
+        <v>0.07283065020103174</v>
       </c>
       <c r="O194" t="n">
-        <v>0.09878608751061599</v>
+        <v>0.2112300634840674</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.03012209281467776</v>
+        <v>0.02280002568313272</v>
       </c>
       <c r="G195" t="n">
-        <v>0.06522477056959168</v>
+        <v>0.2115513874082816</v>
       </c>
       <c r="J195" t="n">
-        <v>0.01326244295294927</v>
+        <v>0.01965665019728632</v>
       </c>
       <c r="K195" t="n">
-        <v>0.1004605990925887</v>
+        <v>0.2123650020236036</v>
       </c>
       <c r="L195" t="n">
-        <v>0.02834560834725477</v>
+        <v>0.0463317302943099</v>
       </c>
       <c r="M195" t="n">
-        <v>0.09986296113284421</v>
+        <v>0.2124324376002471</v>
       </c>
       <c r="N195" t="n">
-        <v>0.04594316918881308</v>
+        <v>0.07318615207753715</v>
       </c>
       <c r="O195" t="n">
-        <v>0.0995518711347293</v>
+        <v>0.2128675058366571</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.02967180679948341</v>
+        <v>0.02284610416808287</v>
       </c>
       <c r="G196" t="n">
-        <v>0.06522450204112766</v>
+        <v>0.2131787057729607</v>
       </c>
       <c r="J196" t="n">
-        <v>0.01305067501325298</v>
+        <v>0.01979728477640229</v>
       </c>
       <c r="K196" t="n">
-        <v>0.1012333729317625</v>
+        <v>0.2139985789622466</v>
       </c>
       <c r="L196" t="n">
-        <v>0.02807706743836155</v>
+        <v>0.04662705088703445</v>
       </c>
       <c r="M196" t="n">
-        <v>0.100631137756943</v>
+        <v>0.2140665332740952</v>
       </c>
       <c r="N196" t="n">
-        <v>0.04535063163372338</v>
+        <v>0.07313707238489847</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1003176547588426</v>
+        <v>0.2145049481892467</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02923003550457219</v>
+        <v>0.02189074570666624</v>
       </c>
       <c r="G197" t="n">
-        <v>0.06522423351266364</v>
+        <v>0.2148060241376398</v>
       </c>
       <c r="J197" t="n">
-        <v>0.01313587877883729</v>
+        <v>0.01983666215266885</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1020061467709362</v>
+        <v>0.2156321559008897</v>
       </c>
       <c r="L197" t="n">
-        <v>0.02705750968389373</v>
+        <v>0.04641942425595283</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1013993143810418</v>
+        <v>0.2157006289479432</v>
       </c>
       <c r="N197" t="n">
-        <v>0.04521663289057165</v>
+        <v>0.07328334591691305</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1010834383829559</v>
+        <v>0.2161423905418364</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02879727971845066</v>
+        <v>0.02093393037703548</v>
       </c>
       <c r="G198" t="n">
-        <v>0.06522396498419963</v>
+        <v>0.2164333425023189</v>
       </c>
       <c r="J198" t="n">
-        <v>0.01301822432787329</v>
+        <v>0.01997476476550063</v>
       </c>
       <c r="K198" t="n">
-        <v>0.10277892061011</v>
+        <v>0.2172657328395328</v>
       </c>
       <c r="L198" t="n">
-        <v>0.02669097983704657</v>
+        <v>0.04670880920880277</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1021674910051406</v>
+        <v>0.2173347246217913</v>
       </c>
       <c r="N198" t="n">
-        <v>0.04384407015986519</v>
+        <v>0.07292490746737845</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1018492220070692</v>
+        <v>0.2177798328944261</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02837404022964519</v>
+        <v>0.02097563825734326</v>
       </c>
       <c r="G199" t="n">
-        <v>0.06522369645573561</v>
+        <v>0.2180606608669979</v>
       </c>
       <c r="J199" t="n">
-        <v>0.01289788173853199</v>
+        <v>0.01981157505431215</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1035516944492837</v>
+        <v>0.218899309778176</v>
       </c>
       <c r="L199" t="n">
-        <v>0.02588152265101532</v>
+        <v>0.04689516455332188</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1029356676292394</v>
+        <v>0.2189688202956393</v>
       </c>
       <c r="N199" t="n">
-        <v>0.0434358406421112</v>
+        <v>0.07316169183009191</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1026150056311825</v>
+        <v>0.2194172752470157</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02796081782666442</v>
+        <v>0.02101584942574224</v>
       </c>
       <c r="G200" t="n">
-        <v>0.06522342792727159</v>
+        <v>0.219687979231677</v>
       </c>
       <c r="J200" t="n">
-        <v>0.0126750210889844</v>
+        <v>0.01984707545851805</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1043244682884575</v>
+        <v>0.2205328867168191</v>
       </c>
       <c r="L200" t="n">
-        <v>0.02503318287899536</v>
+        <v>0.04697844909724797</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1037038442533382</v>
+        <v>0.2206029159694874</v>
       </c>
       <c r="N200" t="n">
-        <v>0.04209484153781701</v>
+        <v>0.07369363379885108</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1033807892552958</v>
+        <v>0.2210547175996054</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02755811329807066</v>
+        <v>0.02205454396038502</v>
       </c>
       <c r="G201" t="n">
-        <v>0.06522315939880757</v>
+        <v>0.2213152975963561</v>
       </c>
       <c r="J201" t="n">
-        <v>0.01264981245740157</v>
+        <v>0.0198812484175329</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1050972421276313</v>
+        <v>0.2221664636554622</v>
       </c>
       <c r="L201" t="n">
-        <v>0.024550005274182</v>
+        <v>0.04665862164831866</v>
       </c>
       <c r="M201" t="n">
-        <v>0.104472020877437</v>
+        <v>0.2222370116433355</v>
       </c>
       <c r="N201" t="n">
-        <v>0.04162397004748969</v>
+        <v>0.07372066816745332</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1041465728794091</v>
+        <v>0.2226921599521951</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02716642743237213</v>
+        <v>0.02209170193942432</v>
       </c>
       <c r="G202" t="n">
-        <v>0.06522289087034357</v>
+        <v>0.2229426159610352</v>
       </c>
       <c r="J202" t="n">
-        <v>0.01232242592195452</v>
+        <v>0.01991407637077131</v>
       </c>
       <c r="K202" t="n">
-        <v>0.105870015966805</v>
+        <v>0.2238000405941053</v>
       </c>
       <c r="L202" t="n">
-        <v>0.02353603458977047</v>
+        <v>0.04703564101427174</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1052401975015358</v>
+        <v>0.2238711073171835</v>
       </c>
       <c r="N202" t="n">
-        <v>0.04062612337163674</v>
+        <v>0.07414272972969599</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1049123565035224</v>
+        <v>0.2243296023047848</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02678626101809511</v>
+        <v>0.02112730344101274</v>
       </c>
       <c r="G203" t="n">
-        <v>0.06522262234187955</v>
+        <v>0.2245699343257143</v>
       </c>
       <c r="J203" t="n">
-        <v>0.01219303156081428</v>
+        <v>0.01994554175764782</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1066427898059788</v>
+        <v>0.2254336175327484</v>
       </c>
       <c r="L203" t="n">
-        <v>0.02259531557895611</v>
+        <v>0.0468094660028448</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1060083741256346</v>
+        <v>0.2255052029910315</v>
       </c>
       <c r="N203" t="n">
-        <v>0.04000419871076522</v>
+        <v>0.07375975327937651</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1056781401276357</v>
+        <v>0.2259670446573744</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02641811484375028</v>
+        <v>0.02116132854330295</v>
       </c>
       <c r="G204" t="n">
-        <v>0.06522235381341553</v>
+        <v>0.2261972526903934</v>
       </c>
       <c r="J204" t="n">
-        <v>0.01226179945215186</v>
+        <v>0.02007562701757706</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1074155636451525</v>
+        <v>0.2270671944713915</v>
       </c>
       <c r="L204" t="n">
-        <v>0.02183189299493424</v>
+        <v>0.04718005542177567</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1067765507497334</v>
+        <v>0.2271392986648796</v>
       </c>
       <c r="N204" t="n">
-        <v>0.03916109326538253</v>
+        <v>0.07417167361029237</v>
       </c>
       <c r="O204" t="n">
-        <v>0.106443923751749</v>
+        <v>0.2276044870099641</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02606248969789607</v>
+        <v>0.02319375732444764</v>
       </c>
       <c r="G205" t="n">
-        <v>0.06522208528495151</v>
+        <v>0.2278245710550725</v>
       </c>
       <c r="J205" t="n">
-        <v>0.0120288996741383</v>
+        <v>0.02010431458997358</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1081883374843263</v>
+        <v>0.2287007714100346</v>
       </c>
       <c r="L205" t="n">
-        <v>0.02074981159090009</v>
+        <v>0.04724736807880192</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1075447273738322</v>
+        <v>0.2287733943387277</v>
       </c>
       <c r="N205" t="n">
-        <v>0.03759970423599579</v>
+        <v>0.07397842551624106</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1072097073758623</v>
+        <v>0.2292419293625538</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02571988636904253</v>
+        <v>0.02122456986259939</v>
       </c>
       <c r="G206" t="n">
-        <v>0.06522181675648749</v>
+        <v>0.2294518894197515</v>
       </c>
       <c r="J206" t="n">
-        <v>0.01189450230494463</v>
+        <v>0.02013158691425201</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1089611113235001</v>
+        <v>0.2303343483486777</v>
       </c>
       <c r="L206" t="n">
-        <v>0.020153116120049</v>
+        <v>0.04741136278166128</v>
       </c>
       <c r="M206" t="n">
-        <v>0.108312903997931</v>
+        <v>0.2304074900125757</v>
       </c>
       <c r="N206" t="n">
-        <v>0.03692292882311221</v>
+        <v>0.07417994379101989</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1079754909999756</v>
+        <v>0.2308793717151435</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02539080564571602</v>
+        <v>0.02325374623591092</v>
       </c>
       <c r="G207" t="n">
-        <v>0.06522154822802348</v>
+        <v>0.2310792077844307</v>
       </c>
       <c r="J207" t="n">
-        <v>0.01175877742274189</v>
+        <v>0.02015742642982693</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1097338851626738</v>
+        <v>0.2319679252873208</v>
       </c>
       <c r="L207" t="n">
-        <v>0.01894585133557627</v>
+        <v>0.04727199833809148</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1090810806220298</v>
+        <v>0.2320415856864237</v>
       </c>
       <c r="N207" t="n">
-        <v>0.03623366422723917</v>
+        <v>0.07447616322842637</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1087412746240889</v>
+        <v>0.2325168140677331</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02507574831642954</v>
+        <v>0.02228126652253483</v>
       </c>
       <c r="G208" t="n">
-        <v>0.06522127969955945</v>
+        <v>0.2327065261491097</v>
       </c>
       <c r="J208" t="n">
-        <v>0.01162189510570109</v>
+        <v>0.02008181557611288</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1105066590018476</v>
+        <v>0.2336015022259639</v>
       </c>
       <c r="L208" t="n">
-        <v>0.01823206199067723</v>
+        <v>0.04712923355583024</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1098492572461287</v>
+        <v>0.2336756813602718</v>
       </c>
       <c r="N208" t="n">
-        <v>0.03473480764888387</v>
+        <v>0.07466701862225783</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1095070582482022</v>
+        <v>0.2341542564203228</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02477521516973688</v>
+        <v>0.02230711080062382</v>
       </c>
       <c r="G209" t="n">
-        <v>0.06522101117109544</v>
+        <v>0.2343338445137888</v>
       </c>
       <c r="J209" t="n">
-        <v>0.01148402543199326</v>
+        <v>0.02020473679252451</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1112794328410213</v>
+        <v>0.235235079164607</v>
       </c>
       <c r="L209" t="n">
-        <v>0.01721579283854716</v>
+        <v>0.04718302724261519</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1106174338702274</v>
+        <v>0.2353097770341199</v>
       </c>
       <c r="N209" t="n">
-        <v>0.03422925628855356</v>
+        <v>0.07425244476631182</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1102728418723155</v>
+        <v>0.2357916987729125</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02448970699415039</v>
+        <v>0.02333125914833051</v>
       </c>
       <c r="G210" t="n">
-        <v>0.06522074264263142</v>
+        <v>0.2359611628784679</v>
       </c>
       <c r="J210" t="n">
-        <v>0.01134533847978943</v>
+        <v>0.02012617251847633</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1120522066801951</v>
+        <v>0.2368686561032501</v>
       </c>
       <c r="L210" t="n">
-        <v>0.01650108863238134</v>
+        <v>0.04723333820618411</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1113856104943262</v>
+        <v>0.2369438727079679</v>
       </c>
       <c r="N210" t="n">
-        <v>0.03291990734675554</v>
+        <v>0.07473237645438568</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1110386254964288</v>
+        <v>0.2374291411255021</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02421972457819642</v>
+        <v>0.02235369164380756</v>
       </c>
       <c r="G211" t="n">
-        <v>0.06522047411416741</v>
+        <v>0.237588481243147</v>
       </c>
       <c r="J211" t="n">
-        <v>0.01110600432726063</v>
+        <v>0.02014610519338302</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1128249805193689</v>
+        <v>0.2385022330418932</v>
       </c>
       <c r="L211" t="n">
-        <v>0.01529199412537499</v>
+        <v>0.04728012525427466</v>
       </c>
       <c r="M211" t="n">
-        <v>0.112153787118425</v>
+        <v>0.238577968381816</v>
       </c>
       <c r="N211" t="n">
-        <v>0.03160965802399696</v>
+        <v>0.07460674848027693</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1118044091205421</v>
+        <v>0.2390665834780918</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02396576871039065</v>
+        <v>0.02137438836520762</v>
       </c>
       <c r="G212" t="n">
-        <v>0.06522020558570338</v>
+        <v>0.2392157996078261</v>
       </c>
       <c r="J212" t="n">
-        <v>0.01106619305257787</v>
+        <v>0.02026451725665909</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1135977543585426</v>
+        <v>0.2401358099805363</v>
       </c>
       <c r="L212" t="n">
-        <v>0.01479255407072361</v>
+        <v>0.04772334719462457</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1129219637425238</v>
+        <v>0.2402120640556641</v>
       </c>
       <c r="N212" t="n">
-        <v>0.03100140552078517</v>
+        <v>0.07467549563778292</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1125701927446554</v>
+        <v>0.2407040258306815</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02372834017928159</v>
+        <v>0.02339332939068339</v>
       </c>
       <c r="G213" t="n">
-        <v>0.06521993705723937</v>
+        <v>0.2408431179725052</v>
       </c>
       <c r="J213" t="n">
-        <v>0.01102607473391221</v>
+        <v>0.02028139114771918</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1143705281977164</v>
+        <v>0.2417693869191794</v>
       </c>
       <c r="L213" t="n">
-        <v>0.01360681322162235</v>
+        <v>0.04736296283497143</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1136901403666227</v>
+        <v>0.2418461597295121</v>
       </c>
       <c r="N213" t="n">
-        <v>0.02979804703762723</v>
+        <v>0.07503855272070115</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1133359763687687</v>
+        <v>0.2423414681832712</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02350793977338418</v>
+        <v>0.02241049479838744</v>
       </c>
       <c r="G214" t="n">
-        <v>0.06521966852877535</v>
+        <v>0.2424704363371843</v>
       </c>
       <c r="J214" t="n">
-        <v>0.01068581944943466</v>
+        <v>0.02039670930597784</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1151433020368901</v>
+        <v>0.2434029638578225</v>
       </c>
       <c r="L214" t="n">
-        <v>0.01293881633126651</v>
+        <v>0.04779893098305313</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1144583169907215</v>
+        <v>0.2434802554033601</v>
       </c>
       <c r="N214" t="n">
-        <v>0.02890247977503063</v>
+        <v>0.07459585452282896</v>
       </c>
       <c r="O214" t="n">
-        <v>0.114101759992882</v>
+        <v>0.2439789105358608</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02350793977338418</v>
+        <v>0.02342586466647247</v>
       </c>
       <c r="G215" t="n">
-        <v>0.06521966852877535</v>
+        <v>0.2440977547018633</v>
       </c>
       <c r="J215" t="n">
-        <v>0.01064559727731624</v>
+        <v>0.02021045417084968</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1159160758760639</v>
+        <v>0.2450365407964657</v>
       </c>
       <c r="L215" t="n">
-        <v>0.01179260815285144</v>
+        <v>0.0474312104466072</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1152264936148203</v>
+        <v>0.2451143510772082</v>
       </c>
       <c r="N215" t="n">
-        <v>0.02771760093350245</v>
+        <v>0.0750473358379638</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1148675436169953</v>
+        <v>0.2456163528884505</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02289622131399385</v>
+        <v>0.02343941907309115</v>
       </c>
       <c r="G216" t="n">
-        <v>0.06513667086580946</v>
+        <v>0.2457250730665424</v>
       </c>
       <c r="J216" t="n">
-        <v>0.01060557829572799</v>
+        <v>0.02042260818174928</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1166888497152377</v>
+        <v>0.2466701177351088</v>
       </c>
       <c r="L216" t="n">
-        <v>0.01127223343957245</v>
+        <v>0.04765976003337141</v>
       </c>
       <c r="M216" t="n">
-        <v>0.115994670238919</v>
+        <v>0.2467484467510563</v>
       </c>
       <c r="N216" t="n">
-        <v>0.02714630771355014</v>
+        <v>0.07479293145990318</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1156333272411086</v>
+        <v>0.2472537952410402</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02229152022230618</v>
+        <v>0.02145113809639608</v>
       </c>
       <c r="G217" t="n">
-        <v>0.06505367320284357</v>
+        <v>0.2473523914312215</v>
       </c>
       <c r="J217" t="n">
-        <v>0.01026593258284093</v>
+        <v>0.02043315377809121</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1174616235544114</v>
+        <v>0.2483036946737519</v>
       </c>
       <c r="L217" t="n">
-        <v>0.01028173694462481</v>
+        <v>0.04748453855108345</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1167628468630179</v>
+        <v>0.2483825424249043</v>
       </c>
       <c r="N217" t="n">
-        <v>0.0257914973156807</v>
+        <v>0.07523257618244444</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1163991108652219</v>
+        <v>0.2488912375936298</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02169420933722918</v>
+        <v>0.02246100181453996</v>
       </c>
       <c r="G218" t="n">
-        <v>0.06497067553987768</v>
+        <v>0.2489797097959006</v>
       </c>
       <c r="J218" t="n">
-        <v>0.01012683021682609</v>
+        <v>0.02034207339929009</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1182343973935852</v>
+        <v>0.249937271612395</v>
       </c>
       <c r="L218" t="n">
-        <v>0.009525163421203797</v>
+        <v>0.04780550480748105</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1175310234871167</v>
+        <v>0.2500166380987524</v>
       </c>
       <c r="N218" t="n">
-        <v>0.02505606694040147</v>
+        <v>0.07536620479938505</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1171648944893352</v>
+        <v>0.2505286799462195</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02110466149767107</v>
+        <v>0.02346899030567541</v>
       </c>
       <c r="G219" t="n">
-        <v>0.06488767787691177</v>
+        <v>0.2506070281605797</v>
       </c>
       <c r="J219" t="n">
-        <v>0.0099884412758545</v>
+        <v>0.0203493494847605</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1190071712327589</v>
+        <v>0.2515708485510381</v>
       </c>
       <c r="L219" t="n">
-        <v>0.008906557622504752</v>
+        <v>0.04762261761030184</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1182992001112155</v>
+        <v>0.2516507337726004</v>
       </c>
       <c r="N219" t="n">
-        <v>0.02384291378821973</v>
+        <v>0.07479375210452249</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1179306781134485</v>
+        <v>0.2521661222988091</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02052324954254006</v>
+        <v>0.02147508364795511</v>
       </c>
       <c r="G220" t="n">
-        <v>0.06480468021394588</v>
+        <v>0.2522343465252588</v>
       </c>
       <c r="J220" t="n">
-        <v>0.009850935838097173</v>
+        <v>0.020454964473917</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1197799450719327</v>
+        <v>0.2532044254896812</v>
       </c>
       <c r="L220" t="n">
-        <v>0.008029964301722925</v>
+        <v>0.04783583576728359</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1190673767353143</v>
+        <v>0.2532848294464485</v>
       </c>
       <c r="N220" t="n">
-        <v>0.02315493505964272</v>
+        <v>0.07471515289165409</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1186964617375618</v>
+        <v>0.2538035646513988</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.01995034631074435</v>
+        <v>0.02347926191953169</v>
       </c>
       <c r="G221" t="n">
-        <v>0.06472168255097999</v>
+        <v>0.2538616648899379</v>
       </c>
       <c r="J221" t="n">
-        <v>0.009914483981725161</v>
+        <v>0.02025890080617418</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1205527189111065</v>
+        <v>0.2548380024283243</v>
       </c>
       <c r="L221" t="n">
-        <v>0.007599428212053699</v>
+        <v>0.04764511808616395</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1198355533594131</v>
+        <v>0.2549189251202966</v>
       </c>
       <c r="N221" t="n">
-        <v>0.02199502795517777</v>
+        <v>0.07523034195457734</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1194622453616751</v>
+        <v>0.2554410070039885</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.01938632464119201</v>
+        <v>0.02148150519855783</v>
       </c>
       <c r="G222" t="n">
-        <v>0.06463868488801409</v>
+        <v>0.255488983254617</v>
       </c>
       <c r="J222" t="n">
-        <v>0.009679255784909482</v>
+        <v>0.02026114092094668</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1213254927502802</v>
+        <v>0.2564715793669674</v>
       </c>
       <c r="L222" t="n">
-        <v>0.007218994106692328</v>
+        <v>0.04795042337468064</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1206037299835118</v>
+        <v>0.2565530207941446</v>
       </c>
       <c r="N222" t="n">
-        <v>0.02146608967533198</v>
+        <v>0.0752392540870897</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1202280289857884</v>
+        <v>0.2570784493565781</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.01883155737279127</v>
+        <v>0.02247808361699741</v>
       </c>
       <c r="G223" t="n">
-        <v>0.06455568722504819</v>
+        <v>0.2571163016192961</v>
       </c>
       <c r="J223" t="n">
-        <v>0.009545421325821153</v>
+        <v>0.02026067244740765</v>
       </c>
       <c r="K223" t="n">
-        <v>0.122098266589454</v>
+        <v>0.2581051563056105</v>
       </c>
       <c r="L223" t="n">
-        <v>0.006492706738834036</v>
+        <v>0.04794967986114743</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1213719066076107</v>
+        <v>0.2581871164679926</v>
       </c>
       <c r="N223" t="n">
-        <v>0.0208710174206127</v>
+        <v>0.0750408996197548</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1209938126099018</v>
+        <v>0.2587158917091679</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.01828641734445035</v>
+        <v>0.02142748906474022</v>
       </c>
       <c r="G224" t="n">
-        <v>0.0644726895620823</v>
+        <v>0.2587436199839752</v>
       </c>
       <c r="J224" t="n">
-        <v>0.00951315068263122</v>
+        <v>0.02022424597969037</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1228710404286277</v>
+        <v>0.2597387332442536</v>
       </c>
       <c r="L224" t="n">
-        <v>0.006224610861674251</v>
+        <v>0.04746582298698637</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1221400832317095</v>
+        <v>0.2598212121418407</v>
       </c>
       <c r="N224" t="n">
-        <v>0.01991270839152709</v>
+        <v>0.07472439432990502</v>
       </c>
       <c r="O224" t="n">
-        <v>0.121759596234015</v>
+        <v>0.2603533340617575</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.01775127739507729</v>
+        <v>0.02232302622124323</v>
       </c>
       <c r="G225" t="n">
-        <v>0.06438969189911641</v>
+        <v>0.2603709383486543</v>
       </c>
       <c r="J225" t="n">
-        <v>0.009182613933510692</v>
+        <v>0.020339679004464</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1236438142678015</v>
+        <v>0.2613723101828967</v>
       </c>
       <c r="L225" t="n">
-        <v>0.005718751228408203</v>
+        <v>0.04746891462535946</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1229082598558083</v>
+        <v>0.2614553078156888</v>
       </c>
       <c r="N225" t="n">
-        <v>0.0193940597885825</v>
+        <v>0.07492763559007326</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1225253798581284</v>
+        <v>0.2619907764143471</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.01722651036358033</v>
+        <v>0.0211709055905842</v>
       </c>
       <c r="G226" t="n">
-        <v>0.0643066942361505</v>
+        <v>0.2619982567133333</v>
       </c>
       <c r="J226" t="n">
-        <v>0.00915398115663061</v>
+        <v>0.02011244591802393</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1244165881069752</v>
+        <v>0.2630058871215398</v>
       </c>
       <c r="L226" t="n">
-        <v>0.005379172592231168</v>
+        <v>0.04717179619144926</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1236764364799071</v>
+        <v>0.2630894034895368</v>
       </c>
       <c r="N226" t="n">
-        <v>0.01881796881228615</v>
+        <v>0.07387095100240931</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1232911634822417</v>
+        <v>0.2636282187669369</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.01671248908886765</v>
+        <v>0.02097733767684098</v>
       </c>
       <c r="G227" t="n">
-        <v>0.06422369657318461</v>
+        <v>0.2636255750780124</v>
       </c>
       <c r="J227" t="n">
-        <v>0.00902742243016199</v>
+        <v>0.01994802111666562</v>
       </c>
       <c r="K227" t="n">
-        <v>0.125189361946149</v>
+        <v>0.2646394640601828</v>
       </c>
       <c r="L227" t="n">
-        <v>0.004809919706338511</v>
+        <v>0.04658730910043829</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1244446131040059</v>
+        <v>0.2647234991633849</v>
       </c>
       <c r="N227" t="n">
-        <v>0.01828733266314525</v>
+        <v>0.07347466816906278</v>
       </c>
       <c r="O227" t="n">
-        <v>0.124056947106355</v>
+        <v>0.2652656611195265</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.01620958640984747</v>
+        <v>0.02074853298409139</v>
       </c>
       <c r="G228" t="n">
-        <v>0.06414069891021872</v>
+        <v>0.2652528934426915</v>
       </c>
       <c r="J228" t="n">
-        <v>0.008903107832275881</v>
+        <v>0.01975187899668449</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1259621357853228</v>
+        <v>0.266273040998826</v>
       </c>
       <c r="L228" t="n">
-        <v>0.004915037323925509</v>
+        <v>0.04642829476750912</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1252127897281047</v>
+        <v>0.2663575948372329</v>
       </c>
       <c r="N228" t="n">
-        <v>0.01730504854166703</v>
+        <v>0.07325911469218338</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1248227307304683</v>
+        <v>0.2669031034721162</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01571817516542785</v>
+        <v>0.02049070201641325</v>
       </c>
       <c r="G229" t="n">
-        <v>0.06405770124725282</v>
+        <v>0.2668802118073706</v>
       </c>
       <c r="J229" t="n">
-        <v>0.008681207441143292</v>
+        <v>0.01942949395437597</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1267349096244965</v>
+        <v>0.2679066179374691</v>
       </c>
       <c r="L229" t="n">
-        <v>0.004498570198187418</v>
+        <v>0.0459075946078443</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1259809663522035</v>
+        <v>0.267991690511081</v>
       </c>
       <c r="N229" t="n">
-        <v>0.01687401364835889</v>
+        <v>0.07234461817392068</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1255885143545815</v>
+        <v>0.2685405458247059</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.015238628194517</v>
+        <v>0.02221005527788435</v>
       </c>
       <c r="G230" t="n">
-        <v>0.06397470358428692</v>
+        <v>0.2685075301720497</v>
       </c>
       <c r="J230" t="n">
-        <v>0.008761877516668286</v>
+        <v>0.01918634038603552</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1275076834636703</v>
+        <v>0.2695401948761122</v>
       </c>
       <c r="L230" t="n">
-        <v>0.004464137800155421</v>
+        <v>0.04503805003662631</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1267491429763023</v>
+        <v>0.269625786184929</v>
       </c>
       <c r="N230" t="n">
-        <v>0.01649682451759876</v>
+        <v>0.07155150621642442</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1263542979786949</v>
+        <v>0.2701779881772955</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01477131833602317</v>
+        <v>0.01991280327258255</v>
       </c>
       <c r="G231" t="n">
-        <v>0.06389170592132104</v>
+        <v>0.2701348485367288</v>
       </c>
       <c r="J231" t="n">
-        <v>0.008443913770556775</v>
+        <v>0.01912789268795856</v>
       </c>
       <c r="K231" t="n">
-        <v>0.128280457302844</v>
+        <v>0.2711737718147553</v>
       </c>
       <c r="L231" t="n">
-        <v>0.004664141121816762</v>
+        <v>0.04443250246903779</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1275173196004011</v>
+        <v>0.2712598818587771</v>
       </c>
       <c r="N231" t="n">
-        <v>0.01574325944661975</v>
+        <v>0.07030010642184431</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1271200816028082</v>
+        <v>0.2718154305298852</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01431661842885439</v>
+        <v>0.02160515650458565</v>
       </c>
       <c r="G232" t="n">
-        <v>0.06380870825835513</v>
+        <v>0.2717621669014079</v>
       </c>
       <c r="J232" t="n">
-        <v>0.00852645688662907</v>
+        <v>0.01865962525644049</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1290532311420178</v>
+        <v>0.2728073487533984</v>
       </c>
       <c r="L232" t="n">
-        <v>0.004564160947274049</v>
+        <v>0.04410379332026129</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1282854962244999</v>
+        <v>0.2728939775326252</v>
       </c>
       <c r="N232" t="n">
-        <v>0.01519214352423903</v>
+        <v>0.06931074639232992</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1278858652269215</v>
+        <v>0.2734528728824749</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.0138749013119189</v>
+        <v>0.01929332547797148</v>
       </c>
       <c r="G233" t="n">
-        <v>0.06372571059538924</v>
+        <v>0.2733894852660869</v>
       </c>
       <c r="J233" t="n">
-        <v>0.008309509500990651</v>
+        <v>0.01848701248777677</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1298260049811915</v>
+        <v>0.2744409256920415</v>
       </c>
       <c r="L233" t="n">
-        <v>0.004664212289348046</v>
+        <v>0.04346476400547933</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1290536728485987</v>
+        <v>0.2745280732064732</v>
       </c>
       <c r="N233" t="n">
-        <v>0.0152440334144251</v>
+        <v>0.06820375373003101</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1286516488510348</v>
+        <v>0.2750903152350646</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01344653982412489</v>
+        <v>0.01998352069681783</v>
       </c>
       <c r="G234" t="n">
-        <v>0.06364271293242334</v>
+        <v>0.2750168036307661</v>
       </c>
       <c r="J234" t="n">
-        <v>0.008193074249747023</v>
+        <v>0.01821552877826284</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1305987788203653</v>
+        <v>0.2760745026306846</v>
       </c>
       <c r="L234" t="n">
-        <v>0.00446431016085963</v>
+        <v>0.0426282559398744</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1298218494726975</v>
+        <v>0.2761621688803212</v>
       </c>
       <c r="N234" t="n">
-        <v>0.01479948578114632</v>
+        <v>0.06759945603709716</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1294174324751481</v>
+        <v>0.2767277575876542</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01303190680438056</v>
+        <v>0.01868195266520255</v>
       </c>
       <c r="G235" t="n">
-        <v>0.06355971526945746</v>
+        <v>0.2766441219954451</v>
       </c>
       <c r="J235" t="n">
-        <v>0.008077153769003698</v>
+        <v>0.0178506485241941</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1313715526595391</v>
+        <v>0.2777080795693277</v>
       </c>
       <c r="L235" t="n">
-        <v>0.004664469574629598</v>
+        <v>0.04220711053862911</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1305900260967963</v>
+        <v>0.2777962645541693</v>
       </c>
       <c r="N235" t="n">
-        <v>0.01425905728837129</v>
+        <v>0.06601818091567807</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1301832160992614</v>
+        <v>0.2783651999402439</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01263137509159398</v>
+        <v>0.02039483188720347</v>
       </c>
       <c r="G236" t="n">
-        <v>0.06347671760649155</v>
+        <v>0.2782714403601242</v>
       </c>
       <c r="J236" t="n">
-        <v>0.007861750694866165</v>
+        <v>0.01779784612186601</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1321443264987129</v>
+        <v>0.2793416565079708</v>
       </c>
       <c r="L236" t="n">
-        <v>0.004464705543478692</v>
+        <v>0.04161416921692604</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1313582027208951</v>
+        <v>0.2794303602280174</v>
       </c>
       <c r="N236" t="n">
-        <v>0.01362330460006839</v>
+        <v>0.06528025596792336</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1309489997233747</v>
+        <v>0.2800026422928336</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01224531752467336</v>
+        <v>0.02012836886689837</v>
       </c>
       <c r="G237" t="n">
-        <v>0.06339371994352566</v>
+        <v>0.2798987587248034</v>
       </c>
       <c r="J237" t="n">
-        <v>0.007746867663439932</v>
+        <v>0.01746259596757399</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1329171003378866</v>
+        <v>0.280975233446614</v>
       </c>
       <c r="L237" t="n">
-        <v>0.004865033080227787</v>
+        <v>0.04106227338994767</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1321263793449939</v>
+        <v>0.2810644559018654</v>
       </c>
       <c r="N237" t="n">
-        <v>0.01359278438020611</v>
+        <v>0.06420600879598287</v>
       </c>
       <c r="O237" t="n">
-        <v>0.131714783347488</v>
+        <v>0.2816400846454232</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01187410694252694</v>
+        <v>0.01888212056765746</v>
       </c>
       <c r="G238" t="n">
-        <v>0.06331072228055977</v>
+        <v>0.2815260770894824</v>
       </c>
       <c r="J238" t="n">
-        <v>0.007632507310830469</v>
+        <v>0.01734624387506929</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1336898741770604</v>
+        <v>0.282608810385257</v>
       </c>
       <c r="L238" t="n">
-        <v>0.004465467197697609</v>
+        <v>0.04045488264870964</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1328945559690927</v>
+        <v>0.2826985515757134</v>
       </c>
       <c r="N238" t="n">
-        <v>0.01276805329275293</v>
+        <v>0.06390380919389588</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1324805669716013</v>
+        <v>0.2832775269980129</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01151811618406279</v>
+        <v>0.01863672383190819</v>
       </c>
       <c r="G239" t="n">
-        <v>0.06322772461759388</v>
+        <v>0.2831533954541615</v>
       </c>
       <c r="J239" t="n">
-        <v>0.007718672273143302</v>
+        <v>0.01693166650544664</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1344626480162341</v>
+        <v>0.2842423873239001</v>
       </c>
       <c r="L239" t="n">
-        <v>0.004566022908709055</v>
+        <v>0.0400518785348582</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1336627325931915</v>
+        <v>0.2843326472495615</v>
       </c>
       <c r="N239" t="n">
-        <v>0.01264966800167744</v>
+        <v>0.06311097532512422</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1332463505957146</v>
+        <v>0.2849149693506026</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01117619566264741</v>
+        <v>0.01939039665610134</v>
       </c>
       <c r="G240" t="n">
-        <v>0.06314472695462797</v>
+        <v>0.2847807138188406</v>
       </c>
       <c r="J240" t="n">
-        <v>0.007505365186483912</v>
+        <v>0.01681627336171718</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1352354218554079</v>
+        <v>0.2858759642625432</v>
       </c>
       <c r="L240" t="n">
-        <v>0.004566715226082818</v>
+        <v>0.03954696169012431</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1344309092172903</v>
+        <v>0.2859667429234096</v>
       </c>
       <c r="N240" t="n">
-        <v>0.01223818517094794</v>
+        <v>0.06181512230568476</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1340121342198279</v>
+        <v>0.2865524117031922</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01083958366393883</v>
+        <v>0.01714312432732243</v>
       </c>
       <c r="G241" t="n">
-        <v>0.06306172929166208</v>
+        <v>0.2864080321835197</v>
       </c>
       <c r="J241" t="n">
-        <v>0.007492588686957805</v>
+        <v>0.01650005147483308</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1360081956945816</v>
+        <v>0.2875095412011863</v>
       </c>
       <c r="L241" t="n">
-        <v>0.004667559162639778</v>
+        <v>0.03904010169271921</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1351990858413891</v>
+        <v>0.2876008385972576</v>
       </c>
       <c r="N241" t="n">
-        <v>0.01123416146453299</v>
+        <v>0.06141620197873393</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1347779178439412</v>
+        <v>0.2881898540557819</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01050713060130357</v>
+        <v>0.01889489213265702</v>
       </c>
       <c r="G242" t="n">
-        <v>0.06297873162869619</v>
+        <v>0.2880353505481987</v>
       </c>
       <c r="J242" t="n">
-        <v>0.00738034541067048</v>
+        <v>0.01638298787574652</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1367809695337554</v>
+        <v>0.2891431181398295</v>
       </c>
       <c r="L242" t="n">
-        <v>0.004668569731200695</v>
+        <v>0.03843126812085407</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1359672624654879</v>
+        <v>0.2892349342711057</v>
       </c>
       <c r="N242" t="n">
-        <v>0.01113815354640102</v>
+        <v>0.06041416618742845</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1355437014680545</v>
+        <v>0.2898272964083716</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.0101792093136497</v>
+        <v>0.01764568535919059</v>
       </c>
       <c r="G243" t="n">
-        <v>0.0628957339657303</v>
+        <v>0.2896626689128778</v>
       </c>
       <c r="J243" t="n">
-        <v>0.007168637993727425</v>
+        <v>0.01616506959540963</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1375537433729291</v>
+        <v>0.2907766950784726</v>
       </c>
       <c r="L243" t="n">
-        <v>0.004869761944586437</v>
+        <v>0.03782043055274018</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1367354390895867</v>
+        <v>0.2908690299449537</v>
       </c>
       <c r="N243" t="n">
-        <v>0.01065071808052059</v>
+        <v>0.05990896677492519</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1363094850921678</v>
+        <v>0.2914647387609612</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.009856192639885436</v>
+        <v>0.01839548929400874</v>
       </c>
       <c r="G244" t="n">
-        <v>0.06281273630276439</v>
+        <v>0.2912899872775569</v>
       </c>
       <c r="J244" t="n">
-        <v>0.006957469072234164</v>
+        <v>0.01604628366477459</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1383265172121029</v>
+        <v>0.2924102720171157</v>
       </c>
       <c r="L244" t="n">
-        <v>0.004771150815617742</v>
+        <v>0.03750755856658877</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1375036157136855</v>
+        <v>0.2925031256188018</v>
       </c>
       <c r="N244" t="n">
-        <v>0.01037241173086001</v>
+        <v>0.05900055558438061</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1370752687162811</v>
+        <v>0.2931021811135509</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.009538453418918999</v>
+        <v>0.01714428922419695</v>
       </c>
       <c r="G245" t="n">
-        <v>0.06272973863979851</v>
+        <v>0.292917305642236</v>
       </c>
       <c r="J245" t="n">
-        <v>0.006946841282296161</v>
+        <v>0.01572661711479359</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1390992910512767</v>
+        <v>0.2940438489557588</v>
       </c>
       <c r="L245" t="n">
-        <v>0.004672751357115396</v>
+        <v>0.03689262174061103</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1382717923377843</v>
+        <v>0.2941372212926499</v>
       </c>
       <c r="N245" t="n">
-        <v>0.009903791161387898</v>
+        <v>0.05838888445895157</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1378410523403944</v>
+        <v>0.2947396234661406</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.00922636448965846</v>
+        <v>0.01589207043684079</v>
       </c>
       <c r="G246" t="n">
-        <v>0.06264674097683261</v>
+        <v>0.2945446240069151</v>
       </c>
       <c r="J246" t="n">
-        <v>0.006836757260018929</v>
+        <v>0.01540605697641878</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1398720648904504</v>
+        <v>0.2956774258944019</v>
       </c>
       <c r="L246" t="n">
-        <v>0.00477457858190028</v>
+        <v>0.0364755896530182</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1390399689618831</v>
+        <v>0.2957713169664979</v>
       </c>
       <c r="N246" t="n">
-        <v>0.00984541303607267</v>
+        <v>0.05707390524179473</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1386068359645077</v>
+        <v>0.2963770658187302</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.008920298691012046</v>
+        <v>0.01563881821902575</v>
       </c>
       <c r="G247" t="n">
-        <v>0.06256374331386672</v>
+        <v>0.2961719423715942</v>
       </c>
       <c r="J247" t="n">
-        <v>0.006827219641507988</v>
+        <v>0.01528459028060232</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1406448387296242</v>
+        <v>0.297311002833045</v>
       </c>
       <c r="L247" t="n">
-        <v>0.004476647502793113</v>
+        <v>0.03575643188202154</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1398081455859819</v>
+        <v>0.297405412640346</v>
       </c>
       <c r="N247" t="n">
-        <v>0.009497834018882767</v>
+        <v>0.05675556977606661</v>
       </c>
       <c r="O247" t="n">
-        <v>0.139372619588621</v>
+        <v>0.2980145081713199</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.008620628861887927</v>
+        <v>0.01538451785783741</v>
       </c>
       <c r="G248" t="n">
-        <v>0.06248074565090081</v>
+        <v>0.2977992607362733</v>
       </c>
       <c r="J248" t="n">
-        <v>0.006718231062868799</v>
+        <v>0.01516220405829639</v>
       </c>
       <c r="K248" t="n">
-        <v>0.141417612568798</v>
+        <v>0.2989445797716881</v>
       </c>
       <c r="L248" t="n">
-        <v>0.004678973132614783</v>
+        <v>0.03523511800583223</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1405763222100807</v>
+        <v>0.299039508314194</v>
       </c>
       <c r="N248" t="n">
-        <v>0.009261610773786677</v>
+        <v>0.05553382990492417</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1401384032127343</v>
+        <v>0.2996519505239096</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.008327727841194288</v>
+        <v>0.01612915464036128</v>
       </c>
       <c r="G249" t="n">
-        <v>0.06239774798793492</v>
+        <v>0.2994265791009524</v>
       </c>
       <c r="J249" t="n">
-        <v>0.006609794160206871</v>
+        <v>0.01493888534045315</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1421903864079717</v>
+        <v>0.3005781567103312</v>
       </c>
       <c r="L249" t="n">
-        <v>0.004881570484186026</v>
+        <v>0.03461161760266152</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1413444988341795</v>
+        <v>0.300673603988042</v>
       </c>
       <c r="N249" t="n">
-        <v>0.008637299964752931</v>
+        <v>0.05470863747152388</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1409041868368476</v>
+        <v>0.3012893928764993</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.00804196846783925</v>
+        <v>0.01687271385368289</v>
       </c>
       <c r="G250" t="n">
-        <v>0.06231475032496903</v>
+        <v>0.3010538974656315</v>
       </c>
       <c r="J250" t="n">
-        <v>0.006401911569627716</v>
+        <v>0.01461462115802475</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1429631602471455</v>
+        <v>0.3022117336489743</v>
       </c>
       <c r="L250" t="n">
-        <v>0.004784454570327668</v>
+        <v>0.03408590025072064</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1421126754582783</v>
+        <v>0.3023076996618901</v>
       </c>
       <c r="N250" t="n">
-        <v>0.008125458255749896</v>
+        <v>0.05397994431902253</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1416699704609609</v>
+        <v>0.302926835229089</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.007763723580731005</v>
+        <v>0.01561518078488777</v>
       </c>
       <c r="G251" t="n">
-        <v>0.06223175266200313</v>
+        <v>0.3026812158303105</v>
       </c>
       <c r="J251" t="n">
-        <v>0.006394585927236816</v>
+        <v>0.0143893985419634</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1437359340863192</v>
+        <v>0.3038453105876174</v>
       </c>
       <c r="L251" t="n">
-        <v>0.004487640403860488</v>
+        <v>0.03365793552822086</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1428808520823771</v>
+        <v>0.3039417953357382</v>
       </c>
       <c r="N251" t="n">
-        <v>0.008026642310746179</v>
+        <v>0.05304770229057676</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1424357540850742</v>
+        <v>0.3045642775816786</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.007493366018777765</v>
+        <v>0.01635654072106146</v>
       </c>
       <c r="G252" t="n">
-        <v>0.06214875499903724</v>
+        <v>0.3043085341949897</v>
       </c>
       <c r="J252" t="n">
-        <v>0.006287819869139677</v>
+        <v>0.01406320452322123</v>
       </c>
       <c r="K252" t="n">
-        <v>0.144508707925493</v>
+        <v>0.3054788875262605</v>
       </c>
       <c r="L252" t="n">
-        <v>0.004591142997605352</v>
+        <v>0.03332769301337335</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1436490287064759</v>
+        <v>0.3055758910095862</v>
       </c>
       <c r="N252" t="n">
-        <v>0.007741408793710158</v>
+        <v>0.05261186322934336</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1432015377091875</v>
+        <v>0.3062017199342683</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.007231268620887632</v>
+        <v>0.0150967789492895</v>
       </c>
       <c r="G253" t="n">
-        <v>0.06206575733607134</v>
+        <v>0.3059358525596688</v>
       </c>
       <c r="J253" t="n">
-        <v>0.006181616031441795</v>
+        <v>0.0139360261327504</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1452814817646667</v>
+        <v>0.3071124644649036</v>
       </c>
       <c r="L253" t="n">
-        <v>0.004794977364383002</v>
+        <v>0.03259514228438931</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1444172053305747</v>
+        <v>0.3072099866834343</v>
       </c>
       <c r="N253" t="n">
-        <v>0.007470314368610287</v>
+        <v>0.05147237897847884</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1439673213333008</v>
+        <v>0.307839162286858</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.006977804225968803</v>
+        <v>0.01383588075665741</v>
       </c>
       <c r="G254" t="n">
-        <v>0.06198275967310544</v>
+        <v>0.3075631709243478</v>
       </c>
       <c r="J254" t="n">
-        <v>0.006075977050248677</v>
+        <v>0.0136078504015031</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1460542556038405</v>
+        <v>0.3087460414035467</v>
       </c>
       <c r="L254" t="n">
-        <v>0.004599158517014229</v>
+        <v>0.03206025291948003</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1451853819546735</v>
+        <v>0.3088440823572823</v>
       </c>
       <c r="N254" t="n">
-        <v>0.00741391569941513</v>
+        <v>0.05062920138114013</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1447331049574141</v>
+        <v>0.3094766046394476</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.006733345672929457</v>
+        <v>0.01557383143025072</v>
       </c>
       <c r="G255" t="n">
-        <v>0.06189976201013955</v>
+        <v>0.3091904892890269</v>
       </c>
       <c r="J255" t="n">
-        <v>0.005770905561665811</v>
+        <v>0.01337866436043149</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1468270294430143</v>
+        <v>0.3103796183421898</v>
       </c>
       <c r="L255" t="n">
-        <v>0.004503701468319882</v>
+        <v>0.0314229944968567</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1459535585787723</v>
+        <v>0.3104781780311304</v>
       </c>
       <c r="N255" t="n">
-        <v>0.006972769450093008</v>
+        <v>0.05008228228048373</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1454988885815274</v>
+        <v>0.3111140469920373</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.006498265800677791</v>
+        <v>0.01331061625715498</v>
       </c>
       <c r="G256" t="n">
-        <v>0.06181676434717366</v>
+        <v>0.310817807653706</v>
       </c>
       <c r="J256" t="n">
-        <v>0.005866404201798688</v>
+        <v>0.01324845504048773</v>
       </c>
       <c r="K256" t="n">
-        <v>0.147599803282188</v>
+        <v>0.3120131952808329</v>
       </c>
       <c r="L256" t="n">
-        <v>0.004808621231120774</v>
+        <v>0.03108333659473062</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1467217352028711</v>
+        <v>0.3121122737049785</v>
       </c>
       <c r="N256" t="n">
-        <v>0.006747432284612498</v>
+        <v>0.04903157351966636</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1462646722056407</v>
+        <v>0.312751489344627</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.006272937448121907</v>
+        <v>0.0150462205244557</v>
       </c>
       <c r="G257" t="n">
-        <v>0.06173376668420776</v>
+        <v>0.3124451260183851</v>
       </c>
       <c r="J257" t="n">
-        <v>0.005762475606752818</v>
+        <v>0.01291720947262399</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1483725771213618</v>
+        <v>0.3136467722194761</v>
       </c>
       <c r="L257" t="n">
-        <v>0.004613932818237659</v>
+        <v>0.03064124879131297</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1474899118269699</v>
+        <v>0.3137463693788265</v>
       </c>
       <c r="N257" t="n">
-        <v>0.006738460866942186</v>
+        <v>0.04817702694184478</v>
       </c>
       <c r="O257" t="n">
-        <v>0.147030455829754</v>
+        <v>0.3143889316972166</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.006057733454170024</v>
+        <v>0.01278062951923842</v>
       </c>
       <c r="G258" t="n">
-        <v>0.06165076902124186</v>
+        <v>0.3140724443830642</v>
       </c>
       <c r="J258" t="n">
-        <v>0.005659122412633701</v>
+        <v>0.01288491468779245</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1491453509605355</v>
+        <v>0.3152803491581191</v>
       </c>
       <c r="L258" t="n">
-        <v>0.004819651242491368</v>
+        <v>0.02979670066481491</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1482580884510687</v>
+        <v>0.3153804650526746</v>
       </c>
       <c r="N258" t="n">
-        <v>0.006446411861050272</v>
+        <v>0.04741859439017559</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1477962394538673</v>
+        <v>0.3160263740498063</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.005853026657730319</v>
+        <v>0.01351382852858869</v>
       </c>
       <c r="G259" t="n">
-        <v>0.06156777135827598</v>
+        <v>0.3156997627477433</v>
       </c>
       <c r="J259" t="n">
-        <v>0.00555634725554683</v>
+        <v>0.01255155771694524</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1499181247997093</v>
+        <v>0.3169139260967622</v>
       </c>
       <c r="L259" t="n">
-        <v>0.004525791516702654</v>
+        <v>0.02924966179344776</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1490262650751675</v>
+        <v>0.3170145607265226</v>
       </c>
       <c r="N259" t="n">
-        <v>0.006571841930905487</v>
+        <v>0.04625622770781551</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1485620230779806</v>
+        <v>0.317663816402396</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.005659189897710908</v>
+        <v>0.01324580283959201</v>
       </c>
       <c r="G260" t="n">
-        <v>0.06148477369531008</v>
+        <v>0.3173270811124224</v>
       </c>
       <c r="J260" t="n">
-        <v>0.005354152771597689</v>
+        <v>0.01221712559103456</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1506908986388831</v>
+        <v>0.3185475030354054</v>
       </c>
       <c r="L260" t="n">
-        <v>0.004932368653692398</v>
+        <v>0.02870010175542273</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1497944416992663</v>
+        <v>0.3186486564003707</v>
       </c>
       <c r="N260" t="n">
-        <v>0.006015307740476206</v>
+        <v>0.04528987873792129</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1493278067020939</v>
+        <v>0.3193012587549856</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.005476596013020002</v>
+        <v>0.01297653773933394</v>
       </c>
       <c r="G261" t="n">
-        <v>0.06140177603234418</v>
+        <v>0.3189543994771015</v>
       </c>
       <c r="J261" t="n">
-        <v>0.005152541596891817</v>
+        <v>0.01218160534101258</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1514636724780568</v>
+        <v>0.3201810799740484</v>
       </c>
       <c r="L261" t="n">
-        <v>0.004939397666281375</v>
+        <v>0.02824799012895104</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1505626183233651</v>
+        <v>0.3202827520742187</v>
       </c>
       <c r="N261" t="n">
-        <v>0.006277365953730796</v>
+        <v>0.04461949932364945</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1500935903262072</v>
+        <v>0.3209387011075753</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.005305617842565766</v>
+        <v>0.0127060185149</v>
       </c>
       <c r="G262" t="n">
-        <v>0.06131877836937828</v>
+        <v>0.3205817178417806</v>
       </c>
       <c r="J262" t="n">
-        <v>0.005051516367534668</v>
+        <v>0.01184498399783145</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1522364463172306</v>
+        <v>0.3218146569126916</v>
       </c>
       <c r="L262" t="n">
-        <v>0.004746893567290356</v>
+        <v>0.02769329649224392</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1513307949474639</v>
+        <v>0.3219168477480668</v>
       </c>
       <c r="N262" t="n">
-        <v>0.005858573234637843</v>
+        <v>0.04394504130815702</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1508593739503205</v>
+        <v>0.322576143460165</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.00514662822525639</v>
+        <v>0.01243423045337574</v>
       </c>
       <c r="G263" t="n">
-        <v>0.06123578070641239</v>
+        <v>0.3222090362064596</v>
       </c>
       <c r="J263" t="n">
-        <v>0.004951079719631754</v>
+        <v>0.01150724859244333</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1530092201564043</v>
+        <v>0.3234482338513346</v>
       </c>
       <c r="L263" t="n">
-        <v>0.00475487136954017</v>
+        <v>0.02713599042351258</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1520989715715627</v>
+        <v>0.3235509434219148</v>
       </c>
       <c r="N263" t="n">
-        <v>0.005859486247165868</v>
+        <v>0.04256645653460034</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1516251575744338</v>
+        <v>0.3242135858127546</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.004999999999999998</v>
+        <v>0.01316115884184665</v>
       </c>
       <c r="G264" t="n">
-        <v>0.06115278304344649</v>
+        <v>0.3238363545711387</v>
       </c>
       <c r="J264" t="n">
-        <v>0.005051234289288588</v>
+        <v>0.0112683861558004</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1537819939955781</v>
+        <v>0.3250818107899778</v>
       </c>
       <c r="L264" t="n">
-        <v>0.004563346085851627</v>
+        <v>0.02667604150096825</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1528671481956615</v>
+        <v>0.3251850390957629</v>
       </c>
       <c r="N264" t="n">
-        <v>0.005980661655283215</v>
+        <v>0.04228369684613614</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1523909411985472</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1">
-      <c r="F265" t="n">
-        <v>0.004999999999999998</v>
-      </c>
-      <c r="G265" t="n">
-        <v>0.06113962514870965</v>
-      </c>
-    </row>
-    <row r="266" ht="15" customHeight="1">
-      <c r="F266" t="n">
-        <v>0.005640580086804306</v>
-      </c>
-      <c r="G266" t="n">
-        <v>0.06113989367717367</v>
-      </c>
-    </row>
-    <row r="267" ht="15" customHeight="1">
-      <c r="F267" t="n">
-        <v>0.006277358833763937</v>
-      </c>
-      <c r="G267" t="n">
-        <v>0.06114016220563768</v>
-      </c>
-    </row>
-    <row r="268" ht="15" customHeight="1">
-      <c r="F268" t="n">
-        <v>0.006910288664016814</v>
-      </c>
-      <c r="G268" t="n">
-        <v>0.06114043073410171</v>
-      </c>
-    </row>
-    <row r="269" ht="15" customHeight="1">
-      <c r="F269" t="n">
-        <v>0.00753932200061834</v>
-      </c>
-      <c r="G269" t="n">
-        <v>0.06114069926256572</v>
-      </c>
-    </row>
-    <row r="270" ht="15" customHeight="1">
-      <c r="F270" t="n">
-        <v>0.008164411266706625</v>
-      </c>
-      <c r="G270" t="n">
-        <v>0.06114096779102973</v>
-      </c>
-    </row>
-    <row r="271" ht="15" customHeight="1">
-      <c r="F271" t="n">
-        <v>0.00878550888539216</v>
-      </c>
-      <c r="G271" t="n">
-        <v>0.06114123631949375</v>
-      </c>
-    </row>
-    <row r="272" ht="15" customHeight="1">
-      <c r="F272" t="n">
-        <v>0.009402567279812188</v>
-      </c>
-      <c r="G272" t="n">
-        <v>0.06114150484795777</v>
-      </c>
-    </row>
-    <row r="273" ht="15" customHeight="1">
-      <c r="F273" t="n">
-        <v>0.01001553887302346</v>
-      </c>
-      <c r="G273" t="n">
-        <v>0.06114177337642179</v>
-      </c>
-    </row>
-    <row r="274" ht="15" customHeight="1">
-      <c r="F274" t="n">
-        <v>0.01062437608816343</v>
-      </c>
-      <c r="G274" t="n">
-        <v>0.0611420419048858</v>
-      </c>
-    </row>
-    <row r="275" ht="15" customHeight="1">
-      <c r="F275" t="n">
-        <v>0.01122903134834256</v>
-      </c>
-      <c r="G275" t="n">
-        <v>0.06114231043334981</v>
-      </c>
-    </row>
-    <row r="276" ht="15" customHeight="1">
-      <c r="F276" t="n">
-        <v>0.01182945707669739</v>
-      </c>
-      <c r="G276" t="n">
-        <v>0.06114257896181384</v>
-      </c>
-    </row>
-    <row r="277" ht="15" customHeight="1">
-      <c r="F277" t="n">
-        <v>0.01242560569628612</v>
-      </c>
-      <c r="G277" t="n">
-        <v>0.06114284749027785</v>
-      </c>
-    </row>
-    <row r="278" ht="15" customHeight="1">
-      <c r="F278" t="n">
-        <v>0.01301742963024546</v>
-      </c>
-      <c r="G278" t="n">
-        <v>0.06114311601874187</v>
-      </c>
-    </row>
-    <row r="279" ht="15" customHeight="1">
-      <c r="F279" t="n">
-        <v>0.01360488130168591</v>
-      </c>
-      <c r="G279" t="n">
-        <v>0.06114338454720589</v>
-      </c>
-    </row>
-    <row r="280" ht="15" customHeight="1">
-      <c r="F280" t="n">
-        <v>0.01418791313374321</v>
-      </c>
-      <c r="G280" t="n">
-        <v>0.06114365307566991</v>
-      </c>
-    </row>
-    <row r="281" ht="15" customHeight="1">
-      <c r="F281" t="n">
-        <v>0.0147664775494771</v>
-      </c>
-      <c r="G281" t="n">
-        <v>0.06114392160413393</v>
-      </c>
-    </row>
-    <row r="282" ht="15" customHeight="1">
-      <c r="F282" t="n">
-        <v>0.01534052697202352</v>
-      </c>
-      <c r="G282" t="n">
-        <v>0.06114419013259794</v>
-      </c>
-    </row>
-    <row r="283" ht="15" customHeight="1">
-      <c r="F283" t="n">
-        <v>0.01591001382449298</v>
-      </c>
-      <c r="G283" t="n">
-        <v>0.06114445866106195</v>
-      </c>
-    </row>
-    <row r="284" ht="15" customHeight="1">
-      <c r="F284" t="n">
-        <v>0.01647489053002041</v>
-      </c>
-      <c r="G284" t="n">
-        <v>0.06114472718952598</v>
-      </c>
-    </row>
-    <row r="285" ht="15" customHeight="1">
-      <c r="F285" t="n">
-        <v>0.01703510951166715</v>
-      </c>
-      <c r="G285" t="n">
-        <v>0.06114499571798999</v>
-      </c>
-    </row>
-    <row r="286" ht="15" customHeight="1">
-      <c r="F286" t="n">
-        <v>0.01759062319256836</v>
-      </c>
-      <c r="G286" t="n">
-        <v>0.06114526424645401</v>
-      </c>
-    </row>
-    <row r="287" ht="15" customHeight="1">
-      <c r="F287" t="n">
-        <v>0.01814138399583452</v>
-      </c>
-      <c r="G287" t="n">
-        <v>0.06114553277491802</v>
-      </c>
-    </row>
-    <row r="288" ht="15" customHeight="1">
-      <c r="F288" t="n">
-        <v>0.01868734434459976</v>
-      </c>
-      <c r="G288" t="n">
-        <v>0.06114580130338205</v>
-      </c>
-    </row>
-    <row r="289" ht="15" customHeight="1">
-      <c r="F289" t="n">
-        <v>0.01922845666192705</v>
-      </c>
-      <c r="G289" t="n">
-        <v>0.06114606983184606</v>
-      </c>
-    </row>
-    <row r="290" ht="15" customHeight="1">
-      <c r="F290" t="n">
-        <v>0.01976486764324963</v>
-      </c>
-      <c r="G290" t="n">
-        <v>0.06114633836031008</v>
-      </c>
-    </row>
-    <row r="291" ht="15" customHeight="1">
-      <c r="F291" t="n">
-        <v>0.02029769534547116</v>
-      </c>
-      <c r="G291" t="n">
-        <v>0.0611466068887741</v>
-      </c>
-    </row>
-    <row r="292" ht="15" customHeight="1">
-      <c r="F292" t="n">
-        <v>0.02082708646402393</v>
-      </c>
-      <c r="G292" t="n">
-        <v>0.06114687541723812</v>
-      </c>
-    </row>
-    <row r="293" ht="15" customHeight="1">
-      <c r="F293" t="n">
-        <v>0.02135299342197235</v>
-      </c>
-      <c r="G293" t="n">
-        <v>0.06114714394570214</v>
-      </c>
-    </row>
-    <row r="294" ht="15" customHeight="1">
-      <c r="F294" t="n">
-        <v>0.02187536864245002</v>
-      </c>
-      <c r="G294" t="n">
-        <v>0.06114741247416615</v>
-      </c>
-    </row>
-    <row r="295" ht="15" customHeight="1">
-      <c r="F295" t="n">
-        <v>0.02239416454856742</v>
-      </c>
-      <c r="G295" t="n">
-        <v>0.06114768100263016</v>
-      </c>
-    </row>
-    <row r="296" ht="15" customHeight="1">
-      <c r="F296" t="n">
-        <v>0.0229093335634574</v>
-      </c>
-      <c r="G296" t="n">
-        <v>0.06114794953109419</v>
-      </c>
-    </row>
-    <row r="297" ht="15" customHeight="1">
-      <c r="F297" t="n">
-        <v>0.02342082811018553</v>
-      </c>
-      <c r="G297" t="n">
-        <v>0.0611482180595582</v>
-      </c>
-    </row>
-    <row r="298" ht="15" customHeight="1">
-      <c r="F298" t="n">
-        <v>0.02392860061188487</v>
-      </c>
-      <c r="G298" t="n">
-        <v>0.06114848658802222</v>
-      </c>
-    </row>
-    <row r="299" ht="15" customHeight="1">
-      <c r="F299" t="n">
-        <v>0.02443260349166583</v>
-      </c>
-      <c r="G299" t="n">
-        <v>0.06114875511648623</v>
-      </c>
-    </row>
-    <row r="300" ht="15" customHeight="1">
-      <c r="F300" t="n">
-        <v>0.02493278917266066</v>
-      </c>
-      <c r="G300" t="n">
-        <v>0.06114902364495026</v>
-      </c>
-    </row>
-    <row r="301" ht="15" customHeight="1">
-      <c r="F301" t="n">
-        <v>0.02542911007793622</v>
-      </c>
-      <c r="G301" t="n">
-        <v>0.06114929217341427</v>
-      </c>
-    </row>
-    <row r="302" ht="15" customHeight="1">
-      <c r="F302" t="n">
-        <v>0.02592151863062492</v>
-      </c>
-      <c r="G302" t="n">
-        <v>0.06114956070187829</v>
-      </c>
-    </row>
-    <row r="303" ht="15" customHeight="1">
-      <c r="F303" t="n">
-        <v>0.02640996725383719</v>
-      </c>
-      <c r="G303" t="n">
-        <v>0.0611498292303423</v>
-      </c>
-    </row>
-    <row r="304" ht="15" customHeight="1">
-      <c r="F304" t="n">
-        <v>0.02689440837070452</v>
-      </c>
-      <c r="G304" t="n">
-        <v>0.06115009775880633</v>
-      </c>
-    </row>
-    <row r="305" ht="15" customHeight="1">
-      <c r="F305" t="n">
-        <v>0.02737479440429522</v>
-      </c>
-      <c r="G305" t="n">
-        <v>0.06115036628727034</v>
-      </c>
-    </row>
-    <row r="306" ht="15" customHeight="1">
-      <c r="F306" t="n">
-        <v>0.02785107777774097</v>
-      </c>
-      <c r="G306" t="n">
-        <v>0.06115063481573436</v>
-      </c>
-    </row>
-    <row r="307" ht="15" customHeight="1">
-      <c r="F307" t="n">
-        <v>0.02832321091415223</v>
-      </c>
-      <c r="G307" t="n">
-        <v>0.06115090334419837</v>
-      </c>
-    </row>
-    <row r="308" ht="15" customHeight="1">
-      <c r="F308" t="n">
-        <v>0.02879114623665975</v>
-      </c>
-      <c r="G308" t="n">
-        <v>0.0611511718726624</v>
-      </c>
-    </row>
-    <row r="309" ht="15" customHeight="1">
-      <c r="F309" t="n">
-        <v>0.0292548361683333</v>
-      </c>
-      <c r="G309" t="n">
-        <v>0.06115144040112641</v>
-      </c>
-    </row>
-    <row r="310" ht="15" customHeight="1">
-      <c r="F310" t="n">
-        <v>0.0297142331323038</v>
-      </c>
-      <c r="G310" t="n">
-        <v>0.06115170892959042</v>
-      </c>
-    </row>
-    <row r="311" ht="15" customHeight="1">
-      <c r="F311" t="n">
-        <v>0.03016928955168174</v>
-      </c>
-      <c r="G311" t="n">
-        <v>0.06115197745805444</v>
-      </c>
-    </row>
-    <row r="312" ht="15" customHeight="1">
-      <c r="F312" t="n">
-        <v>0.03061995784959713</v>
-      </c>
-      <c r="G312" t="n">
-        <v>0.06115224598651847</v>
-      </c>
-    </row>
-    <row r="313" ht="15" customHeight="1">
-      <c r="F313" t="n">
-        <v>0.03106619044912122</v>
-      </c>
-      <c r="G313" t="n">
-        <v>0.06115251451498248</v>
-      </c>
-    </row>
-    <row r="314" ht="15" customHeight="1">
-      <c r="F314" t="n">
-        <v>0.03150793977338417</v>
-      </c>
-      <c r="G314" t="n">
-        <v>0.06115278304344649</v>
-      </c>
-    </row>
-    <row r="315" ht="15" customHeight="1">
-      <c r="F315" t="n">
-        <v>0.03150793977338419</v>
-      </c>
-      <c r="G315" t="n">
-        <v>0.06113962514870965</v>
-      </c>
-    </row>
-    <row r="316" ht="15" customHeight="1">
-      <c r="F316" t="n">
-        <v>0.03200037536273619</v>
-      </c>
-      <c r="G316" t="n">
-        <v>0.06122315986860358</v>
-      </c>
-    </row>
-    <row r="317" ht="15" customHeight="1">
-      <c r="F317" t="n">
-        <v>0.03248814856640256</v>
-      </c>
-      <c r="G317" t="n">
-        <v>0.0613066945884975</v>
-      </c>
-    </row>
-    <row r="318" ht="15" customHeight="1">
-      <c r="F318" t="n">
-        <v>0.03297112731367055</v>
-      </c>
-      <c r="G318" t="n">
-        <v>0.06139022930839144</v>
-      </c>
-    </row>
-    <row r="319" ht="15" customHeight="1">
-      <c r="F319" t="n">
-        <v>0.03344917953382724</v>
-      </c>
-      <c r="G319" t="n">
-        <v>0.06147376402828537</v>
-      </c>
-    </row>
-    <row r="320" ht="15" customHeight="1">
-      <c r="F320" t="n">
-        <v>0.03392217315615986</v>
-      </c>
-      <c r="G320" t="n">
-        <v>0.0615572987481793</v>
-      </c>
-    </row>
-    <row r="321" ht="15" customHeight="1">
-      <c r="F321" t="n">
-        <v>0.03438997610995562</v>
-      </c>
-      <c r="G321" t="n">
-        <v>0.06164083346807323</v>
-      </c>
-    </row>
-    <row r="322" ht="15" customHeight="1">
-      <c r="F322" t="n">
-        <v>0.03485245632450167</v>
-      </c>
-      <c r="G322" t="n">
-        <v>0.06172436818796715</v>
-      </c>
-    </row>
-    <row r="323" ht="15" customHeight="1">
-      <c r="F323" t="n">
-        <v>0.03530948172908527</v>
-      </c>
-      <c r="G323" t="n">
-        <v>0.06180790290786109</v>
-      </c>
-    </row>
-    <row r="324" ht="15" customHeight="1">
-      <c r="F324" t="n">
-        <v>0.03576092025299349</v>
-      </c>
-      <c r="G324" t="n">
-        <v>0.06189143762775502</v>
-      </c>
-    </row>
-    <row r="325" ht="15" customHeight="1">
-      <c r="F325" t="n">
-        <v>0.03620663982551356</v>
-      </c>
-      <c r="G325" t="n">
-        <v>0.06197497234764895</v>
-      </c>
-    </row>
-    <row r="326" ht="15" customHeight="1">
-      <c r="F326" t="n">
-        <v>0.03664650837593267</v>
-      </c>
-      <c r="G326" t="n">
-        <v>0.06205850706754287</v>
-      </c>
-    </row>
-    <row r="327" ht="15" customHeight="1">
-      <c r="F327" t="n">
-        <v>0.03708039383353799</v>
-      </c>
-      <c r="G327" t="n">
-        <v>0.0621420417874368</v>
-      </c>
-    </row>
-    <row r="328" ht="15" customHeight="1">
-      <c r="F328" t="n">
-        <v>0.0375081641276168</v>
-      </c>
-      <c r="G328" t="n">
-        <v>0.06222557650733074</v>
-      </c>
-    </row>
-    <row r="329" ht="15" customHeight="1">
-      <c r="F329" t="n">
-        <v>0.03792968718745617</v>
-      </c>
-      <c r="G329" t="n">
-        <v>0.06230911122722466</v>
-      </c>
-    </row>
-    <row r="330" ht="15" customHeight="1">
-      <c r="F330" t="n">
-        <v>0.03834483094234328</v>
-      </c>
-      <c r="G330" t="n">
-        <v>0.0623926459471186</v>
-      </c>
-    </row>
-    <row r="331" ht="15" customHeight="1">
-      <c r="F331" t="n">
-        <v>0.03875346332156537</v>
-      </c>
-      <c r="G331" t="n">
-        <v>0.06247618066701252</v>
-      </c>
-    </row>
-    <row r="332" ht="15" customHeight="1">
-      <c r="F332" t="n">
-        <v>0.03915545225440961</v>
-      </c>
-      <c r="G332" t="n">
-        <v>0.06255971538690645</v>
-      </c>
-    </row>
-    <row r="333" ht="15" customHeight="1">
-      <c r="F333" t="n">
-        <v>0.03955066567016323</v>
-      </c>
-      <c r="G333" t="n">
-        <v>0.06264325010680039</v>
-      </c>
-    </row>
-    <row r="334" ht="15" customHeight="1">
-      <c r="F334" t="n">
-        <v>0.03993897149811332</v>
-      </c>
-      <c r="G334" t="n">
-        <v>0.06272678482669432</v>
-      </c>
-    </row>
-    <row r="335" ht="15" customHeight="1">
-      <c r="F335" t="n">
-        <v>0.04032023766754712</v>
-      </c>
-      <c r="G335" t="n">
-        <v>0.06281031954658824</v>
-      </c>
-    </row>
-    <row r="336" ht="15" customHeight="1">
-      <c r="F336" t="n">
-        <v>0.04069433210775181</v>
-      </c>
-      <c r="G336" t="n">
-        <v>0.06289385426648217</v>
-      </c>
-    </row>
-    <row r="337" ht="15" customHeight="1">
-      <c r="F337" t="n">
-        <v>0.0410611227480146</v>
-      </c>
-      <c r="G337" t="n">
-        <v>0.0629773889863761</v>
-      </c>
-    </row>
-    <row r="338" ht="15" customHeight="1">
-      <c r="F338" t="n">
-        <v>0.04142047751762262</v>
-      </c>
-      <c r="G338" t="n">
-        <v>0.06306092370627003</v>
-      </c>
-    </row>
-    <row r="339" ht="15" customHeight="1">
-      <c r="F339" t="n">
-        <v>0.04177226434586305</v>
-      </c>
-      <c r="G339" t="n">
-        <v>0.06314445842616397</v>
-      </c>
-    </row>
-    <row r="340" ht="15" customHeight="1">
-      <c r="F340" t="n">
-        <v>0.04211689045076711</v>
-      </c>
-      <c r="G340" t="n">
-        <v>0.06322799314605788</v>
-      </c>
-    </row>
-    <row r="341" ht="15" customHeight="1">
-      <c r="F341" t="n">
-        <v>0.04245745949408597</v>
-      </c>
-      <c r="G341" t="n">
-        <v>0.06331152786595182</v>
-      </c>
-    </row>
-    <row r="342" ht="15" customHeight="1">
-      <c r="F342" t="n">
-        <v>0.04279437869385085</v>
-      </c>
-      <c r="G342" t="n">
-        <v>0.06339506258584575</v>
-      </c>
-    </row>
-    <row r="343" ht="15" customHeight="1">
-      <c r="F343" t="n">
-        <v>0.04312751597934882</v>
-      </c>
-      <c r="G343" t="n">
-        <v>0.06347859730573968</v>
-      </c>
-    </row>
-    <row r="344" ht="15" customHeight="1">
-      <c r="F344" t="n">
-        <v>0.04345673927986712</v>
-      </c>
-      <c r="G344" t="n">
-        <v>0.06356213202563361</v>
-      </c>
-    </row>
-    <row r="345" ht="15" customHeight="1">
-      <c r="F345" t="n">
-        <v>0.04378191652469297</v>
-      </c>
-      <c r="G345" t="n">
-        <v>0.06364566674552753</v>
-      </c>
-    </row>
-    <row r="346" ht="15" customHeight="1">
-      <c r="F346" t="n">
-        <v>0.04410291564311351</v>
-      </c>
-      <c r="G346" t="n">
-        <v>0.06372920146542146</v>
-      </c>
-    </row>
-    <row r="347" ht="15" customHeight="1">
-      <c r="F347" t="n">
-        <v>0.04441960456441597</v>
-      </c>
-      <c r="G347" t="n">
-        <v>0.0638127361853154</v>
-      </c>
-    </row>
-    <row r="348" ht="15" customHeight="1">
-      <c r="F348" t="n">
-        <v>0.04473185121788749</v>
-      </c>
-      <c r="G348" t="n">
-        <v>0.06389627090520933</v>
-      </c>
-    </row>
-    <row r="349" ht="15" customHeight="1">
-      <c r="F349" t="n">
-        <v>0.04503952353281523</v>
-      </c>
-      <c r="G349" t="n">
-        <v>0.06397980562510326</v>
-      </c>
-    </row>
-    <row r="350" ht="15" customHeight="1">
-      <c r="F350" t="n">
-        <v>0.04534248943848646</v>
-      </c>
-      <c r="G350" t="n">
-        <v>0.06406334034499718</v>
-      </c>
-    </row>
-    <row r="351" ht="15" customHeight="1">
-      <c r="F351" t="n">
-        <v>0.04564061686418829</v>
-      </c>
-      <c r="G351" t="n">
-        <v>0.06414687506489111</v>
-      </c>
-    </row>
-    <row r="352" ht="15" customHeight="1">
-      <c r="F352" t="n">
-        <v>0.04593377373920798</v>
-      </c>
-      <c r="G352" t="n">
-        <v>0.06423040978478504</v>
-      </c>
-    </row>
-    <row r="353" ht="15" customHeight="1">
-      <c r="F353" t="n">
-        <v>0.04622182799283263</v>
-      </c>
-      <c r="G353" t="n">
-        <v>0.06431394450467898</v>
-      </c>
-    </row>
-    <row r="354" ht="15" customHeight="1">
-      <c r="F354" t="n">
-        <v>0.04650464755434947</v>
-      </c>
-      <c r="G354" t="n">
-        <v>0.06439747922457291</v>
-      </c>
-    </row>
-    <row r="355" ht="15" customHeight="1">
-      <c r="F355" t="n">
-        <v>0.04678210035304566</v>
-      </c>
-      <c r="G355" t="n">
-        <v>0.06448101394446683</v>
-      </c>
-    </row>
-    <row r="356" ht="15" customHeight="1">
-      <c r="F356" t="n">
-        <v>0.0470540543182084</v>
-      </c>
-      <c r="G356" t="n">
-        <v>0.06456454866436076</v>
-      </c>
-    </row>
-    <row r="357" ht="15" customHeight="1">
-      <c r="F357" t="n">
-        <v>0.04732037737912491</v>
-      </c>
-      <c r="G357" t="n">
-        <v>0.06464808338425469</v>
-      </c>
-    </row>
-    <row r="358" ht="15" customHeight="1">
-      <c r="F358" t="n">
-        <v>0.04758093746508232</v>
-      </c>
-      <c r="G358" t="n">
-        <v>0.06473161810414862</v>
-      </c>
-    </row>
-    <row r="359" ht="15" customHeight="1">
-      <c r="F359" t="n">
-        <v>0.04783560250536782</v>
-      </c>
-      <c r="G359" t="n">
-        <v>0.06481515282404256</v>
-      </c>
-    </row>
-    <row r="360" ht="15" customHeight="1">
-      <c r="F360" t="n">
-        <v>0.04808424042926861</v>
-      </c>
-      <c r="G360" t="n">
-        <v>0.06489868754393648</v>
-      </c>
-    </row>
-    <row r="361" ht="15" customHeight="1">
-      <c r="F361" t="n">
-        <v>0.04832671916607187</v>
-      </c>
-      <c r="G361" t="n">
-        <v>0.06498222226383041</v>
-      </c>
-    </row>
-    <row r="362" ht="15" customHeight="1">
-      <c r="F362" t="n">
-        <v>0.04856290664506481</v>
-      </c>
-      <c r="G362" t="n">
-        <v>0.06506575698372434</v>
-      </c>
-    </row>
-    <row r="363" ht="15" customHeight="1">
-      <c r="F363" t="n">
-        <v>0.04879267079553459</v>
-      </c>
-      <c r="G363" t="n">
-        <v>0.06514929170361827</v>
-      </c>
-    </row>
-    <row r="364" ht="15" customHeight="1">
-      <c r="F364" t="n">
-        <v>0.04901587954676838</v>
-      </c>
-      <c r="G364" t="n">
-        <v>0.06523282642351221</v>
-      </c>
-    </row>
-    <row r="365" ht="15" customHeight="1">
-      <c r="F365" t="n">
-        <v>0.04034391969784559</v>
-      </c>
-      <c r="G365" t="n">
-        <v>0.06523282642351221</v>
-      </c>
-    </row>
-    <row r="366" ht="15" customHeight="1">
-      <c r="F366" t="n">
-        <v>0.04912548917257509</v>
-      </c>
-      <c r="G366" t="n">
-        <v>0.06702941706956411</v>
-      </c>
-    </row>
-    <row r="367" ht="15" customHeight="1">
-      <c r="F367" t="n">
-        <v>0.04922678156075971</v>
-      </c>
-      <c r="G367" t="n">
-        <v>0.06882600771561602</v>
-      </c>
-    </row>
-    <row r="368" ht="15" customHeight="1">
-      <c r="F368" t="n">
-        <v>0.04932008488429473</v>
-      </c>
-      <c r="G368" t="n">
-        <v>0.07062259836166794</v>
-      </c>
-    </row>
-    <row r="369" ht="15" customHeight="1">
-      <c r="F369" t="n">
-        <v>0.0494057273161526</v>
-      </c>
-      <c r="G369" t="n">
-        <v>0.07241918900771986</v>
-      </c>
-    </row>
-    <row r="370" ht="15" customHeight="1">
-      <c r="F370" t="n">
-        <v>0.04948403702930575</v>
-      </c>
-      <c r="G370" t="n">
-        <v>0.07421577965377177</v>
-      </c>
-    </row>
-    <row r="371" ht="15" customHeight="1">
-      <c r="F371" t="n">
-        <v>0.04955534219672662</v>
-      </c>
-      <c r="G371" t="n">
-        <v>0.07601237029982369</v>
-      </c>
-    </row>
-    <row r="372" ht="15" customHeight="1">
-      <c r="F372" t="n">
-        <v>0.04961997099138775</v>
-      </c>
-      <c r="G372" t="n">
-        <v>0.0778089609458756</v>
-      </c>
-    </row>
-    <row r="373" ht="15" customHeight="1">
-      <c r="F373" t="n">
-        <v>0.04967825158626152</v>
-      </c>
-      <c r="G373" t="n">
-        <v>0.07960555159192752</v>
-      </c>
-    </row>
-    <row r="374" ht="15" customHeight="1">
-      <c r="F374" t="n">
-        <v>0.04973051215432044</v>
-      </c>
-      <c r="G374" t="n">
-        <v>0.08140214223797942</v>
-      </c>
-    </row>
-    <row r="375" ht="15" customHeight="1">
-      <c r="F375" t="n">
-        <v>0.04977708086853692</v>
-      </c>
-      <c r="G375" t="n">
-        <v>0.08319873288403135</v>
-      </c>
-    </row>
-    <row r="376" ht="15" customHeight="1">
-      <c r="F376" t="n">
-        <v>0.04981828590188345</v>
-      </c>
-      <c r="G376" t="n">
-        <v>0.08499532353008325</v>
-      </c>
-    </row>
-    <row r="377" ht="15" customHeight="1">
-      <c r="F377" t="n">
-        <v>0.04985445542733247</v>
-      </c>
-      <c r="G377" t="n">
-        <v>0.08679191417613517</v>
-      </c>
-    </row>
-    <row r="378" ht="15" customHeight="1">
-      <c r="F378" t="n">
-        <v>0.04988591761785643</v>
-      </c>
-      <c r="G378" t="n">
-        <v>0.08858850482218709</v>
-      </c>
-    </row>
-    <row r="379" ht="15" customHeight="1">
-      <c r="F379" t="n">
-        <v>0.0499130006464278</v>
-      </c>
-      <c r="G379" t="n">
-        <v>0.090385095468239</v>
-      </c>
-    </row>
-    <row r="380" ht="15" customHeight="1">
-      <c r="F380" t="n">
-        <v>0.04993603268601904</v>
-      </c>
-      <c r="G380" t="n">
-        <v>0.09218168611429092</v>
-      </c>
-    </row>
-    <row r="381" ht="15" customHeight="1">
-      <c r="F381" t="n">
-        <v>0.04995534190960259</v>
-      </c>
-      <c r="G381" t="n">
-        <v>0.09397827676034283</v>
-      </c>
-    </row>
-    <row r="382" ht="15" customHeight="1">
-      <c r="F382" t="n">
-        <v>0.04997125649015091</v>
-      </c>
-      <c r="G382" t="n">
-        <v>0.09577486740639474</v>
-      </c>
-    </row>
-    <row r="383" ht="15" customHeight="1">
-      <c r="F383" t="n">
-        <v>0.04998410460063649</v>
-      </c>
-      <c r="G383" t="n">
-        <v>0.09757145805244666</v>
-      </c>
-    </row>
-    <row r="384" ht="15" customHeight="1">
-      <c r="F384" t="n">
-        <v>0.04999421441403175</v>
-      </c>
-      <c r="G384" t="n">
-        <v>0.09936804869849858</v>
-      </c>
-    </row>
-    <row r="385" ht="15" customHeight="1">
-      <c r="F385" t="n">
-        <v>0.05000191410330916</v>
-      </c>
-      <c r="G385" t="n">
-        <v>0.1011646393445505</v>
-      </c>
-    </row>
-    <row r="386" ht="15" customHeight="1">
-      <c r="F386" t="n">
-        <v>0.05000753184144117</v>
-      </c>
-      <c r="G386" t="n">
-        <v>0.1029612299906024</v>
-      </c>
-    </row>
-    <row r="387" ht="15" customHeight="1">
-      <c r="F387" t="n">
-        <v>0.05001139580140025</v>
-      </c>
-      <c r="G387" t="n">
-        <v>0.1047578206366543</v>
-      </c>
-    </row>
-    <row r="388" ht="15" customHeight="1">
-      <c r="F388" t="n">
-        <v>0.05001383415615886</v>
-      </c>
-      <c r="G388" t="n">
-        <v>0.1065544112827062</v>
-      </c>
-    </row>
-    <row r="389" ht="15" customHeight="1">
-      <c r="F389" t="n">
-        <v>0.05001517507868943</v>
-      </c>
-      <c r="G389" t="n">
-        <v>0.1083510019287581</v>
-      </c>
-    </row>
-    <row r="390" ht="15" customHeight="1">
-      <c r="F390" t="n">
-        <v>0.05001574674196442</v>
-      </c>
-      <c r="G390" t="n">
-        <v>0.1101475925748101</v>
-      </c>
-    </row>
-    <row r="391" ht="15" customHeight="1">
-      <c r="F391" t="n">
-        <v>0.05001587731895631</v>
-      </c>
-      <c r="G391" t="n">
-        <v>0.111944183220862</v>
-      </c>
-    </row>
-    <row r="392" ht="15" customHeight="1">
-      <c r="F392" t="n">
-        <v>0.04999939291444733</v>
-      </c>
-      <c r="G392" t="n">
-        <v>0.1137407738669139</v>
-      </c>
-    </row>
-    <row r="393" ht="15" customHeight="1">
-      <c r="F393" t="n">
-        <v>0.04991311595339698</v>
-      </c>
-      <c r="G393" t="n">
-        <v>0.1155373645129658</v>
-      </c>
-    </row>
-    <row r="394" ht="15" customHeight="1">
-      <c r="F394" t="n">
-        <v>0.04975746950906094</v>
-      </c>
-      <c r="G394" t="n">
-        <v>0.1173339551590177</v>
-      </c>
-    </row>
-    <row r="395" ht="15" customHeight="1">
-      <c r="F395" t="n">
-        <v>0.04953751044979092</v>
-      </c>
-      <c r="G395" t="n">
-        <v>0.1191305458050696</v>
-      </c>
-    </row>
-    <row r="396" ht="15" customHeight="1">
-      <c r="F396" t="n">
-        <v>0.04925829564393858</v>
-      </c>
-      <c r="G396" t="n">
-        <v>0.1209271364511215</v>
-      </c>
-    </row>
-    <row r="397" ht="15" customHeight="1">
-      <c r="F397" t="n">
-        <v>0.04892488195985563</v>
-      </c>
-      <c r="G397" t="n">
-        <v>0.1227237270971735</v>
-      </c>
-    </row>
-    <row r="398" ht="15" customHeight="1">
-      <c r="F398" t="n">
-        <v>0.04854232626589379</v>
-      </c>
-      <c r="G398" t="n">
-        <v>0.1245203177432254</v>
-      </c>
-    </row>
-    <row r="399" ht="15" customHeight="1">
-      <c r="F399" t="n">
-        <v>0.04811568543040474</v>
-      </c>
-      <c r="G399" t="n">
-        <v>0.1263169083892773</v>
-      </c>
-    </row>
-    <row r="400" ht="15" customHeight="1">
-      <c r="F400" t="n">
-        <v>0.04765001632174018</v>
-      </c>
-      <c r="G400" t="n">
-        <v>0.1281134990353292</v>
-      </c>
-    </row>
-    <row r="401" ht="15" customHeight="1">
-      <c r="F401" t="n">
-        <v>0.04715037580825181</v>
-      </c>
-      <c r="G401" t="n">
-        <v>0.1299100896813811</v>
-      </c>
-    </row>
-    <row r="402" ht="15" customHeight="1">
-      <c r="F402" t="n">
-        <v>0.04662182075829134</v>
-      </c>
-      <c r="G402" t="n">
-        <v>0.131706680327433</v>
-      </c>
-    </row>
-    <row r="403" ht="15" customHeight="1">
-      <c r="F403" t="n">
-        <v>0.04606940804021044</v>
-      </c>
-      <c r="G403" t="n">
-        <v>0.1335032709734849</v>
-      </c>
-    </row>
-    <row r="404" ht="15" customHeight="1">
-      <c r="F404" t="n">
-        <v>0.04549819452236083</v>
-      </c>
-      <c r="G404" t="n">
-        <v>0.1352998616195369</v>
-      </c>
-    </row>
-    <row r="405" ht="15" customHeight="1">
-      <c r="F405" t="n">
-        <v>0.04491323707309419</v>
-      </c>
-      <c r="G405" t="n">
-        <v>0.1370964522655888</v>
-      </c>
-    </row>
-    <row r="406" ht="15" customHeight="1">
-      <c r="F406" t="n">
-        <v>0.04431959256076225</v>
-      </c>
-      <c r="G406" t="n">
-        <v>0.1388930429116407</v>
-      </c>
-    </row>
-    <row r="407" ht="15" customHeight="1">
-      <c r="F407" t="n">
-        <v>0.04372231785371669</v>
-      </c>
-      <c r="G407" t="n">
-        <v>0.1406896335576926</v>
-      </c>
-    </row>
-    <row r="408" ht="15" customHeight="1">
-      <c r="F408" t="n">
-        <v>0.04312646982030918</v>
-      </c>
-      <c r="G408" t="n">
-        <v>0.1424862242037445</v>
-      </c>
-    </row>
-    <row r="409" ht="15" customHeight="1">
-      <c r="F409" t="n">
-        <v>0.04253710532889148</v>
-      </c>
-      <c r="G409" t="n">
-        <v>0.1442828148497964</v>
-      </c>
-    </row>
-    <row r="410" ht="15" customHeight="1">
-      <c r="F410" t="n">
-        <v>0.04195928124781524</v>
-      </c>
-      <c r="G410" t="n">
-        <v>0.1460794054958484</v>
-      </c>
-    </row>
-    <row r="411" ht="15" customHeight="1">
-      <c r="F411" t="n">
-        <v>0.04139805444543217</v>
-      </c>
-      <c r="G411" t="n">
-        <v>0.1478759961419003</v>
-      </c>
-    </row>
-    <row r="412" ht="15" customHeight="1">
-      <c r="F412" t="n">
-        <v>0.04085848179009398</v>
-      </c>
-      <c r="G412" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="413" ht="15" customHeight="1">
-      <c r="F413" t="n">
-        <v>0.04034562015015233</v>
-      </c>
-      <c r="G413" t="n">
-        <v>0.1514691774340041</v>
-      </c>
-    </row>
-    <row r="414" ht="15" customHeight="1">
-      <c r="F414" t="n">
-        <v>0.03986452639395899</v>
-      </c>
-      <c r="G414" t="n">
-        <v>0.153265768080056</v>
-      </c>
-    </row>
-    <row r="415" ht="15" customHeight="1">
-      <c r="F415" t="n">
-        <v>0.03942025738986557</v>
-      </c>
-      <c r="G415" t="n">
-        <v>0.1550623587261079</v>
-      </c>
-    </row>
-    <row r="416" ht="15" customHeight="1">
-      <c r="F416" t="n">
-        <v>0.03899408826268286</v>
-      </c>
-      <c r="G416" t="n">
-        <v>0.1568589493721598</v>
-      </c>
-    </row>
-    <row r="417" ht="15" customHeight="1">
-      <c r="F417" t="n">
-        <v>0.03855613456131901</v>
-      </c>
-      <c r="G417" t="n">
-        <v>0.1586555400182117</v>
-      </c>
-    </row>
-    <row r="418" ht="15" customHeight="1">
-      <c r="F418" t="n">
-        <v>0.03810800544740016</v>
-      </c>
-      <c r="G418" t="n">
-        <v>0.1604521306642637</v>
-      </c>
-    </row>
-    <row r="419" ht="15" customHeight="1">
-      <c r="F419" t="n">
-        <v>0.03765151753278928</v>
-      </c>
-      <c r="G419" t="n">
-        <v>0.1622487213103156</v>
-      </c>
-    </row>
-    <row r="420" ht="15" customHeight="1">
-      <c r="F420" t="n">
-        <v>0.0371884874293493</v>
-      </c>
-      <c r="G420" t="n">
-        <v>0.1640453119563675</v>
-      </c>
-    </row>
-    <row r="421" ht="15" customHeight="1">
-      <c r="F421" t="n">
-        <v>0.03672073174894309</v>
-      </c>
-      <c r="G421" t="n">
-        <v>0.1658419026024194</v>
-      </c>
-    </row>
-    <row r="422" ht="15" customHeight="1">
-      <c r="F422" t="n">
-        <v>0.03625006710343359</v>
-      </c>
-      <c r="G422" t="n">
-        <v>0.1676384932484713</v>
-      </c>
-    </row>
-    <row r="423" ht="15" customHeight="1">
-      <c r="F423" t="n">
-        <v>0.03577831010468377</v>
-      </c>
-      <c r="G423" t="n">
-        <v>0.1694350838945232</v>
-      </c>
-    </row>
-    <row r="424" ht="15" customHeight="1">
-      <c r="F424" t="n">
-        <v>0.03530727736455651</v>
-      </c>
-      <c r="G424" t="n">
-        <v>0.1712316745405752</v>
-      </c>
-    </row>
-    <row r="425" ht="15" customHeight="1">
-      <c r="F425" t="n">
-        <v>0.03483878549491475</v>
-      </c>
-      <c r="G425" t="n">
-        <v>0.1730282651866271</v>
-      </c>
-    </row>
-    <row r="426" ht="15" customHeight="1">
-      <c r="F426" t="n">
-        <v>0.0343746511076214</v>
-      </c>
-      <c r="G426" t="n">
-        <v>0.174824855832679</v>
-      </c>
-    </row>
-    <row r="427" ht="15" customHeight="1">
-      <c r="F427" t="n">
-        <v>0.03391669081453938</v>
-      </c>
-      <c r="G427" t="n">
-        <v>0.1766214464787309</v>
-      </c>
-    </row>
-    <row r="428" ht="15" customHeight="1">
-      <c r="F428" t="n">
-        <v>0.03346672122753165</v>
-      </c>
-      <c r="G428" t="n">
-        <v>0.1784180371247828</v>
-      </c>
-    </row>
-    <row r="429" ht="15" customHeight="1">
-      <c r="F429" t="n">
-        <v>0.03302655895846111</v>
-      </c>
-      <c r="G429" t="n">
-        <v>0.1802146277708347</v>
-      </c>
-    </row>
-    <row r="430" ht="15" customHeight="1">
-      <c r="F430" t="n">
-        <v>0.03259802061919066</v>
-      </c>
-      <c r="G430" t="n">
-        <v>0.1820112184168866</v>
-      </c>
-    </row>
-    <row r="431" ht="15" customHeight="1">
-      <c r="F431" t="n">
-        <v>0.03218292282158328</v>
-      </c>
-      <c r="G431" t="n">
-        <v>0.1838078090629386</v>
-      </c>
-    </row>
-    <row r="432" ht="15" customHeight="1">
-      <c r="F432" t="n">
-        <v>0.03178308217750185</v>
-      </c>
-      <c r="G432" t="n">
-        <v>0.1856043997089905</v>
-      </c>
-    </row>
-    <row r="433" ht="15" customHeight="1">
-      <c r="F433" t="n">
-        <v>0.03140031529880929</v>
-      </c>
-      <c r="G433" t="n">
-        <v>0.1874009903550424</v>
-      </c>
-    </row>
-    <row r="434" ht="15" customHeight="1">
-      <c r="F434" t="n">
-        <v>0.03103643879736856</v>
-      </c>
-      <c r="G434" t="n">
-        <v>0.1891975810010943</v>
-      </c>
-    </row>
-    <row r="435" ht="15" customHeight="1">
-      <c r="F435" t="n">
-        <v>0.03069326928504255</v>
-      </c>
-      <c r="G435" t="n">
-        <v>0.1909941716471462</v>
-      </c>
-    </row>
-    <row r="436" ht="15" customHeight="1">
-      <c r="F436" t="n">
-        <v>0.03037262337369422</v>
-      </c>
-      <c r="G436" t="n">
-        <v>0.1927907622931981</v>
-      </c>
-    </row>
-    <row r="437" ht="15" customHeight="1">
-      <c r="F437" t="n">
-        <v>0.03007631767518644</v>
-      </c>
-      <c r="G437" t="n">
-        <v>0.19458735293925</v>
-      </c>
-    </row>
-    <row r="438" ht="15" customHeight="1">
-      <c r="F438" t="n">
-        <v>0.02980616880138218</v>
-      </c>
-      <c r="G438" t="n">
-        <v>0.196383943585302</v>
-      </c>
-    </row>
-    <row r="439" ht="15" customHeight="1">
-      <c r="F439" t="n">
-        <v>0.02956399336414436</v>
-      </c>
-      <c r="G439" t="n">
-        <v>0.1981805342313538</v>
-      </c>
-    </row>
-    <row r="440" ht="15" customHeight="1">
-      <c r="F440" t="n">
-        <v>0.02935160797533588</v>
-      </c>
-      <c r="G440" t="n">
-        <v>0.1999771248774058</v>
-      </c>
-    </row>
-    <row r="441" ht="15" customHeight="1">
-      <c r="F441" t="n">
-        <v>0.02917024725955594</v>
-      </c>
-      <c r="G441" t="n">
-        <v>0.2017737155234577</v>
-      </c>
-    </row>
-    <row r="442" ht="15" customHeight="1">
-      <c r="F442" t="n">
-        <v>0.02900036047017815</v>
-      </c>
-      <c r="G442" t="n">
-        <v>0.2035703061695096</v>
-      </c>
-    </row>
-    <row r="443" ht="15" customHeight="1">
-      <c r="F443" t="n">
-        <v>0.02883207197058442</v>
-      </c>
-      <c r="G443" t="n">
-        <v>0.2053668968155615</v>
-      </c>
-    </row>
-    <row r="444" ht="15" customHeight="1">
-      <c r="F444" t="n">
-        <v>0.02866593555237733</v>
-      </c>
-      <c r="G444" t="n">
-        <v>0.2071634874616134</v>
-      </c>
-    </row>
-    <row r="445" ht="15" customHeight="1">
-      <c r="F445" t="n">
-        <v>0.02850250500715955</v>
-      </c>
-      <c r="G445" t="n">
-        <v>0.2089600781076654</v>
-      </c>
-    </row>
-    <row r="446" ht="15" customHeight="1">
-      <c r="F446" t="n">
-        <v>0.02834233412653371</v>
-      </c>
-      <c r="G446" t="n">
-        <v>0.2107566687537172</v>
-      </c>
-    </row>
-    <row r="447" ht="15" customHeight="1">
-      <c r="F447" t="n">
-        <v>0.02818597670210242</v>
-      </c>
-      <c r="G447" t="n">
-        <v>0.2125532593997692</v>
-      </c>
-    </row>
-    <row r="448" ht="15" customHeight="1">
-      <c r="F448" t="n">
-        <v>0.02803398652546835</v>
-      </c>
-      <c r="G448" t="n">
-        <v>0.2143498500458211</v>
-      </c>
-    </row>
-    <row r="449" ht="15" customHeight="1">
-      <c r="F449" t="n">
-        <v>0.02788691738823412</v>
-      </c>
-      <c r="G449" t="n">
-        <v>0.216146440691873</v>
-      </c>
-    </row>
-    <row r="450" ht="15" customHeight="1">
-      <c r="F450" t="n">
-        <v>0.02774532308200235</v>
-      </c>
-      <c r="G450" t="n">
-        <v>0.2179430313379249</v>
-      </c>
-    </row>
-    <row r="451" ht="15" customHeight="1">
-      <c r="F451" t="n">
-        <v>0.02760975739837569</v>
-      </c>
-      <c r="G451" t="n">
-        <v>0.2197396219839768</v>
-      </c>
-    </row>
-    <row r="452" ht="15" customHeight="1">
-      <c r="F452" t="n">
-        <v>0.02748077412895678</v>
-      </c>
-      <c r="G452" t="n">
-        <v>0.2215362126300287</v>
-      </c>
-    </row>
-    <row r="453" ht="15" customHeight="1">
-      <c r="F453" t="n">
-        <v>0.02735892706534823</v>
-      </c>
-      <c r="G453" t="n">
-        <v>0.2233328032760806</v>
-      </c>
-    </row>
-    <row r="454" ht="15" customHeight="1">
-      <c r="F454" t="n">
-        <v>0.02724476999915271</v>
-      </c>
-      <c r="G454" t="n">
-        <v>0.2251293939221326</v>
-      </c>
-    </row>
-    <row r="455" ht="15" customHeight="1">
-      <c r="F455" t="n">
-        <v>0.02713885672197282</v>
-      </c>
-      <c r="G455" t="n">
-        <v>0.2269259845681845</v>
-      </c>
-    </row>
-    <row r="456" ht="15" customHeight="1">
-      <c r="F456" t="n">
-        <v>0.02704174102541122</v>
-      </c>
-      <c r="G456" t="n">
-        <v>0.2287225752142364</v>
-      </c>
-    </row>
-    <row r="457" ht="15" customHeight="1">
-      <c r="F457" t="n">
-        <v>0.02695397670107051</v>
-      </c>
-      <c r="G457" t="n">
-        <v>0.2305191658602883</v>
-      </c>
-    </row>
-    <row r="458" ht="15" customHeight="1">
-      <c r="F458" t="n">
-        <v>0.02687611754055336</v>
-      </c>
-      <c r="G458" t="n">
-        <v>0.2323157565063403</v>
-      </c>
-    </row>
-    <row r="459" ht="15" customHeight="1">
-      <c r="F459" t="n">
-        <v>0.02680871733546238</v>
-      </c>
-      <c r="G459" t="n">
-        <v>0.2341123471523922</v>
-      </c>
-    </row>
-    <row r="460" ht="15" customHeight="1">
-      <c r="F460" t="n">
-        <v>0.02675232987740023</v>
-      </c>
-      <c r="G460" t="n">
-        <v>0.235908937798444</v>
-      </c>
-    </row>
-    <row r="461" ht="15" customHeight="1">
-      <c r="F461" t="n">
-        <v>0.02670750895796951</v>
-      </c>
-      <c r="G461" t="n">
-        <v>0.237705528444496</v>
-      </c>
-    </row>
-    <row r="462" ht="15" customHeight="1">
-      <c r="F462" t="n">
-        <v>0.0266748083687729</v>
-      </c>
-      <c r="G462" t="n">
-        <v>0.2395021190905479</v>
-      </c>
-    </row>
-    <row r="463" ht="15" customHeight="1">
-      <c r="F463" t="n">
-        <v>0.026654781901413</v>
-      </c>
-      <c r="G463" t="n">
-        <v>0.2412987097365998</v>
-      </c>
-    </row>
-    <row r="464" ht="15" customHeight="1">
-      <c r="F464" t="n">
-        <v>0.02664798334749245</v>
-      </c>
-      <c r="G464" t="n">
-        <v>0.2430953003826517</v>
-      </c>
-    </row>
+        <v>0.3258510281653443</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1"/>
+    <row r="266" ht="15" customHeight="1"/>
+    <row r="267" ht="15" customHeight="1"/>
+    <row r="268" ht="15" customHeight="1"/>
+    <row r="269" ht="15" customHeight="1"/>
+    <row r="270" ht="15" customHeight="1"/>
+    <row r="271" ht="15" customHeight="1"/>
+    <row r="272" ht="15" customHeight="1"/>
+    <row r="273" ht="15" customHeight="1"/>
+    <row r="274" ht="15" customHeight="1"/>
+    <row r="275" ht="15" customHeight="1"/>
+    <row r="276" ht="15" customHeight="1"/>
+    <row r="277" ht="15" customHeight="1"/>
+    <row r="278" ht="15" customHeight="1"/>
+    <row r="279" ht="15" customHeight="1"/>
+    <row r="280" ht="15" customHeight="1"/>
+    <row r="281" ht="15" customHeight="1"/>
+    <row r="282" ht="15" customHeight="1"/>
+    <row r="283" ht="15" customHeight="1"/>
+    <row r="284" ht="15" customHeight="1"/>
+    <row r="285" ht="15" customHeight="1"/>
+    <row r="286" ht="15" customHeight="1"/>
+    <row r="287" ht="15" customHeight="1"/>
+    <row r="288" ht="15" customHeight="1"/>
+    <row r="289" ht="15" customHeight="1"/>
+    <row r="290" ht="15" customHeight="1"/>
+    <row r="291" ht="15" customHeight="1"/>
+    <row r="292" ht="15" customHeight="1"/>
+    <row r="293" ht="15" customHeight="1"/>
+    <row r="294" ht="15" customHeight="1"/>
+    <row r="295" ht="15" customHeight="1"/>
+    <row r="296" ht="15" customHeight="1"/>
+    <row r="297" ht="15" customHeight="1"/>
+    <row r="298" ht="15" customHeight="1"/>
+    <row r="299" ht="15" customHeight="1"/>
+    <row r="300" ht="15" customHeight="1"/>
+    <row r="301" ht="15" customHeight="1"/>
+    <row r="302" ht="15" customHeight="1"/>
+    <row r="303" ht="15" customHeight="1"/>
+    <row r="304" ht="15" customHeight="1"/>
+    <row r="305" ht="15" customHeight="1"/>
+    <row r="306" ht="15" customHeight="1"/>
+    <row r="307" ht="15" customHeight="1"/>
+    <row r="308" ht="15" customHeight="1"/>
+    <row r="309" ht="15" customHeight="1"/>
+    <row r="310" ht="15" customHeight="1"/>
+    <row r="311" ht="15" customHeight="1"/>
+    <row r="312" ht="15" customHeight="1"/>
+    <row r="313" ht="15" customHeight="1"/>
+    <row r="314" ht="15" customHeight="1"/>
+    <row r="315" ht="15" customHeight="1"/>
+    <row r="316" ht="15" customHeight="1"/>
+    <row r="317" ht="15" customHeight="1"/>
+    <row r="318" ht="15" customHeight="1"/>
+    <row r="319" ht="15" customHeight="1"/>
+    <row r="320" ht="15" customHeight="1"/>
+    <row r="321" ht="15" customHeight="1"/>
+    <row r="322" ht="15" customHeight="1"/>
+    <row r="323" ht="15" customHeight="1"/>
+    <row r="324" ht="15" customHeight="1"/>
+    <row r="325" ht="15" customHeight="1"/>
+    <row r="326" ht="15" customHeight="1"/>
+    <row r="327" ht="15" customHeight="1"/>
+    <row r="328" ht="15" customHeight="1"/>
+    <row r="329" ht="15" customHeight="1"/>
+    <row r="330" ht="15" customHeight="1"/>
+    <row r="331" ht="15" customHeight="1"/>
+    <row r="332" ht="15" customHeight="1"/>
+    <row r="333" ht="15" customHeight="1"/>
+    <row r="334" ht="15" customHeight="1"/>
+    <row r="335" ht="15" customHeight="1"/>
+    <row r="336" ht="15" customHeight="1"/>
+    <row r="337" ht="15" customHeight="1"/>
+    <row r="338" ht="15" customHeight="1"/>
+    <row r="339" ht="15" customHeight="1"/>
+    <row r="340" ht="15" customHeight="1"/>
+    <row r="341" ht="15" customHeight="1"/>
+    <row r="342" ht="15" customHeight="1"/>
+    <row r="343" ht="15" customHeight="1"/>
+    <row r="344" ht="15" customHeight="1"/>
+    <row r="345" ht="15" customHeight="1"/>
+    <row r="346" ht="15" customHeight="1"/>
+    <row r="347" ht="15" customHeight="1"/>
+    <row r="348" ht="15" customHeight="1"/>
+    <row r="349" ht="15" customHeight="1"/>
+    <row r="350" ht="15" customHeight="1"/>
+    <row r="351" ht="15" customHeight="1"/>
+    <row r="352" ht="15" customHeight="1"/>
+    <row r="353" ht="15" customHeight="1"/>
+    <row r="354" ht="15" customHeight="1"/>
+    <row r="355" ht="15" customHeight="1"/>
+    <row r="356" ht="15" customHeight="1"/>
+    <row r="357" ht="15" customHeight="1"/>
+    <row r="358" ht="15" customHeight="1"/>
+    <row r="359" ht="15" customHeight="1"/>
+    <row r="360" ht="15" customHeight="1"/>
+    <row r="361" ht="15" customHeight="1"/>
+    <row r="362" ht="15" customHeight="1"/>
+    <row r="363" ht="15" customHeight="1"/>
+    <row r="364" ht="15" customHeight="1"/>
+    <row r="365" ht="15" customHeight="1"/>
+    <row r="366" ht="15" customHeight="1"/>
+    <row r="367" ht="15" customHeight="1"/>
+    <row r="368" ht="15" customHeight="1"/>
+    <row r="369" ht="15" customHeight="1"/>
+    <row r="370" ht="15" customHeight="1"/>
+    <row r="371" ht="15" customHeight="1"/>
+    <row r="372" ht="15" customHeight="1"/>
+    <row r="373" ht="15" customHeight="1"/>
+    <row r="374" ht="15" customHeight="1"/>
+    <row r="375" ht="15" customHeight="1"/>
+    <row r="376" ht="15" customHeight="1"/>
+    <row r="377" ht="15" customHeight="1"/>
+    <row r="378" ht="15" customHeight="1"/>
+    <row r="379" ht="15" customHeight="1"/>
+    <row r="380" ht="15" customHeight="1"/>
+    <row r="381" ht="15" customHeight="1"/>
+    <row r="382" ht="15" customHeight="1"/>
+    <row r="383" ht="15" customHeight="1"/>
+    <row r="384" ht="15" customHeight="1"/>
+    <row r="385" ht="15" customHeight="1"/>
+    <row r="386" ht="15" customHeight="1"/>
+    <row r="387" ht="15" customHeight="1"/>
+    <row r="388" ht="15" customHeight="1"/>
+    <row r="389" ht="15" customHeight="1"/>
+    <row r="390" ht="15" customHeight="1"/>
+    <row r="391" ht="15" customHeight="1"/>
+    <row r="392" ht="15" customHeight="1"/>
+    <row r="393" ht="15" customHeight="1"/>
+    <row r="394" ht="15" customHeight="1"/>
+    <row r="395" ht="15" customHeight="1"/>
+    <row r="396" ht="15" customHeight="1"/>
+    <row r="397" ht="15" customHeight="1"/>
+    <row r="398" ht="15" customHeight="1"/>
+    <row r="399" ht="15" customHeight="1"/>
+    <row r="400" ht="15" customHeight="1"/>
+    <row r="401" ht="15" customHeight="1"/>
+    <row r="402" ht="15" customHeight="1"/>
+    <row r="403" ht="15" customHeight="1"/>
+    <row r="404" ht="15" customHeight="1"/>
+    <row r="405" ht="15" customHeight="1"/>
+    <row r="406" ht="15" customHeight="1"/>
+    <row r="407" ht="15" customHeight="1"/>
+    <row r="408" ht="15" customHeight="1"/>
+    <row r="409" ht="15" customHeight="1"/>
+    <row r="410" ht="15" customHeight="1"/>
+    <row r="411" ht="15" customHeight="1"/>
+    <row r="412" ht="15" customHeight="1"/>
+    <row r="413" ht="15" customHeight="1"/>
+    <row r="414" ht="15" customHeight="1"/>
+    <row r="415" ht="15" customHeight="1"/>
+    <row r="416" ht="15" customHeight="1"/>
+    <row r="417" ht="15" customHeight="1"/>
+    <row r="418" ht="15" customHeight="1"/>
+    <row r="419" ht="15" customHeight="1"/>
+    <row r="420" ht="15" customHeight="1"/>
+    <row r="421" ht="15" customHeight="1"/>
+    <row r="422" ht="15" customHeight="1"/>
+    <row r="423" ht="15" customHeight="1"/>
+    <row r="424" ht="15" customHeight="1"/>
+    <row r="425" ht="15" customHeight="1"/>
+    <row r="426" ht="15" customHeight="1"/>
+    <row r="427" ht="15" customHeight="1"/>
+    <row r="428" ht="15" customHeight="1"/>
+    <row r="429" ht="15" customHeight="1"/>
+    <row r="430" ht="15" customHeight="1"/>
+    <row r="431" ht="15" customHeight="1"/>
+    <row r="432" ht="15" customHeight="1"/>
+    <row r="433" ht="15" customHeight="1"/>
+    <row r="434" ht="15" customHeight="1"/>
+    <row r="435" ht="15" customHeight="1"/>
+    <row r="436" ht="15" customHeight="1"/>
+    <row r="437" ht="15" customHeight="1"/>
+    <row r="438" ht="15" customHeight="1"/>
+    <row r="439" ht="15" customHeight="1"/>
+    <row r="440" ht="15" customHeight="1"/>
+    <row r="441" ht="15" customHeight="1"/>
+    <row r="442" ht="15" customHeight="1"/>
+    <row r="443" ht="15" customHeight="1"/>
+    <row r="444" ht="15" customHeight="1"/>
+    <row r="445" ht="15" customHeight="1"/>
+    <row r="446" ht="15" customHeight="1"/>
+    <row r="447" ht="15" customHeight="1"/>
+    <row r="448" ht="15" customHeight="1"/>
+    <row r="449" ht="15" customHeight="1"/>
+    <row r="450" ht="15" customHeight="1"/>
+    <row r="451" ht="15" customHeight="1"/>
+    <row r="452" ht="15" customHeight="1"/>
+    <row r="453" ht="15" customHeight="1"/>
+    <row r="454" ht="15" customHeight="1"/>
+    <row r="455" ht="15" customHeight="1"/>
+    <row r="456" ht="15" customHeight="1"/>
+    <row r="457" ht="15" customHeight="1"/>
+    <row r="458" ht="15" customHeight="1"/>
+    <row r="459" ht="15" customHeight="1"/>
+    <row r="460" ht="15" customHeight="1"/>
+    <row r="461" ht="15" customHeight="1"/>
+    <row r="462" ht="15" customHeight="1"/>
+    <row r="463" ht="15" customHeight="1"/>
+    <row r="464" ht="15" customHeight="1"/>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1187.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1187.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.003087288125336145</v>
+        <v>0.001562441407064553</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.001627318364679089</v>
+        <v>0.0005953196571099823</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.00454520798824732</v>
+        <v>0.002142320799921424</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.002064454128298243</v>
+        <v>0.0008264925006213676</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.01283039271799064</v>
+        <v>0.00634539260016867</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.001962162522719948</v>
+        <v>0.0008161555472379789</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.02094760697655818</v>
+        <v>0.01071618366765098</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.002046128667773778</v>
+        <v>0.0008137806359214886</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.006585979924461388</v>
+        <v>0.003062590182088529</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.002991382017962746</v>
+        <v>0.001190639314219965</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.00575085896153929</v>
+        <v>0.003964110422380769</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.003267153877286209</v>
+        <v>0.001652985001242735</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01550711554149312</v>
+        <v>0.01428289000681976</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.003268191347696109</v>
+        <v>0.002040048290353722</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.02443227647699692</v>
+        <v>0.02209020372073411</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.00327488470517934</v>
+        <v>0.001841003842197127</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.008743890142887831</v>
+        <v>0.004438153693031306</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.004881955094037267</v>
+        <v>0.001785958971329947</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.00706306159627846</v>
+        <v>0.005681509985309155</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.004900730815929314</v>
+        <v>0.002580567660372806</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01833275983378607</v>
+        <v>0.01585155738701891</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.004902287021544164</v>
+        <v>0.002448466641713937</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.02874832784146875</v>
+        <v>0.02549255211014739</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.004912327057769009</v>
+        <v>0.002441341907764466</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.01016279602973089</v>
+        <v>0.005626839307852308</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.006509273458716356</v>
+        <v>0.002381278628439929</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.008266115063587633</v>
+        <v>0.006381635723527374</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.006534307754572417</v>
+        <v>0.00330597000248547</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.02019839812796934</v>
+        <v>0.01844610834373556</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.006536382695392219</v>
+        <v>0.003264622188951916</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.03121700713949055</v>
+        <v>0.03020442405336543</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.00654976941035868</v>
+        <v>0.003255122543685954</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9490,56 +9490,56 @@
         <v>0.006585979924461388</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.009318435201567977</v>
+        <v>0.006585979924461388</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.008136591823395446</v>
+        <v>0.002991382017962746</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.009177260353364379</v>
+        <v>0.007467925452095514</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.008167884693215522</v>
+        <v>0.004132462503106838</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.02197940954304545</v>
+        <v>0.02044750116495581</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.008170478369240274</v>
+        <v>0.004080777736189894</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.03376548706458438</v>
+        <v>0.03336404221278982</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.008187211762948348</v>
+        <v>0.004068903179607443</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.0118547638640305</v>
+        <v>0.007337163195054765</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.008974146053888238</v>
+        <v>0.003571917942659894</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.01033001815510755</v>
+        <v>0.008032517610934764</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.01021960227272726</v>
+        <v>0.004958955003728205</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.02420828814715215</v>
+        <v>0.02216799963550242</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.01032283057851239</v>
+        <v>0.004896933283427873</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.03632094031027266</v>
+        <v>0.03644472065844667</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.009824654115538019</v>
+        <v>0.004882683815528931</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.01234003744666214</v>
+        <v>0.008070751162991968</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.01139122855275362</v>
+        <v>0.004167237599769875</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.01086140327564603</v>
+        <v>0.008903194870329555</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.01143503857050173</v>
+        <v>0.005785447504349573</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.02546183160052076</v>
+        <v>0.02420828814715215</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.01143866971693638</v>
+        <v>0.005762848277835376</v>
       </c>
       <c r="N72" s="171" t="n">
         <v>0.0380865581391967</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.01098881964809383</v>
+        <v>0.005290240925853808</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01429985091826734</v>
+        <v>0.008760874134425063</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.01301854691743271</v>
+        <v>0.004762557256879858</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.01169688747717782</v>
+        <v>0.009507739900564312</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.01306861550914483</v>
+        <v>0.006611940004970941</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.02700928400483987</v>
+        <v>0.02556271222514472</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.01307276539078444</v>
+        <v>0.006529244377903832</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.04096650575802291</v>
+        <v>0.04140544760887988</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.01309953882071736</v>
+        <v>0.006510245087371909</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01522177582628757</v>
+        <v>0.009401201119464291</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.0146458652821118</v>
+        <v>0.005357876913989841</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.0124121369103145</v>
+        <v>0.01033001815510755</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.01470219244778794</v>
+        <v>0.007819902001129711</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.0289531362244298</v>
+        <v>0.02659584238625798</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.01470686106463249</v>
+        <v>0.00734539992514181</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.04390177051248528</v>
+        <v>0.04341344700825539</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.01473698117330703</v>
+        <v>0.007324025723293398</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01410101558161837</v>
+        <v>0.009985401128219863</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.01627318364679089</v>
+        <v>0.005953196571099822</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.01330146990034746</v>
+        <v>0.01042968717262629</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.01633576938643104</v>
+        <v>0.008264925006213676</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.03057382032109976</v>
+        <v>0.02821562848956666</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.01634095673848055</v>
+        <v>0.008161555472379789</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.04724763402962046</v>
+        <v>0.04568401580359188</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.0163744235258967</v>
+        <v>0.008137806359214886</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01593277359515535</v>
+        <v>0.01050714317080205</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.01790050201146998</v>
+        <v>0.006548516228209805</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01415920477256818</v>
+        <v>0.01109151607458614</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.01796934632507415</v>
+        <v>0.009091417506835044</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.0325517683566591</v>
+        <v>0.02981816946018978</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.0179750524123286</v>
+        <v>0.008977711019617769</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.04976751490711318</v>
+        <v>0.04841196444487667</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.01801186587848637</v>
+        <v>0.008951586995136375</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01771225327779405</v>
+        <v>0.01096009625732107</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01952782037614907</v>
+        <v>0.007143835885319787</v>
       </c>
       <c r="J77" t="n">
-        <v>0.01487965985226812</v>
+        <v>0.01175820387785232</v>
       </c>
       <c r="K77" t="n">
-        <v>0.01960292326371725</v>
+        <v>0.009917910007456411</v>
       </c>
       <c r="L77" t="n">
-        <v>0.03426741239291711</v>
+        <v>0.03079956422324637</v>
       </c>
       <c r="M77" t="n">
-        <v>0.01960914808617666</v>
+        <v>0.009793866566855746</v>
       </c>
       <c r="N77" t="n">
-        <v>0.05222483174264791</v>
+        <v>0.05039210338209721</v>
       </c>
       <c r="O77" t="n">
-        <v>0.01964930823107604</v>
+        <v>0.009765367631057863</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01843465804043003</v>
+        <v>0.01133792939788717</v>
       </c>
       <c r="G78" t="n">
-        <v>0.02115513874082816</v>
+        <v>0.00773915554242977</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01535715346473869</v>
+        <v>0.01222737092911162</v>
       </c>
       <c r="K78" t="n">
-        <v>0.02123650020236036</v>
+        <v>0.01074440250807778</v>
       </c>
       <c r="L78" t="n">
-        <v>0.03610118449168309</v>
+        <v>0.03245591170385548</v>
       </c>
       <c r="M78" t="n">
-        <v>0.02124324376002471</v>
+        <v>0.01061002211409373</v>
       </c>
       <c r="N78" t="n">
-        <v>0.05498300313390919</v>
+        <v>0.05211924306524079</v>
       </c>
       <c r="O78" t="n">
-        <v>0.02128675058366571</v>
+        <v>0.01057914826697935</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01709519129395888</v>
+        <v>0.01163431160261059</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02278245710550725</v>
+        <v>0.00833447519953975</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01618600393527135</v>
+        <v>0.01269663757505078</v>
       </c>
       <c r="K79" t="n">
-        <v>0.02287007714100346</v>
+        <v>0.01157089500869915</v>
       </c>
       <c r="L79" t="n">
-        <v>0.0374335167147663</v>
+        <v>0.03388331082713614</v>
       </c>
       <c r="M79" t="n">
-        <v>0.02287733943387276</v>
+        <v>0.01142617766133171</v>
       </c>
       <c r="N79" t="n">
-        <v>0.05800544767858157</v>
+        <v>0.05408819394429493</v>
       </c>
       <c r="O79" t="n">
-        <v>0.02292419293625538</v>
+        <v>0.01139292890290084</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01868905644927614</v>
+        <v>0.0118547638640305</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02440977547018634</v>
+        <v>0.008974146053888238</v>
       </c>
       <c r="J80" t="n">
-        <v>0.01656052958915755</v>
+        <v>0.01336362416235656</v>
       </c>
       <c r="K80" t="n">
-        <v>0.02450365407964656</v>
+        <v>0.01239738750932051</v>
       </c>
       <c r="L80" t="n">
-        <v>0.038944841123976</v>
+        <v>0.03477786051820739</v>
       </c>
       <c r="M80" t="n">
-        <v>0.02451143510772082</v>
+        <v>0.01224233320856969</v>
       </c>
       <c r="N80" t="n">
-        <v>0.0601555839743495</v>
+        <v>0.05679376646924689</v>
       </c>
       <c r="O80" t="n">
-        <v>0.02456163528884505</v>
+        <v>0.01220670953882233</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01821145691727737</v>
+        <v>0.01199773250757816</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02603709383486542</v>
+        <v>0.009525114513759717</v>
       </c>
       <c r="J81" t="n">
-        <v>0.01707504875168873</v>
+        <v>0.01382595103771574</v>
       </c>
       <c r="K81" t="n">
-        <v>0.02613723101828967</v>
+        <v>0.01322388000994188</v>
       </c>
       <c r="L81" t="n">
-        <v>0.04031558978112154</v>
+        <v>0.03643565970218832</v>
       </c>
       <c r="M81" t="n">
-        <v>0.02614553078156888</v>
+        <v>0.01305848875580766</v>
       </c>
       <c r="N81" t="n">
-        <v>0.06219683061889775</v>
+        <v>0.05853077109008409</v>
       </c>
       <c r="O81" t="n">
-        <v>0.02619907764143472</v>
+        <v>0.01302049017474382</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.02065759610885816</v>
+        <v>0.01214994351015376</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02766441219954451</v>
+        <v>0.0101204341708697</v>
       </c>
       <c r="J82" t="n">
-        <v>0.01752387974815635</v>
+        <v>0.01458123854781508</v>
       </c>
       <c r="K82" t="n">
-        <v>0.02777080795693277</v>
+        <v>0.01405037251056325</v>
       </c>
       <c r="L82" t="n">
-        <v>0.04142619474801218</v>
+        <v>0.03755280730419788</v>
       </c>
       <c r="M82" t="n">
-        <v>0.02777962645541693</v>
+        <v>0.01387464430304564</v>
       </c>
       <c r="N82" t="n">
-        <v>0.06399260620991071</v>
+        <v>0.06039401825679402</v>
       </c>
       <c r="O82" t="n">
-        <v>0.02783651999402439</v>
+        <v>0.01383427081066531</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01902267743491405</v>
+        <v>0.01229981256609228</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0292917305642236</v>
+        <v>0.01071575382797968</v>
       </c>
       <c r="J83" t="n">
-        <v>0.01810134090385183</v>
+        <v>0.01492710703934133</v>
       </c>
       <c r="K83" t="n">
-        <v>0.02940438489557588</v>
+        <v>0.01487686501118462</v>
       </c>
       <c r="L83" t="n">
-        <v>0.04195708808645721</v>
+        <v>0.03872540224935517</v>
       </c>
       <c r="M83" t="n">
-        <v>0.02941372212926499</v>
+        <v>0.01469079985028362</v>
       </c>
       <c r="N83" t="n">
-        <v>0.06570632934507287</v>
+        <v>0.06187831841936392</v>
       </c>
       <c r="O83" t="n">
-        <v>0.02947396234661406</v>
+        <v>0.0146480514465868</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.0203148750768106</v>
+        <v>0.01244735187099975</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03091904892890269</v>
+        <v>0.01131107348508966</v>
       </c>
       <c r="J84" t="n">
-        <v>0.01820175054406661</v>
+        <v>0.01546117685898124</v>
       </c>
       <c r="K84" t="n">
-        <v>0.03103796183421898</v>
+        <v>0.01570335751180598</v>
       </c>
       <c r="L84" t="n">
-        <v>0.04268870185826593</v>
+        <v>0.03964954346277916</v>
       </c>
       <c r="M84" t="n">
-        <v>0.03104781780311304</v>
+        <v>0.0155069553975216</v>
       </c>
       <c r="N84" t="n">
-        <v>0.06690141862206894</v>
+        <v>0.06377848202778125</v>
       </c>
       <c r="O84" t="n">
-        <v>0.03111140469920373</v>
+        <v>0.01546183208250828</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.02059203276588713</v>
+        <v>0.01259257362048227</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03254636729358178</v>
+        <v>0.01190639314219964</v>
       </c>
       <c r="J85" t="n">
-        <v>0.01844937858133036</v>
+        <v>0.01598106835342158</v>
       </c>
       <c r="K85" t="n">
-        <v>0.03267153877286209</v>
+        <v>0.01652985001242735</v>
       </c>
       <c r="L85" t="n">
-        <v>0.04347211776023249</v>
+        <v>0.04062132986958894</v>
       </c>
       <c r="M85" t="n">
-        <v>0.0326819134769611</v>
+        <v>0.01632311094475958</v>
       </c>
       <c r="N85" t="n">
-        <v>0.06777692583580142</v>
+        <v>0.0651893195320335</v>
       </c>
       <c r="O85" t="n">
-        <v>0.03274884705179339</v>
+        <v>0.01627561271842977</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.02086015289721618</v>
+        <v>0.01273549001014587</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03417368565826086</v>
+        <v>0.01250171279930963</v>
       </c>
       <c r="J86" t="n">
-        <v>0.01878951004125774</v>
+        <v>0.01648440186934916</v>
       </c>
       <c r="K86" t="n">
-        <v>0.03430511571150519</v>
+        <v>0.01735634251304872</v>
       </c>
       <c r="L86" t="n">
-        <v>0.04413605067873969</v>
+        <v>0.0419368603949036</v>
       </c>
       <c r="M86" t="n">
-        <v>0.03431600915080914</v>
+        <v>0.01713926649199756</v>
       </c>
       <c r="N86" t="n">
-        <v>0.06897577162995083</v>
+        <v>0.06720564138210783</v>
       </c>
       <c r="O86" t="n">
-        <v>0.03438628940438307</v>
+        <v>0.01708939335435126</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02111741357035139</v>
+        <v>0.01287611323559663</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03580100402293996</v>
+        <v>0.01309703245641961</v>
       </c>
       <c r="J87" t="n">
-        <v>0.01892120103835901</v>
+        <v>0.01696879775345066</v>
       </c>
       <c r="K87" t="n">
-        <v>0.03593869265014829</v>
+        <v>0.01818283501367009</v>
       </c>
       <c r="L87" t="n">
-        <v>0.04448040376020174</v>
+        <v>0.04279223396384205</v>
       </c>
       <c r="M87" t="n">
-        <v>0.0359501048246572</v>
+        <v>0.01795542203923554</v>
       </c>
       <c r="N87" t="n">
-        <v>0.06954585589718887</v>
+        <v>0.06812225802799188</v>
       </c>
       <c r="O87" t="n">
-        <v>0.03602373175697274</v>
+        <v>0.01790317399027275</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.02136199288484641</v>
+        <v>0.01301445549244061</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03742832238761905</v>
+        <v>0.01369235211352959</v>
       </c>
       <c r="J88" t="n">
-        <v>0.01924284561522244</v>
+        <v>0.01743187635241289</v>
       </c>
       <c r="K88" t="n">
-        <v>0.0375722695887914</v>
+        <v>0.01900932751429145</v>
       </c>
       <c r="L88" t="n">
-        <v>0.04500140987400264</v>
+        <v>0.0438835495015234</v>
       </c>
       <c r="M88" t="n">
-        <v>0.03758420049850526</v>
+        <v>0.01877157758647352</v>
       </c>
       <c r="N88" t="n">
-        <v>0.07088121537479686</v>
+        <v>0.06963397991967279</v>
       </c>
       <c r="O88" t="n">
-        <v>0.03766117410956241</v>
+        <v>0.01871695462619424</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4780 +10193,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02159206894025489</v>
+        <v>0.01315052897628389</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03905564075229814</v>
+        <v>0.01428767177063957</v>
       </c>
       <c r="J89" t="n">
-        <v>0.01955283781443636</v>
+        <v>0.01807125801292261</v>
       </c>
       <c r="K89" t="n">
-        <v>0.03920584652743451</v>
+        <v>0.01983582001491282</v>
       </c>
       <c r="L89" t="n">
-        <v>0.04569530188952625</v>
+        <v>0.0447069059330667</v>
       </c>
       <c r="M89" t="n">
-        <v>0.03921829617235331</v>
+        <v>0.01958773313371149</v>
       </c>
       <c r="N89" t="n">
-        <v>0.07117588680005654</v>
+        <v>0.07083561750713813</v>
       </c>
       <c r="O89" t="n">
-        <v>0.03929861646215208</v>
+        <v>0.01953073526211573</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02280581983613048</v>
+        <v>0.01328434588273251</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04068295911697722</v>
+        <v>0.01488299142774956</v>
       </c>
       <c r="J90" t="n">
-        <v>0.01954957167858903</v>
+        <v>0.01838456308166658</v>
       </c>
       <c r="K90" t="n">
-        <v>0.04083942346607761</v>
+        <v>0.02066231251553419</v>
       </c>
       <c r="L90" t="n">
-        <v>0.04585831267615642</v>
+        <v>0.04515840218359099</v>
       </c>
       <c r="M90" t="n">
-        <v>0.04085239184620137</v>
+        <v>0.02040388868094947</v>
       </c>
       <c r="N90" t="n">
-        <v>0.07222390691024944</v>
+        <v>0.07162198124037533</v>
       </c>
       <c r="O90" t="n">
-        <v>0.04093605881474174</v>
+        <v>0.02034451589803721</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02200142367202679</v>
+        <v>0.01341591840739254</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04231027748165631</v>
+        <v>0.01547831108485954</v>
       </c>
       <c r="J91" t="n">
-        <v>0.01983144125026881</v>
+        <v>0.01886941190533158</v>
       </c>
       <c r="K91" t="n">
-        <v>0.04247300040472071</v>
+        <v>0.02148880501615556</v>
       </c>
       <c r="L91" t="n">
-        <v>0.04638667510327721</v>
+        <v>0.04573413717821526</v>
       </c>
       <c r="M91" t="n">
-        <v>0.04248648752004942</v>
+        <v>0.02122004422818745</v>
       </c>
       <c r="N91" t="n">
-        <v>0.07311931244265718</v>
+        <v>0.07258788156937163</v>
       </c>
       <c r="O91" t="n">
-        <v>0.04257350116733142</v>
+        <v>0.0211582965339587</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02217705854749748</v>
+        <v>0.01354525874587004</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04393759584633541</v>
+        <v>0.01607363074196952</v>
       </c>
       <c r="J92" t="n">
-        <v>0.02009684057206397</v>
+        <v>0.01912342483060431</v>
       </c>
       <c r="K92" t="n">
-        <v>0.04410657734336382</v>
+        <v>0.02231529751677692</v>
       </c>
       <c r="L92" t="n">
-        <v>0.04687662204027238</v>
+        <v>0.04673020984205858</v>
       </c>
       <c r="M92" t="n">
-        <v>0.04412058319389748</v>
+        <v>0.02203619977542543</v>
       </c>
       <c r="N92" t="n">
-        <v>0.0735561401345613</v>
+        <v>0.07392812894411449</v>
       </c>
       <c r="O92" t="n">
-        <v>0.04421094351992109</v>
+        <v>0.02197207716988019</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02133090256209622</v>
+        <v>0.0136723790937711</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0455649142110145</v>
+        <v>0.0166689503990795</v>
       </c>
       <c r="J93" t="n">
-        <v>0.0200441636865628</v>
+        <v>0.01934422220417158</v>
       </c>
       <c r="K93" t="n">
-        <v>0.04574015428200692</v>
+        <v>0.02314179001739829</v>
       </c>
       <c r="L93" t="n">
-        <v>0.04722438635652595</v>
+        <v>0.04704271910023997</v>
       </c>
       <c r="M93" t="n">
-        <v>0.04575467886774553</v>
+        <v>0.02285235532266341</v>
       </c>
       <c r="N93" t="n">
-        <v>0.07422842672324348</v>
+        <v>0.07473753381459125</v>
       </c>
       <c r="O93" t="n">
-        <v>0.04584838587251076</v>
+        <v>0.02278585780580168</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02246113381537662</v>
+        <v>0.01379729164670176</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04719223257569358</v>
+        <v>0.01726427005618949</v>
       </c>
       <c r="J94" t="n">
-        <v>0.02027180463635361</v>
+        <v>0.01962942437272014</v>
       </c>
       <c r="K94" t="n">
-        <v>0.04737373122065002</v>
+        <v>0.02396828251801966</v>
       </c>
       <c r="L94" t="n">
-        <v>0.04752620092142174</v>
+        <v>0.04756776387787853</v>
       </c>
       <c r="M94" t="n">
-        <v>0.04738877454159358</v>
+        <v>0.02366851086990139</v>
       </c>
       <c r="N94" t="n">
-        <v>0.07473020894598525</v>
+        <v>0.07501090663078924</v>
       </c>
       <c r="O94" t="n">
-        <v>0.04748582822510043</v>
+        <v>0.02359963844172317</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02256593040689234</v>
+        <v>0.01392000860026807</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04881955094037267</v>
+        <v>0.01785958971329947</v>
       </c>
       <c r="J95" t="n">
-        <v>0.02027815746402468</v>
+        <v>0.02007665168293678</v>
       </c>
       <c r="K95" t="n">
-        <v>0.04900730815929313</v>
+        <v>0.02479477501864103</v>
       </c>
       <c r="L95" t="n">
-        <v>0.04767829860434369</v>
+        <v>0.04760144310009318</v>
       </c>
       <c r="M95" t="n">
-        <v>0.04902287021544164</v>
+        <v>0.02448466641713937</v>
       </c>
       <c r="N95" t="n">
-        <v>0.07495552354006813</v>
+        <v>0.0755430578426961</v>
       </c>
       <c r="O95" t="n">
-        <v>0.0491232705776901</v>
+        <v>0.02441341907764466</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02164347043619702</v>
+        <v>0.01404054215007613</v>
       </c>
       <c r="G96" t="n">
-        <v>0.05044686930505176</v>
+        <v>0.01845490937040945</v>
       </c>
       <c r="J96" t="n">
-        <v>0.02046161621216434</v>
+        <v>0.02028352448150821</v>
       </c>
       <c r="K96" t="n">
-        <v>0.05064088509793623</v>
+        <v>0.0256212675192624</v>
       </c>
       <c r="L96" t="n">
-        <v>0.04787691227467569</v>
+        <v>0.04823985569200309</v>
       </c>
       <c r="M96" t="n">
-        <v>0.0506569658892897</v>
+        <v>0.02530082196437735</v>
       </c>
       <c r="N96" t="n">
-        <v>0.07559840724277378</v>
+        <v>0.07542879790029899</v>
       </c>
       <c r="O96" t="n">
-        <v>0.05076071293027977</v>
+        <v>0.02522719971356615</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02370952772806099</v>
+        <v>0.01415890449173197</v>
       </c>
       <c r="G97" t="n">
-        <v>0.05207418766973085</v>
+        <v>0.01905022902751943</v>
       </c>
       <c r="J97" t="n">
-        <v>0.02052057492336085</v>
+        <v>0.02034766311512121</v>
       </c>
       <c r="K97" t="n">
-        <v>0.05227446203657934</v>
+        <v>0.02644776001988376</v>
       </c>
       <c r="L97" t="n">
-        <v>0.0483182748018017</v>
+        <v>0.04841657629430426</v>
       </c>
       <c r="M97" t="n">
-        <v>0.05229106156313775</v>
+        <v>0.02611697751161533</v>
       </c>
       <c r="N97" t="n">
-        <v>0.07545289679138378</v>
+        <v>0.0761731162783934</v>
       </c>
       <c r="O97" t="n">
-        <v>0.05239815528286944</v>
+        <v>0.02604098034948764</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02370949320638785</v>
+        <v>0.01427510782084168</v>
       </c>
       <c r="G98" t="n">
-        <v>0.05370150603440994</v>
+        <v>0.01964554868462941</v>
       </c>
       <c r="J98" t="n">
-        <v>0.0206600363102151</v>
+        <v>0.02056668793046258</v>
       </c>
       <c r="K98" t="n">
-        <v>0.05390803897522244</v>
+        <v>0.02727425252050513</v>
       </c>
       <c r="L98" t="n">
-        <v>0.04841657629430426</v>
+        <v>0.04821657629430426</v>
       </c>
       <c r="M98" t="n">
-        <v>0.05392515723698581</v>
+        <v>0.02693313305885331</v>
       </c>
       <c r="N98" t="n">
-        <v>0.0761731162783934</v>
+        <v>0.07557311627839342</v>
       </c>
       <c r="O98" t="n">
-        <v>0.05403559763545911</v>
+        <v>0.02685476098540912</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02270234813966136</v>
+        <v>0.0143891643330113</v>
       </c>
       <c r="G99" t="n">
-        <v>0.05532882439908902</v>
+        <v>0.0202408683417394</v>
       </c>
       <c r="J99" t="n">
-        <v>0.02065932562232896</v>
+        <v>0.0206600363102151</v>
       </c>
       <c r="K99" t="n">
-        <v>0.05554161591386555</v>
+        <v>0.0281007450211265</v>
       </c>
       <c r="L99" t="n">
-        <v>0.04821541276110755</v>
+        <v>0.04811657629430427</v>
       </c>
       <c r="M99" t="n">
-        <v>0.05555925291083386</v>
+        <v>0.02774928860609128</v>
       </c>
       <c r="N99" t="n">
-        <v>0.07577284037544313</v>
+        <v>0.07607311627839342</v>
       </c>
       <c r="O99" t="n">
-        <v>0.05567303998804878</v>
+        <v>0.02766854162133061</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02168002240519888</v>
+        <v>0.01450108622384692</v>
       </c>
       <c r="G100" t="n">
-        <v>0.05695614276376811</v>
+        <v>0.02083618799884938</v>
       </c>
       <c r="J100" t="n">
-        <v>0.02054809059981266</v>
+        <v>0.02046003631021509</v>
       </c>
       <c r="K100" t="n">
-        <v>0.05717519285250865</v>
+        <v>0.02892723752174787</v>
       </c>
       <c r="L100" t="n">
-        <v>0.04799072213359432</v>
+        <v>0.04801657629430425</v>
       </c>
       <c r="M100" t="n">
-        <v>0.05719334858468192</v>
+        <v>0.02856544415332926</v>
       </c>
       <c r="N100" t="n">
-        <v>0.07545101140855942</v>
+        <v>0.07557311627839342</v>
       </c>
       <c r="O100" t="n">
-        <v>0.05731048234063844</v>
+        <v>0.0284823222572521</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.0236434937687037</v>
+        <v>0.01461088568895458</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05858346112844721</v>
+        <v>0.02143150765595936</v>
       </c>
       <c r="J101" t="n">
-        <v>0.0206238522571433</v>
+        <v>0.02046003631021509</v>
       </c>
       <c r="K101" t="n">
-        <v>0.05880876979115175</v>
+        <v>0.02975373002236923</v>
       </c>
       <c r="L101" t="n">
-        <v>0.04823543564560759</v>
+        <v>0.04801657629430425</v>
       </c>
       <c r="M101" t="n">
-        <v>0.05882744425852997</v>
+        <v>0.02938159970056724</v>
       </c>
       <c r="N101" t="n">
-        <v>0.07547965529778716</v>
+        <v>0.0761731162783934</v>
       </c>
       <c r="O101" t="n">
-        <v>0.05894792469322812</v>
+        <v>0.02929610289317359</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02359372242425173</v>
+        <v>0.01471857492394035</v>
       </c>
       <c r="G102" t="n">
-        <v>0.0602107794931263</v>
+        <v>0.02202682731306934</v>
       </c>
       <c r="J102" t="n">
-        <v>0.02048745698019004</v>
+        <v>0.0206600363102151</v>
       </c>
       <c r="K102" t="n">
-        <v>0.06044234672979485</v>
+        <v>0.0305802225229906</v>
       </c>
       <c r="L102" t="n">
-        <v>0.04785153868361994</v>
+        <v>0.04841657629430426</v>
       </c>
       <c r="M102" t="n">
-        <v>0.06046153993237803</v>
+        <v>0.03019775524780522</v>
       </c>
       <c r="N102" t="n">
-        <v>0.07576205515189294</v>
+        <v>0.07607311627839342</v>
       </c>
       <c r="O102" t="n">
-        <v>0.0605853670458178</v>
+        <v>0.03010988352909508</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02253166856591889</v>
+        <v>0.01482416612441031</v>
       </c>
       <c r="G103" t="n">
-        <v>0.06183809785780538</v>
+        <v>0.02262214697017932</v>
       </c>
       <c r="J103" t="n">
-        <v>0.02053975115482212</v>
+        <v>0.02056003631021509</v>
       </c>
       <c r="K103" t="n">
-        <v>0.06207592366843797</v>
+        <v>0.03140671502361197</v>
       </c>
       <c r="L103" t="n">
-        <v>0.04814101663410422</v>
+        <v>0.04841657629430426</v>
       </c>
       <c r="M103" t="n">
-        <v>0.06209563560622609</v>
+        <v>0.0310139107950432</v>
       </c>
       <c r="N103" t="n">
-        <v>0.07570135378230014</v>
+        <v>0.0761731162783934</v>
       </c>
       <c r="O103" t="n">
-        <v>0.06222280939840746</v>
+        <v>0.03092366416501657</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02345829238778109</v>
+        <v>0.01492767148597049</v>
       </c>
       <c r="G104" t="n">
-        <v>0.06346541622248447</v>
+        <v>0.02321746662728931</v>
       </c>
       <c r="J104" t="n">
-        <v>0.02048158116690874</v>
+        <v>0.02056003631021509</v>
       </c>
       <c r="K104" t="n">
-        <v>0.06370950060708107</v>
+        <v>0.03223320752423334</v>
       </c>
       <c r="L104" t="n">
-        <v>0.04760585488353306</v>
+        <v>0.04801657629430425</v>
       </c>
       <c r="M104" t="n">
-        <v>0.06372973128007414</v>
+        <v>0.03183006634228118</v>
       </c>
       <c r="N104" t="n">
-        <v>0.07510069400043246</v>
+        <v>0.0756731162783934</v>
       </c>
       <c r="O104" t="n">
-        <v>0.06386025175099713</v>
+        <v>0.03173744480093806</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02337455408391427</v>
+        <v>0.01502910320422699</v>
       </c>
       <c r="G105" t="n">
-        <v>0.06509273458716357</v>
+        <v>0.02381278628439929</v>
       </c>
       <c r="J105" t="n">
-        <v>0.02031379340231909</v>
+        <v>0.0206600363102151</v>
       </c>
       <c r="K105" t="n">
-        <v>0.06534307754572417</v>
+        <v>0.03305970002485471</v>
       </c>
       <c r="L105" t="n">
-        <v>0.0474480388183792</v>
+        <v>0.04821657629430426</v>
       </c>
       <c r="M105" t="n">
-        <v>0.06536382695392219</v>
+        <v>0.03264622188951916</v>
       </c>
       <c r="N105" t="n">
-        <v>0.07536321861771333</v>
+        <v>0.07597311627839343</v>
       </c>
       <c r="O105" t="n">
-        <v>0.06549769410358679</v>
+        <v>0.03255122543685954</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.02228141384839437</v>
+        <v>0.01512847347478585</v>
       </c>
       <c r="G106" t="n">
-        <v>0.06672005295184265</v>
+        <v>0.02440810594150927</v>
       </c>
       <c r="J106" t="n">
-        <v>0.02033723424692241</v>
+        <v>0.02046003631021509</v>
       </c>
       <c r="K106" t="n">
-        <v>0.06697665448436728</v>
+        <v>0.03388619252547607</v>
       </c>
       <c r="L106" t="n">
-        <v>0.04756955382511535</v>
+        <v>0.04801657629430425</v>
       </c>
       <c r="M106" t="n">
-        <v>0.06699792262777024</v>
+        <v>0.03346237743675714</v>
       </c>
       <c r="N106" t="n">
-        <v>0.07499207044556655</v>
+        <v>0.0756731162783934</v>
       </c>
       <c r="O106" t="n">
-        <v>0.06713513645617647</v>
+        <v>0.03336500607278103</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.02317983187529729</v>
+        <v>0.01522579449325314</v>
       </c>
       <c r="G107" t="n">
-        <v>0.06834737131652173</v>
+        <v>0.02500342559861925</v>
       </c>
       <c r="J107" t="n">
-        <v>0.0201527500865879</v>
+        <v>0.02046003631021509</v>
       </c>
       <c r="K107" t="n">
-        <v>0.06861023142301038</v>
+        <v>0.03471268502609744</v>
       </c>
       <c r="L107" t="n">
-        <v>0.04727238529021413</v>
+        <v>0.04821657629430426</v>
       </c>
       <c r="M107" t="n">
-        <v>0.06863201830161829</v>
+        <v>0.03427853298399512</v>
       </c>
       <c r="N107" t="n">
-        <v>0.07459039229541548</v>
+        <v>0.0756731162783934</v>
       </c>
       <c r="O107" t="n">
-        <v>0.06877257880876614</v>
+        <v>0.03417878670870252</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.02307076835869898</v>
+        <v>0.01532107845523492</v>
       </c>
       <c r="G108" t="n">
-        <v>0.06997468968120084</v>
+        <v>0.02559874525572924</v>
       </c>
       <c r="J108" t="n">
-        <v>0.01996118730718476</v>
+        <v>0.02056003631021509</v>
       </c>
       <c r="K108" t="n">
-        <v>0.07024380836165349</v>
+        <v>0.03553917752671881</v>
       </c>
       <c r="L108" t="n">
-        <v>0.04715851860014839</v>
+        <v>0.04811657629430427</v>
       </c>
       <c r="M108" t="n">
-        <v>0.07026611397546635</v>
+        <v>0.03509468853123309</v>
       </c>
       <c r="N108" t="n">
-        <v>0.07446132697868374</v>
+        <v>0.07607311627839342</v>
       </c>
       <c r="O108" t="n">
-        <v>0.07041002116135581</v>
+        <v>0.03499256734462401</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.02195518349267533</v>
+        <v>0.01541433755633727</v>
       </c>
       <c r="G109" t="n">
-        <v>0.07160200804587992</v>
+        <v>0.02619406491283922</v>
       </c>
       <c r="J109" t="n">
-        <v>0.02006339229458223</v>
+        <v>0.0206600363102151</v>
       </c>
       <c r="K109" t="n">
-        <v>0.07187738530029658</v>
+        <v>0.03636567002734017</v>
       </c>
       <c r="L109" t="n">
-        <v>0.04692993914139068</v>
+        <v>0.04831657629430428</v>
       </c>
       <c r="M109" t="n">
-        <v>0.0719002096493144</v>
+        <v>0.03591084407847107</v>
       </c>
       <c r="N109" t="n">
-        <v>0.07390801730679492</v>
+        <v>0.0761731162783934</v>
       </c>
       <c r="O109" t="n">
-        <v>0.07204746351394548</v>
+        <v>0.0358063479805455</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.0218340374713023</v>
+        <v>0.01550558399216623</v>
       </c>
       <c r="G110" t="n">
-        <v>0.073229326410559</v>
+        <v>0.0267893845699492</v>
       </c>
       <c r="J110" t="n">
-        <v>0.01976021143464948</v>
+        <v>0.02046003631021509</v>
       </c>
       <c r="K110" t="n">
-        <v>0.0735109622389397</v>
+        <v>0.03719216252796154</v>
       </c>
       <c r="L110" t="n">
-        <v>0.04638863230041379</v>
+        <v>0.04821657629430426</v>
       </c>
       <c r="M110" t="n">
-        <v>0.07353430532316246</v>
+        <v>0.03672699962570905</v>
       </c>
       <c r="N110" t="n">
-        <v>0.0734336060911725</v>
+        <v>0.07557311627839342</v>
       </c>
       <c r="O110" t="n">
-        <v>0.07368490586653514</v>
+        <v>0.03662012861646699</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.0207082904886558</v>
+        <v>0.01559482995832788</v>
       </c>
       <c r="G111" t="n">
-        <v>0.0748566447752381</v>
+        <v>0.02738470422705918</v>
       </c>
       <c r="J111" t="n">
-        <v>0.01975249111325576</v>
+        <v>0.0206600363102151</v>
       </c>
       <c r="K111" t="n">
-        <v>0.07514453917758279</v>
+        <v>0.03801865502858291</v>
       </c>
       <c r="L111" t="n">
-        <v>0.04653658346369044</v>
+        <v>0.04841657629430426</v>
       </c>
       <c r="M111" t="n">
-        <v>0.07516840099701051</v>
+        <v>0.03754315517294703</v>
       </c>
       <c r="N111" t="n">
-        <v>0.07334123614324023</v>
+        <v>0.07577311627839339</v>
       </c>
       <c r="O111" t="n">
-        <v>0.07532234821912481</v>
+        <v>0.03743390925238848</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.02157890273881176</v>
+        <v>0.01568208765042828</v>
       </c>
       <c r="G112" t="n">
-        <v>0.07648396313991719</v>
+        <v>0.02798002388416917</v>
       </c>
       <c r="J112" t="n">
-        <v>0.01974107771627026</v>
+        <v>0.02056003631021509</v>
       </c>
       <c r="K112" t="n">
-        <v>0.0767781161162259</v>
+        <v>0.03884514752920427</v>
       </c>
       <c r="L112" t="n">
-        <v>0.04627577801769328</v>
+        <v>0.04831657629430428</v>
       </c>
       <c r="M112" t="n">
-        <v>0.07680249667085857</v>
+        <v>0.03835931072018501</v>
       </c>
       <c r="N112" t="n">
-        <v>0.07243405027442151</v>
+        <v>0.0761731162783934</v>
       </c>
       <c r="O112" t="n">
-        <v>0.0769597905717145</v>
+        <v>0.03824768988830997</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.02144683441584612</v>
+        <v>0.01576736926407348</v>
       </c>
       <c r="G113" t="n">
-        <v>0.07811128150459627</v>
+        <v>0.02857534354127915</v>
       </c>
       <c r="J113" t="n">
-        <v>0.01962681762956218</v>
+        <v>0.02046003631021509</v>
       </c>
       <c r="K113" t="n">
-        <v>0.07841169305486902</v>
+        <v>0.03967164002982564</v>
       </c>
       <c r="L113" t="n">
-        <v>0.04600820134889505</v>
+        <v>0.04831657629430428</v>
       </c>
       <c r="M113" t="n">
-        <v>0.07843659234470662</v>
+        <v>0.03917546626742299</v>
       </c>
       <c r="N113" t="n">
-        <v>0.07181519129614</v>
+        <v>0.07587311627839338</v>
       </c>
       <c r="O113" t="n">
-        <v>0.07859723292430415</v>
+        <v>0.03906147052423145</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.02131304571383476</v>
+        <v>0.01585068699486957</v>
       </c>
       <c r="G114" t="n">
-        <v>0.07973859986927537</v>
+        <v>0.02917066319838913</v>
       </c>
       <c r="J114" t="n">
-        <v>0.01951055723900075</v>
+        <v>0.02056003631021509</v>
       </c>
       <c r="K114" t="n">
-        <v>0.08004526999351211</v>
+        <v>0.04049813253044701</v>
       </c>
       <c r="L114" t="n">
-        <v>0.04573583884376844</v>
+        <v>0.04841657629430426</v>
       </c>
       <c r="M114" t="n">
-        <v>0.08007068801855469</v>
+        <v>0.03999162181466097</v>
       </c>
       <c r="N114" t="n">
-        <v>0.07178780201981916</v>
+        <v>0.07607311627839342</v>
       </c>
       <c r="O114" t="n">
-        <v>0.08023467527689383</v>
+        <v>0.03987525116015294</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.02117849682685365</v>
+        <v>0.01593205303842259</v>
       </c>
       <c r="G115" t="n">
-        <v>0.08136591823395445</v>
+        <v>0.02976598285549911</v>
       </c>
       <c r="J115" t="n">
-        <v>0.01919314293045517</v>
+        <v>0.0206600363102151</v>
       </c>
       <c r="K115" t="n">
-        <v>0.08167884693215521</v>
+        <v>0.04132462503106838</v>
       </c>
       <c r="L115" t="n">
-        <v>0.04546067588878619</v>
+        <v>0.04811657629430427</v>
       </c>
       <c r="M115" t="n">
-        <v>0.08170478369240274</v>
+        <v>0.04080777736189894</v>
       </c>
       <c r="N115" t="n">
-        <v>0.07095502525688263</v>
+        <v>0.0756731162783934</v>
       </c>
       <c r="O115" t="n">
-        <v>0.08187211762948349</v>
+        <v>0.04068903179607443</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.02004414794897869</v>
+        <v>0.01601147959033863</v>
       </c>
       <c r="G116" t="n">
-        <v>0.08299323659863354</v>
+        <v>0.03036130251260909</v>
       </c>
       <c r="J116" t="n">
-        <v>0.01917542108979466</v>
+        <v>0.0206600363102151</v>
       </c>
       <c r="K116" t="n">
-        <v>0.08331242387079832</v>
+        <v>0.04215111753168974</v>
       </c>
       <c r="L116" t="n">
-        <v>0.04518469787042098</v>
+        <v>0.04811657629430427</v>
       </c>
       <c r="M116" t="n">
-        <v>0.0833388793662508</v>
+        <v>0.04162393290913693</v>
       </c>
       <c r="N116" t="n">
-        <v>0.07052000381875406</v>
+        <v>0.0756731162783934</v>
       </c>
       <c r="O116" t="n">
-        <v>0.08350955998207317</v>
+        <v>0.04150281243199592</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.01991095927428581</v>
+        <v>0.01608897884622372</v>
       </c>
       <c r="G117" t="n">
-        <v>0.08462055496331262</v>
+        <v>0.03095662216971908</v>
       </c>
       <c r="J117" t="n">
-        <v>0.01895823810288842</v>
+        <v>0.0206600363102151</v>
       </c>
       <c r="K117" t="n">
-        <v>0.08494600080944142</v>
+        <v>0.04297761003231111</v>
       </c>
       <c r="L117" t="n">
-        <v>0.04450989017514545</v>
+        <v>0.04831657629430428</v>
       </c>
       <c r="M117" t="n">
-        <v>0.08497297504009885</v>
+        <v>0.0424400884563749</v>
       </c>
       <c r="N117" t="n">
-        <v>0.07038588051685685</v>
+        <v>0.07587311627839338</v>
       </c>
       <c r="O117" t="n">
-        <v>0.08514700233466284</v>
+        <v>0.04231659306791741</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.02077528132574187</v>
+        <v>0.01616456300168394</v>
       </c>
       <c r="G118" t="n">
-        <v>0.08624787332799172</v>
+        <v>0.03155194182682906</v>
       </c>
       <c r="J118" t="n">
-        <v>0.01884240954073681</v>
+        <v>0.02056003631021509</v>
       </c>
       <c r="K118" t="n">
-        <v>0.08657957774808453</v>
+        <v>0.04380410253293249</v>
       </c>
       <c r="L118" t="n">
-        <v>0.04433823699092929</v>
+        <v>0.04811657629430427</v>
       </c>
       <c r="M118" t="n">
-        <v>0.08660707071394691</v>
+        <v>0.04325624400361289</v>
       </c>
       <c r="N118" t="n">
-        <v>0.07005579816261459</v>
+        <v>0.07587311627839338</v>
       </c>
       <c r="O118" t="n">
-        <v>0.08678444468725251</v>
+        <v>0.0431303737038389</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.02062105281848825</v>
+        <v>0.01623824425232535</v>
       </c>
       <c r="G119" t="n">
-        <v>0.08787519169267081</v>
+        <v>0.03214726148393904</v>
       </c>
       <c r="J119" t="n">
-        <v>0.01891715584163252</v>
+        <v>0.02046003631021509</v>
       </c>
       <c r="K119" t="n">
-        <v>0.08821315468672764</v>
+        <v>0.04463059503355385</v>
       </c>
       <c r="L119" t="n">
-        <v>0.04404657916893212</v>
+        <v>0.04801657629430425</v>
       </c>
       <c r="M119" t="n">
-        <v>0.08824116638779496</v>
+        <v>0.04407239955085086</v>
       </c>
       <c r="N119" t="n">
-        <v>0.06951305565965182</v>
+        <v>0.07607311627839342</v>
       </c>
       <c r="O119" t="n">
-        <v>0.08842188703984218</v>
+        <v>0.04394415433976038</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.02044954092931152</v>
+        <v>0.01631003479375404</v>
       </c>
       <c r="G120" t="n">
-        <v>0.0895025100573499</v>
+        <v>0.03274258114104902</v>
       </c>
       <c r="J120" t="n">
-        <v>0.01867519373195686</v>
+        <v>0.02046003631021509</v>
       </c>
       <c r="K120" t="n">
-        <v>0.08984673162537073</v>
+        <v>0.04545708753417522</v>
       </c>
       <c r="L120" t="n">
-        <v>0.043715442744507</v>
+        <v>0.04821657629430426</v>
       </c>
       <c r="M120" t="n">
-        <v>0.08987526206164302</v>
+        <v>0.04488855509808885</v>
       </c>
       <c r="N120" t="n">
-        <v>0.06870837460401896</v>
+        <v>0.07597311627839343</v>
       </c>
       <c r="O120" t="n">
-        <v>0.09005932939243184</v>
+        <v>0.04475793497568187</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.01926387408528805</v>
+        <v>0.01637994682157603</v>
       </c>
       <c r="G121" t="n">
-        <v>0.09112982842202899</v>
+        <v>0.033337900798159</v>
       </c>
       <c r="J121" t="n">
-        <v>0.01851928083804473</v>
+        <v>0.02056003631021509</v>
       </c>
       <c r="K121" t="n">
-        <v>0.09148030856401385</v>
+        <v>0.04628358003479658</v>
       </c>
       <c r="L121" t="n">
-        <v>0.04365129634410558</v>
+        <v>0.04801657629430425</v>
       </c>
       <c r="M121" t="n">
-        <v>0.09150935773549106</v>
+        <v>0.04570471064532682</v>
       </c>
       <c r="N121" t="n">
-        <v>0.06834853280475783</v>
+        <v>0.07597311627839343</v>
       </c>
       <c r="O121" t="n">
-        <v>0.09169677174502151</v>
+        <v>0.04557171561160336</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.02006718071349427</v>
+        <v>0.01644799253139741</v>
       </c>
       <c r="G122" t="n">
-        <v>0.09275714678670807</v>
+        <v>0.03393322045526899</v>
       </c>
       <c r="J122" t="n">
-        <v>0.0184521747862309</v>
+        <v>0.02046003631021509</v>
       </c>
       <c r="K122" t="n">
-        <v>0.09311388550265694</v>
+        <v>0.04711007253541795</v>
       </c>
       <c r="L122" t="n">
-        <v>0.04326060859417963</v>
+        <v>0.04811657629430427</v>
       </c>
       <c r="M122" t="n">
-        <v>0.09314345340933912</v>
+        <v>0.0465208661925648</v>
       </c>
       <c r="N122" t="n">
-        <v>0.06794376991716305</v>
+        <v>0.07587311627839338</v>
       </c>
       <c r="O122" t="n">
-        <v>0.09333421409761118</v>
+        <v>0.04638549624752485</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.01986258924100651</v>
+        <v>0.01651418411882423</v>
       </c>
       <c r="G123" t="n">
-        <v>0.09438446515138717</v>
+        <v>0.03452854011237897</v>
       </c>
       <c r="J123" t="n">
-        <v>0.01817663320285018</v>
+        <v>0.02046003631021509</v>
       </c>
       <c r="K123" t="n">
-        <v>0.09474746244130004</v>
+        <v>0.04793656503603932</v>
       </c>
       <c r="L123" t="n">
-        <v>0.04254984812118079</v>
+        <v>0.04821657629430426</v>
       </c>
       <c r="M123" t="n">
-        <v>0.09477754908318717</v>
+        <v>0.04733702173980278</v>
       </c>
       <c r="N123" t="n">
-        <v>0.06710432559652935</v>
+        <v>0.0761731162783934</v>
       </c>
       <c r="O123" t="n">
-        <v>0.09497165645020085</v>
+        <v>0.04719927688344634</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.01965322809490117</v>
+        <v>0.01657853377946257</v>
       </c>
       <c r="G124" t="n">
-        <v>0.09601178351606626</v>
+        <v>0.03512385976948895</v>
       </c>
       <c r="J124" t="n">
-        <v>0.01789541371423739</v>
+        <v>0.02046003631021509</v>
       </c>
       <c r="K124" t="n">
-        <v>0.09638103937994316</v>
+        <v>0.04876305753666069</v>
       </c>
       <c r="L124" t="n">
-        <v>0.04232548355156077</v>
+        <v>0.04811657629430427</v>
       </c>
       <c r="M124" t="n">
-        <v>0.09641164475703523</v>
+        <v>0.04815317728704076</v>
       </c>
       <c r="N124" t="n">
-        <v>0.06684043949815127</v>
+        <v>0.07587311627839338</v>
       </c>
       <c r="O124" t="n">
-        <v>0.09660909880279052</v>
+        <v>0.04801305751936782</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.01944222570225462</v>
+        <v>0.01664105370891849</v>
       </c>
       <c r="G125" t="n">
-        <v>0.09763910188074534</v>
+        <v>0.03571917942659893</v>
       </c>
       <c r="J125" t="n">
-        <v>0.01791127394672737</v>
+        <v>0.02046003631021509</v>
       </c>
       <c r="K125" t="n">
-        <v>0.09801461631858625</v>
+        <v>0.04958955003728206</v>
       </c>
       <c r="L125" t="n">
-        <v>0.0418939835117712</v>
+        <v>0.04821657629430426</v>
       </c>
       <c r="M125" t="n">
-        <v>0.09804574043088328</v>
+        <v>0.04896933283427874</v>
       </c>
       <c r="N125" t="n">
-        <v>0.06626235127732349</v>
+        <v>0.07597311627839343</v>
       </c>
       <c r="O125" t="n">
-        <v>0.0982465411553802</v>
+        <v>0.04882683815528931</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.01923271049014323</v>
+        <v>0.01670175610279805</v>
       </c>
       <c r="G126" t="n">
-        <v>0.09926642024542442</v>
+        <v>0.03631449908370891</v>
       </c>
       <c r="J126" t="n">
-        <v>0.01762697152665488</v>
+        <v>0.0206600363102151</v>
       </c>
       <c r="K126" t="n">
-        <v>0.09964819325722936</v>
+        <v>0.05041604253790342</v>
       </c>
       <c r="L126" t="n">
-        <v>0.04156181662826383</v>
+        <v>0.04811657629430427</v>
       </c>
       <c r="M126" t="n">
-        <v>0.09967983610473134</v>
+        <v>0.04978548838151672</v>
       </c>
       <c r="N126" t="n">
-        <v>0.0652803005893407</v>
+        <v>0.07587311627839338</v>
       </c>
       <c r="O126" t="n">
-        <v>0.09988398350796986</v>
+        <v>0.0496406187912108</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.01902781088564341</v>
+        <v>0.01676065315670731</v>
       </c>
       <c r="G127" t="n">
-        <v>0.1008937386101035</v>
+        <v>0.0369098187408189</v>
       </c>
       <c r="J127" t="n">
-        <v>0.01754526408035476</v>
+        <v>0.0206600363102151</v>
       </c>
       <c r="K127" t="n">
-        <v>0.1012817701958725</v>
+        <v>0.05124253503852479</v>
       </c>
       <c r="L127" t="n">
-        <v>0.04113545152749035</v>
+        <v>0.04831657629430428</v>
       </c>
       <c r="M127" t="n">
-        <v>0.1013139317785794</v>
+        <v>0.05060164392875469</v>
       </c>
       <c r="N127" t="n">
-        <v>0.06420452708949753</v>
+        <v>0.07547311627839343</v>
       </c>
       <c r="O127" t="n">
-        <v>0.1015214258605595</v>
+        <v>0.05045439942713229</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.0178306553158315</v>
+        <v>0.01681775706625233</v>
       </c>
       <c r="G128" t="n">
-        <v>0.1025210569747826</v>
+        <v>0.03750513839792888</v>
       </c>
       <c r="J128" t="n">
-        <v>0.01726890923416183</v>
+        <v>0.02056003631021509</v>
       </c>
       <c r="K128" t="n">
-        <v>0.1029153471345156</v>
+        <v>0.05206902753914616</v>
       </c>
       <c r="L128" t="n">
-        <v>0.04042135683590239</v>
+        <v>0.04831657629430428</v>
       </c>
       <c r="M128" t="n">
-        <v>0.1029480274524274</v>
+        <v>0.05141779947599268</v>
       </c>
       <c r="N128" t="n">
-        <v>0.06404527043308861</v>
+        <v>0.07587311627839338</v>
       </c>
       <c r="O128" t="n">
-        <v>0.1031588682131492</v>
+        <v>0.05126818006305378</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.01964028807224499</v>
+        <v>0.01687308002703918</v>
       </c>
       <c r="G129" t="n">
-        <v>0.1041483753394617</v>
+        <v>0.03810045805503887</v>
       </c>
       <c r="J129" t="n">
-        <v>0.01710066461441087</v>
+        <v>0.0206600363102151</v>
       </c>
       <c r="K129" t="n">
-        <v>0.1045489240731587</v>
+        <v>0.05289552003976752</v>
       </c>
       <c r="L129" t="n">
-        <v>0.04002600117995173</v>
+        <v>0.04801657629430425</v>
       </c>
       <c r="M129" t="n">
-        <v>0.1045821231262755</v>
+        <v>0.05223395502323065</v>
       </c>
       <c r="N129" t="n">
-        <v>0.06341277027540854</v>
+        <v>0.07587311627839338</v>
       </c>
       <c r="O129" t="n">
-        <v>0.1047963105657389</v>
+        <v>0.05208196069897527</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.01943445519137887</v>
+        <v>0.01692663423467391</v>
       </c>
       <c r="G130" t="n">
-        <v>0.1057756937041408</v>
+        <v>0.03869577771214885</v>
       </c>
       <c r="J130" t="n">
-        <v>0.01682919577107828</v>
+        <v>0.02056003631021509</v>
       </c>
       <c r="K130" t="n">
-        <v>0.1061825010118018</v>
+        <v>0.05372201254038889</v>
       </c>
       <c r="L130" t="n">
-        <v>0.03972565291775454</v>
+        <v>0.04831657629430428</v>
       </c>
       <c r="M130" t="n">
-        <v>0.1062162188001236</v>
+        <v>0.05305011057046864</v>
       </c>
       <c r="N130" t="n">
-        <v>0.06289368831644471</v>
+        <v>0.07587311627839338</v>
       </c>
       <c r="O130" t="n">
-        <v>0.1064337529183285</v>
+        <v>0.05289574133489675</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.0172130249027552</v>
+        <v>0.01697843188476261</v>
       </c>
       <c r="G131" t="n">
-        <v>0.1074030120688199</v>
+        <v>0.03929109736925882</v>
       </c>
       <c r="J131" t="n">
-        <v>0.01674202051013388</v>
+        <v>0.0206600363102151</v>
       </c>
       <c r="K131" t="n">
-        <v>0.1078160779504449</v>
+        <v>0.05454850504101025</v>
       </c>
       <c r="L131" t="n">
-        <v>0.03948824527457856</v>
+        <v>0.04811657629430427</v>
       </c>
       <c r="M131" t="n">
-        <v>0.1078503144739716</v>
+        <v>0.05386626611770661</v>
       </c>
       <c r="N131" t="n">
-        <v>0.06171872588248323</v>
+        <v>0.07607311627839342</v>
       </c>
       <c r="O131" t="n">
-        <v>0.1080711952709182</v>
+        <v>0.05370952197081825</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.01898047555065029</v>
+        <v>0.01702848517291134</v>
       </c>
       <c r="G132" t="n">
-        <v>0.109030330433499</v>
+        <v>0.03988641702636881</v>
       </c>
       <c r="J132" t="n">
-        <v>0.01654307016353876</v>
+        <v>0.02056003631021509</v>
       </c>
       <c r="K132" t="n">
-        <v>0.109449654889088</v>
+        <v>0.05537499754163162</v>
       </c>
       <c r="L132" t="n">
-        <v>0.03862283436292976</v>
+        <v>0.04821657629430426</v>
       </c>
       <c r="M132" t="n">
-        <v>0.1094844101478197</v>
+        <v>0.05468242166494459</v>
       </c>
       <c r="N132" t="n">
-        <v>0.06099554113198191</v>
+        <v>0.07587311627839338</v>
       </c>
       <c r="O132" t="n">
-        <v>0.1097086376235079</v>
+        <v>0.05452330260673973</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.01774128547934045</v>
+        <v>0.01707680629472615</v>
       </c>
       <c r="G133" t="n">
-        <v>0.110657648798178</v>
+        <v>0.04048173668347879</v>
       </c>
       <c r="J133" t="n">
-        <v>0.01643629227419911</v>
+        <v>0.02056003631021509</v>
       </c>
       <c r="K133" t="n">
-        <v>0.1110832318277311</v>
+        <v>0.05620149004225299</v>
       </c>
       <c r="L133" t="n">
-        <v>0.03853868002346883</v>
+        <v>0.04811657629430427</v>
       </c>
       <c r="M133" t="n">
-        <v>0.1111185058216677</v>
+        <v>0.05549857721218256</v>
       </c>
       <c r="N133" t="n">
-        <v>0.06053879213449476</v>
+        <v>0.07577311627839339</v>
       </c>
       <c r="O133" t="n">
-        <v>0.1113460799760976</v>
+        <v>0.05533708324266123</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.01849993303310202</v>
+        <v>0.01712340744581309</v>
       </c>
       <c r="G134" t="n">
-        <v>0.1122849671628571</v>
+        <v>0.04107705634058877</v>
       </c>
       <c r="J134" t="n">
-        <v>0.016125634385021</v>
+        <v>0.0206600363102151</v>
       </c>
       <c r="K134" t="n">
-        <v>0.1127168087663742</v>
+        <v>0.05702798254287437</v>
       </c>
       <c r="L134" t="n">
-        <v>0.03794504209685631</v>
+        <v>0.04821657629430426</v>
       </c>
       <c r="M134" t="n">
-        <v>0.1127526014955158</v>
+        <v>0.05631473275942054</v>
       </c>
       <c r="N134" t="n">
-        <v>0.05976313695957586</v>
+        <v>0.0756731162783934</v>
       </c>
       <c r="O134" t="n">
-        <v>0.1129835223286872</v>
+        <v>0.05615086387858271</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.01626089655621128</v>
+        <v>0.01716830082177826</v>
       </c>
       <c r="G135" t="n">
-        <v>0.1139122855275362</v>
+        <v>0.04167237599769875</v>
       </c>
       <c r="J135" t="n">
-        <v>0.01581504403891061</v>
+        <v>0.02046003631021509</v>
       </c>
       <c r="K135" t="n">
-        <v>0.1143503857050173</v>
+        <v>0.05785447504349574</v>
       </c>
       <c r="L135" t="n">
-        <v>0.03735118042375274</v>
+        <v>0.04811657629430427</v>
       </c>
       <c r="M135" t="n">
-        <v>0.1143866971693638</v>
+        <v>0.05713088830665853</v>
       </c>
       <c r="N135" t="n">
-        <v>0.0585832336767792</v>
+        <v>0.0756731162783934</v>
       </c>
       <c r="O135" t="n">
-        <v>0.1146209646812769</v>
+        <v>0.0569646445145042</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.01702865439294456</v>
+        <v>0.0172114986182277</v>
       </c>
       <c r="G136" t="n">
-        <v>0.1155396038922153</v>
+        <v>0.04226769565480874</v>
       </c>
       <c r="J136" t="n">
-        <v>0.01570846877877406</v>
+        <v>0.02056003631021509</v>
       </c>
       <c r="K136" t="n">
-        <v>0.1159839626436604</v>
+        <v>0.0586809675441171</v>
       </c>
       <c r="L136" t="n">
-        <v>0.03686635484481873</v>
+        <v>0.04821657629430426</v>
       </c>
       <c r="M136" t="n">
-        <v>0.1160207928432119</v>
+        <v>0.05794704385389651</v>
       </c>
       <c r="N136" t="n">
-        <v>0.05841374035565877</v>
+        <v>0.0761731162783934</v>
       </c>
       <c r="O136" t="n">
-        <v>0.1162584070338666</v>
+        <v>0.05777842515042569</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.01680768488757818</v>
+        <v>0.01725301303076749</v>
       </c>
       <c r="G137" t="n">
-        <v>0.1171669222568944</v>
+        <v>0.04286301531191872</v>
       </c>
       <c r="J137" t="n">
-        <v>0.0155098561475175</v>
+        <v>0.02056003631021509</v>
       </c>
       <c r="K137" t="n">
-        <v>0.1176175395823035</v>
+        <v>0.05950746004473847</v>
       </c>
       <c r="L137" t="n">
-        <v>0.03659982520071489</v>
+        <v>0.04801657629430425</v>
       </c>
       <c r="M137" t="n">
-        <v>0.1176548885170599</v>
+        <v>0.05876319940113448</v>
       </c>
       <c r="N137" t="n">
-        <v>0.0577693150657686</v>
+        <v>0.07607311627839342</v>
       </c>
       <c r="O137" t="n">
-        <v>0.1178958493864562</v>
+        <v>0.05859220578634718</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.01660246638438843</v>
+        <v>0.01729285625500367</v>
       </c>
       <c r="G138" t="n">
-        <v>0.1187942406215735</v>
+        <v>0.04345833496902871</v>
       </c>
       <c r="J138" t="n">
-        <v>0.01542315368804703</v>
+        <v>0.0206600363102151</v>
       </c>
       <c r="K138" t="n">
-        <v>0.1192511165209466</v>
+        <v>0.06033395254535984</v>
       </c>
       <c r="L138" t="n">
-        <v>0.03596085133210183</v>
+        <v>0.04831657629430428</v>
       </c>
       <c r="M138" t="n">
-        <v>0.119288984190908</v>
+        <v>0.05957935494837246</v>
       </c>
       <c r="N138" t="n">
-        <v>0.05636461587666258</v>
+        <v>0.07547311627839343</v>
       </c>
       <c r="O138" t="n">
-        <v>0.1195332917390459</v>
+        <v>0.05940598642226867</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.01641747722765163</v>
+        <v>0.01733104048654231</v>
       </c>
       <c r="G139" t="n">
-        <v>0.1204215589862526</v>
+        <v>0.04405365462613869</v>
       </c>
       <c r="J139" t="n">
-        <v>0.0152523089432688</v>
+        <v>0.02046003631021509</v>
       </c>
       <c r="K139" t="n">
-        <v>0.1208846934595897</v>
+        <v>0.0611604450459812</v>
       </c>
       <c r="L139" t="n">
-        <v>0.03555869307964007</v>
+        <v>0.04801657629430425</v>
       </c>
       <c r="M139" t="n">
-        <v>0.1209230798647561</v>
+        <v>0.06039551049561044</v>
       </c>
       <c r="N139" t="n">
-        <v>0.05591430085789484</v>
+        <v>0.07597311627839343</v>
       </c>
       <c r="O139" t="n">
-        <v>0.1211707340916356</v>
+        <v>0.06021976705819015</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.01625719576164411</v>
+        <v>0.01736757792098947</v>
       </c>
       <c r="G140" t="n">
-        <v>0.1220488773509317</v>
+        <v>0.04464897428324867</v>
       </c>
       <c r="J140" t="n">
-        <v>0.01500126945608897</v>
+        <v>0.0206600363102151</v>
       </c>
       <c r="K140" t="n">
-        <v>0.1225182703982328</v>
+        <v>0.06198693754660257</v>
       </c>
       <c r="L140" t="n">
-        <v>0.03520261028399022</v>
+        <v>0.04841657629430426</v>
       </c>
       <c r="M140" t="n">
-        <v>0.1225571755386041</v>
+        <v>0.06121166604284842</v>
       </c>
       <c r="N140" t="n">
-        <v>0.05513302807901932</v>
+        <v>0.07577311627839339</v>
       </c>
       <c r="O140" t="n">
-        <v>0.1228081764442252</v>
+        <v>0.06103354769411164</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.01712610033064216</v>
+        <v>0.01740248075395124</v>
       </c>
       <c r="G141" t="n">
-        <v>0.1236761957156108</v>
+        <v>0.04524429394035865</v>
       </c>
       <c r="J141" t="n">
-        <v>0.01497398276941363</v>
+        <v>0.02046003631021509</v>
       </c>
       <c r="K141" t="n">
-        <v>0.1241518473368759</v>
+        <v>0.06281343004722394</v>
       </c>
       <c r="L141" t="n">
-        <v>0.03490186278581289</v>
+        <v>0.04831657629430428</v>
       </c>
       <c r="M141" t="n">
-        <v>0.1241912712124522</v>
+        <v>0.06202782159008641</v>
       </c>
       <c r="N141" t="n">
-        <v>0.05523545560959009</v>
+        <v>0.0761731162783934</v>
       </c>
       <c r="O141" t="n">
-        <v>0.1244456187968149</v>
+        <v>0.06184732833003313</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.01502866927892211</v>
+        <v>0.01743576118103367</v>
       </c>
       <c r="G142" t="n">
-        <v>0.1253035140802898</v>
+        <v>0.04583961359746863</v>
       </c>
       <c r="J142" t="n">
-        <v>0.01467439642614894</v>
+        <v>0.02046003631021509</v>
       </c>
       <c r="K142" t="n">
-        <v>0.125785424275519</v>
+        <v>0.0636399225478453</v>
       </c>
       <c r="L142" t="n">
-        <v>0.03456571042576867</v>
+        <v>0.04841657629430426</v>
       </c>
       <c r="M142" t="n">
-        <v>0.1258253668863002</v>
+        <v>0.06284397713732438</v>
       </c>
       <c r="N142" t="n">
-        <v>0.05453624151916103</v>
+        <v>0.07597311627839343</v>
       </c>
       <c r="O142" t="n">
-        <v>0.1260830611494046</v>
+        <v>0.06266110896595461</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.01596938095076027</v>
+        <v>0.01746743139784281</v>
       </c>
       <c r="G143" t="n">
-        <v>0.1269308324449689</v>
+        <v>0.04643493325457861</v>
       </c>
       <c r="J143" t="n">
-        <v>0.01480645796920103</v>
+        <v>0.02046003631021509</v>
       </c>
       <c r="K143" t="n">
-        <v>0.1274190012141621</v>
+        <v>0.06446641504846667</v>
       </c>
       <c r="L143" t="n">
-        <v>0.03430341304451806</v>
+        <v>0.04801657629430425</v>
       </c>
       <c r="M143" t="n">
-        <v>0.1274594625601483</v>
+        <v>0.06366013268456236</v>
       </c>
       <c r="N143" t="n">
-        <v>0.05445004387728641</v>
+        <v>0.07577311627839339</v>
       </c>
       <c r="O143" t="n">
-        <v>0.1277205035019943</v>
+        <v>0.06347488960187611</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.01595237048357502</v>
+        <v>0.01749750359998474</v>
       </c>
       <c r="G144" t="n">
-        <v>0.1285581508096481</v>
+        <v>0.04703025291168859</v>
       </c>
       <c r="J144" t="n">
-        <v>0.01467411494147604</v>
+        <v>0.02046003631021509</v>
       </c>
       <c r="K144" t="n">
-        <v>0.1290525781528052</v>
+        <v>0.06529290754908805</v>
       </c>
       <c r="L144" t="n">
-        <v>0.03442423048272172</v>
+        <v>0.0482163898333906</v>
       </c>
       <c r="M144" t="n">
-        <v>0.1290935582339963</v>
+        <v>0.06447628823180034</v>
       </c>
       <c r="N144" t="n">
-        <v>0.05449152075351993</v>
+        <v>0.07617196944132487</v>
       </c>
       <c r="O144" t="n">
-        <v>0.1293579458545839</v>
+        <v>0.06428867023779759</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.0169565715859799</v>
+        <v>0.01752598998306552</v>
       </c>
       <c r="G145" t="n">
-        <v>0.1301854691743271</v>
+        <v>0.04762557256879858</v>
       </c>
       <c r="J145" t="n">
-        <v>0.01477325148949286</v>
+        <v>0.0206600363102151</v>
       </c>
       <c r="K145" t="n">
-        <v>0.1306861550914483</v>
+        <v>0.06611940004970941</v>
       </c>
       <c r="L145" t="n">
-        <v>0.03462062002891203</v>
+        <v>0.04821390161763436</v>
       </c>
       <c r="M145" t="n">
-        <v>0.1307276539078444</v>
+        <v>0.06529244377903831</v>
       </c>
       <c r="N145" t="n">
-        <v>0.05446543127827819</v>
+        <v>0.07596651244632358</v>
       </c>
       <c r="O145" t="n">
-        <v>0.1309953882071736</v>
+        <v>0.06510245087371909</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.0159671828815583</v>
+        <v>0.0175529027426912</v>
       </c>
       <c r="G146" t="n">
-        <v>0.1318127875390062</v>
+        <v>0.04822089222590856</v>
       </c>
       <c r="J146" t="n">
-        <v>0.01468001368951879</v>
+        <v>0.02065957293448395</v>
       </c>
       <c r="K146" t="n">
-        <v>0.1323197320300914</v>
+        <v>0.06694589255033077</v>
       </c>
       <c r="L146" t="n">
-        <v>0.03423597631153846</v>
+        <v>0.04800860011182484</v>
       </c>
       <c r="M146" t="n">
-        <v>0.1323617495816924</v>
+        <v>0.0661085993262763</v>
       </c>
       <c r="N146" t="n">
-        <v>0.053784560350087</v>
+        <v>0.07565671308392585</v>
       </c>
       <c r="O146" t="n">
-        <v>0.1326328305597633</v>
+        <v>0.06591623150964057</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.01598387530320409</v>
+        <v>0.01757825407446786</v>
       </c>
       <c r="G147" t="n">
-        <v>0.1334401059036853</v>
+        <v>0.04881621188301855</v>
       </c>
       <c r="J147" t="n">
-        <v>0.01459224683878757</v>
+        <v>0.02055786979787932</v>
       </c>
       <c r="K147" t="n">
-        <v>0.1339533089687346</v>
+        <v>0.06777238505095214</v>
       </c>
       <c r="L147" t="n">
-        <v>0.03426418733676401</v>
+        <v>0.04820059243965938</v>
       </c>
       <c r="M147" t="n">
-        <v>0.1339958452555405</v>
+        <v>0.06692475487351428</v>
       </c>
       <c r="N147" t="n">
-        <v>0.05412425629228601</v>
+        <v>0.07614273842335212</v>
       </c>
       <c r="O147" t="n">
-        <v>0.1342702729123529</v>
+        <v>0.06673001214556207</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.01500631978381118</v>
+        <v>0.01760205617400156</v>
       </c>
       <c r="G148" t="n">
-        <v>0.1350674242683644</v>
+        <v>0.04941153154012853</v>
       </c>
       <c r="J148" t="n">
-        <v>0.01470966087328439</v>
+        <v>0.0205549598780338</v>
       </c>
       <c r="K148" t="n">
-        <v>0.1355868859073777</v>
+        <v>0.06859887755157351</v>
       </c>
       <c r="L148" t="n">
-        <v>0.03440457269486996</v>
+        <v>0.04838998572483538</v>
       </c>
       <c r="M148" t="n">
-        <v>0.1356299409293885</v>
+        <v>0.06774091042075225</v>
       </c>
       <c r="N148" t="n">
-        <v>0.05418344203526382</v>
+        <v>0.07542475553382244</v>
       </c>
       <c r="O148" t="n">
-        <v>0.1359077152649426</v>
+        <v>0.06754379278148355</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.01703418725627346</v>
+        <v>0.01762432123689835</v>
       </c>
       <c r="G149" t="n">
-        <v>0.1366947426330435</v>
+        <v>0.05000685119723851</v>
       </c>
       <c r="J149" t="n">
-        <v>0.0146319657289945</v>
+        <v>0.02055089064508601</v>
       </c>
       <c r="K149" t="n">
-        <v>0.1372204628460208</v>
+        <v>0.06942537005219487</v>
       </c>
       <c r="L149" t="n">
-        <v>0.03435645197613768</v>
+        <v>0.04797688709105022</v>
       </c>
       <c r="M149" t="n">
-        <v>0.1372640366032366</v>
+        <v>0.06855706596799023</v>
       </c>
       <c r="N149" t="n">
-        <v>0.0544610405094092</v>
+        <v>0.07580293148455713</v>
       </c>
       <c r="O149" t="n">
-        <v>0.1375451576175323</v>
+        <v>0.06835757341740505</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.01506714865348482</v>
+        <v>0.01764506145876433</v>
       </c>
       <c r="G150" t="n">
-        <v>0.1383220609977226</v>
+        <v>0.05060217085434849</v>
       </c>
       <c r="J150" t="n">
-        <v>0.01475887134190308</v>
+        <v>0.02054570956917465</v>
       </c>
       <c r="K150" t="n">
-        <v>0.1388540397846639</v>
+        <v>0.07025186255281624</v>
       </c>
       <c r="L150" t="n">
-        <v>0.03471914477084848</v>
+        <v>0.04826140366200135</v>
       </c>
       <c r="M150" t="n">
-        <v>0.1388981322770847</v>
+        <v>0.06937322151522821</v>
       </c>
       <c r="N150" t="n">
-        <v>0.05445597464511059</v>
+        <v>0.07567743334477645</v>
       </c>
       <c r="O150" t="n">
-        <v>0.1391825999701219</v>
+        <v>0.06917135405332653</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.01710487490833917</v>
+        <v>0.0176642890352055</v>
       </c>
       <c r="G151" t="n">
-        <v>0.1399493793624017</v>
+        <v>0.05119749051145847</v>
       </c>
       <c r="J151" t="n">
-        <v>0.01489008764799539</v>
+        <v>0.02053946412043833</v>
       </c>
       <c r="K151" t="n">
-        <v>0.140487616723307</v>
+        <v>0.07107835505343761</v>
       </c>
       <c r="L151" t="n">
-        <v>0.03459197066928366</v>
+        <v>0.04794364256138606</v>
       </c>
       <c r="M151" t="n">
-        <v>0.1405322279509327</v>
+        <v>0.07018937706246618</v>
       </c>
       <c r="N151" t="n">
-        <v>0.05476716737275683</v>
+        <v>0.07554842818370061</v>
       </c>
       <c r="O151" t="n">
-        <v>0.1408200423227116</v>
+        <v>0.06998513468924802</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.01614703695373038</v>
+        <v>0.01768201616182798</v>
       </c>
       <c r="G152" t="n">
-        <v>0.1415766977270808</v>
+        <v>0.05179281016856846</v>
       </c>
       <c r="J152" t="n">
-        <v>0.01472532458325664</v>
+        <v>0.0205322017690157</v>
       </c>
       <c r="K152" t="n">
-        <v>0.1421211936619501</v>
+        <v>0.07190484755405899</v>
       </c>
       <c r="L152" t="n">
-        <v>0.03497424926172454</v>
+        <v>0.0481237109129018</v>
       </c>
       <c r="M152" t="n">
-        <v>0.1421663236247808</v>
+        <v>0.07100553260970417</v>
       </c>
       <c r="N152" t="n">
-        <v>0.0549935416227364</v>
+        <v>0.07591608307054987</v>
       </c>
       <c r="O152" t="n">
-        <v>0.1424574846753013</v>
+        <v>0.07079891532516951</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.01519330572255237</v>
+        <v>0.01769825503423783</v>
       </c>
       <c r="G153" t="n">
-        <v>0.1432040160917598</v>
+        <v>0.05238812982567844</v>
       </c>
       <c r="J153" t="n">
-        <v>0.01496429208367203</v>
+        <v>0.02062396998504541</v>
       </c>
       <c r="K153" t="n">
-        <v>0.1437547706005932</v>
+        <v>0.07273134005468035</v>
       </c>
       <c r="L153" t="n">
-        <v>0.03496530013845248</v>
+        <v>0.04790171584024597</v>
       </c>
       <c r="M153" t="n">
-        <v>0.1438004192986288</v>
+        <v>0.07182168815694215</v>
       </c>
       <c r="N153" t="n">
-        <v>0.054734020325438</v>
+        <v>0.07548056507454437</v>
       </c>
       <c r="O153" t="n">
-        <v>0.144094927027891</v>
+        <v>0.071612695961091</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.01524335214769901</v>
+        <v>0.01771301784804109</v>
       </c>
       <c r="G154" t="n">
-        <v>0.1448313344564389</v>
+        <v>0.05298344948278842</v>
       </c>
       <c r="J154" t="n">
-        <v>0.0148067000852268</v>
+        <v>0.0204148162386661</v>
       </c>
       <c r="K154" t="n">
-        <v>0.1453883475392363</v>
+        <v>0.07355783255530172</v>
       </c>
       <c r="L154" t="n">
-        <v>0.03516444288974879</v>
+        <v>0.04787776446711595</v>
       </c>
       <c r="M154" t="n">
-        <v>0.1454345149724769</v>
+        <v>0.07263784370418012</v>
       </c>
       <c r="N154" t="n">
-        <v>0.05488752641125033</v>
+        <v>0.07594204126490456</v>
       </c>
       <c r="O154" t="n">
-        <v>0.1457323693804806</v>
+        <v>0.07242647659701248</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.01729684716206423</v>
+        <v>0.01772631679884383</v>
       </c>
       <c r="G155" t="n">
-        <v>0.146458652821118</v>
+        <v>0.0535787691398984</v>
       </c>
       <c r="J155" t="n">
-        <v>0.01505225852390617</v>
+        <v>0.02060478800001643</v>
       </c>
       <c r="K155" t="n">
-        <v>0.1470219244778794</v>
+        <v>0.07438432505592309</v>
       </c>
       <c r="L155" t="n">
-        <v>0.0351709971058948</v>
+        <v>0.04825196391720918</v>
       </c>
       <c r="M155" t="n">
-        <v>0.1470686106463249</v>
+        <v>0.0734539992514181</v>
       </c>
       <c r="N155" t="n">
-        <v>0.05515298281056191</v>
+        <v>0.07570067871085057</v>
       </c>
       <c r="O155" t="n">
-        <v>0.1473698117330703</v>
+        <v>0.07324025723293398</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.01735353176836307</v>
+        <v>0.01773816408225212</v>
       </c>
       <c r="G156" t="n">
-        <v>0.1480859711857971</v>
+        <v>0.05417408879700838</v>
       </c>
       <c r="J156" t="n">
-        <v>0.01490067733569535</v>
+        <v>0.02049393273923504</v>
       </c>
       <c r="K156" t="n">
-        <v>0.1486555014165225</v>
+        <v>0.07521081755654445</v>
       </c>
       <c r="L156" t="n">
-        <v>0.03528428237717182</v>
+        <v>0.04792442131422295</v>
       </c>
       <c r="M156" t="n">
-        <v>0.148702706320173</v>
+        <v>0.07427015479865608</v>
       </c>
       <c r="N156" t="n">
-        <v>0.05532931245376144</v>
+        <v>0.07525664448160257</v>
       </c>
       <c r="O156" t="n">
-        <v>0.14900725408566</v>
+        <v>0.07405403786885546</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.01744349102271074</v>
+        <v>0.01774857189387202</v>
       </c>
       <c r="G157" t="n">
-        <v>0.1497132895504762</v>
+        <v>0.05476940845411836</v>
       </c>
       <c r="J157" t="n">
-        <v>0.01516175208744948</v>
+        <v>0.02058229792646057</v>
       </c>
       <c r="K157" t="n">
-        <v>0.1502890783551656</v>
+        <v>0.07603731005716581</v>
       </c>
       <c r="L157" t="n">
-        <v>0.03552483207321103</v>
+        <v>0.0480952437818547</v>
       </c>
       <c r="M157" t="n">
-        <v>0.150336801994021</v>
+        <v>0.07508631034589407</v>
       </c>
       <c r="N157" t="n">
-        <v>0.05582906927933212</v>
+        <v>0.07551010564638089</v>
       </c>
       <c r="O157" t="n">
-        <v>0.1506446964382496</v>
+        <v>0.07486781850477696</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.01658487940257438</v>
+        <v>0.0177575524293096</v>
       </c>
       <c r="G158" t="n">
-        <v>0.1513406079151553</v>
+        <v>0.05536472811122834</v>
       </c>
       <c r="J158" t="n">
-        <v>0.01506805071741817</v>
+        <v>0.02046993103183167</v>
       </c>
       <c r="K158" t="n">
-        <v>0.1519226552938087</v>
+        <v>0.07686380255778719</v>
       </c>
       <c r="L158" t="n">
-        <v>0.03557049092177419</v>
+        <v>0.0477645384438018</v>
       </c>
       <c r="M158" t="n">
-        <v>0.1519708976678691</v>
+        <v>0.07590246589313204</v>
       </c>
       <c r="N158" t="n">
-        <v>0.05617955938837227</v>
+        <v>0.07506122927440584</v>
       </c>
       <c r="O158" t="n">
-        <v>0.1522821387908393</v>
+        <v>0.07568159914069844</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.01776776316625245</v>
+        <v>0.01776511788417091</v>
       </c>
       <c r="G159" t="n">
-        <v>0.1529679262798344</v>
+        <v>0.05596004776833834</v>
       </c>
       <c r="J159" t="n">
-        <v>0.01541434232197413</v>
+        <v>0.020456879525487</v>
       </c>
       <c r="K159" t="n">
-        <v>0.1535562322324518</v>
+        <v>0.07769029505840855</v>
       </c>
       <c r="L159" t="n">
-        <v>0.03581062356602507</v>
+        <v>0.04783241242376171</v>
       </c>
       <c r="M159" t="n">
-        <v>0.1536049933417171</v>
+        <v>0.07671862144037002</v>
       </c>
       <c r="N159" t="n">
-        <v>0.05608633733425183</v>
+        <v>0.07511018243489748</v>
       </c>
       <c r="O159" t="n">
-        <v>0.153919581143429</v>
+        <v>0.07649537977661994</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.01698220857204338</v>
+        <v>0.01777128045406201</v>
       </c>
       <c r="G160" t="n">
-        <v>0.1545952446445135</v>
+        <v>0.05655536742544832</v>
       </c>
       <c r="J160" t="n">
-        <v>0.01559187056860563</v>
+        <v>0.02054319087756519</v>
       </c>
       <c r="K160" t="n">
-        <v>0.1551898091710949</v>
+        <v>0.07851678755902991</v>
       </c>
       <c r="L160" t="n">
-        <v>0.03632469007878428</v>
+        <v>0.04799897284543178</v>
       </c>
       <c r="M160" t="n">
-        <v>0.1552390890155652</v>
+        <v>0.077534776987608</v>
       </c>
       <c r="N160" t="n">
-        <v>0.05721688898500421</v>
+        <v>0.07525713219707619</v>
       </c>
       <c r="O160" t="n">
-        <v>0.1555570234960186</v>
+        <v>0.07730916041254142</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.01621828187824563</v>
+        <v>0.01777605233458898</v>
       </c>
       <c r="G161" t="n">
-        <v>0.1562225630091925</v>
+        <v>0.0571506870825583</v>
       </c>
       <c r="J161" t="n">
-        <v>0.01559187912480092</v>
+        <v>0.02052891255820488</v>
       </c>
       <c r="K161" t="n">
-        <v>0.156823386109738</v>
+        <v>0.07934328005965129</v>
       </c>
       <c r="L161" t="n">
-        <v>0.03699215053287247</v>
+        <v>0.04806432683250933</v>
       </c>
       <c r="M161" t="n">
-        <v>0.1568731846894132</v>
+        <v>0.07835093253484597</v>
       </c>
       <c r="N161" t="n">
-        <v>0.05733870020866244</v>
+        <v>0.07530224563016219</v>
       </c>
       <c r="O161" t="n">
-        <v>0.1571944658486083</v>
+        <v>0.0781229410484629</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.01646604934315764</v>
+        <v>0.01777944572135789</v>
       </c>
       <c r="G162" t="n">
-        <v>0.1578498813738716</v>
+        <v>0.05774600673966828</v>
       </c>
       <c r="J162" t="n">
-        <v>0.01590561165804832</v>
+        <v>0.02041409203754473</v>
       </c>
       <c r="K162" t="n">
-        <v>0.1584569630483811</v>
+        <v>0.08016977256027266</v>
       </c>
       <c r="L162" t="n">
-        <v>0.03739246500111013</v>
+        <v>0.04772858150869189</v>
       </c>
       <c r="M162" t="n">
-        <v>0.1585072803632613</v>
+        <v>0.07916708808208395</v>
       </c>
       <c r="N162" t="n">
-        <v>0.05841925687325972</v>
+        <v>0.07524568980337576</v>
       </c>
       <c r="O162" t="n">
-        <v>0.158831908201198</v>
+        <v>0.0789367216843844</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.0187155772250779</v>
+        <v>0.01778147280997479</v>
       </c>
       <c r="G163" t="n">
-        <v>0.1594771997385507</v>
+        <v>0.05834132639677826</v>
       </c>
       <c r="J163" t="n">
-        <v>0.0161243118358361</v>
+        <v>0.02049877678572339</v>
       </c>
       <c r="K163" t="n">
-        <v>0.1600905399870242</v>
+        <v>0.08099626506089402</v>
       </c>
       <c r="L163" t="n">
-        <v>0.03800509355631798</v>
+        <v>0.04799184399767673</v>
       </c>
       <c r="M163" t="n">
-        <v>0.1601413760371094</v>
+        <v>0.07998324362932194</v>
       </c>
       <c r="N163" t="n">
-        <v>0.05952604484682933</v>
+        <v>0.07538763178593705</v>
       </c>
       <c r="O163" t="n">
-        <v>0.1604693505537877</v>
+        <v>0.07975050232030588</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.0189569317823048</v>
+        <v>0.01778214579604574</v>
       </c>
       <c r="G164" t="n">
-        <v>0.1611045181032298</v>
+        <v>0.05893664605388824</v>
       </c>
       <c r="J164" t="n">
-        <v>0.01623922332565257</v>
+        <v>0.02048301427287949</v>
       </c>
       <c r="K164" t="n">
-        <v>0.1617241169256673</v>
+        <v>0.0818227575615154</v>
       </c>
       <c r="L164" t="n">
-        <v>0.03820949627131656</v>
+        <v>0.04785422142316129</v>
       </c>
       <c r="M164" t="n">
-        <v>0.1617754717109574</v>
+        <v>0.08079939917655991</v>
       </c>
       <c r="N164" t="n">
-        <v>0.06022654999740429</v>
+        <v>0.0747282386470664</v>
       </c>
       <c r="O164" t="n">
-        <v>0.1621067929063773</v>
+        <v>0.08056428295622738</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.01718017927313682</v>
+        <v>0.01778214579604574</v>
       </c>
       <c r="G165" t="n">
-        <v>0.1627318364679089</v>
+        <v>0.05893664605388824</v>
       </c>
       <c r="J165" t="n">
-        <v>0.01644158979498599</v>
+        <v>0.02046685196915168</v>
       </c>
       <c r="K165" t="n">
-        <v>0.1633576938643104</v>
+        <v>0.08264925006213676</v>
       </c>
       <c r="L165" t="n">
-        <v>0.0385851332189264</v>
+        <v>0.04791582090884297</v>
       </c>
       <c r="M165" t="n">
-        <v>0.1634095673848055</v>
+        <v>0.08161555472379789</v>
       </c>
       <c r="N165" t="n">
-        <v>0.06118825819301799</v>
+        <v>0.07486767745598394</v>
       </c>
       <c r="O165" t="n">
-        <v>0.163744235258967</v>
+        <v>0.08137806359214886</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.01837538595587242</v>
+        <v>0.01734175065305296</v>
       </c>
       <c r="G166" t="n">
-        <v>0.164359154832588</v>
+        <v>0.05893637752542422</v>
       </c>
       <c r="J166" t="n">
-        <v>0.01662265491132466</v>
+        <v>0.02025033734467861</v>
       </c>
       <c r="K166" t="n">
-        <v>0.1649912708029535</v>
+        <v>0.08347574256275812</v>
       </c>
       <c r="L166" t="n">
-        <v>0.03921146447196824</v>
+        <v>0.04787674957841911</v>
       </c>
       <c r="M166" t="n">
-        <v>0.1650436630586535</v>
+        <v>0.08243171027103587</v>
       </c>
       <c r="N166" t="n">
-        <v>0.06187865530170339</v>
+        <v>0.07480611528190995</v>
       </c>
       <c r="O166" t="n">
-        <v>0.1653816776115567</v>
+        <v>0.08219184422807035</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.01755053384241202</v>
+        <v>0.01690627685444041</v>
       </c>
       <c r="G167" t="n">
-        <v>0.1659864731972671</v>
+        <v>0.05893610899696021</v>
       </c>
       <c r="J167" t="n">
-        <v>0.01697948956282694</v>
+        <v>0.02023351786959894</v>
       </c>
       <c r="K167" t="n">
-        <v>0.1666248477415966</v>
+        <v>0.08430223506337949</v>
       </c>
       <c r="L167" t="n">
-        <v>0.03978022742583848</v>
+        <v>0.04743711455558716</v>
       </c>
       <c r="M167" t="n">
-        <v>0.1666777587325016</v>
+        <v>0.08324786581827386</v>
       </c>
       <c r="N167" t="n">
-        <v>0.06227341704901052</v>
+        <v>0.07484371919406474</v>
       </c>
       <c r="O167" t="n">
-        <v>0.1670191199641463</v>
+        <v>0.08300562486399184</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.01872133465760992</v>
+        <v>0.01647635094779156</v>
       </c>
       <c r="G168" t="n">
-        <v>0.1676137915619462</v>
+        <v>0.05893584046849618</v>
       </c>
       <c r="J168" t="n">
-        <v>0.01703027274669394</v>
+        <v>0.02031644101405131</v>
       </c>
       <c r="K168" t="n">
-        <v>0.1682584246802397</v>
+        <v>0.08512872756400086</v>
       </c>
       <c r="L168" t="n">
-        <v>0.03983397019892218</v>
+        <v>0.04779702296404451</v>
       </c>
       <c r="M168" t="n">
-        <v>0.1683118544063496</v>
+        <v>0.08406402136551183</v>
       </c>
       <c r="N168" t="n">
-        <v>0.06303388273013644</v>
+        <v>0.07498065626166855</v>
       </c>
       <c r="O168" t="n">
-        <v>0.168656562316736</v>
+        <v>0.08381940549991333</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.01788810660765043</v>
+        <v>0.01605259948074591</v>
       </c>
       <c r="G169" t="n">
-        <v>0.1692411099266252</v>
+        <v>0.05893557194003217</v>
       </c>
       <c r="J169" t="n">
-        <v>0.01707741603226014</v>
+        <v>0.02039915424817434</v>
       </c>
       <c r="K169" t="n">
-        <v>0.1698920016188828</v>
+        <v>0.08595522006462222</v>
       </c>
       <c r="L169" t="n">
-        <v>0.0404791576336975</v>
+        <v>0.04735658192748851</v>
       </c>
       <c r="M169" t="n">
-        <v>0.1699459500801977</v>
+        <v>0.08488017691274981</v>
       </c>
       <c r="N169" t="n">
-        <v>0.06338063084964096</v>
+        <v>0.07491709355394155</v>
       </c>
       <c r="O169" t="n">
-        <v>0.1702940046693257</v>
+        <v>0.08463318613583481</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.02005116482071873</v>
+        <v>0.01563564900088667</v>
       </c>
       <c r="G170" t="n">
-        <v>0.1708684282913044</v>
+        <v>0.05893530341156816</v>
       </c>
       <c r="J170" t="n">
-        <v>0.01722119719674742</v>
+        <v>0.0202817050421067</v>
       </c>
       <c r="K170" t="n">
-        <v>0.171525578557526</v>
+        <v>0.08678171256524359</v>
       </c>
       <c r="L170" t="n">
-        <v>0.04051644131847523</v>
+        <v>0.04771589856961658</v>
       </c>
       <c r="M170" t="n">
-        <v>0.1715800457540457</v>
+        <v>0.0856963324599878</v>
       </c>
       <c r="N170" t="n">
-        <v>0.06341469285365059</v>
+        <v>0.07435319814010399</v>
       </c>
       <c r="O170" t="n">
-        <v>0.1719314470219153</v>
+        <v>0.0854469667717563</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.01821082442500001</v>
+        <v>0.01522612605581591</v>
       </c>
       <c r="G171" t="n">
-        <v>0.1724957466559834</v>
+        <v>0.05893503488310414</v>
       </c>
       <c r="J171" t="n">
-        <v>0.01736189401737777</v>
+        <v>0.02026414086598705</v>
       </c>
       <c r="K171" t="n">
-        <v>0.1731591554961691</v>
+        <v>0.08760820506586497</v>
       </c>
       <c r="L171" t="n">
-        <v>0.04094647284156633</v>
+        <v>0.04727432753105296</v>
       </c>
       <c r="M171" t="n">
-        <v>0.1732141414278938</v>
+        <v>0.08651248800722577</v>
       </c>
       <c r="N171" t="n">
-        <v>0.06433710018829181</v>
+        <v>0.07468564443514281</v>
       </c>
       <c r="O171" t="n">
-        <v>0.173568889374505</v>
+        <v>0.08626074740767779</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.01936740054867944</v>
+        <v>0.01482465719311839</v>
       </c>
       <c r="G172" t="n">
-        <v>0.1741230650206625</v>
+        <v>0.05893476635464012</v>
       </c>
       <c r="J172" t="n">
-        <v>0.0174997842713731</v>
+        <v>0.02024640890023413</v>
       </c>
       <c r="K172" t="n">
-        <v>0.1747927324348122</v>
+        <v>0.08843469756648634</v>
       </c>
       <c r="L172" t="n">
-        <v>0.04146990379128157</v>
+        <v>0.04732436715071764</v>
       </c>
       <c r="M172" t="n">
-        <v>0.1748482371017419</v>
+        <v>0.08732864355446375</v>
       </c>
       <c r="N172" t="n">
-        <v>0.06444888429969114</v>
+        <v>0.07430310390798711</v>
       </c>
       <c r="O172" t="n">
-        <v>0.1752063317270947</v>
+        <v>0.08707452804359928</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.01952120831994225</v>
+        <v>0.0144318689604311</v>
       </c>
       <c r="G173" t="n">
-        <v>0.1757503833853416</v>
+        <v>0.0589344978261761</v>
       </c>
       <c r="J173" t="n">
-        <v>0.01783514573595534</v>
+        <v>0.02012551452195367</v>
       </c>
       <c r="K173" t="n">
-        <v>0.1764263093734553</v>
+        <v>0.0892611900671077</v>
       </c>
       <c r="L173" t="n">
-        <v>0.04168738575593192</v>
+        <v>0.04756494544847176</v>
       </c>
       <c r="M173" t="n">
-        <v>0.1764823327755899</v>
+        <v>0.08814479910170173</v>
       </c>
       <c r="N173" t="n">
-        <v>0.06505107663397502</v>
+        <v>0.07410623110630971</v>
       </c>
       <c r="O173" t="n">
-        <v>0.1768437740796844</v>
+        <v>0.08788830867952076</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.01967256286697358</v>
+        <v>0.01404838790533847</v>
       </c>
       <c r="G174" t="n">
-        <v>0.1773777017500207</v>
+        <v>0.05893422929771209</v>
       </c>
       <c r="J174" t="n">
-        <v>0.01796825618834644</v>
+        <v>0.02010040556400658</v>
       </c>
       <c r="K174" t="n">
-        <v>0.1780598863120983</v>
+        <v>0.09008768256772907</v>
       </c>
       <c r="L174" t="n">
-        <v>0.04169957032382807</v>
+        <v>0.04729717670227943</v>
       </c>
       <c r="M174" t="n">
-        <v>0.178116428449438</v>
+        <v>0.08896095464893972</v>
       </c>
       <c r="N174" t="n">
-        <v>0.06614470863727001</v>
+        <v>0.07399676384868037</v>
       </c>
       <c r="O174" t="n">
-        <v>0.178481216432274</v>
+        <v>0.08870208931544225</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.01882177931795864</v>
+        <v>0.01367484057544255</v>
       </c>
       <c r="G175" t="n">
-        <v>0.1790050201146998</v>
+        <v>0.05893396076924808</v>
       </c>
       <c r="J175" t="n">
-        <v>0.01809939340576834</v>
+        <v>0.02007157580069989</v>
       </c>
       <c r="K175" t="n">
-        <v>0.1796934632507415</v>
+        <v>0.09091417506835044</v>
       </c>
       <c r="L175" t="n">
-        <v>0.04210710908328114</v>
+        <v>0.04732217519010484</v>
       </c>
       <c r="M175" t="n">
-        <v>0.179750524123286</v>
+        <v>0.08977711019617769</v>
       </c>
       <c r="N175" t="n">
-        <v>0.06633081175570249</v>
+        <v>0.07447643995366909</v>
       </c>
       <c r="O175" t="n">
-        <v>0.1801186587848637</v>
+        <v>0.08951586995136374</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.02096917280108261</v>
+        <v>0.01331185351832983</v>
       </c>
       <c r="G176" t="n">
-        <v>0.1806323384793789</v>
+        <v>0.05893369224078405</v>
       </c>
       <c r="J176" t="n">
-        <v>0.01802883516544299</v>
+        <v>0.02003951900634066</v>
       </c>
       <c r="K176" t="n">
-        <v>0.1813270401893846</v>
+        <v>0.0917406675689718</v>
       </c>
       <c r="L176" t="n">
-        <v>0.04231065362260178</v>
+        <v>0.04714105518991205</v>
       </c>
       <c r="M176" t="n">
-        <v>0.1813846197971341</v>
+        <v>0.09059326574341567</v>
       </c>
       <c r="N176" t="n">
-        <v>0.06671041743539907</v>
+        <v>0.07434699723984572</v>
       </c>
       <c r="O176" t="n">
-        <v>0.1817561011374534</v>
+        <v>0.09032965058728523</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.0211150584445307</v>
+        <v>0.01296005328163398</v>
       </c>
       <c r="G177" t="n">
-        <v>0.182259656844058</v>
+        <v>0.05893342371232003</v>
       </c>
       <c r="J177" t="n">
-        <v>0.01825685924459229</v>
+        <v>0.02020472895523592</v>
       </c>
       <c r="K177" t="n">
-        <v>0.1829606171280277</v>
+        <v>0.09256716006959316</v>
       </c>
       <c r="L177" t="n">
-        <v>0.04301085553010095</v>
+        <v>0.04715493097966519</v>
       </c>
       <c r="M177" t="n">
-        <v>0.1830187154709821</v>
+        <v>0.09140942129065364</v>
       </c>
       <c r="N177" t="n">
-        <v>0.06748455712248624</v>
+        <v>0.07361017352578014</v>
       </c>
       <c r="O177" t="n">
-        <v>0.183393543490043</v>
+        <v>0.09114343122320671</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.01926249835134833</v>
+        <v>0.01262006641294101</v>
       </c>
       <c r="G178" t="n">
-        <v>0.1838869752087371</v>
+        <v>0.05893315518385602</v>
       </c>
       <c r="J178" t="n">
-        <v>0.01838435341012871</v>
+        <v>0.02016769942169273</v>
       </c>
       <c r="K178" t="n">
-        <v>0.1845941940666708</v>
+        <v>0.09339365257021454</v>
       </c>
       <c r="L178" t="n">
-        <v>0.04310956712535818</v>
+        <v>0.04696491683732842</v>
       </c>
       <c r="M178" t="n">
-        <v>0.1846528111448302</v>
+        <v>0.09222557683789162</v>
       </c>
       <c r="N178" t="n">
-        <v>0.06735456983530119</v>
+        <v>0.07396770663004237</v>
       </c>
       <c r="O178" t="n">
-        <v>0.1850309858426327</v>
+        <v>0.09195721185912821</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.02041858751429923</v>
+        <v>0.01229251945985298</v>
       </c>
       <c r="G179" t="n">
-        <v>0.1855142935734161</v>
+        <v>0.058932886655392</v>
       </c>
       <c r="J179" t="n">
-        <v>0.01851866501882156</v>
+        <v>0.02012892418001816</v>
       </c>
       <c r="K179" t="n">
-        <v>0.1862277710053139</v>
+        <v>0.0942201450708359</v>
       </c>
       <c r="L179" t="n">
-        <v>0.04362393879499141</v>
+        <v>0.04697212704086592</v>
       </c>
       <c r="M179" t="n">
-        <v>0.1862869068186782</v>
+        <v>0.0930417323851296</v>
       </c>
       <c r="N179" t="n">
-        <v>0.06844492256093143</v>
+        <v>0.07352133437120212</v>
       </c>
       <c r="O179" t="n">
-        <v>0.1866684281952224</v>
+        <v>0.09277099249504969</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.02157880892288119</v>
+        <v>0.01197803896995855</v>
       </c>
       <c r="G180" t="n">
-        <v>0.1871416119380952</v>
+        <v>0.05893261812692798</v>
       </c>
       <c r="J180" t="n">
-        <v>0.01855815906303603</v>
+        <v>0.01998889700451922</v>
       </c>
       <c r="K180" t="n">
-        <v>0.187861347943957</v>
+        <v>0.09504663757145727</v>
       </c>
       <c r="L180" t="n">
-        <v>0.04395076518409238</v>
+        <v>0.04677767586824177</v>
       </c>
       <c r="M180" t="n">
-        <v>0.1879210024925263</v>
+        <v>0.09385788793236759</v>
       </c>
       <c r="N180" t="n">
-        <v>0.06885802863091228</v>
+        <v>0.07337279456782952</v>
       </c>
       <c r="O180" t="n">
-        <v>0.188305870547812</v>
+        <v>0.09358477313097119</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.02173774923067322</v>
+        <v>0.01167725149088716</v>
       </c>
       <c r="G181" t="n">
-        <v>0.1887689303027743</v>
+        <v>0.05893234959846396</v>
       </c>
       <c r="J181" t="n">
-        <v>0.01889806382002281</v>
+        <v>0.01984811166950301</v>
       </c>
       <c r="K181" t="n">
-        <v>0.1894949248826001</v>
+        <v>0.09587313007207865</v>
       </c>
       <c r="L181" t="n">
-        <v>0.04387885315470519</v>
+        <v>0.0468826775974201</v>
       </c>
       <c r="M181" t="n">
-        <v>0.1895550981663743</v>
+        <v>0.09467404347960556</v>
       </c>
       <c r="N181" t="n">
-        <v>0.06897616961998143</v>
+        <v>0.07362382503849418</v>
       </c>
       <c r="O181" t="n">
-        <v>0.1899433129004017</v>
+        <v>0.09439855376689267</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.01988999509125432</v>
+        <v>0.01139078357022692</v>
       </c>
       <c r="G182" t="n">
-        <v>0.1903962486674534</v>
+        <v>0.05893208106999995</v>
       </c>
       <c r="J182" t="n">
-        <v>0.01893360756703251</v>
+        <v>0.01990706194927654</v>
       </c>
       <c r="K182" t="n">
-        <v>0.1911285018212432</v>
+        <v>0.09669962257270001</v>
       </c>
       <c r="L182" t="n">
-        <v>0.04449700956887381</v>
+        <v>0.04648824650636504</v>
       </c>
       <c r="M182" t="n">
-        <v>0.1911891938402224</v>
+        <v>0.09549019902684354</v>
       </c>
       <c r="N182" t="n">
-        <v>0.06958162710287641</v>
+        <v>0.07327616360176625</v>
       </c>
       <c r="O182" t="n">
-        <v>0.1915807552529914</v>
+        <v>0.09521233440281417</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02103013315820347</v>
+        <v>0.01111926175557983</v>
       </c>
       <c r="G183" t="n">
-        <v>0.1920235670321325</v>
+        <v>0.05893181254153593</v>
       </c>
       <c r="J183" t="n">
-        <v>0.01906001858131579</v>
+        <v>0.01996624161814688</v>
       </c>
       <c r="K183" t="n">
-        <v>0.1927620787598863</v>
+        <v>0.09752611507332137</v>
       </c>
       <c r="L183" t="n">
-        <v>0.04459404128864233</v>
+        <v>0.0463954968730407</v>
       </c>
       <c r="M183" t="n">
-        <v>0.1928232895140705</v>
+        <v>0.09630635457408152</v>
       </c>
       <c r="N183" t="n">
-        <v>0.06995668265433486</v>
+        <v>0.07323154807621551</v>
       </c>
       <c r="O183" t="n">
-        <v>0.193218197605581</v>
+        <v>0.09602611503873565</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.02115275008509968</v>
+        <v>0.01086331259453718</v>
       </c>
       <c r="G184" t="n">
-        <v>0.1936508853968116</v>
+        <v>0.05893154401307191</v>
       </c>
       <c r="J184" t="n">
-        <v>0.01907252514012332</v>
+        <v>0.01972614445042108</v>
       </c>
       <c r="K184" t="n">
-        <v>0.1943956556985294</v>
+        <v>0.09835260757394275</v>
       </c>
       <c r="L184" t="n">
-        <v>0.0450587551760547</v>
+        <v>0.04650554297541126</v>
       </c>
       <c r="M184" t="n">
-        <v>0.1944573851879185</v>
+        <v>0.09712251012131949</v>
       </c>
       <c r="N184" t="n">
-        <v>0.07098361784909446</v>
+        <v>0.07279171628041181</v>
       </c>
       <c r="O184" t="n">
-        <v>0.1948556399581707</v>
+        <v>0.09683989567465714</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.02225243252552192</v>
+        <v>0.01062356263472333</v>
       </c>
       <c r="G185" t="n">
-        <v>0.1952782037614907</v>
+        <v>0.05893127548460789</v>
       </c>
       <c r="J185" t="n">
-        <v>0.01936635552070576</v>
+        <v>0.01968726422040616</v>
       </c>
       <c r="K185" t="n">
-        <v>0.1960292326371725</v>
+        <v>0.09917910007456411</v>
       </c>
       <c r="L185" t="n">
-        <v>0.04537995809315504</v>
+        <v>0.04651949909144085</v>
       </c>
       <c r="M185" t="n">
-        <v>0.1960914808617666</v>
+        <v>0.09793866566855748</v>
       </c>
       <c r="N185" t="n">
-        <v>0.07124471426189272</v>
+        <v>0.07295840603292525</v>
       </c>
       <c r="O185" t="n">
-        <v>0.1964930823107604</v>
+        <v>0.09765367631057863</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.02132394383688879</v>
+        <v>0.01040063842372884</v>
       </c>
       <c r="G186" t="n">
-        <v>0.1969055221261698</v>
+        <v>0.05893100695614388</v>
       </c>
       <c r="J186" t="n">
-        <v>0.01923673800031372</v>
+        <v>0.01965009470240921</v>
       </c>
       <c r="K186" t="n">
-        <v>0.1976628095758156</v>
+        <v>0.1000055925751855</v>
       </c>
       <c r="L186" t="n">
-        <v>0.04544645690198737</v>
+        <v>0.04643847949909355</v>
       </c>
       <c r="M186" t="n">
-        <v>0.1977255765356146</v>
+        <v>0.09875482121579546</v>
       </c>
       <c r="N186" t="n">
-        <v>0.07152225346746732</v>
+        <v>0.07293335515232541</v>
       </c>
       <c r="O186" t="n">
-        <v>0.1981305246633501</v>
+        <v>0.09846745694650012</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.0223820583560093</v>
+        <v>0.01019516650915576</v>
       </c>
       <c r="G187" t="n">
-        <v>0.1985328404908488</v>
+        <v>0.05893073842767987</v>
       </c>
       <c r="J187" t="n">
-        <v>0.01948842153202997</v>
+        <v>0.01961512967073727</v>
       </c>
       <c r="K187" t="n">
-        <v>0.1992963865144587</v>
+        <v>0.1008320850758068</v>
       </c>
       <c r="L187" t="n">
-        <v>0.04526800856696753</v>
+        <v>0.04606359847633359</v>
       </c>
       <c r="M187" t="n">
-        <v>0.1993596722094627</v>
+        <v>0.09957097676303343</v>
       </c>
       <c r="N187" t="n">
-        <v>0.07181933045047473</v>
+        <v>0.07251830145718241</v>
       </c>
       <c r="O187" t="n">
-        <v>0.1997679670159397</v>
+        <v>0.09928123758242161</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.02243891522538914</v>
+        <v>0.01000777343859839</v>
       </c>
       <c r="G188" t="n">
-        <v>0.200160158855528</v>
+        <v>0.05893046989921584</v>
       </c>
       <c r="J188" t="n">
-        <v>0.0193384815528662</v>
+        <v>0.01968286289969737</v>
       </c>
       <c r="K188" t="n">
-        <v>0.2009299634531018</v>
+        <v>0.1016585775764282</v>
       </c>
       <c r="L188" t="n">
-        <v>0.0454854240286986</v>
+        <v>0.04629597030112495</v>
       </c>
       <c r="M188" t="n">
-        <v>0.2009937678833107</v>
+        <v>0.1003871323102714</v>
       </c>
       <c r="N188" t="n">
-        <v>0.07170507753731686</v>
+        <v>0.07261498276606621</v>
       </c>
       <c r="O188" t="n">
-        <v>0.2014054093685294</v>
+        <v>0.1000950182183431</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.020494494523181</v>
+        <v>0.009839085759675119</v>
       </c>
       <c r="G189" t="n">
-        <v>0.201787477220207</v>
+        <v>0.05893020137075183</v>
       </c>
       <c r="J189" t="n">
-        <v>0.01938742485553639</v>
+        <v>0.01955378816359658</v>
       </c>
       <c r="K189" t="n">
-        <v>0.2025635403917449</v>
+        <v>0.1024850700770496</v>
       </c>
       <c r="L189" t="n">
-        <v>0.04550022180472188</v>
+        <v>0.04623670925143192</v>
       </c>
       <c r="M189" t="n">
-        <v>0.2026278635571588</v>
+        <v>0.1012032878575094</v>
       </c>
       <c r="N189" t="n">
-        <v>0.071486699498433</v>
+        <v>0.07272513689754645</v>
       </c>
       <c r="O189" t="n">
-        <v>0.2030428517211191</v>
+        <v>0.1009087988542646</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.02154877632753752</v>
+        <v>0.009687356755546071</v>
       </c>
       <c r="G190" t="n">
-        <v>0.2034147955848861</v>
+        <v>0.05892993284228781</v>
       </c>
       <c r="J190" t="n">
-        <v>0.01953523387945505</v>
+        <v>0.01952839923674195</v>
       </c>
       <c r="K190" t="n">
-        <v>0.204197117330388</v>
+        <v>0.1033115625776709</v>
       </c>
       <c r="L190" t="n">
-        <v>0.04561236070277513</v>
+        <v>0.04608692960521854</v>
       </c>
       <c r="M190" t="n">
-        <v>0.2042619592310068</v>
+        <v>0.1020194434047474</v>
       </c>
       <c r="N190" t="n">
-        <v>0.07236413112762036</v>
+        <v>0.07205050167019328</v>
       </c>
       <c r="O190" t="n">
-        <v>0.2046802940737087</v>
+        <v>0.1017225794901861</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.02060174071661132</v>
+        <v>0.009538903960358724</v>
       </c>
       <c r="G191" t="n">
-        <v>0.2050421139495652</v>
+        <v>0.05892966431382379</v>
       </c>
       <c r="J191" t="n">
-        <v>0.0196818910640368</v>
+        <v>0.01950718989344051</v>
       </c>
       <c r="K191" t="n">
-        <v>0.2058306942690311</v>
+        <v>0.1041380550782923</v>
       </c>
       <c r="L191" t="n">
-        <v>0.04602179953059604</v>
+        <v>0.04594657185510553</v>
       </c>
       <c r="M191" t="n">
-        <v>0.2058960549048549</v>
+        <v>0.1028355989519854</v>
       </c>
       <c r="N191" t="n">
-        <v>0.07193730721867658</v>
+        <v>0.0719889468032095</v>
       </c>
       <c r="O191" t="n">
-        <v>0.2063177364262984</v>
+        <v>0.1025363601261076</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.02165336776855509</v>
+        <v>0.009391803233094936</v>
       </c>
       <c r="G192" t="n">
-        <v>0.2066694323142443</v>
+        <v>0.05892939578535977</v>
       </c>
       <c r="J192" t="n">
-        <v>0.0197273788486962</v>
+        <v>0.01958995050785189</v>
       </c>
       <c r="K192" t="n">
-        <v>0.2074642712076742</v>
+        <v>0.1049645475789137</v>
       </c>
       <c r="L192" t="n">
-        <v>0.04612849709592223</v>
+        <v>0.04570872765976497</v>
       </c>
       <c r="M192" t="n">
-        <v>0.207530150578703</v>
+        <v>0.1036517544992233</v>
       </c>
       <c r="N192" t="n">
-        <v>0.07270616256539886</v>
+        <v>0.07232997033518418</v>
       </c>
       <c r="O192" t="n">
-        <v>0.2079551787788881</v>
+        <v>0.1033501407620291</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02070363756152149</v>
+        <v>0.009246495983094766</v>
       </c>
       <c r="G193" t="n">
-        <v>0.2082967506789234</v>
+        <v>0.05892912725689575</v>
       </c>
       <c r="J193" t="n">
-        <v>0.01957167967284787</v>
+        <v>0.01947364547779276</v>
       </c>
       <c r="K193" t="n">
-        <v>0.2090978481463173</v>
+        <v>0.105791040079535</v>
       </c>
       <c r="L193" t="n">
-        <v>0.04603241220649149</v>
+        <v>0.04567204783604659</v>
       </c>
       <c r="M193" t="n">
-        <v>0.209164246252551</v>
+        <v>0.1044679100464613</v>
       </c>
       <c r="N193" t="n">
-        <v>0.0726706319615848</v>
+        <v>0.07247280340999118</v>
       </c>
       <c r="O193" t="n">
-        <v>0.2095926211314778</v>
+        <v>0.1041639213979505</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.02275253017366315</v>
+        <v>0.009103423619679002</v>
       </c>
       <c r="G194" t="n">
-        <v>0.2099240690436025</v>
+        <v>0.05892885872843174</v>
       </c>
       <c r="J194" t="n">
-        <v>0.01961477597590637</v>
+        <v>0.0196578483927074</v>
       </c>
       <c r="K194" t="n">
-        <v>0.2107314250849605</v>
+        <v>0.1066175325801564</v>
       </c>
       <c r="L194" t="n">
-        <v>0.04643350367004148</v>
+        <v>0.04593649667814712</v>
       </c>
       <c r="M194" t="n">
-        <v>0.2107983419263991</v>
+        <v>0.1052840655936993</v>
       </c>
       <c r="N194" t="n">
-        <v>0.07283065020103174</v>
+        <v>0.0724173903411589</v>
       </c>
       <c r="O194" t="n">
-        <v>0.2112300634840674</v>
+        <v>0.104977702033872</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.02280002568313272</v>
+        <v>0.008963027552174881</v>
       </c>
       <c r="G195" t="n">
-        <v>0.2115513874082816</v>
+        <v>0.05892859019996773</v>
       </c>
       <c r="J195" t="n">
-        <v>0.01965665019728632</v>
+        <v>0.01944254343014498</v>
       </c>
       <c r="K195" t="n">
-        <v>0.2123650020236036</v>
+        <v>0.1074440250807778</v>
       </c>
       <c r="L195" t="n">
-        <v>0.0463317302943099</v>
+        <v>0.0459020384802632</v>
       </c>
       <c r="M195" t="n">
-        <v>0.2124324376002471</v>
+        <v>0.1061002211409373</v>
       </c>
       <c r="N195" t="n">
-        <v>0.07318615207753715</v>
+        <v>0.07236367544221606</v>
       </c>
       <c r="O195" t="n">
-        <v>0.2128675058366571</v>
+        <v>0.1057914826697935</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.02284610416808287</v>
+        <v>0.008825749189903725</v>
       </c>
       <c r="G196" t="n">
-        <v>0.2131787057729607</v>
+        <v>0.0589283216715037</v>
       </c>
       <c r="J196" t="n">
-        <v>0.01979728477640229</v>
+        <v>0.01942771476765472</v>
       </c>
       <c r="K196" t="n">
-        <v>0.2139985789622466</v>
+        <v>0.1082705175813992</v>
       </c>
       <c r="L196" t="n">
-        <v>0.04662705088703445</v>
+        <v>0.04596863753659158</v>
       </c>
       <c r="M196" t="n">
-        <v>0.2140665332740952</v>
+        <v>0.1069163766881752</v>
       </c>
       <c r="N196" t="n">
-        <v>0.07313707238489847</v>
+        <v>0.07181160302669104</v>
       </c>
       <c r="O196" t="n">
-        <v>0.2145049481892467</v>
+        <v>0.106605263305715</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02189074570666624</v>
+        <v>0.008692029942204728</v>
       </c>
       <c r="G197" t="n">
-        <v>0.2148060241376398</v>
+        <v>0.05892805314303969</v>
       </c>
       <c r="J197" t="n">
-        <v>0.01983666215266885</v>
+        <v>0.01961334658278578</v>
       </c>
       <c r="K197" t="n">
-        <v>0.2156321559008897</v>
+        <v>0.1090970100820205</v>
       </c>
       <c r="L197" t="n">
-        <v>0.04641942425595283</v>
+        <v>0.04593625814132896</v>
       </c>
       <c r="M197" t="n">
-        <v>0.2157006289479432</v>
+        <v>0.1077325322354132</v>
       </c>
       <c r="N197" t="n">
-        <v>0.07328334591691305</v>
+        <v>0.07196111740811262</v>
       </c>
       <c r="O197" t="n">
-        <v>0.2161423905418364</v>
+        <v>0.1074190439416365</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02093393037703548</v>
+        <v>0.00856231121839908</v>
       </c>
       <c r="G198" t="n">
-        <v>0.2164333425023189</v>
+        <v>0.05892778461457567</v>
       </c>
       <c r="J198" t="n">
-        <v>0.01997476476550063</v>
+        <v>0.01949942305308734</v>
       </c>
       <c r="K198" t="n">
-        <v>0.2172657328395328</v>
+        <v>0.1099235025826419</v>
       </c>
       <c r="L198" t="n">
-        <v>0.04670880920880277</v>
+        <v>0.04580486458867206</v>
       </c>
       <c r="M198" t="n">
-        <v>0.2173347246217913</v>
+        <v>0.1085486877826512</v>
       </c>
       <c r="N198" t="n">
-        <v>0.07292490746737845</v>
+        <v>0.07181216290000919</v>
       </c>
       <c r="O198" t="n">
-        <v>0.2177798328944261</v>
+        <v>0.108232824577558</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02097563825734326</v>
+        <v>0.008437034427814002</v>
       </c>
       <c r="G199" t="n">
-        <v>0.2180606608669979</v>
+        <v>0.05892751608611166</v>
       </c>
       <c r="J199" t="n">
-        <v>0.01981157505431215</v>
+        <v>0.01938592835610861</v>
       </c>
       <c r="K199" t="n">
-        <v>0.218899309778176</v>
+        <v>0.1107499950832632</v>
       </c>
       <c r="L199" t="n">
-        <v>0.04689516455332188</v>
+        <v>0.04577442117281752</v>
       </c>
       <c r="M199" t="n">
-        <v>0.2189688202956393</v>
+        <v>0.1093648433298892</v>
       </c>
       <c r="N199" t="n">
-        <v>0.07316169183009191</v>
+        <v>0.07216468381590924</v>
       </c>
       <c r="O199" t="n">
-        <v>0.2194172752470157</v>
+        <v>0.1090466052134795</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02101584942574224</v>
+        <v>0.008316640979771611</v>
       </c>
       <c r="G200" t="n">
-        <v>0.219687979231677</v>
+        <v>0.05892724755764763</v>
       </c>
       <c r="J200" t="n">
-        <v>0.01984707545851805</v>
+        <v>0.01957284666939875</v>
       </c>
       <c r="K200" t="n">
-        <v>0.2205328867168191</v>
+        <v>0.1115764875838846</v>
       </c>
       <c r="L200" t="n">
-        <v>0.04697844909724797</v>
+        <v>0.04554489218796204</v>
       </c>
       <c r="M200" t="n">
-        <v>0.2206029159694874</v>
+        <v>0.1101809988771272</v>
       </c>
       <c r="N200" t="n">
-        <v>0.07369363379885108</v>
+        <v>0.07141862446934161</v>
       </c>
       <c r="O200" t="n">
-        <v>0.2210547175996054</v>
+        <v>0.109860385849401</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02205454396038502</v>
+        <v>0.008201572283609612</v>
       </c>
       <c r="G201" t="n">
-        <v>0.2213152975963561</v>
+        <v>0.05892697902918362</v>
       </c>
       <c r="J201" t="n">
-        <v>0.0198812484175329</v>
+        <v>0.01936016217050693</v>
       </c>
       <c r="K201" t="n">
-        <v>0.2221664636554622</v>
+        <v>0.112402980084506</v>
       </c>
       <c r="L201" t="n">
-        <v>0.04665862164831866</v>
+        <v>0.04541624192830235</v>
       </c>
       <c r="M201" t="n">
-        <v>0.2222370116433355</v>
+        <v>0.1109971544243651</v>
       </c>
       <c r="N201" t="n">
-        <v>0.07372066816745332</v>
+        <v>0.07177392917383452</v>
       </c>
       <c r="O201" t="n">
-        <v>0.2226921599521951</v>
+        <v>0.1106741664853225</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02209170193942432</v>
+        <v>0.008092269748649898</v>
       </c>
       <c r="G202" t="n">
-        <v>0.2229426159610352</v>
+        <v>0.0589267105007196</v>
       </c>
       <c r="J202" t="n">
-        <v>0.01991407637077131</v>
+        <v>0.01944785903698236</v>
       </c>
       <c r="K202" t="n">
-        <v>0.2238000405941053</v>
+        <v>0.1132294725851274</v>
       </c>
       <c r="L202" t="n">
-        <v>0.04703564101427174</v>
+        <v>0.0455884346880352</v>
       </c>
       <c r="M202" t="n">
-        <v>0.2238711073171835</v>
+        <v>0.1118133099716031</v>
       </c>
       <c r="N202" t="n">
-        <v>0.07414272972969599</v>
+        <v>0.07143054224291684</v>
       </c>
       <c r="O202" t="n">
-        <v>0.2243296023047848</v>
+        <v>0.1114879471212439</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02112730344101274</v>
+        <v>0.007989174784219698</v>
       </c>
       <c r="G203" t="n">
-        <v>0.2245699343257143</v>
+        <v>0.05892644197225558</v>
       </c>
       <c r="J203" t="n">
-        <v>0.01994554175764782</v>
+        <v>0.01933592144637422</v>
       </c>
       <c r="K203" t="n">
-        <v>0.2254336175327484</v>
+        <v>0.1140559650857487</v>
       </c>
       <c r="L203" t="n">
-        <v>0.0468094660028448</v>
+        <v>0.04576143476135716</v>
       </c>
       <c r="M203" t="n">
-        <v>0.2255052029910315</v>
+        <v>0.1126294655188411</v>
       </c>
       <c r="N203" t="n">
-        <v>0.07375975327937651</v>
+        <v>0.07178840799011688</v>
       </c>
       <c r="O203" t="n">
-        <v>0.2259670446573744</v>
+        <v>0.1123017277571654</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02116132854330295</v>
+        <v>0.007892728799642187</v>
       </c>
       <c r="G204" t="n">
-        <v>0.2261972526903934</v>
+        <v>0.05892617344379156</v>
       </c>
       <c r="J204" t="n">
-        <v>0.02007562701757706</v>
+        <v>0.01952433357623169</v>
       </c>
       <c r="K204" t="n">
-        <v>0.2270671944713915</v>
+        <v>0.1148824575863701</v>
       </c>
       <c r="L204" t="n">
-        <v>0.04718005542177567</v>
+        <v>0.04533520644246503</v>
       </c>
       <c r="M204" t="n">
-        <v>0.2271392986648796</v>
+        <v>0.1134456210660791</v>
       </c>
       <c r="N204" t="n">
-        <v>0.07417167361029237</v>
+        <v>0.07164747072896321</v>
       </c>
       <c r="O204" t="n">
-        <v>0.2276044870099641</v>
+        <v>0.1131155083930869</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02319375732444764</v>
+        <v>0.007803373204253013</v>
       </c>
       <c r="G205" t="n">
-        <v>0.2278245710550725</v>
+        <v>0.05892590491532754</v>
       </c>
       <c r="J205" t="n">
-        <v>0.02010431458997358</v>
+        <v>0.01941307960410396</v>
       </c>
       <c r="K205" t="n">
-        <v>0.2287007714100346</v>
+        <v>0.1157089500869915</v>
       </c>
       <c r="L205" t="n">
-        <v>0.04724736807880192</v>
+        <v>0.04550971402555548</v>
       </c>
       <c r="M205" t="n">
-        <v>0.2287733943387277</v>
+        <v>0.1142617766133171</v>
       </c>
       <c r="N205" t="n">
-        <v>0.07397842551624106</v>
+        <v>0.07160767477298458</v>
       </c>
       <c r="O205" t="n">
-        <v>0.2292419293625538</v>
+        <v>0.1139292890290084</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02122456986259939</v>
+        <v>0.007721549407375058</v>
       </c>
       <c r="G206" t="n">
-        <v>0.2294518894197515</v>
+        <v>0.05892563638686353</v>
       </c>
       <c r="J206" t="n">
-        <v>0.02013158691425201</v>
+        <v>0.01950214370754023</v>
       </c>
       <c r="K206" t="n">
-        <v>0.2303343483486777</v>
+        <v>0.1165354425876128</v>
       </c>
       <c r="L206" t="n">
-        <v>0.04741136278166128</v>
+        <v>0.04548492180482519</v>
       </c>
       <c r="M206" t="n">
-        <v>0.2304074900125757</v>
+        <v>0.115077932160555</v>
       </c>
       <c r="N206" t="n">
-        <v>0.07417994379101989</v>
+        <v>0.07146896443570933</v>
       </c>
       <c r="O206" t="n">
-        <v>0.2308793717151435</v>
+        <v>0.1147430696649299</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02325374623591092</v>
+        <v>0.007647698818335553</v>
       </c>
       <c r="G207" t="n">
-        <v>0.2310792077844307</v>
+        <v>0.05892536785839952</v>
       </c>
       <c r="J207" t="n">
-        <v>0.02015742642982693</v>
+        <v>0.01929151006408965</v>
       </c>
       <c r="K207" t="n">
-        <v>0.2319679252873208</v>
+        <v>0.1173619350882342</v>
       </c>
       <c r="L207" t="n">
-        <v>0.04727199833809148</v>
+        <v>0.04556079407447092</v>
       </c>
       <c r="M207" t="n">
-        <v>0.2320415856864237</v>
+        <v>0.115894087707793</v>
       </c>
       <c r="N207" t="n">
-        <v>0.07447616322842637</v>
+        <v>0.07143128403066623</v>
       </c>
       <c r="O207" t="n">
-        <v>0.2325168140677331</v>
+        <v>0.1155568503008514</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02228126652253483</v>
+        <v>0.007582262846459069</v>
       </c>
       <c r="G208" t="n">
-        <v>0.2327065261491097</v>
+        <v>0.05892509932993549</v>
       </c>
       <c r="J208" t="n">
-        <v>0.02008181557611288</v>
+        <v>0.01928116285130139</v>
       </c>
       <c r="K208" t="n">
-        <v>0.2336015022259639</v>
+        <v>0.1181884275888556</v>
       </c>
       <c r="L208" t="n">
-        <v>0.04712923355583024</v>
+        <v>0.04543729512868927</v>
       </c>
       <c r="M208" t="n">
-        <v>0.2336756813602718</v>
+        <v>0.116710243255031</v>
       </c>
       <c r="N208" t="n">
-        <v>0.07466701862225783</v>
+        <v>0.07159457787138362</v>
       </c>
       <c r="O208" t="n">
-        <v>0.2341542564203228</v>
+        <v>0.1163706309367729</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02230711080062382</v>
+        <v>0.007525682901078544</v>
       </c>
       <c r="G209" t="n">
-        <v>0.2343338445137888</v>
+        <v>0.05892483080147148</v>
       </c>
       <c r="J209" t="n">
-        <v>0.02020473679252451</v>
+        <v>0.01947108624672469</v>
       </c>
       <c r="K209" t="n">
-        <v>0.235235079164607</v>
+        <v>0.1190149200894769</v>
       </c>
       <c r="L209" t="n">
-        <v>0.04718302724261519</v>
+        <v>0.04521438926167701</v>
       </c>
       <c r="M209" t="n">
-        <v>0.2353097770341199</v>
+        <v>0.117526398802269</v>
       </c>
       <c r="N209" t="n">
-        <v>0.07425244476631182</v>
+        <v>0.07165879027139022</v>
       </c>
       <c r="O209" t="n">
-        <v>0.2357916987729125</v>
+        <v>0.1171844115726944</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02333125914833051</v>
+        <v>0.007478400391518175</v>
       </c>
       <c r="G210" t="n">
-        <v>0.2359611628784679</v>
+        <v>0.05892456227300746</v>
       </c>
       <c r="J210" t="n">
-        <v>0.02012617251847633</v>
+        <v>0.01926126442790869</v>
       </c>
       <c r="K210" t="n">
-        <v>0.2368686561032501</v>
+        <v>0.1198414125900983</v>
       </c>
       <c r="L210" t="n">
-        <v>0.04723333820618411</v>
+        <v>0.04559204076763085</v>
       </c>
       <c r="M210" t="n">
-        <v>0.2369438727079679</v>
+        <v>0.118342554349507</v>
       </c>
       <c r="N210" t="n">
-        <v>0.07473237645438568</v>
+        <v>0.07122386554421445</v>
       </c>
       <c r="O210" t="n">
-        <v>0.2374291411255021</v>
+        <v>0.1179981922086158</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02235369164380756</v>
+        <v>0.007440856727105198</v>
       </c>
       <c r="G211" t="n">
-        <v>0.237588481243147</v>
+        <v>0.05892429374454345</v>
       </c>
       <c r="J211" t="n">
-        <v>0.02014610519338302</v>
+        <v>0.01935168157240261</v>
       </c>
       <c r="K211" t="n">
-        <v>0.2385022330418932</v>
+        <v>0.1206679050907197</v>
       </c>
       <c r="L211" t="n">
-        <v>0.04728012525427466</v>
+        <v>0.04517021394074741</v>
       </c>
       <c r="M211" t="n">
-        <v>0.238577968381816</v>
+        <v>0.1191587098967449</v>
       </c>
       <c r="N211" t="n">
-        <v>0.07460674848027693</v>
+        <v>0.07168974800338501</v>
       </c>
       <c r="O211" t="n">
-        <v>0.2390665834780918</v>
+        <v>0.1188119728445373</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02137438836520762</v>
+        <v>0.00741349331716587</v>
       </c>
       <c r="G212" t="n">
-        <v>0.2392157996078261</v>
+        <v>0.05892402521607942</v>
       </c>
       <c r="J212" t="n">
-        <v>0.02026451725665909</v>
+        <v>0.0194423218577556</v>
       </c>
       <c r="K212" t="n">
-        <v>0.2401358099805363</v>
+        <v>0.121494397591341</v>
       </c>
       <c r="L212" t="n">
-        <v>0.04772334719462457</v>
+        <v>0.04524887307522346</v>
       </c>
       <c r="M212" t="n">
-        <v>0.2402120640556641</v>
+        <v>0.1199748654439829</v>
       </c>
       <c r="N212" t="n">
-        <v>0.07467549563778292</v>
+        <v>0.07165638196243029</v>
       </c>
       <c r="O212" t="n">
-        <v>0.2407040258306815</v>
+        <v>0.1196257534804588</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02339332939068339</v>
+        <v>0.007396751571029821</v>
       </c>
       <c r="G213" t="n">
-        <v>0.2408431179725052</v>
+        <v>0.05892375668761541</v>
       </c>
       <c r="J213" t="n">
-        <v>0.02028139114771918</v>
+        <v>0.01933316946151686</v>
       </c>
       <c r="K213" t="n">
-        <v>0.2417693869191794</v>
+        <v>0.1223208900919624</v>
       </c>
       <c r="L213" t="n">
-        <v>0.04736296283497143</v>
+        <v>0.0454279824652557</v>
       </c>
       <c r="M213" t="n">
-        <v>0.2418461597295121</v>
+        <v>0.1207910209912209</v>
       </c>
       <c r="N213" t="n">
-        <v>0.07503855272070115</v>
+        <v>0.07152371173487904</v>
       </c>
       <c r="O213" t="n">
-        <v>0.2423414681832712</v>
+        <v>0.1204395341163803</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02241049479838744</v>
+        <v>0.007391072898022863</v>
       </c>
       <c r="G214" t="n">
-        <v>0.2424704363371843</v>
+        <v>0.0589234881591514</v>
       </c>
       <c r="J214" t="n">
-        <v>0.02039670930597784</v>
+        <v>0.01932420856123558</v>
       </c>
       <c r="K214" t="n">
-        <v>0.2434029638578225</v>
+        <v>0.1231473825925838</v>
       </c>
       <c r="L214" t="n">
-        <v>0.04779893098305313</v>
+        <v>0.04520750640504079</v>
       </c>
       <c r="M214" t="n">
-        <v>0.2434802554033601</v>
+        <v>0.1216071765384589</v>
       </c>
       <c r="N214" t="n">
-        <v>0.07459585452282896</v>
+        <v>0.07159168163425966</v>
       </c>
       <c r="O214" t="n">
-        <v>0.2439789105358608</v>
+        <v>0.1212533147523018</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02342586466647247</v>
+        <v>0.007391072898022863</v>
       </c>
       <c r="G215" t="n">
-        <v>0.2440977547018633</v>
+        <v>0.0589234881591514</v>
       </c>
       <c r="J215" t="n">
-        <v>0.02021045417084968</v>
+        <v>0.01921542333446091</v>
       </c>
       <c r="K215" t="n">
-        <v>0.2450365407964657</v>
+        <v>0.1239738750932051</v>
       </c>
       <c r="L215" t="n">
-        <v>0.0474312104466072</v>
+        <v>0.04528740918877541</v>
       </c>
       <c r="M215" t="n">
-        <v>0.2451143510772082</v>
+        <v>0.1224233320856968</v>
       </c>
       <c r="N215" t="n">
-        <v>0.0750473358379638</v>
+        <v>0.07126023597410069</v>
       </c>
       <c r="O215" t="n">
-        <v>0.2456163528884505</v>
+        <v>0.1220670953882233</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02343941907309115</v>
+        <v>0.007140040247772671</v>
       </c>
       <c r="G216" t="n">
-        <v>0.2457250730665424</v>
+        <v>0.05890555429245973</v>
       </c>
       <c r="J216" t="n">
-        <v>0.02042260818174928</v>
+        <v>0.01930679795874209</v>
       </c>
       <c r="K216" t="n">
-        <v>0.2466701177351088</v>
+        <v>0.1248003675938265</v>
       </c>
       <c r="L216" t="n">
-        <v>0.04765976003337141</v>
+        <v>0.0450676551106563</v>
       </c>
       <c r="M216" t="n">
-        <v>0.2467484467510563</v>
+        <v>0.1232394876329348</v>
       </c>
       <c r="N216" t="n">
-        <v>0.07479293145990318</v>
+        <v>0.07112931906793091</v>
       </c>
       <c r="O216" t="n">
-        <v>0.2472537952410402</v>
+        <v>0.1228808760241448</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02145113809639608</v>
+        <v>0.006893858773642847</v>
       </c>
       <c r="G217" t="n">
-        <v>0.2473523914312215</v>
+        <v>0.05888762042576805</v>
       </c>
       <c r="J217" t="n">
-        <v>0.02043315377809121</v>
+        <v>0.01939831661162826</v>
       </c>
       <c r="K217" t="n">
-        <v>0.2483036946737519</v>
+        <v>0.1256268600944479</v>
       </c>
       <c r="L217" t="n">
-        <v>0.04748453855108345</v>
+        <v>0.04534820846488019</v>
       </c>
       <c r="M217" t="n">
-        <v>0.2483825424249043</v>
+        <v>0.1240556431801728</v>
       </c>
       <c r="N217" t="n">
-        <v>0.07523257618244444</v>
+        <v>0.07109887522927866</v>
       </c>
       <c r="O217" t="n">
-        <v>0.2488912375936298</v>
+        <v>0.1236946566600663</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02246100181453996</v>
+        <v>0.006653016246456679</v>
       </c>
       <c r="G218" t="n">
-        <v>0.2489797097959006</v>
+        <v>0.05886968655907639</v>
       </c>
       <c r="J218" t="n">
-        <v>0.02034207339929009</v>
+        <v>0.0193899634706686</v>
       </c>
       <c r="K218" t="n">
-        <v>0.249937271612395</v>
+        <v>0.1264533525950692</v>
       </c>
       <c r="L218" t="n">
-        <v>0.04780550480748105</v>
+        <v>0.04532903354564372</v>
       </c>
       <c r="M218" t="n">
-        <v>0.2500166380987524</v>
+        <v>0.1248717987274108</v>
       </c>
       <c r="N218" t="n">
-        <v>0.07536620479938505</v>
+        <v>0.07076884877167255</v>
       </c>
       <c r="O218" t="n">
-        <v>0.2505286799462195</v>
+        <v>0.1245084372959878</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02346899030567541</v>
+        <v>0.006418000437036837</v>
       </c>
       <c r="G219" t="n">
-        <v>0.2506070281605797</v>
+        <v>0.05885175269238471</v>
       </c>
       <c r="J219" t="n">
-        <v>0.0203493494847605</v>
+        <v>0.01938172271341233</v>
       </c>
       <c r="K219" t="n">
-        <v>0.2515708485510381</v>
+        <v>0.1272798450956906</v>
       </c>
       <c r="L219" t="n">
-        <v>0.04762261761030184</v>
+        <v>0.04541009464714357</v>
       </c>
       <c r="M219" t="n">
-        <v>0.2516507337726004</v>
+        <v>0.1256879542746488</v>
       </c>
       <c r="N219" t="n">
-        <v>0.07479375210452249</v>
+        <v>0.07073918400864115</v>
       </c>
       <c r="O219" t="n">
-        <v>0.2521661222988091</v>
+        <v>0.1253222179319092</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02147508364795511</v>
+        <v>0.006189299116206616</v>
       </c>
       <c r="G220" t="n">
-        <v>0.2522343465252588</v>
+        <v>0.05883381882569304</v>
       </c>
       <c r="J220" t="n">
-        <v>0.020454964473917</v>
+        <v>0.01927357851740862</v>
       </c>
       <c r="K220" t="n">
-        <v>0.2532044254896812</v>
+        <v>0.128106337596312</v>
       </c>
       <c r="L220" t="n">
-        <v>0.04783583576728359</v>
+        <v>0.04539135606357655</v>
       </c>
       <c r="M220" t="n">
-        <v>0.2532848294464485</v>
+        <v>0.1265041098218867</v>
       </c>
       <c r="N220" t="n">
-        <v>0.07471515289165409</v>
+        <v>0.07080982525371293</v>
       </c>
       <c r="O220" t="n">
-        <v>0.2538035646513988</v>
+        <v>0.1261359985678307</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.02347926191953169</v>
+        <v>0.005967400054788678</v>
       </c>
       <c r="G221" t="n">
-        <v>0.2538616648899379</v>
+        <v>0.05881588495900137</v>
       </c>
       <c r="J221" t="n">
-        <v>0.02025890080617418</v>
+        <v>0.01936551506020663</v>
       </c>
       <c r="K221" t="n">
-        <v>0.2548380024283243</v>
+        <v>0.1289328300969333</v>
       </c>
       <c r="L221" t="n">
-        <v>0.04764511808616395</v>
+        <v>0.04537278208913925</v>
       </c>
       <c r="M221" t="n">
-        <v>0.2549189251202966</v>
+        <v>0.1273202653691247</v>
       </c>
       <c r="N221" t="n">
-        <v>0.07523034195457734</v>
+        <v>0.07128071682041665</v>
       </c>
       <c r="O221" t="n">
-        <v>0.2554410070039885</v>
+        <v>0.1269497792037522</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02148150519855783</v>
+        <v>0.005752791023606305</v>
       </c>
       <c r="G222" t="n">
-        <v>0.255488983254617</v>
+        <v>0.0587979510923097</v>
       </c>
       <c r="J222" t="n">
-        <v>0.02026114092094668</v>
+        <v>0.01915751651935557</v>
       </c>
       <c r="K222" t="n">
-        <v>0.2564715793669674</v>
+        <v>0.1297593225975547</v>
       </c>
       <c r="L222" t="n">
-        <v>0.04795042337468064</v>
+        <v>0.04505433701802836</v>
       </c>
       <c r="M222" t="n">
-        <v>0.2565530207941446</v>
+        <v>0.1281364209163627</v>
       </c>
       <c r="N222" t="n">
-        <v>0.0752392540870897</v>
+        <v>0.07075180302228068</v>
       </c>
       <c r="O222" t="n">
-        <v>0.2570784493565781</v>
+        <v>0.1277635598396737</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.02247808361699741</v>
+        <v>0.005545959793482318</v>
       </c>
       <c r="G223" t="n">
-        <v>0.2571163016192961</v>
+        <v>0.05878001722561804</v>
       </c>
       <c r="J223" t="n">
-        <v>0.02026067244740765</v>
+        <v>0.01914956707240462</v>
       </c>
       <c r="K223" t="n">
-        <v>0.2581051563056105</v>
+        <v>0.1305858150981761</v>
       </c>
       <c r="L223" t="n">
-        <v>0.04794967986114743</v>
+        <v>0.04503598514444068</v>
       </c>
       <c r="M223" t="n">
-        <v>0.2581871164679926</v>
+        <v>0.1289525764636007</v>
       </c>
       <c r="N223" t="n">
-        <v>0.0750408996197548</v>
+        <v>0.07092302817283364</v>
       </c>
       <c r="O223" t="n">
-        <v>0.2587158917091679</v>
+        <v>0.1285773404755952</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.02142748906474022</v>
+        <v>0.005347394135239568</v>
       </c>
       <c r="G224" t="n">
-        <v>0.2587436199839752</v>
+        <v>0.05876208335892636</v>
       </c>
       <c r="J224" t="n">
-        <v>0.02022424597969037</v>
+        <v>0.01914165089690295</v>
       </c>
       <c r="K224" t="n">
-        <v>0.2597387332442536</v>
+        <v>0.1314123075987974</v>
       </c>
       <c r="L224" t="n">
-        <v>0.04746582298698637</v>
+        <v>0.04511769076257277</v>
       </c>
       <c r="M224" t="n">
-        <v>0.2598212121418407</v>
+        <v>0.1297687320108387</v>
       </c>
       <c r="N224" t="n">
-        <v>0.07472439432990502</v>
+        <v>0.0705943365856041</v>
       </c>
       <c r="O224" t="n">
-        <v>0.2603533340617575</v>
+        <v>0.1293911211115167</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.02232302622124323</v>
+        <v>0.005157581819701294</v>
       </c>
       <c r="G225" t="n">
-        <v>0.2603709383486543</v>
+        <v>0.0587441494922347</v>
       </c>
       <c r="J225" t="n">
-        <v>0.020339679004464</v>
+        <v>0.01933375217039977</v>
       </c>
       <c r="K225" t="n">
-        <v>0.2613723101828967</v>
+        <v>0.1322388000994188</v>
       </c>
       <c r="L225" t="n">
-        <v>0.04746891462535946</v>
+        <v>0.04489941816662146</v>
       </c>
       <c r="M225" t="n">
-        <v>0.2614553078156888</v>
+        <v>0.1305848875580766</v>
       </c>
       <c r="N225" t="n">
-        <v>0.07492763559007326</v>
+        <v>0.07056567257412061</v>
       </c>
       <c r="O225" t="n">
-        <v>0.2619907764143471</v>
+        <v>0.1302049017474382</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.0211709055905842</v>
+        <v>0.004977010617690236</v>
       </c>
       <c r="G226" t="n">
-        <v>0.2619982567133333</v>
+        <v>0.05872621562554302</v>
       </c>
       <c r="J226" t="n">
-        <v>0.02011244591802393</v>
+        <v>0.01922585507044426</v>
       </c>
       <c r="K226" t="n">
-        <v>0.2630058871215398</v>
+        <v>0.1330652926000402</v>
       </c>
       <c r="L226" t="n">
-        <v>0.04717179619144926</v>
+        <v>0.0450811316507834</v>
       </c>
       <c r="M226" t="n">
-        <v>0.2630894034895368</v>
+        <v>0.1314010431053146</v>
       </c>
       <c r="N226" t="n">
-        <v>0.07387095100240931</v>
+        <v>0.07073698045191162</v>
       </c>
       <c r="O226" t="n">
-        <v>0.2636282187669369</v>
+        <v>0.1310186823833596</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.02097733767684098</v>
+        <v>0.004806168300029598</v>
       </c>
       <c r="G227" t="n">
-        <v>0.2636255750780124</v>
+        <v>0.05870828175885136</v>
       </c>
       <c r="J227" t="n">
-        <v>0.01994802111666562</v>
+        <v>0.01931794377458558</v>
       </c>
       <c r="K227" t="n">
-        <v>0.2646394640601828</v>
+        <v>0.1338917851006615</v>
       </c>
       <c r="L227" t="n">
-        <v>0.04658730910043829</v>
+        <v>0.04496279550925528</v>
       </c>
       <c r="M227" t="n">
-        <v>0.2647234991633849</v>
+        <v>0.1322171986525526</v>
       </c>
       <c r="N227" t="n">
-        <v>0.07347466816906278</v>
+        <v>0.07110820453250583</v>
       </c>
       <c r="O227" t="n">
-        <v>0.2652656611195265</v>
+        <v>0.1318324630192811</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.02074853298409139</v>
+        <v>0.004645542637542133</v>
       </c>
       <c r="G228" t="n">
-        <v>0.2652528934426915</v>
+        <v>0.05869034789215968</v>
       </c>
       <c r="J228" t="n">
-        <v>0.01975187899668449</v>
+        <v>0.01921000246037292</v>
       </c>
       <c r="K228" t="n">
-        <v>0.266273040998826</v>
+        <v>0.1347182776012829</v>
       </c>
       <c r="L228" t="n">
-        <v>0.04642829476750912</v>
+        <v>0.04504437403623379</v>
       </c>
       <c r="M228" t="n">
-        <v>0.2663575948372329</v>
+        <v>0.1330333541997906</v>
       </c>
       <c r="N228" t="n">
-        <v>0.07325911469218338</v>
+        <v>0.07097928912943186</v>
       </c>
       <c r="O228" t="n">
-        <v>0.2669031034721162</v>
+        <v>0.1326462436552026</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.02049070201641325</v>
+        <v>0.004495621401051031</v>
       </c>
       <c r="G229" t="n">
-        <v>0.2668802118073706</v>
+        <v>0.05867241402546802</v>
       </c>
       <c r="J229" t="n">
-        <v>0.01942949395437597</v>
+        <v>0.01930201530535547</v>
       </c>
       <c r="K229" t="n">
-        <v>0.2679066179374691</v>
+        <v>0.1355447701019043</v>
       </c>
       <c r="L229" t="n">
-        <v>0.0459075946078443</v>
+        <v>0.04522583152591564</v>
       </c>
       <c r="M229" t="n">
-        <v>0.267991690511081</v>
+        <v>0.1338495097470286</v>
       </c>
       <c r="N229" t="n">
-        <v>0.07234461817392068</v>
+        <v>0.07105017855621798</v>
       </c>
       <c r="O229" t="n">
-        <v>0.2685405458247059</v>
+        <v>0.1334600242911241</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.02221005527788435</v>
+        <v>0.004356892361379157</v>
       </c>
       <c r="G230" t="n">
-        <v>0.2685075301720497</v>
+        <v>0.05865448015877635</v>
       </c>
       <c r="J230" t="n">
-        <v>0.01918634038603552</v>
+        <v>0.01929396648708241</v>
       </c>
       <c r="K230" t="n">
-        <v>0.2695401948761122</v>
+        <v>0.1363712626025257</v>
       </c>
       <c r="L230" t="n">
-        <v>0.04503805003662631</v>
+        <v>0.04500713227249753</v>
       </c>
       <c r="M230" t="n">
-        <v>0.269625786184929</v>
+        <v>0.1346656652942665</v>
       </c>
       <c r="N230" t="n">
-        <v>0.07155150621642442</v>
+        <v>0.07062081712639301</v>
       </c>
       <c r="O230" t="n">
-        <v>0.2701779881772955</v>
+        <v>0.1342738049270456</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01991280327258255</v>
+        <v>0.004229843289349423</v>
       </c>
       <c r="G231" t="n">
-        <v>0.2701348485367288</v>
+        <v>0.05863654629208467</v>
       </c>
       <c r="J231" t="n">
-        <v>0.01912789268795856</v>
+        <v>0.01908584018310293</v>
       </c>
       <c r="K231" t="n">
-        <v>0.2711737718147553</v>
+        <v>0.137197755103147</v>
       </c>
       <c r="L231" t="n">
-        <v>0.04443250246903779</v>
+        <v>0.04478824057017616</v>
       </c>
       <c r="M231" t="n">
-        <v>0.2712598818587771</v>
+        <v>0.1354818208415045</v>
       </c>
       <c r="N231" t="n">
-        <v>0.07030010642184431</v>
+        <v>0.07089114966024879</v>
       </c>
       <c r="O231" t="n">
-        <v>0.2718154305298852</v>
+        <v>0.1350875855629671</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.02160515650458565</v>
+        <v>0.004114961955784965</v>
       </c>
       <c r="G232" t="n">
-        <v>0.2717621669014079</v>
+        <v>0.05861861242539301</v>
       </c>
       <c r="J232" t="n">
-        <v>0.01865962525644049</v>
+        <v>0.01927764501837655</v>
       </c>
       <c r="K232" t="n">
-        <v>0.2728073487533984</v>
+        <v>0.1380242476037684</v>
       </c>
       <c r="L232" t="n">
-        <v>0.04410379332026129</v>
+        <v>0.04496929876837097</v>
       </c>
       <c r="M232" t="n">
-        <v>0.2728939775326252</v>
+        <v>0.1362979763887425</v>
       </c>
       <c r="N232" t="n">
-        <v>0.06931074639232992</v>
+        <v>0.0708614580445443</v>
       </c>
       <c r="O232" t="n">
-        <v>0.2734528728824749</v>
+        <v>0.1359013661988886</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01929332547797148</v>
+        <v>0.004012736131508612</v>
       </c>
       <c r="G233" t="n">
-        <v>0.2733894852660869</v>
+        <v>0.05860067855870133</v>
       </c>
       <c r="J233" t="n">
-        <v>0.01848701248777677</v>
+        <v>0.0191695009382971</v>
       </c>
       <c r="K233" t="n">
-        <v>0.2744409256920415</v>
+        <v>0.1388507401043897</v>
       </c>
       <c r="L233" t="n">
-        <v>0.04346476400547933</v>
+        <v>0.04505051592961279</v>
       </c>
       <c r="M233" t="n">
-        <v>0.2745280732064732</v>
+        <v>0.1371141319359805</v>
       </c>
       <c r="N233" t="n">
-        <v>0.06820375373003101</v>
+        <v>0.07033201644237658</v>
       </c>
       <c r="O233" t="n">
-        <v>0.2750903152350646</v>
+        <v>0.1367151468348101</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01998352069681783</v>
+        <v>0.003923653587343472</v>
       </c>
       <c r="G234" t="n">
-        <v>0.2750168036307661</v>
+        <v>0.05858274469200966</v>
       </c>
       <c r="J234" t="n">
-        <v>0.01821552877826284</v>
+        <v>0.01916142750039848</v>
       </c>
       <c r="K234" t="n">
-        <v>0.2760745026306846</v>
+        <v>0.1396772326050111</v>
       </c>
       <c r="L234" t="n">
-        <v>0.0426282559398744</v>
+        <v>0.04493189574149264</v>
       </c>
       <c r="M234" t="n">
-        <v>0.2761621688803212</v>
+        <v>0.1379302874832185</v>
       </c>
       <c r="N234" t="n">
-        <v>0.06759945603709716</v>
+        <v>0.07040282968627437</v>
       </c>
       <c r="O234" t="n">
-        <v>0.2767277575876542</v>
+        <v>0.1375289274707316</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01868195266520255</v>
+        <v>0.0038482020941124</v>
       </c>
       <c r="G235" t="n">
-        <v>0.2766441219954451</v>
+        <v>0.05856481082531799</v>
       </c>
       <c r="J235" t="n">
-        <v>0.0178506485241941</v>
+        <v>0.01905342607776911</v>
       </c>
       <c r="K235" t="n">
-        <v>0.2777080795693277</v>
+        <v>0.1405037251056325</v>
       </c>
       <c r="L235" t="n">
-        <v>0.04220711053862911</v>
+        <v>0.04471344130259663</v>
       </c>
       <c r="M235" t="n">
-        <v>0.2777962645541693</v>
+        <v>0.1387464430304564</v>
       </c>
       <c r="N235" t="n">
-        <v>0.06601818091567807</v>
+        <v>0.0706739026087666</v>
       </c>
       <c r="O235" t="n">
-        <v>0.2783651999402439</v>
+        <v>0.1383427081066531</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.02039483188720347</v>
+        <v>0.003786869422638499</v>
       </c>
       <c r="G236" t="n">
-        <v>0.2782714403601242</v>
+        <v>0.05854687695862632</v>
       </c>
       <c r="J236" t="n">
-        <v>0.01779784612186601</v>
+        <v>0.01904549804349744</v>
       </c>
       <c r="K236" t="n">
-        <v>0.2793416565079708</v>
+        <v>0.1413302176062539</v>
       </c>
       <c r="L236" t="n">
-        <v>0.04161416921692604</v>
+        <v>0.04469515571151081</v>
       </c>
       <c r="M236" t="n">
-        <v>0.2794303602280174</v>
+        <v>0.1395625985776944</v>
       </c>
       <c r="N236" t="n">
-        <v>0.06528025596792336</v>
+        <v>0.07084524004238213</v>
       </c>
       <c r="O236" t="n">
-        <v>0.2800026422928336</v>
+        <v>0.1391564887425746</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.02012836886689837</v>
+        <v>0.003740143343744673</v>
       </c>
       <c r="G237" t="n">
-        <v>0.2798987587248034</v>
+        <v>0.05852894309193466</v>
       </c>
       <c r="J237" t="n">
-        <v>0.01746259596757399</v>
+        <v>0.0192376447706719</v>
       </c>
       <c r="K237" t="n">
-        <v>0.280975233446614</v>
+        <v>0.1421567101068752</v>
       </c>
       <c r="L237" t="n">
-        <v>0.04106227338994767</v>
+        <v>0.04507704206682131</v>
       </c>
       <c r="M237" t="n">
-        <v>0.2810644559018654</v>
+        <v>0.1403787541249324</v>
       </c>
       <c r="N237" t="n">
-        <v>0.06420600879598287</v>
+        <v>0.07071684681964985</v>
       </c>
       <c r="O237" t="n">
-        <v>0.2816400846454232</v>
+        <v>0.139970269378496</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01888212056765746</v>
+        <v>0.003708511628253877</v>
       </c>
       <c r="G238" t="n">
-        <v>0.2815260770894824</v>
+        <v>0.05851100922524298</v>
       </c>
       <c r="J238" t="n">
-        <v>0.01734624387506929</v>
+        <v>0.01902986763238093</v>
       </c>
       <c r="K238" t="n">
-        <v>0.282608810385257</v>
+        <v>0.1429832026074966</v>
       </c>
       <c r="L238" t="n">
-        <v>0.04045488264870964</v>
+        <v>0.04485910346711411</v>
       </c>
       <c r="M238" t="n">
-        <v>0.2826985515757134</v>
+        <v>0.1411949096721704</v>
       </c>
       <c r="N238" t="n">
-        <v>0.06390380919389588</v>
+        <v>0.0704887277730985</v>
       </c>
       <c r="O238" t="n">
-        <v>0.2832775269980129</v>
+        <v>0.1407840500144175</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01863672383190819</v>
+        <v>0.003692462046989142</v>
       </c>
       <c r="G239" t="n">
-        <v>0.2831533954541615</v>
+        <v>0.05849307535855132</v>
       </c>
       <c r="J239" t="n">
-        <v>0.01693166650544664</v>
+        <v>0.01922216800171297</v>
       </c>
       <c r="K239" t="n">
-        <v>0.2842423873239001</v>
+        <v>0.143809695108118</v>
       </c>
       <c r="L239" t="n">
-        <v>0.0400518785348582</v>
+        <v>0.04504134301097537</v>
       </c>
       <c r="M239" t="n">
-        <v>0.2843326472495615</v>
+        <v>0.1420110652194083</v>
       </c>
       <c r="N239" t="n">
-        <v>0.06311097532512422</v>
+        <v>0.07036088773525701</v>
       </c>
       <c r="O239" t="n">
-        <v>0.2849149693506026</v>
+        <v>0.141597830650339</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01939039665610134</v>
+        <v>0.00369049063991294</v>
       </c>
       <c r="G240" t="n">
-        <v>0.2847807138188406</v>
+        <v>0.05847514149185964</v>
       </c>
       <c r="J240" t="n">
-        <v>0.01681627336171718</v>
+        <v>0.01921454725175646</v>
       </c>
       <c r="K240" t="n">
-        <v>0.2858759642625432</v>
+        <v>0.1446361876087393</v>
       </c>
       <c r="L240" t="n">
-        <v>0.03954696169012431</v>
+        <v>0.04472376379699111</v>
       </c>
       <c r="M240" t="n">
-        <v>0.2859667429234096</v>
+        <v>0.1428272207666463</v>
       </c>
       <c r="N240" t="n">
-        <v>0.06181512230568476</v>
+        <v>0.07023333153865424</v>
       </c>
       <c r="O240" t="n">
-        <v>0.2865524117031922</v>
+        <v>0.1424116112862605</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01714312432732243</v>
+        <v>0.003691134792685277</v>
       </c>
       <c r="G241" t="n">
-        <v>0.2864080321835197</v>
+        <v>0.05845720762516798</v>
       </c>
       <c r="J241" t="n">
-        <v>0.01650005147483308</v>
+        <v>0.01910700675559981</v>
       </c>
       <c r="K241" t="n">
-        <v>0.2875095412011863</v>
+        <v>0.1454626801093607</v>
       </c>
       <c r="L241" t="n">
-        <v>0.03904010169271921</v>
+        <v>0.04490636892374736</v>
       </c>
       <c r="M241" t="n">
-        <v>0.2876008385972576</v>
+        <v>0.1436433763138843</v>
       </c>
       <c r="N241" t="n">
-        <v>0.06141620197873393</v>
+        <v>0.07050606401581899</v>
       </c>
       <c r="O241" t="n">
-        <v>0.2881898540557819</v>
+        <v>0.143225391922182</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01889489213265702</v>
+        <v>0.003692890545268647</v>
       </c>
       <c r="G242" t="n">
-        <v>0.2880353505481987</v>
+        <v>0.0584392737584763</v>
       </c>
       <c r="J242" t="n">
-        <v>0.01638298787574652</v>
+        <v>0.01899954788633151</v>
       </c>
       <c r="K242" t="n">
-        <v>0.2891431181398295</v>
+        <v>0.1462891726099821</v>
       </c>
       <c r="L242" t="n">
-        <v>0.03843126812085407</v>
+        <v>0.04468916148983026</v>
       </c>
       <c r="M242" t="n">
-        <v>0.2892349342711057</v>
+        <v>0.1444595318611223</v>
       </c>
       <c r="N242" t="n">
-        <v>0.06041416618742845</v>
+        <v>0.07047908999928021</v>
       </c>
       <c r="O242" t="n">
-        <v>0.2898272964083716</v>
+        <v>0.1440391725581035</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01764568535919059</v>
+        <v>0.003696245668486017</v>
       </c>
       <c r="G243" t="n">
-        <v>0.2896626689128778</v>
+        <v>0.05842133989178463</v>
       </c>
       <c r="J243" t="n">
-        <v>0.01616506959540963</v>
+        <v>0.01909217201703996</v>
       </c>
       <c r="K243" t="n">
-        <v>0.2907766950784726</v>
+        <v>0.1471156651106034</v>
       </c>
       <c r="L243" t="n">
-        <v>0.03782043055274018</v>
+        <v>0.04497214459382587</v>
       </c>
       <c r="M243" t="n">
-        <v>0.2908690299449537</v>
+        <v>0.1452756874083602</v>
       </c>
       <c r="N243" t="n">
-        <v>0.05990896677492519</v>
+        <v>0.07055241432156667</v>
       </c>
       <c r="O243" t="n">
-        <v>0.2914647387609612</v>
+        <v>0.144852953194025</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01839548929400874</v>
+        <v>0.003701687933160364</v>
       </c>
       <c r="G244" t="n">
-        <v>0.2912899872775569</v>
+        <v>0.05840340602509297</v>
       </c>
       <c r="J244" t="n">
-        <v>0.01604628366477459</v>
+        <v>0.01908488052081361</v>
       </c>
       <c r="K244" t="n">
-        <v>0.2924102720171157</v>
+        <v>0.1479421576112248</v>
       </c>
       <c r="L244" t="n">
-        <v>0.03750755856658877</v>
+        <v>0.04495532133432023</v>
       </c>
       <c r="M244" t="n">
-        <v>0.2925031256188018</v>
+        <v>0.1460918429555982</v>
       </c>
       <c r="N244" t="n">
-        <v>0.05900055558438061</v>
+        <v>0.07012604181520726</v>
       </c>
       <c r="O244" t="n">
-        <v>0.2931021811135509</v>
+        <v>0.1456667338299465</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01714428922419695</v>
+        <v>0.003709705110114675</v>
       </c>
       <c r="G245" t="n">
-        <v>0.292917305642236</v>
+        <v>0.05838547215840129</v>
       </c>
       <c r="J245" t="n">
-        <v>0.01572661711479359</v>
+        <v>0.01907767477074092</v>
       </c>
       <c r="K245" t="n">
-        <v>0.2940438489557588</v>
+        <v>0.1487686501118462</v>
       </c>
       <c r="L245" t="n">
-        <v>0.03689262174061103</v>
+        <v>0.04483869480989941</v>
       </c>
       <c r="M245" t="n">
-        <v>0.2941372212926499</v>
+        <v>0.1469079985028362</v>
       </c>
       <c r="N245" t="n">
-        <v>0.05838888445895157</v>
+        <v>0.07059997731273082</v>
       </c>
       <c r="O245" t="n">
-        <v>0.2947396234661406</v>
+        <v>0.146480514465868</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01589207043684079</v>
+        <v>0.003720784970171927</v>
       </c>
       <c r="G246" t="n">
-        <v>0.2945446240069151</v>
+        <v>0.05836753829170963</v>
       </c>
       <c r="J246" t="n">
-        <v>0.01540605697641878</v>
+        <v>0.01917055613991027</v>
       </c>
       <c r="K246" t="n">
-        <v>0.2956774258944019</v>
+        <v>0.1495951426124675</v>
       </c>
       <c r="L246" t="n">
-        <v>0.0364755896530182</v>
+        <v>0.04482226811914952</v>
       </c>
       <c r="M246" t="n">
-        <v>0.2957713169664979</v>
+        <v>0.1477241540500742</v>
       </c>
       <c r="N246" t="n">
-        <v>0.05707390524179473</v>
+        <v>0.07047422564666617</v>
       </c>
       <c r="O246" t="n">
-        <v>0.2963770658187302</v>
+        <v>0.1472942951017894</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01563881821902575</v>
+        <v>0.003735415284155101</v>
       </c>
       <c r="G247" t="n">
-        <v>0.2961719423715942</v>
+        <v>0.05834960442501795</v>
       </c>
       <c r="J247" t="n">
-        <v>0.01528459028060232</v>
+        <v>0.01896352600141014</v>
       </c>
       <c r="K247" t="n">
-        <v>0.297311002833045</v>
+        <v>0.1504216351130889</v>
       </c>
       <c r="L247" t="n">
-        <v>0.03575643188202154</v>
+        <v>0.04460604436065663</v>
       </c>
       <c r="M247" t="n">
-        <v>0.297405412640346</v>
+        <v>0.1485403095973122</v>
       </c>
       <c r="N247" t="n">
-        <v>0.05675556977606661</v>
+        <v>0.07014879164954219</v>
       </c>
       <c r="O247" t="n">
-        <v>0.2980145081713199</v>
+        <v>0.1481080757377109</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01538451785783741</v>
+        <v>0.003754083822887166</v>
       </c>
       <c r="G248" t="n">
-        <v>0.2977992607362733</v>
+        <v>0.05833167055832628</v>
       </c>
       <c r="J248" t="n">
-        <v>0.01516220405829639</v>
+        <v>0.019056585728329</v>
       </c>
       <c r="K248" t="n">
-        <v>0.2989445797716881</v>
+        <v>0.1512481276137103</v>
       </c>
       <c r="L248" t="n">
-        <v>0.03523511800583223</v>
+        <v>0.0446900266330067</v>
       </c>
       <c r="M248" t="n">
-        <v>0.299039508314194</v>
+        <v>0.1493564651445501</v>
       </c>
       <c r="N248" t="n">
-        <v>0.05553382990492417</v>
+        <v>0.07042368015388784</v>
       </c>
       <c r="O248" t="n">
-        <v>0.2996519505239096</v>
+        <v>0.1489218563736324</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01612915464036128</v>
+        <v>0.003777278357191105</v>
       </c>
       <c r="G249" t="n">
-        <v>0.2994265791009524</v>
+        <v>0.05831373669163461</v>
       </c>
       <c r="J249" t="n">
-        <v>0.01493888534045315</v>
+        <v>0.01914973669375521</v>
       </c>
       <c r="K249" t="n">
-        <v>0.3005781567103312</v>
+        <v>0.1520746201143316</v>
       </c>
       <c r="L249" t="n">
-        <v>0.03461161760266152</v>
+        <v>0.04487421803478595</v>
       </c>
       <c r="M249" t="n">
-        <v>0.300673603988042</v>
+        <v>0.1501726206917881</v>
       </c>
       <c r="N249" t="n">
-        <v>0.05470863747152388</v>
+        <v>0.07059889599223174</v>
       </c>
       <c r="O249" t="n">
-        <v>0.3012893928764993</v>
+        <v>0.1497356370095539</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01687271385368289</v>
+        <v>0.003805486657889892</v>
       </c>
       <c r="G250" t="n">
-        <v>0.3010538974656315</v>
+        <v>0.05829580282494294</v>
       </c>
       <c r="J250" t="n">
-        <v>0.01461462115802475</v>
+        <v>0.01904298027077728</v>
       </c>
       <c r="K250" t="n">
-        <v>0.3022117336489743</v>
+        <v>0.152901112614953</v>
       </c>
       <c r="L250" t="n">
-        <v>0.03408590025072064</v>
+        <v>0.04445862166458034</v>
       </c>
       <c r="M250" t="n">
-        <v>0.3023076996618901</v>
+        <v>0.1509887762390261</v>
       </c>
       <c r="N250" t="n">
-        <v>0.05397994431902253</v>
+        <v>0.07037444399710296</v>
       </c>
       <c r="O250" t="n">
-        <v>0.302926835229089</v>
+        <v>0.1505494176454754</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01561518078488777</v>
+        <v>0.003839196495806496</v>
       </c>
       <c r="G251" t="n">
-        <v>0.3026812158303105</v>
+        <v>0.05827786895825128</v>
       </c>
       <c r="J251" t="n">
-        <v>0.0143893985419634</v>
+        <v>0.01893631783248359</v>
       </c>
       <c r="K251" t="n">
-        <v>0.3038453105876174</v>
+        <v>0.1537276051155744</v>
       </c>
       <c r="L251" t="n">
-        <v>0.03365793552822086</v>
+        <v>0.04474324062097607</v>
       </c>
       <c r="M251" t="n">
-        <v>0.3039417953357382</v>
+        <v>0.1518049317862641</v>
       </c>
       <c r="N251" t="n">
-        <v>0.05304770229057676</v>
+        <v>0.07005032900103025</v>
       </c>
       <c r="O251" t="n">
-        <v>0.3045642775816786</v>
+        <v>0.1513631982813969</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01635654072106146</v>
+        <v>0.003878895641763934</v>
       </c>
       <c r="G252" t="n">
-        <v>0.3043085341949897</v>
+        <v>0.0582599350915596</v>
       </c>
       <c r="J252" t="n">
-        <v>0.01406320452322123</v>
+        <v>0.01892975075196261</v>
       </c>
       <c r="K252" t="n">
-        <v>0.3054788875262605</v>
+        <v>0.1545540976161957</v>
       </c>
       <c r="L252" t="n">
-        <v>0.03332769301337335</v>
+        <v>0.04482807800255906</v>
       </c>
       <c r="M252" t="n">
-        <v>0.3055758910095862</v>
+        <v>0.152621087333502</v>
       </c>
       <c r="N252" t="n">
-        <v>0.05261186322934336</v>
+        <v>0.07002655583654249</v>
       </c>
       <c r="O252" t="n">
-        <v>0.3062017199342683</v>
+        <v>0.1521769789173184</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.0150967789492895</v>
+        <v>0.003925071866585132</v>
       </c>
       <c r="G253" t="n">
-        <v>0.3059358525596688</v>
+        <v>0.05824200122486794</v>
       </c>
       <c r="J253" t="n">
-        <v>0.0139360261327504</v>
+        <v>0.01912328040230278</v>
       </c>
       <c r="K253" t="n">
-        <v>0.3071124644649036</v>
+        <v>0.1553805901168171</v>
       </c>
       <c r="L253" t="n">
-        <v>0.03259514228438931</v>
+        <v>0.04451313690791542</v>
       </c>
       <c r="M253" t="n">
-        <v>0.3072099866834343</v>
+        <v>0.15343724288074</v>
       </c>
       <c r="N253" t="n">
-        <v>0.05147237897847884</v>
+        <v>0.07040312933616849</v>
       </c>
       <c r="O253" t="n">
-        <v>0.307839162286858</v>
+        <v>0.1529907595532399</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.01383588075665741</v>
+        <v>0.003978212941093129</v>
       </c>
       <c r="G254" t="n">
-        <v>0.3075631709243478</v>
+        <v>0.05822406735817626</v>
       </c>
       <c r="J254" t="n">
-        <v>0.0136078504015031</v>
+        <v>0.01891690815659253</v>
       </c>
       <c r="K254" t="n">
-        <v>0.3087460414035467</v>
+        <v>0.1562070826174385</v>
       </c>
       <c r="L254" t="n">
-        <v>0.03206025291948003</v>
+        <v>0.04479842043563129</v>
       </c>
       <c r="M254" t="n">
-        <v>0.3088440823572823</v>
+        <v>0.154253398427978</v>
       </c>
       <c r="N254" t="n">
-        <v>0.05062920138114013</v>
+        <v>0.06978005433243717</v>
       </c>
       <c r="O254" t="n">
-        <v>0.3094766046394476</v>
+        <v>0.1538045401891613</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.01557383143025072</v>
+        <v>0.004038806636110823</v>
       </c>
       <c r="G255" t="n">
-        <v>0.3091904892890269</v>
+        <v>0.0582061334914846</v>
       </c>
       <c r="J255" t="n">
-        <v>0.01337866436043149</v>
+        <v>0.01911063538792031</v>
       </c>
       <c r="K255" t="n">
-        <v>0.3103796183421898</v>
+        <v>0.1570335751180598</v>
       </c>
       <c r="L255" t="n">
-        <v>0.0314229944968567</v>
+        <v>0.04438393168429264</v>
       </c>
       <c r="M255" t="n">
-        <v>0.3104781780311304</v>
+        <v>0.155069553975216</v>
       </c>
       <c r="N255" t="n">
-        <v>0.05008228228048373</v>
+        <v>0.07015733565787741</v>
       </c>
       <c r="O255" t="n">
-        <v>0.3111140469920373</v>
+        <v>0.1546183208250828</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.01331061625715498</v>
+        <v>0.004107340722461286</v>
       </c>
       <c r="G256" t="n">
-        <v>0.310817807653706</v>
+        <v>0.05818819962479291</v>
       </c>
       <c r="J256" t="n">
-        <v>0.01324845504048773</v>
+        <v>0.01900446346937452</v>
       </c>
       <c r="K256" t="n">
-        <v>0.3120131952808329</v>
+        <v>0.1578600676186812</v>
       </c>
       <c r="L256" t="n">
-        <v>0.03108333659473062</v>
+        <v>0.04446967375248564</v>
       </c>
       <c r="M256" t="n">
-        <v>0.3121122737049785</v>
+        <v>0.155885709522454</v>
       </c>
       <c r="N256" t="n">
-        <v>0.04903157351966636</v>
+        <v>0.07013497814501796</v>
       </c>
       <c r="O256" t="n">
-        <v>0.312751489344627</v>
+        <v>0.1554321014610043</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.0150462205244557</v>
+        <v>0.004184302970967384</v>
       </c>
       <c r="G257" t="n">
-        <v>0.3124451260183851</v>
+        <v>0.05817026575810125</v>
       </c>
       <c r="J257" t="n">
-        <v>0.01291720947262399</v>
+        <v>0.01899839377404365</v>
       </c>
       <c r="K257" t="n">
-        <v>0.3136467722194761</v>
+        <v>0.1586865601193026</v>
       </c>
       <c r="L257" t="n">
-        <v>0.03064124879131297</v>
+        <v>0.04435564973879627</v>
       </c>
       <c r="M257" t="n">
-        <v>0.3137463693788265</v>
+        <v>0.1567018650696919</v>
       </c>
       <c r="N257" t="n">
-        <v>0.04817702694184478</v>
+        <v>0.06971298662638775</v>
       </c>
       <c r="O257" t="n">
-        <v>0.3143889316972166</v>
+        <v>0.1562458820969258</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.01278062951923842</v>
+        <v>0.004270181152452167</v>
       </c>
       <c r="G258" t="n">
-        <v>0.3140724443830642</v>
+        <v>0.05815233189140959</v>
       </c>
       <c r="J258" t="n">
-        <v>0.01288491468779245</v>
+        <v>0.0188924276750161</v>
       </c>
       <c r="K258" t="n">
-        <v>0.3152803491581191</v>
+        <v>0.1595130526199239</v>
       </c>
       <c r="L258" t="n">
-        <v>0.02979670066481491</v>
+        <v>0.04474186274181072</v>
       </c>
       <c r="M258" t="n">
-        <v>0.3153804650526746</v>
+        <v>0.1575180206169299</v>
       </c>
       <c r="N258" t="n">
-        <v>0.04741859439017559</v>
+        <v>0.06989136593451556</v>
       </c>
       <c r="O258" t="n">
-        <v>0.3160263740498063</v>
+        <v>0.1570596627328473</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.01351382852858869</v>
+        <v>0.004365463037738666</v>
       </c>
       <c r="G259" t="n">
-        <v>0.3156997627477433</v>
+        <v>0.05813439802471791</v>
       </c>
       <c r="J259" t="n">
-        <v>0.01255155771694524</v>
+        <v>0.01898656654538033</v>
       </c>
       <c r="K259" t="n">
-        <v>0.3169139260967622</v>
+        <v>0.1603395451205453</v>
       </c>
       <c r="L259" t="n">
-        <v>0.02924966179344776</v>
+        <v>0.04442831586011495</v>
       </c>
       <c r="M259" t="n">
-        <v>0.3170145607265226</v>
+        <v>0.1583341761641679</v>
       </c>
       <c r="N259" t="n">
-        <v>0.04625622770781551</v>
+        <v>0.07017012090193042</v>
       </c>
       <c r="O259" t="n">
-        <v>0.317663816402396</v>
+        <v>0.1578734433687688</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.01324580283959201</v>
+        <v>0.004470636397649726</v>
       </c>
       <c r="G260" t="n">
-        <v>0.3173270811124224</v>
+        <v>0.05811646415802624</v>
       </c>
       <c r="J260" t="n">
-        <v>0.01221712559103456</v>
+        <v>0.01908081175822478</v>
       </c>
       <c r="K260" t="n">
-        <v>0.3185475030354054</v>
+        <v>0.1611660376211667</v>
       </c>
       <c r="L260" t="n">
-        <v>0.02870010175542273</v>
+        <v>0.04431501219229503</v>
       </c>
       <c r="M260" t="n">
-        <v>0.3186486564003707</v>
+        <v>0.1591503317114059</v>
       </c>
       <c r="N260" t="n">
-        <v>0.04528987873792129</v>
+        <v>0.06984925636116091</v>
       </c>
       <c r="O260" t="n">
-        <v>0.3193012587549856</v>
+        <v>0.1586872240046903</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.01297653773933394</v>
+        <v>0.004586189003008473</v>
       </c>
       <c r="G261" t="n">
-        <v>0.3189543994771015</v>
+        <v>0.05809853029133457</v>
       </c>
       <c r="J261" t="n">
-        <v>0.01218160534101258</v>
+        <v>0.01887516468663786</v>
       </c>
       <c r="K261" t="n">
-        <v>0.3201810799740484</v>
+        <v>0.161992530121788</v>
       </c>
       <c r="L261" t="n">
-        <v>0.02824799012895104</v>
+        <v>0.04470195483693709</v>
       </c>
       <c r="M261" t="n">
-        <v>0.3202827520742187</v>
+        <v>0.1599664872586439</v>
       </c>
       <c r="N261" t="n">
-        <v>0.04461949932364945</v>
+        <v>0.07032877714473607</v>
       </c>
       <c r="O261" t="n">
-        <v>0.3209387011075753</v>
+        <v>0.1595010046406118</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.0127060185149</v>
+        <v>0.004712608624637731</v>
       </c>
       <c r="G262" t="n">
-        <v>0.3205817178417806</v>
+        <v>0.0580805964246429</v>
       </c>
       <c r="J262" t="n">
-        <v>0.01184498399783145</v>
+        <v>0.01886962670370805</v>
       </c>
       <c r="K262" t="n">
-        <v>0.3218146569126916</v>
+        <v>0.1628190226224094</v>
       </c>
       <c r="L262" t="n">
-        <v>0.02769329649224392</v>
+        <v>0.04468914689262718</v>
       </c>
       <c r="M262" t="n">
-        <v>0.3219168477480668</v>
+        <v>0.1607826428058818</v>
       </c>
       <c r="N262" t="n">
-        <v>0.04394504130815702</v>
+        <v>0.06990868808518474</v>
       </c>
       <c r="O262" t="n">
-        <v>0.322576143460165</v>
+        <v>0.1603147852765333</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.01243423045337574</v>
+        <v>0.004850383033360633</v>
       </c>
       <c r="G263" t="n">
-        <v>0.3222090362064596</v>
+        <v>0.05806266255795123</v>
       </c>
       <c r="J263" t="n">
-        <v>0.01150724859244333</v>
+        <v>0.01886419918252374</v>
       </c>
       <c r="K263" t="n">
-        <v>0.3234482338513346</v>
+        <v>0.1636455151230308</v>
       </c>
       <c r="L263" t="n">
-        <v>0.02713599042351258</v>
+        <v>0.04447659145795135</v>
       </c>
       <c r="M263" t="n">
-        <v>0.3235509434219148</v>
+        <v>0.1615987983531198</v>
       </c>
       <c r="N263" t="n">
-        <v>0.04256645653460034</v>
+        <v>0.07018899401503575</v>
       </c>
       <c r="O263" t="n">
-        <v>0.3242135858127546</v>
+        <v>0.1611285659124548</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.01316115884184665</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
-        <v>0.3238363545711387</v>
+        <v>0.05804472869125956</v>
       </c>
       <c r="J264" t="n">
-        <v>0.0112683861558004</v>
+        <v>0.0189588834961734</v>
       </c>
       <c r="K264" t="n">
-        <v>0.3250818107899778</v>
+        <v>0.1644720076236521</v>
       </c>
       <c r="L264" t="n">
-        <v>0.02667604150096825</v>
+        <v>0.04436429163149566</v>
       </c>
       <c r="M264" t="n">
-        <v>0.3251850390957629</v>
+        <v>0.1624149539003578</v>
       </c>
       <c r="N264" t="n">
-        <v>0.04228369684613614</v>
+        <v>0.07016969976681792</v>
       </c>
       <c r="O264" t="n">
-        <v>0.3258510281653443</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1619423465483762</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.05803157079652271</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005298950073203967</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.05803183932498673</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.005594953756201025</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.05803210785345075</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.005887919107766315</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.05803237638191477</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.006177754186636818</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.05803264491037879</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.006464367051587816</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.0580329134388428</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.006747665761381798</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.05803318196730681</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.007027558374793338</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.05803345049577084</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.007303952950560549</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.05803371902423485</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.007576757547458159</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.05803398755269887</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.007845880224248647</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.05803425608116288</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.008111229039705958</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.05803452460962691</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.00837271205256946</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.05803479313809092</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.008630237321613263</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.05803506166655494</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.00888371290559984</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.05803533019501896</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.009133046863302428</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.05803559872348298</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.009378147253461804</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.058035867251947</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.009618922134851382</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.05803613578041101</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.009855279566233645</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.05803640430887502</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.01008712760638104</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.05803667283733905</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.01031437431403587</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.05803694136580306</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.0105369277479708</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.05803720989426708</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.01075469596694831</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.05803747842273109</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.01096758702974002</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.05803774695119512</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.0111755089950899</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.05803801547965913</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.0113787453484897</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.05803828400812314</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.01157945670902125</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.05803855253658716</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.01177792656217551</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.05803882106505118</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.01197406296669763</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.0580390895935152</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.01216777398135881</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.05803935812197922</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.01235896766492152</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.05803962665044323</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.01254755207615638</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.05803989517890726</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.01273343527380943</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.05804016370737127</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.01291652531665145</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.05804043223583528</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.01309673026344488</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.0580407007642993</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.01327395817295988</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.05804096929276333</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.01344811710394345</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.05804123782122734</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.01361911511516589</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.05804150634969135</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.01378686026538965</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.05804177487815537</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.01395126061338429</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.05804204340661939</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.01411222421789798</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.05804231193508341</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.01426965913770042</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.05804258046354743</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.01442347343155408</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.05804284899201144</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.0145735751582279</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.05804311752047547</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.01471987237647128</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.05804338604893948</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.01486227314505332</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.05804365457740349</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.01500068552273648</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.05804392310586751</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.015135017568289</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.05804419163433153</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.01526517734046166</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.05804446016279555</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.01539107289802287</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.05804472869125956</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.01539107289802287</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.05803157079652271</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.01551652263845883</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.05805004172014242</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.01564000821688571</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.05806851264376213</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.0157612458591146</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.05808698356738183</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.01587995179095655</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.05810545449100154</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.01599584223822267</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.05812392541462125</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.01610863342672401</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.05814239633824095</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.01621804158227159</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.05816086726186064</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.01632378293067663</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.05817933818548035</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.01642557369775015</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.05819780910910005</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.01652313010930319</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.05821628003271976</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.01661616839114687</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.05823475095633947</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.01670440476909222</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.05825322187995917</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.01678755546895035</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.05827169280357888</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.01686533671653235</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.05829016372719859</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.01693746473764926</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.05830863465081829</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.01700365575811218</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.05832710557443799</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.01706362600373218</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.0583455764980577</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.01711709170032034</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.0583640474216774</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.01716376907368772</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.0583825183452971</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.01720337434964544</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.05840098926891681</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.01723562375400456</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.05841946019253651</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.01726023351257613</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.05843793111615622</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.01727691985117127</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.05845640203977592</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.01728539899560103</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.05847487296339562</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.01728646790386622</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.05849334388701533</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.01728635644957204</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.05851181481063503</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.01728593635261699</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.05853028573425474</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.01728500185122721</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.05854875665787445</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.01728334718362879</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.05856722758149415</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.01728076658804784</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.05858569850511386</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.01727705430271046</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.05860416942873355</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.01727200456584275</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.05862264035235326</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.01726541161567081</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.05864111127597296</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.01725706969042076</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.05865958219959267</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.01724677302831868</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.05867805312321237</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.01723431586759069</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.05869652404683208</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.01721949244646289</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.05871499497045179</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.01720209700316139</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.05873346589407149</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.01718192377591227</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.0587519368176912</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.01715876700294166</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.05877040774131091</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.01713242092247565</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.05878887866493061</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.01710267977274035</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.05880734958855031</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.01706933779196188</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.05882582051217001</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.01703218921836631</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.05884429143578971</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.01699102829017975</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.05886276235940942</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.01694564924562831</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.05888123328302913</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.01689584632293809</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.05889970420664883</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.0168414137603352</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.05891817513026854</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.01678214579604574</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.05893664605388824</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.01678214579604574</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.05893664605388824</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.01712125953216972</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.06051899055512584</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.01745361945425245</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.06210133505636345</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.01777908118357491</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.06368367955760104</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.01809750034141814</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.06526602405883863</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.01840873254906313</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.06684836856007624</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.01871263342779088</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.06843071306131385</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.01900905859888238</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.07001305756255145</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.01929786368361865</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.07159540206378905</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.0195789043032807</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.07317774656502664</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.01985203607914954</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.07476009106626424</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.02011711463250616</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.07634243556750184</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.02037399558463159</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.07792478006873944</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.02062253455680679</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.07950712456997704</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.02086258717031281</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.08108946907121464</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.02109400904643062</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.08267181357245225</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.02131665580644125</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.08425415807368984</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.02153038307162568</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.08583650257492745</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.02173504646326493</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.08741884707616504</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.02193050160264001</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.08900119157740265</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.02211660411103193</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.09058353607864025</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.02229320960972168</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.09216588057987785</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.02246017371999028</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.09374822508111544</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.02261735206311871</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.09533056958235304</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.02276460026038798</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.09691291408359065</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.02290177393307913</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.09849525858482826</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.02302872870247313</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.1000776030860658</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.02314532018985098</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.1016599475873034</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.02325140401649373</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.103242292088541</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.02334683580368231</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.1048246365897786</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.0234314711726978</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.1064069810910162</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.02350516574482116</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1079893255922538</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.0235677751413334</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1095716700934914</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.02361915498351556</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1111540145947291</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.02365916089264861</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1127363590959667</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.02368764849001355</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1143187035972042</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.02370952772806099</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1159010480984418</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.02370951111942016</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1174833925996795</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.02370644234517076</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1190657371009171</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.02369833996212733</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1206480816021546</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.0236855862653602</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1222304261033923</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.02366856354993963</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1238127706046298</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.02364765411093593</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1253951151058674</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.0236232402434194</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.126977459607105</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.02359570424246034</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1285598041083426</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.02356542840312906</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1301421486095802</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.02353279502049584</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1317244931108179</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.02349818638963097</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1333068376120555</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.02346198480560477</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1348891821132931</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.02342457256348755</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1364715266145307</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.02338633195834958</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.1380538711157683</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.02334738746193289</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.1396362156170058</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.02329628276026312</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.1412185601182434</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.02322956218313038</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.1428009046194811</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.02315120228271685</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.1443832491207186</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.02306517961120484</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.1459655936219562</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.02297547072077656</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.1475479381231939</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.02288605216361429</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.1491302826244315</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.02280090049190028</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.02272399225781675</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.1522949716269066</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.02265930401354599</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.1538773161281443</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.02261081231127023</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.1554596606293819</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.02257455901169433</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.1570420051306194</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.02254052115472786</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.1586243496318571</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.02250848171171864</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.1602066941330947</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.02247831325845601</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.1617890386343322</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.02244988837072931</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.1633713831355699</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.02242307962432791</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.1649537276368075</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.0223977595950411</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.1665360721380451</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.02237380085865824</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.1681184166392826</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.02235107599096869</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.1697007611405202</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.02232945756776175</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.1712831056417579</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.02230881816482679</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.1728654501429955</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.02228903035795311</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.1744477946442331</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.02226996672293008</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.1760301391454707</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.02225149983554704</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.1776124836467083</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.02223350227159331</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.1791948281479459</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.02221584660685823</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.1807771726491834</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.02219840541713113</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.182359517150421</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.02218105127820139</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.1839418616516587</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.0221636567658583</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.1855242061528962</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.02214609445589119</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.1871065506541339</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.02212823692408944</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.1886888951553715</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.02211032996953112</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.1902712396566091</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.02209272227094901</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.1918535841578467</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.02207542490616002</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.1934359286590842</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.02205844893316726</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.1950182731603219</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.02204180540997387</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.1966006176615595</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.02202550539458292</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.198182962162797</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.02200955994499756</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.1997653066640347</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.02199398011922092</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.2013476511652723</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.02197877697525608</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.2029299956665099</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.02196396157110617</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.2045123401677475</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.02194954496477428</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.2060946846689851</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.02193553821426354</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.2076770291702227</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.02192195237757708</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.2092593736714602</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.02190879851271801</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.2108417181726979</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.02189608767768945</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.2124240626739355</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.02188383093049448</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.2140064071751731</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.02187203932913627</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.2155887516764107</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>
